--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A706C-30D8-4A33-8D9A-22337CA85467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0D364F-6363-444D-925F-5E8D2895ADC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,19 +14,23 @@
     <sheet name="1.1. バッチ取引概要" sheetId="13" r:id="rId4"/>
     <sheet name="1.3. バッチ処理フロー" sheetId="32" r:id="rId5"/>
     <sheet name="2. BA1060101(期間内プロジェクト一覧ファイル作成)" sheetId="33" r:id="rId6"/>
-    <sheet name="データ" sheetId="35" r:id="rId7"/>
+    <sheet name="3. 設定値一覧" sheetId="36" r:id="rId7"/>
+    <sheet name="データ" sheetId="35" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. バッチ取引概要'!$A$1:$AI$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$A$1:$AI$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'3. 設定値一覧'!$A$1:$AI$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. バッチ取引概要'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3. バッチ処理フロー'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'3. 設定値一覧'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
+    <definedName name="データ型" localSheetId="6">#REF!</definedName>
     <definedName name="データ型">#REF!</definedName>
     <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
   </definedNames>
@@ -274,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="204">
   <si>
     <t>PJ名</t>
   </si>
@@ -1468,25 +1472,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>2.4. 入出力一覧
-2.5.1. プロジェクトテーブル
-2.7. 出力データ定義</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>対象テーブルの表記を「プロジェクトテーブル」から「プロジェクト」へ修正</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>TIS</t>
     <phoneticPr fontId="15"/>
   </si>
@@ -1510,6 +1495,182 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3. 設定値一覧</t>
+    <rPh sb="3" eb="8">
+      <t>セッテイチイチラン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>3.1. filepath-for-batch.xml</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>フォーマット定義ファイルの格納ディレクトリ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>出力制御用として以下のファイルパス設定を使用する。</t>
+    <rPh sb="0" eb="4">
+      <t>シュツリョクセイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>出力先ディレクトリ</t>
+  </si>
+  <si>
+    <t>CSVの出力ディレクトリ</t>
+  </si>
+  <si>
+    <t>入力ファイルディレクトリ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>${nablarch.filePathSetting.basePathSettings.format}</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>${nablarch.filePathSetting.basePathSettings.output}</t>
+  </si>
+  <si>
+    <t>${nablarch.filePathSetting.basePathSettings.csv_output}</t>
+  </si>
+  <si>
+    <t>${nablarch.filePathSetting.basePathSettings.input}</t>
+  </si>
+  <si>
+    <t>nablarch.filePathSetting.basePathSettings.format</t>
+  </si>
+  <si>
+    <t>nablarch.filePathSetting.basePathSettings.output</t>
+  </si>
+  <si>
+    <t>nablarch.filePathSetting.basePathSettings.csv_output</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>nablarch.filePathSetting.basePathSettings.input</t>
+  </si>
+  <si>
+    <t>※環境依存の定義値はenv.configファイルにプロパティとして定義</t>
+    <rPh sb="1" eb="5">
+      <t>カンキョウイゾン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テイギチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>3.2. env.config</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>出力先ディレクトリパスを設定（環境単位に分離管理）</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>別途定義するディレクトリ一覧にて記載</t>
+    <rPh sb="0" eb="2">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>設定項目</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2.4. 入出力一覧
+2.5.1. プロジェクトテーブル
+2.7. 出力データ定義
+3. 設定値一覧</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・対象テーブルの表記を「プロジェクトテーブル」から「プロジェクト」へ修正
+・ディレクトリ設定について3. 設定値一覧を追加</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
@@ -1954,7 +2115,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2413,6 +2574,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2430,6 +2612,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2497,45 +2769,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2572,49 +2808,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,35 +2847,80 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2755,82 +3021,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2860,155 +3192,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6448,6 +6642,178 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBFD90A-ECB7-4867-8416-D6E29A1E981E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7883769" y="2996711"/>
+          <a:ext cx="1670539" cy="893884"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 70000"/>
+            <a:gd name="adj4" fmla="val -57286"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>愚痴的な設定値は、インフラ設計として定義される想定。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>開発時は単体用としてローカル値を別途定義する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212483</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D90D66-3741-4A6F-B526-E98D12DE48DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4667252" y="3194542"/>
+          <a:ext cx="2593730" cy="974478"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6844,7 +7210,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="33"/>
       <c r="J23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -6862,12 +7228,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="178">
+      <c r="I25" s="185">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6955,44 +7321,44 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="179"/>
-      <c r="R34" s="180"/>
-      <c r="S34" s="180"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="180"/>
-      <c r="S35" s="180"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="181"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="180"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="187"/>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="187"/>
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="182"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="183"/>
-      <c r="S37" s="182"/>
+      <c r="O37" s="189"/>
+      <c r="P37" s="190"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="190"/>
+      <c r="S37" s="189"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="183"/>
-      <c r="P38" s="183"/>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="183"/>
-      <c r="S38" s="183"/>
+      <c r="O38" s="190"/>
+      <c r="P38" s="190"/>
+      <c r="Q38" s="190"/>
+      <c r="R38" s="190"/>
+      <c r="S38" s="190"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183"/>
-      <c r="S39" s="183"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="190"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7495,7 +7861,7 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7504,57 +7870,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="245" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="239">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="191">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="241"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="193"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7562,53 +7928,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="245" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="239">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="191">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="241"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7616,45 +7982,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="245" t="s">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="239"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="241"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="193"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7793,52 +8159,52 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="210"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="215"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="210"/>
+      <c r="AC7" s="210"/>
+      <c r="AD7" s="210"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="215"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="210"/>
+      <c r="AI7" s="211"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7849,52 +8215,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="246" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="247"/>
+      <c r="D8" s="248">
         <v>43634</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221" t="s">
+      <c r="E8" s="249"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="227" t="s">
+      <c r="H8" s="251"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="230" t="s">
+      <c r="K8" s="253"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="255" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="227" t="s">
+      <c r="R8" s="256"/>
+      <c r="S8" s="256"/>
+      <c r="T8" s="256"/>
+      <c r="U8" s="256"/>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="256"/>
+      <c r="Z8" s="256"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="257"/>
+      <c r="AF8" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="228"/>
-      <c r="AH8" s="228"/>
-      <c r="AI8" s="229"/>
+      <c r="AG8" s="253"/>
+      <c r="AH8" s="253"/>
+      <c r="AI8" s="254"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -7905,52 +8271,52 @@
       <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="378" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="210">
+      <c r="B9" s="220" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="215"/>
+      <c r="D9" s="216">
         <v>44796</v>
       </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="378" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="332" t="s">
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="220" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="219"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="212" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="212" t="s">
+        <v>203</v>
+      </c>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="332" t="s">
-        <v>177</v>
-      </c>
-      <c r="R9" s="237"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="237"/>
-      <c r="U9" s="237"/>
-      <c r="V9" s="237"/>
-      <c r="W9" s="237"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="237"/>
-      <c r="AB9" s="237"/>
-      <c r="AC9" s="237"/>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="238"/>
-      <c r="AF9" s="300" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="235"/>
+      <c r="AG9" s="201"/>
+      <c r="AH9" s="201"/>
+      <c r="AI9" s="202"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -7959,40 +8325,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-      <c r="T10" s="237"/>
-      <c r="U10" s="237"/>
-      <c r="V10" s="237"/>
-      <c r="W10" s="237"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="237"/>
-      <c r="AB10" s="237"/>
-      <c r="AC10" s="237"/>
-      <c r="AD10" s="237"/>
-      <c r="AE10" s="238"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="234"/>
-      <c r="AI10" s="235"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="200"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="201"/>
+      <c r="AI10" s="202"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -8001,40 +8367,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="236"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="238"/>
-      <c r="AF11" s="233"/>
-      <c r="AG11" s="234"/>
-      <c r="AH11" s="234"/>
-      <c r="AI11" s="235"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="200"/>
+      <c r="AG11" s="201"/>
+      <c r="AH11" s="201"/>
+      <c r="AI11" s="202"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -8043,40 +8409,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="237"/>
-      <c r="Z12" s="237"/>
-      <c r="AA12" s="237"/>
-      <c r="AB12" s="237"/>
-      <c r="AC12" s="237"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="233"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="205"/>
+      <c r="AF12" s="200"/>
+      <c r="AG12" s="201"/>
+      <c r="AH12" s="201"/>
+      <c r="AI12" s="202"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -8085,40 +8451,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-      <c r="T13" s="237"/>
-      <c r="U13" s="237"/>
-      <c r="V13" s="237"/>
-      <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="237"/>
-      <c r="Z13" s="237"/>
-      <c r="AA13" s="237"/>
-      <c r="AB13" s="237"/>
-      <c r="AC13" s="237"/>
-      <c r="AD13" s="237"/>
-      <c r="AE13" s="238"/>
-      <c r="AF13" s="233"/>
-      <c r="AG13" s="234"/>
-      <c r="AH13" s="234"/>
-      <c r="AI13" s="235"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="204"/>
+      <c r="X13" s="204"/>
+      <c r="Y13" s="204"/>
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="204"/>
+      <c r="AC13" s="204"/>
+      <c r="AD13" s="204"/>
+      <c r="AE13" s="205"/>
+      <c r="AF13" s="200"/>
+      <c r="AG13" s="201"/>
+      <c r="AH13" s="201"/>
+      <c r="AI13" s="202"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -8127,40 +8493,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="237"/>
-      <c r="T14" s="237"/>
-      <c r="U14" s="237"/>
-      <c r="V14" s="237"/>
-      <c r="W14" s="237"/>
-      <c r="X14" s="237"/>
-      <c r="Y14" s="237"/>
-      <c r="Z14" s="237"/>
-      <c r="AA14" s="237"/>
-      <c r="AB14" s="237"/>
-      <c r="AC14" s="237"/>
-      <c r="AD14" s="237"/>
-      <c r="AE14" s="238"/>
-      <c r="AF14" s="233"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="234"/>
-      <c r="AI14" s="235"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="205"/>
+      <c r="AF14" s="200"/>
+      <c r="AG14" s="201"/>
+      <c r="AH14" s="201"/>
+      <c r="AI14" s="202"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -8169,40 +8535,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-      <c r="T15" s="237"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="233"/>
-      <c r="AG15" s="234"/>
-      <c r="AH15" s="234"/>
-      <c r="AI15" s="235"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="202"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="204"/>
+      <c r="AB15" s="204"/>
+      <c r="AC15" s="204"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="200"/>
+      <c r="AG15" s="201"/>
+      <c r="AH15" s="201"/>
+      <c r="AI15" s="202"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -8211,40 +8577,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="238"/>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="234"/>
-      <c r="AH16" s="234"/>
-      <c r="AI16" s="235"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="204"/>
+      <c r="S16" s="204"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="204"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="204"/>
+      <c r="Y16" s="204"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="204"/>
+      <c r="AB16" s="204"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="204"/>
+      <c r="AE16" s="205"/>
+      <c r="AF16" s="200"/>
+      <c r="AG16" s="201"/>
+      <c r="AH16" s="201"/>
+      <c r="AI16" s="202"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -8253,40 +8619,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="237"/>
-      <c r="T17" s="237"/>
-      <c r="U17" s="237"/>
-      <c r="V17" s="237"/>
-      <c r="W17" s="237"/>
-      <c r="X17" s="237"/>
-      <c r="Y17" s="237"/>
-      <c r="Z17" s="237"/>
-      <c r="AA17" s="237"/>
-      <c r="AB17" s="237"/>
-      <c r="AC17" s="237"/>
-      <c r="AD17" s="237"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="233"/>
-      <c r="AG17" s="234"/>
-      <c r="AH17" s="234"/>
-      <c r="AI17" s="235"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+      <c r="AC17" s="204"/>
+      <c r="AD17" s="204"/>
+      <c r="AE17" s="205"/>
+      <c r="AF17" s="200"/>
+      <c r="AG17" s="201"/>
+      <c r="AH17" s="201"/>
+      <c r="AI17" s="202"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -8295,40 +8661,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="237"/>
-      <c r="S18" s="237"/>
-      <c r="T18" s="237"/>
-      <c r="U18" s="237"/>
-      <c r="V18" s="237"/>
-      <c r="W18" s="237"/>
-      <c r="X18" s="237"/>
-      <c r="Y18" s="237"/>
-      <c r="Z18" s="237"/>
-      <c r="AA18" s="237"/>
-      <c r="AB18" s="237"/>
-      <c r="AC18" s="237"/>
-      <c r="AD18" s="237"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="233"/>
-      <c r="AG18" s="234"/>
-      <c r="AH18" s="234"/>
-      <c r="AI18" s="235"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="204"/>
+      <c r="AE18" s="205"/>
+      <c r="AF18" s="200"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="202"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -8337,40 +8703,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="237"/>
-      <c r="S19" s="237"/>
-      <c r="T19" s="237"/>
-      <c r="U19" s="237"/>
-      <c r="V19" s="237"/>
-      <c r="W19" s="237"/>
-      <c r="X19" s="237"/>
-      <c r="Y19" s="237"/>
-      <c r="Z19" s="237"/>
-      <c r="AA19" s="237"/>
-      <c r="AB19" s="237"/>
-      <c r="AC19" s="237"/>
-      <c r="AD19" s="237"/>
-      <c r="AE19" s="238"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="234"/>
-      <c r="AH19" s="234"/>
-      <c r="AI19" s="235"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="200"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
+      <c r="AI19" s="202"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -8379,40 +8745,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="237"/>
-      <c r="S20" s="237"/>
-      <c r="T20" s="237"/>
-      <c r="U20" s="237"/>
-      <c r="V20" s="237"/>
-      <c r="W20" s="237"/>
-      <c r="X20" s="237"/>
-      <c r="Y20" s="237"/>
-      <c r="Z20" s="237"/>
-      <c r="AA20" s="237"/>
-      <c r="AB20" s="237"/>
-      <c r="AC20" s="237"/>
-      <c r="AD20" s="237"/>
-      <c r="AE20" s="238"/>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="234"/>
-      <c r="AH20" s="234"/>
-      <c r="AI20" s="235"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="204"/>
+      <c r="AE20" s="205"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="201"/>
+      <c r="AH20" s="201"/>
+      <c r="AI20" s="202"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8421,40 +8787,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="237"/>
-      <c r="S21" s="237"/>
-      <c r="T21" s="237"/>
-      <c r="U21" s="237"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="237"/>
-      <c r="Y21" s="237"/>
-      <c r="Z21" s="237"/>
-      <c r="AA21" s="237"/>
-      <c r="AB21" s="237"/>
-      <c r="AC21" s="237"/>
-      <c r="AD21" s="237"/>
-      <c r="AE21" s="238"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="234"/>
-      <c r="AH21" s="234"/>
-      <c r="AI21" s="235"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="204"/>
+      <c r="X21" s="204"/>
+      <c r="Y21" s="204"/>
+      <c r="Z21" s="204"/>
+      <c r="AA21" s="204"/>
+      <c r="AB21" s="204"/>
+      <c r="AC21" s="204"/>
+      <c r="AD21" s="204"/>
+      <c r="AE21" s="205"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="201"/>
+      <c r="AI21" s="202"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8463,40 +8829,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="237"/>
-      <c r="S22" s="237"/>
-      <c r="T22" s="237"/>
-      <c r="U22" s="237"/>
-      <c r="V22" s="237"/>
-      <c r="W22" s="237"/>
-      <c r="X22" s="237"/>
-      <c r="Y22" s="237"/>
-      <c r="Z22" s="237"/>
-      <c r="AA22" s="237"/>
-      <c r="AB22" s="237"/>
-      <c r="AC22" s="237"/>
-      <c r="AD22" s="237"/>
-      <c r="AE22" s="238"/>
-      <c r="AF22" s="233"/>
-      <c r="AG22" s="234"/>
-      <c r="AH22" s="234"/>
-      <c r="AI22" s="235"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="202"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="204"/>
+      <c r="AD22" s="204"/>
+      <c r="AE22" s="205"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="201"/>
+      <c r="AI22" s="202"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8505,40 +8871,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="237"/>
-      <c r="W23" s="237"/>
-      <c r="X23" s="237"/>
-      <c r="Y23" s="237"/>
-      <c r="Z23" s="237"/>
-      <c r="AA23" s="237"/>
-      <c r="AB23" s="237"/>
-      <c r="AC23" s="237"/>
-      <c r="AD23" s="237"/>
-      <c r="AE23" s="238"/>
-      <c r="AF23" s="233"/>
-      <c r="AG23" s="234"/>
-      <c r="AH23" s="234"/>
-      <c r="AI23" s="235"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="204"/>
+      <c r="X23" s="204"/>
+      <c r="Y23" s="204"/>
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="204"/>
+      <c r="AB23" s="204"/>
+      <c r="AC23" s="204"/>
+      <c r="AD23" s="204"/>
+      <c r="AE23" s="205"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="202"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8547,40 +8913,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-      <c r="T24" s="237"/>
-      <c r="U24" s="237"/>
-      <c r="V24" s="237"/>
-      <c r="W24" s="237"/>
-      <c r="X24" s="237"/>
-      <c r="Y24" s="237"/>
-      <c r="Z24" s="237"/>
-      <c r="AA24" s="237"/>
-      <c r="AB24" s="237"/>
-      <c r="AC24" s="237"/>
-      <c r="AD24" s="237"/>
-      <c r="AE24" s="238"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="234"/>
-      <c r="AH24" s="234"/>
-      <c r="AI24" s="235"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="203"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="204"/>
+      <c r="T24" s="204"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="204"/>
+      <c r="AD24" s="204"/>
+      <c r="AE24" s="205"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="201"/>
+      <c r="AI24" s="202"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8589,40 +8955,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="237"/>
-      <c r="T25" s="237"/>
-      <c r="U25" s="237"/>
-      <c r="V25" s="237"/>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="237"/>
-      <c r="AC25" s="237"/>
-      <c r="AD25" s="237"/>
-      <c r="AE25" s="238"/>
-      <c r="AF25" s="233"/>
-      <c r="AG25" s="234"/>
-      <c r="AH25" s="234"/>
-      <c r="AI25" s="235"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="205"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="201"/>
+      <c r="AI25" s="202"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8631,40 +8997,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="237"/>
-      <c r="T26" s="237"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="237"/>
-      <c r="Y26" s="237"/>
-      <c r="Z26" s="237"/>
-      <c r="AA26" s="237"/>
-      <c r="AB26" s="237"/>
-      <c r="AC26" s="237"/>
-      <c r="AD26" s="237"/>
-      <c r="AE26" s="238"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="234"/>
-      <c r="AH26" s="234"/>
-      <c r="AI26" s="235"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="202"/>
+      <c r="Q26" s="203"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="205"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="201"/>
+      <c r="AH26" s="201"/>
+      <c r="AI26" s="202"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -8673,40 +9039,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="234"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="236"/>
-      <c r="R27" s="237"/>
-      <c r="S27" s="237"/>
-      <c r="T27" s="237"/>
-      <c r="U27" s="237"/>
-      <c r="V27" s="237"/>
-      <c r="W27" s="237"/>
-      <c r="X27" s="237"/>
-      <c r="Y27" s="237"/>
-      <c r="Z27" s="237"/>
-      <c r="AA27" s="237"/>
-      <c r="AB27" s="237"/>
-      <c r="AC27" s="237"/>
-      <c r="AD27" s="237"/>
-      <c r="AE27" s="238"/>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="234"/>
-      <c r="AH27" s="234"/>
-      <c r="AI27" s="235"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="201"/>
+      <c r="P27" s="202"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="204"/>
+      <c r="S27" s="204"/>
+      <c r="T27" s="204"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="204"/>
+      <c r="AE27" s="205"/>
+      <c r="AF27" s="200"/>
+      <c r="AG27" s="201"/>
+      <c r="AH27" s="201"/>
+      <c r="AI27" s="202"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -8715,40 +9081,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="235"/>
-      <c r="Q28" s="236"/>
-      <c r="R28" s="237"/>
-      <c r="S28" s="237"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="237"/>
-      <c r="W28" s="237"/>
-      <c r="X28" s="237"/>
-      <c r="Y28" s="237"/>
-      <c r="Z28" s="237"/>
-      <c r="AA28" s="237"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="237"/>
-      <c r="AD28" s="237"/>
-      <c r="AE28" s="238"/>
-      <c r="AF28" s="233"/>
-      <c r="AG28" s="234"/>
-      <c r="AH28" s="234"/>
-      <c r="AI28" s="235"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="204"/>
+      <c r="Y28" s="204"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="204"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="205"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="201"/>
+      <c r="AI28" s="202"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -8757,40 +9123,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="235"/>
-      <c r="Q29" s="236"/>
-      <c r="R29" s="237"/>
-      <c r="S29" s="237"/>
-      <c r="T29" s="237"/>
-      <c r="U29" s="237"/>
-      <c r="V29" s="237"/>
-      <c r="W29" s="237"/>
-      <c r="X29" s="237"/>
-      <c r="Y29" s="237"/>
-      <c r="Z29" s="237"/>
-      <c r="AA29" s="237"/>
-      <c r="AB29" s="237"/>
-      <c r="AC29" s="237"/>
-      <c r="AD29" s="237"/>
-      <c r="AE29" s="238"/>
-      <c r="AF29" s="233"/>
-      <c r="AG29" s="234"/>
-      <c r="AH29" s="234"/>
-      <c r="AI29" s="235"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="202"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="205"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="201"/>
+      <c r="AI29" s="202"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -8799,40 +9165,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="234"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="236"/>
-      <c r="R30" s="237"/>
-      <c r="S30" s="237"/>
-      <c r="T30" s="237"/>
-      <c r="U30" s="237"/>
-      <c r="V30" s="237"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="237"/>
-      <c r="Y30" s="237"/>
-      <c r="Z30" s="237"/>
-      <c r="AA30" s="237"/>
-      <c r="AB30" s="237"/>
-      <c r="AC30" s="237"/>
-      <c r="AD30" s="237"/>
-      <c r="AE30" s="238"/>
-      <c r="AF30" s="233"/>
-      <c r="AG30" s="234"/>
-      <c r="AH30" s="234"/>
-      <c r="AI30" s="235"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="203"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="205"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="201"/>
+      <c r="AI30" s="202"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -8841,40 +9207,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="234"/>
-      <c r="P31" s="235"/>
-      <c r="Q31" s="236"/>
-      <c r="R31" s="237"/>
-      <c r="S31" s="237"/>
-      <c r="T31" s="237"/>
-      <c r="U31" s="237"/>
-      <c r="V31" s="237"/>
-      <c r="W31" s="237"/>
-      <c r="X31" s="237"/>
-      <c r="Y31" s="237"/>
-      <c r="Z31" s="237"/>
-      <c r="AA31" s="237"/>
-      <c r="AB31" s="237"/>
-      <c r="AC31" s="237"/>
-      <c r="AD31" s="237"/>
-      <c r="AE31" s="238"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="234"/>
-      <c r="AH31" s="234"/>
-      <c r="AI31" s="235"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="205"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="201"/>
+      <c r="AH31" s="201"/>
+      <c r="AI31" s="202"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -8883,40 +9249,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="235"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="237"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="237"/>
-      <c r="V32" s="237"/>
-      <c r="W32" s="237"/>
-      <c r="X32" s="237"/>
-      <c r="Y32" s="237"/>
-      <c r="Z32" s="237"/>
-      <c r="AA32" s="237"/>
-      <c r="AB32" s="237"/>
-      <c r="AC32" s="237"/>
-      <c r="AD32" s="237"/>
-      <c r="AE32" s="238"/>
-      <c r="AF32" s="233"/>
-      <c r="AG32" s="234"/>
-      <c r="AH32" s="234"/>
-      <c r="AI32" s="235"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="204"/>
+      <c r="X32" s="204"/>
+      <c r="Y32" s="204"/>
+      <c r="Z32" s="204"/>
+      <c r="AA32" s="204"/>
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="205"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="201"/>
+      <c r="AH32" s="201"/>
+      <c r="AI32" s="202"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -8925,40 +9291,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="236"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="238"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="234"/>
-      <c r="AH33" s="234"/>
-      <c r="AI33" s="235"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="202"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="204"/>
+      <c r="U33" s="204"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="204"/>
+      <c r="X33" s="204"/>
+      <c r="Y33" s="204"/>
+      <c r="Z33" s="204"/>
+      <c r="AA33" s="204"/>
+      <c r="AB33" s="204"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="205"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="201"/>
+      <c r="AH33" s="201"/>
+      <c r="AI33" s="202"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -9345,161 +9711,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9524,6 +9735,161 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9541,7 +9907,7 @@
   <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9680,158 +10046,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -10479,7 +10845,9 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
-      <c r="B21" s="104"/>
+      <c r="B21" s="41" t="s">
+        <v>180</v>
+      </c>
       <c r="C21" s="105"/>
       <c r="D21" s="104"/>
       <c r="E21" s="48"/>
@@ -10517,7 +10885,9 @@
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
+      <c r="C22" s="41" t="s">
+        <v>181</v>
+      </c>
       <c r="D22" s="104"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
@@ -10554,7 +10924,9 @@
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
+      <c r="C23" s="41" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" s="107"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
@@ -11339,6 +11711,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11348,14 +11728,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11382,158 +11754,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11549,86 +11921,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="300" t="s">
+      <c r="E8" s="272"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="301"/>
-      <c r="Q8" s="301"/>
-      <c r="R8" s="301"/>
-      <c r="S8" s="301"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="301"/>
-      <c r="V8" s="301"/>
-      <c r="W8" s="301"/>
-      <c r="X8" s="301"/>
-      <c r="Y8" s="301"/>
-      <c r="Z8" s="301"/>
-      <c r="AA8" s="301"/>
-      <c r="AB8" s="301"/>
-      <c r="AC8" s="301"/>
-      <c r="AD8" s="301"/>
-      <c r="AE8" s="301"/>
-      <c r="AF8" s="301"/>
-      <c r="AG8" s="301"/>
-      <c r="AH8" s="302"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+      <c r="AA8" s="276"/>
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="276"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="276"/>
+      <c r="AH8" s="277"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="314" t="s">
+      <c r="D9" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="300" t="s">
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="301"/>
-      <c r="J9" s="301"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="301"/>
-      <c r="Y9" s="301"/>
-      <c r="Z9" s="301"/>
-      <c r="AA9" s="301"/>
-      <c r="AB9" s="301"/>
-      <c r="AC9" s="301"/>
-      <c r="AD9" s="301"/>
-      <c r="AE9" s="301"/>
-      <c r="AF9" s="301"/>
-      <c r="AG9" s="301"/>
-      <c r="AH9" s="302"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="276"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="276"/>
+      <c r="P9" s="276"/>
+      <c r="Q9" s="276"/>
+      <c r="R9" s="276"/>
+      <c r="S9" s="276"/>
+      <c r="T9" s="276"/>
+      <c r="U9" s="276"/>
+      <c r="V9" s="276"/>
+      <c r="W9" s="276"/>
+      <c r="X9" s="276"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="276"/>
+      <c r="AA9" s="276"/>
+      <c r="AB9" s="276"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="276"/>
+      <c r="AE9" s="276"/>
+      <c r="AF9" s="276"/>
+      <c r="AG9" s="276"/>
+      <c r="AH9" s="277"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="303" t="s">
+      <c r="D10" s="278" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="305"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="280"/>
       <c r="H10" s="108" t="s">
         <v>102</v>
       </c>
@@ -11660,10 +12032,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="317"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="319"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="294"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -11693,12 +12065,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="303" t="s">
+      <c r="D12" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="305"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="280"/>
       <c r="H12" s="108" t="s">
         <v>104</v>
       </c>
@@ -11730,10 +12102,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="317"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="319"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="294"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -11763,10 +12135,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="306"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="308"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="282"/>
+      <c r="G14" s="283"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -11796,12 +12168,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="303" t="s">
+      <c r="D15" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="305"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="280"/>
       <c r="H15" s="108" t="s">
         <v>103</v>
       </c>
@@ -11833,10 +12205,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="306"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="308"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="283"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -11904,208 +12276,219 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="298" t="s">
+      <c r="D20" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="261" t="s">
+      <c r="E20" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="303" t="s">
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="304"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="304"/>
-      <c r="M20" s="304"/>
-      <c r="N20" s="304"/>
-      <c r="O20" s="304"/>
-      <c r="P20" s="305"/>
-      <c r="Q20" s="303" t="s">
+      <c r="J20" s="279"/>
+      <c r="K20" s="279"/>
+      <c r="L20" s="279"/>
+      <c r="M20" s="279"/>
+      <c r="N20" s="279"/>
+      <c r="O20" s="279"/>
+      <c r="P20" s="280"/>
+      <c r="Q20" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="305"/>
-      <c r="S20" s="311" t="s">
+      <c r="R20" s="280"/>
+      <c r="S20" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="312"/>
-      <c r="U20" s="312"/>
-      <c r="V20" s="313"/>
-      <c r="W20" s="261" t="s">
+      <c r="T20" s="287"/>
+      <c r="U20" s="287"/>
+      <c r="V20" s="288"/>
+      <c r="W20" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="262"/>
-      <c r="Y20" s="262"/>
-      <c r="Z20" s="262"/>
-      <c r="AA20" s="262"/>
-      <c r="AB20" s="262"/>
-      <c r="AC20" s="262"/>
-      <c r="AD20" s="262"/>
-      <c r="AE20" s="262"/>
-      <c r="AF20" s="262"/>
-      <c r="AG20" s="262"/>
-      <c r="AH20" s="263"/>
+      <c r="X20" s="297"/>
+      <c r="Y20" s="297"/>
+      <c r="Z20" s="297"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="297"/>
+      <c r="AC20" s="297"/>
+      <c r="AD20" s="297"/>
+      <c r="AE20" s="297"/>
+      <c r="AF20" s="297"/>
+      <c r="AG20" s="297"/>
+      <c r="AH20" s="298"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="299"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="307"/>
-      <c r="L21" s="307"/>
-      <c r="M21" s="307"/>
-      <c r="N21" s="307"/>
-      <c r="O21" s="307"/>
-      <c r="P21" s="308"/>
-      <c r="Q21" s="306"/>
-      <c r="R21" s="308"/>
-      <c r="S21" s="309" t="s">
+      <c r="D21" s="275"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="301"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="282"/>
+      <c r="K21" s="282"/>
+      <c r="L21" s="282"/>
+      <c r="M21" s="282"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="282"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="281"/>
+      <c r="R21" s="283"/>
+      <c r="S21" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="310"/>
-      <c r="U21" s="309" t="s">
+      <c r="T21" s="285"/>
+      <c r="U21" s="284" t="s">
         <v>94</v>
       </c>
-      <c r="V21" s="310"/>
-      <c r="W21" s="264"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
-      <c r="AD21" s="265"/>
-      <c r="AE21" s="265"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="266"/>
+      <c r="V21" s="285"/>
+      <c r="W21" s="299"/>
+      <c r="X21" s="300"/>
+      <c r="Y21" s="300"/>
+      <c r="Z21" s="300"/>
+      <c r="AA21" s="300"/>
+      <c r="AB21" s="300"/>
+      <c r="AC21" s="300"/>
+      <c r="AD21" s="300"/>
+      <c r="AE21" s="300"/>
+      <c r="AF21" s="300"/>
+      <c r="AG21" s="300"/>
+      <c r="AH21" s="301"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="269">
+      <c r="D22" s="304">
         <v>1</v>
       </c>
-      <c r="E22" s="285" t="s">
+      <c r="E22" s="320" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="272" t="s">
+      <c r="F22" s="321"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="322"/>
+      <c r="I22" s="307" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="273"/>
-      <c r="K22" s="273"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="274"/>
-      <c r="Q22" s="214" t="s">
+      <c r="J22" s="308"/>
+      <c r="K22" s="308"/>
+      <c r="L22" s="308"/>
+      <c r="M22" s="308"/>
+      <c r="N22" s="308"/>
+      <c r="O22" s="308"/>
+      <c r="P22" s="309"/>
+      <c r="Q22" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="214" t="s">
+      <c r="R22" s="211"/>
+      <c r="S22" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="214" t="s">
+      <c r="T22" s="211"/>
+      <c r="U22" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="267" t="s">
+      <c r="V22" s="211"/>
+      <c r="W22" s="302" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="268"/>
-      <c r="Y22" s="268"/>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="268"/>
-      <c r="AB22" s="268"/>
-      <c r="AC22" s="268"/>
-      <c r="AD22" s="268"/>
-      <c r="AE22" s="268"/>
-      <c r="AF22" s="268"/>
-      <c r="AG22" s="268"/>
-      <c r="AH22" s="268"/>
+      <c r="X22" s="303"/>
+      <c r="Y22" s="303"/>
+      <c r="Z22" s="303"/>
+      <c r="AA22" s="303"/>
+      <c r="AB22" s="303"/>
+      <c r="AC22" s="303"/>
+      <c r="AD22" s="303"/>
+      <c r="AE22" s="303"/>
+      <c r="AF22" s="303"/>
+      <c r="AG22" s="303"/>
+      <c r="AH22" s="303"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="270"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="275"/>
-      <c r="J23" s="276"/>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
-      <c r="N23" s="276"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="277"/>
-      <c r="Q23" s="281"/>
-      <c r="R23" s="282"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="282"/>
-      <c r="U23" s="281"/>
-      <c r="V23" s="282"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="268"/>
-      <c r="Y23" s="268"/>
-      <c r="Z23" s="268"/>
-      <c r="AA23" s="268"/>
-      <c r="AB23" s="268"/>
-      <c r="AC23" s="268"/>
-      <c r="AD23" s="268"/>
-      <c r="AE23" s="268"/>
-      <c r="AF23" s="268"/>
-      <c r="AG23" s="268"/>
-      <c r="AH23" s="268"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="324"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="310"/>
+      <c r="J23" s="311"/>
+      <c r="K23" s="311"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="311"/>
+      <c r="N23" s="311"/>
+      <c r="O23" s="311"/>
+      <c r="P23" s="312"/>
+      <c r="Q23" s="316"/>
+      <c r="R23" s="317"/>
+      <c r="S23" s="316"/>
+      <c r="T23" s="317"/>
+      <c r="U23" s="316"/>
+      <c r="V23" s="317"/>
+      <c r="W23" s="303"/>
+      <c r="X23" s="303"/>
+      <c r="Y23" s="303"/>
+      <c r="Z23" s="303"/>
+      <c r="AA23" s="303"/>
+      <c r="AB23" s="303"/>
+      <c r="AC23" s="303"/>
+      <c r="AD23" s="303"/>
+      <c r="AE23" s="303"/>
+      <c r="AF23" s="303"/>
+      <c r="AG23" s="303"/>
+      <c r="AH23" s="303"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="271"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="279"/>
-      <c r="L24" s="279"/>
-      <c r="M24" s="279"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="279"/>
-      <c r="P24" s="280"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="284"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="283"/>
-      <c r="V24" s="284"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="268"/>
-      <c r="Y24" s="268"/>
-      <c r="Z24" s="268"/>
-      <c r="AA24" s="268"/>
-      <c r="AB24" s="268"/>
-      <c r="AC24" s="268"/>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="268"/>
-      <c r="AF24" s="268"/>
-      <c r="AG24" s="268"/>
-      <c r="AH24" s="268"/>
+      <c r="D24" s="306"/>
+      <c r="E24" s="326"/>
+      <c r="F24" s="327"/>
+      <c r="G24" s="327"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="313"/>
+      <c r="J24" s="314"/>
+      <c r="K24" s="314"/>
+      <c r="L24" s="314"/>
+      <c r="M24" s="314"/>
+      <c r="N24" s="314"/>
+      <c r="O24" s="314"/>
+      <c r="P24" s="315"/>
+      <c r="Q24" s="318"/>
+      <c r="R24" s="319"/>
+      <c r="S24" s="318"/>
+      <c r="T24" s="319"/>
+      <c r="U24" s="318"/>
+      <c r="V24" s="319"/>
+      <c r="W24" s="303"/>
+      <c r="X24" s="303"/>
+      <c r="Y24" s="303"/>
+      <c r="Z24" s="303"/>
+      <c r="AA24" s="303"/>
+      <c r="AB24" s="303"/>
+      <c r="AC24" s="303"/>
+      <c r="AD24" s="303"/>
+      <c r="AE24" s="303"/>
+      <c r="AF24" s="303"/>
+      <c r="AG24" s="303"/>
+      <c r="AH24" s="303"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -12122,23 +12505,12 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12173,158 +12545,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12335,6 +12707,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12344,14 +12724,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12381,164 +12753,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248">
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12558,117 +12930,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="329" t="s">
+      <c r="D10" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-      <c r="G10" s="330"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="332" t="s">
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-      <c r="T10" s="237"/>
-      <c r="U10" s="237"/>
-      <c r="V10" s="237"/>
-      <c r="W10" s="237"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="237"/>
-      <c r="AB10" s="237"/>
-      <c r="AC10" s="237"/>
-      <c r="AD10" s="237"/>
-      <c r="AE10" s="237"/>
-      <c r="AF10" s="237"/>
-      <c r="AG10" s="237"/>
-      <c r="AH10" s="238"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="205"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="329" t="s">
+      <c r="D11" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
-      <c r="H11" s="331"/>
-      <c r="I11" s="332" t="s">
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="237"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="237"/>
-      <c r="AH11" s="238"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="204"/>
+      <c r="AF11" s="204"/>
+      <c r="AG11" s="204"/>
+      <c r="AH11" s="205"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="329" t="s">
+      <c r="D12" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
-      <c r="H12" s="331"/>
-      <c r="I12" s="332" t="s">
+      <c r="E12" s="360"/>
+      <c r="F12" s="360"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="237"/>
-      <c r="Z12" s="237"/>
-      <c r="AA12" s="237"/>
-      <c r="AB12" s="237"/>
-      <c r="AC12" s="237"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="237"/>
-      <c r="AF12" s="237"/>
-      <c r="AG12" s="237"/>
-      <c r="AH12" s="238"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="204"/>
+      <c r="AF12" s="204"/>
+      <c r="AG12" s="204"/>
+      <c r="AH12" s="205"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -12758,83 +13130,83 @@
       <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="350" t="s">
+      <c r="E22" s="347" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="351"/>
-      <c r="G22" s="352"/>
-      <c r="H22" s="353" t="s">
+      <c r="F22" s="348"/>
+      <c r="G22" s="349"/>
+      <c r="H22" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="354"/>
-      <c r="J22" s="355"/>
-      <c r="K22" s="314" t="s">
+      <c r="I22" s="351"/>
+      <c r="J22" s="352"/>
+      <c r="K22" s="289" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="315"/>
-      <c r="M22" s="315"/>
-      <c r="N22" s="315"/>
-      <c r="O22" s="315"/>
-      <c r="P22" s="315"/>
-      <c r="Q22" s="315"/>
-      <c r="R22" s="315"/>
-      <c r="S22" s="315"/>
-      <c r="T22" s="315"/>
-      <c r="U22" s="315"/>
-      <c r="V22" s="315"/>
-      <c r="W22" s="315"/>
-      <c r="X22" s="315"/>
-      <c r="Y22" s="315"/>
-      <c r="Z22" s="315"/>
-      <c r="AA22" s="315"/>
-      <c r="AB22" s="315"/>
-      <c r="AC22" s="315"/>
-      <c r="AD22" s="315"/>
-      <c r="AE22" s="315"/>
-      <c r="AF22" s="315"/>
-      <c r="AG22" s="315"/>
-      <c r="AH22" s="316"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="290"/>
+      <c r="N22" s="290"/>
+      <c r="O22" s="290"/>
+      <c r="P22" s="290"/>
+      <c r="Q22" s="290"/>
+      <c r="R22" s="290"/>
+      <c r="S22" s="290"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="290"/>
+      <c r="V22" s="290"/>
+      <c r="W22" s="290"/>
+      <c r="X22" s="290"/>
+      <c r="Y22" s="290"/>
+      <c r="Z22" s="290"/>
+      <c r="AA22" s="290"/>
+      <c r="AB22" s="290"/>
+      <c r="AC22" s="290"/>
+      <c r="AD22" s="290"/>
+      <c r="AE22" s="290"/>
+      <c r="AF22" s="290"/>
+      <c r="AG22" s="290"/>
+      <c r="AH22" s="291"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="236">
+      <c r="E23" s="203">
         <v>0</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="332" t="s">
+      <c r="F23" s="204"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="237"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="332" t="s">
+      <c r="I23" s="204"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="364"/>
-      <c r="M23" s="364"/>
-      <c r="N23" s="364"/>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
-      <c r="Q23" s="364"/>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="364"/>
-      <c r="U23" s="364"/>
-      <c r="V23" s="364"/>
-      <c r="W23" s="364"/>
-      <c r="X23" s="364"/>
-      <c r="Y23" s="364"/>
-      <c r="Z23" s="364"/>
-      <c r="AA23" s="364"/>
-      <c r="AB23" s="364"/>
-      <c r="AC23" s="364"/>
-      <c r="AD23" s="364"/>
-      <c r="AE23" s="364"/>
-      <c r="AF23" s="364"/>
-      <c r="AG23" s="364"/>
-      <c r="AH23" s="365"/>
+      <c r="L23" s="345"/>
+      <c r="M23" s="345"/>
+      <c r="N23" s="345"/>
+      <c r="O23" s="345"/>
+      <c r="P23" s="345"/>
+      <c r="Q23" s="345"/>
+      <c r="R23" s="345"/>
+      <c r="S23" s="345"/>
+      <c r="T23" s="345"/>
+      <c r="U23" s="345"/>
+      <c r="V23" s="345"/>
+      <c r="W23" s="345"/>
+      <c r="X23" s="345"/>
+      <c r="Y23" s="345"/>
+      <c r="Z23" s="345"/>
+      <c r="AA23" s="345"/>
+      <c r="AB23" s="345"/>
+      <c r="AC23" s="345"/>
+      <c r="AD23" s="345"/>
+      <c r="AE23" s="345"/>
+      <c r="AF23" s="345"/>
+      <c r="AG23" s="345"/>
+      <c r="AH23" s="346"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="41" t="s">
@@ -12842,7 +13214,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="366" t="s">
+      <c r="D28" s="353" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -12864,17 +13236,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="327" t="s">
+      <c r="T28" s="384" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="322" t="s">
+      <c r="U28" s="379" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="323"/>
-      <c r="W28" s="323"/>
-      <c r="X28" s="323"/>
-      <c r="Y28" s="323"/>
-      <c r="Z28" s="324"/>
+      <c r="V28" s="380"/>
+      <c r="W28" s="380"/>
+      <c r="X28" s="380"/>
+      <c r="Y28" s="380"/>
+      <c r="Z28" s="381"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -12887,7 +13259,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="367"/>
+      <c r="D29" s="354"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -12903,7 +13275,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="328"/>
+      <c r="T29" s="385"/>
       <c r="U29" s="45" t="s">
         <v>57</v>
       </c>
@@ -12916,10 +13288,10 @@
       <c r="X29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="320" t="s">
+      <c r="Y29" s="377" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="321"/>
+      <c r="Z29" s="378"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -12967,10 +13339,10 @@
       <c r="X30" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y30" s="325" t="s">
+      <c r="Y30" s="382" t="s">
         <v>93</v>
       </c>
-      <c r="Z30" s="326"/>
+      <c r="Z30" s="383"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -13018,10 +13390,10 @@
       <c r="X31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="325" t="s">
+      <c r="Y31" s="382" t="s">
         <v>93</v>
       </c>
-      <c r="Z31" s="326"/>
+      <c r="Z31" s="383"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -13045,120 +13417,120 @@
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="348" t="s">
+      <c r="E37" s="355" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="348"/>
-      <c r="G37" s="348"/>
-      <c r="H37" s="348"/>
-      <c r="I37" s="348"/>
-      <c r="J37" s="348"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="348"/>
-      <c r="M37" s="348"/>
-      <c r="N37" s="348"/>
-      <c r="O37" s="348"/>
-      <c r="P37" s="348"/>
-      <c r="Q37" s="348"/>
-      <c r="R37" s="348"/>
-      <c r="S37" s="348"/>
-      <c r="T37" s="348"/>
-      <c r="U37" s="348"/>
-      <c r="V37" s="348"/>
-      <c r="W37" s="348"/>
-      <c r="X37" s="348"/>
-      <c r="Y37" s="348"/>
-      <c r="Z37" s="348"/>
-      <c r="AA37" s="348"/>
-      <c r="AB37" s="348"/>
-      <c r="AC37" s="348"/>
-      <c r="AD37" s="348"/>
-      <c r="AE37" s="348"/>
-      <c r="AF37" s="348"/>
-      <c r="AG37" s="348"/>
-      <c r="AH37" s="348"/>
+      <c r="F37" s="355"/>
+      <c r="G37" s="355"/>
+      <c r="H37" s="355"/>
+      <c r="I37" s="355"/>
+      <c r="J37" s="355"/>
+      <c r="K37" s="355"/>
+      <c r="L37" s="355"/>
+      <c r="M37" s="355"/>
+      <c r="N37" s="355"/>
+      <c r="O37" s="355"/>
+      <c r="P37" s="355"/>
+      <c r="Q37" s="355"/>
+      <c r="R37" s="355"/>
+      <c r="S37" s="355"/>
+      <c r="T37" s="355"/>
+      <c r="U37" s="355"/>
+      <c r="V37" s="355"/>
+      <c r="W37" s="355"/>
+      <c r="X37" s="355"/>
+      <c r="Y37" s="355"/>
+      <c r="Z37" s="355"/>
+      <c r="AA37" s="355"/>
+      <c r="AB37" s="355"/>
+      <c r="AC37" s="355"/>
+      <c r="AD37" s="355"/>
+      <c r="AE37" s="355"/>
+      <c r="AF37" s="355"/>
+      <c r="AG37" s="355"/>
+      <c r="AH37" s="355"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="347" t="s">
+      <c r="E38" s="356" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="368" t="s">
+      <c r="F38" s="358" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="368"/>
-      <c r="H38" s="368"/>
-      <c r="I38" s="368"/>
-      <c r="J38" s="368"/>
-      <c r="K38" s="368"/>
-      <c r="L38" s="368" t="s">
+      <c r="G38" s="358"/>
+      <c r="H38" s="358"/>
+      <c r="I38" s="358"/>
+      <c r="J38" s="358"/>
+      <c r="K38" s="358"/>
+      <c r="L38" s="358" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="368"/>
-      <c r="N38" s="368"/>
-      <c r="O38" s="368"/>
-      <c r="P38" s="368"/>
-      <c r="Q38" s="345" t="s">
+      <c r="M38" s="358"/>
+      <c r="N38" s="358"/>
+      <c r="O38" s="358"/>
+      <c r="P38" s="358"/>
+      <c r="Q38" s="371" t="s">
         <v>39</v>
       </c>
-      <c r="R38" s="347" t="s">
+      <c r="R38" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="347"/>
-      <c r="T38" s="347"/>
-      <c r="U38" s="347"/>
-      <c r="V38" s="347"/>
-      <c r="W38" s="348" t="s">
+      <c r="S38" s="356"/>
+      <c r="T38" s="356"/>
+      <c r="U38" s="356"/>
+      <c r="V38" s="356"/>
+      <c r="W38" s="355" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="348"/>
-      <c r="Y38" s="348"/>
-      <c r="Z38" s="348"/>
-      <c r="AA38" s="348"/>
-      <c r="AB38" s="348"/>
-      <c r="AC38" s="348"/>
-      <c r="AD38" s="348"/>
-      <c r="AE38" s="348"/>
-      <c r="AF38" s="348"/>
-      <c r="AG38" s="348"/>
-      <c r="AH38" s="348"/>
+      <c r="X38" s="355"/>
+      <c r="Y38" s="355"/>
+      <c r="Z38" s="355"/>
+      <c r="AA38" s="355"/>
+      <c r="AB38" s="355"/>
+      <c r="AC38" s="355"/>
+      <c r="AD38" s="355"/>
+      <c r="AE38" s="355"/>
+      <c r="AF38" s="355"/>
+      <c r="AG38" s="355"/>
+      <c r="AH38" s="355"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="349"/>
-      <c r="F39" s="348"/>
-      <c r="G39" s="348"/>
-      <c r="H39" s="348"/>
-      <c r="I39" s="348"/>
-      <c r="J39" s="348"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
-      <c r="M39" s="348"/>
-      <c r="N39" s="348"/>
-      <c r="O39" s="348"/>
-      <c r="P39" s="348"/>
-      <c r="Q39" s="346"/>
-      <c r="R39" s="349" t="s">
+      <c r="E39" s="357"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="355"/>
+      <c r="J39" s="355"/>
+      <c r="K39" s="355"/>
+      <c r="L39" s="355"/>
+      <c r="M39" s="355"/>
+      <c r="N39" s="355"/>
+      <c r="O39" s="355"/>
+      <c r="P39" s="355"/>
+      <c r="Q39" s="372"/>
+      <c r="R39" s="357" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="349"/>
-      <c r="T39" s="349"/>
-      <c r="U39" s="349"/>
-      <c r="V39" s="349"/>
-      <c r="W39" s="348"/>
-      <c r="X39" s="348"/>
-      <c r="Y39" s="348"/>
-      <c r="Z39" s="348"/>
-      <c r="AA39" s="348"/>
-      <c r="AB39" s="348"/>
-      <c r="AC39" s="348"/>
-      <c r="AD39" s="348"/>
-      <c r="AE39" s="348"/>
-      <c r="AF39" s="348"/>
-      <c r="AG39" s="348"/>
-      <c r="AH39" s="348"/>
+      <c r="S39" s="357"/>
+      <c r="T39" s="357"/>
+      <c r="U39" s="357"/>
+      <c r="V39" s="357"/>
+      <c r="W39" s="355"/>
+      <c r="X39" s="355"/>
+      <c r="Y39" s="355"/>
+      <c r="Z39" s="355"/>
+      <c r="AA39" s="355"/>
+      <c r="AB39" s="355"/>
+      <c r="AC39" s="355"/>
+      <c r="AD39" s="355"/>
+      <c r="AE39" s="355"/>
+      <c r="AF39" s="355"/>
+      <c r="AG39" s="355"/>
+      <c r="AH39" s="355"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -13166,14 +13538,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="360" t="s">
+      <c r="F40" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361"/>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
+      <c r="G40" s="335"/>
+      <c r="H40" s="335"/>
+      <c r="I40" s="335"/>
+      <c r="J40" s="335"/>
+      <c r="K40" s="335"/>
       <c r="L40" s="141" t="s">
         <v>117</v>
       </c>
@@ -13184,25 +13556,25 @@
       <c r="Q40" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R40" s="360" t="s">
+      <c r="R40" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S40" s="361"/>
-      <c r="T40" s="361"/>
-      <c r="U40" s="361"/>
-      <c r="V40" s="361"/>
-      <c r="W40" s="361"/>
-      <c r="X40" s="361"/>
-      <c r="Y40" s="361"/>
-      <c r="Z40" s="361"/>
-      <c r="AA40" s="361"/>
-      <c r="AB40" s="361"/>
-      <c r="AC40" s="361"/>
-      <c r="AD40" s="361"/>
-      <c r="AE40" s="361"/>
-      <c r="AF40" s="361"/>
-      <c r="AG40" s="361"/>
-      <c r="AH40" s="361"/>
+      <c r="S40" s="335"/>
+      <c r="T40" s="335"/>
+      <c r="U40" s="335"/>
+      <c r="V40" s="335"/>
+      <c r="W40" s="335"/>
+      <c r="X40" s="335"/>
+      <c r="Y40" s="335"/>
+      <c r="Z40" s="335"/>
+      <c r="AA40" s="335"/>
+      <c r="AB40" s="335"/>
+      <c r="AC40" s="335"/>
+      <c r="AD40" s="335"/>
+      <c r="AE40" s="335"/>
+      <c r="AF40" s="335"/>
+      <c r="AG40" s="335"/>
+      <c r="AH40" s="335"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -13210,14 +13582,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="360" t="s">
+      <c r="F41" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="361"/>
-      <c r="H41" s="361"/>
-      <c r="I41" s="361"/>
-      <c r="J41" s="361"/>
-      <c r="K41" s="361"/>
+      <c r="G41" s="335"/>
+      <c r="H41" s="335"/>
+      <c r="I41" s="335"/>
+      <c r="J41" s="335"/>
+      <c r="K41" s="335"/>
       <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
@@ -13228,25 +13600,25 @@
       <c r="Q41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R41" s="360" t="s">
+      <c r="R41" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S41" s="361"/>
-      <c r="T41" s="361"/>
-      <c r="U41" s="361"/>
-      <c r="V41" s="361"/>
-      <c r="W41" s="361"/>
-      <c r="X41" s="361"/>
-      <c r="Y41" s="361"/>
-      <c r="Z41" s="361"/>
-      <c r="AA41" s="361"/>
-      <c r="AB41" s="361"/>
-      <c r="AC41" s="361"/>
-      <c r="AD41" s="361"/>
-      <c r="AE41" s="361"/>
-      <c r="AF41" s="361"/>
-      <c r="AG41" s="361"/>
-      <c r="AH41" s="361"/>
+      <c r="S41" s="335"/>
+      <c r="T41" s="335"/>
+      <c r="U41" s="335"/>
+      <c r="V41" s="335"/>
+      <c r="W41" s="335"/>
+      <c r="X41" s="335"/>
+      <c r="Y41" s="335"/>
+      <c r="Z41" s="335"/>
+      <c r="AA41" s="335"/>
+      <c r="AB41" s="335"/>
+      <c r="AC41" s="335"/>
+      <c r="AD41" s="335"/>
+      <c r="AE41" s="335"/>
+      <c r="AF41" s="335"/>
+      <c r="AG41" s="335"/>
+      <c r="AH41" s="335"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -13254,14 +13626,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="360" t="s">
+      <c r="F42" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="361"/>
-      <c r="H42" s="361"/>
-      <c r="I42" s="361"/>
-      <c r="J42" s="361"/>
-      <c r="K42" s="361"/>
+      <c r="G42" s="335"/>
+      <c r="H42" s="335"/>
+      <c r="I42" s="335"/>
+      <c r="J42" s="335"/>
+      <c r="K42" s="335"/>
       <c r="L42" s="141" t="s">
         <v>119</v>
       </c>
@@ -13272,25 +13644,25 @@
       <c r="Q42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="360" t="s">
+      <c r="R42" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S42" s="361"/>
-      <c r="T42" s="361"/>
-      <c r="U42" s="361"/>
-      <c r="V42" s="361"/>
-      <c r="W42" s="361"/>
-      <c r="X42" s="361"/>
-      <c r="Y42" s="361"/>
-      <c r="Z42" s="361"/>
-      <c r="AA42" s="361"/>
-      <c r="AB42" s="361"/>
-      <c r="AC42" s="361"/>
-      <c r="AD42" s="361"/>
-      <c r="AE42" s="361"/>
-      <c r="AF42" s="361"/>
-      <c r="AG42" s="361"/>
-      <c r="AH42" s="361"/>
+      <c r="S42" s="335"/>
+      <c r="T42" s="335"/>
+      <c r="U42" s="335"/>
+      <c r="V42" s="335"/>
+      <c r="W42" s="335"/>
+      <c r="X42" s="335"/>
+      <c r="Y42" s="335"/>
+      <c r="Z42" s="335"/>
+      <c r="AA42" s="335"/>
+      <c r="AB42" s="335"/>
+      <c r="AC42" s="335"/>
+      <c r="AD42" s="335"/>
+      <c r="AE42" s="335"/>
+      <c r="AF42" s="335"/>
+      <c r="AG42" s="335"/>
+      <c r="AH42" s="335"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -13298,14 +13670,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="360" t="s">
+      <c r="F43" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="361"/>
-      <c r="H43" s="361"/>
-      <c r="I43" s="361"/>
-      <c r="J43" s="361"/>
-      <c r="K43" s="361"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
+      <c r="I43" s="335"/>
+      <c r="J43" s="335"/>
+      <c r="K43" s="335"/>
       <c r="L43" s="141" t="s">
         <v>120</v>
       </c>
@@ -13316,25 +13688,25 @@
       <c r="Q43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R43" s="360" t="s">
+      <c r="R43" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="361"/>
-      <c r="T43" s="361"/>
-      <c r="U43" s="361"/>
-      <c r="V43" s="361"/>
-      <c r="W43" s="361"/>
-      <c r="X43" s="361"/>
-      <c r="Y43" s="361"/>
-      <c r="Z43" s="361"/>
-      <c r="AA43" s="361"/>
-      <c r="AB43" s="361"/>
-      <c r="AC43" s="361"/>
-      <c r="AD43" s="361"/>
-      <c r="AE43" s="361"/>
-      <c r="AF43" s="361"/>
-      <c r="AG43" s="361"/>
-      <c r="AH43" s="361"/>
+      <c r="S43" s="335"/>
+      <c r="T43" s="335"/>
+      <c r="U43" s="335"/>
+      <c r="V43" s="335"/>
+      <c r="W43" s="335"/>
+      <c r="X43" s="335"/>
+      <c r="Y43" s="335"/>
+      <c r="Z43" s="335"/>
+      <c r="AA43" s="335"/>
+      <c r="AB43" s="335"/>
+      <c r="AC43" s="335"/>
+      <c r="AD43" s="335"/>
+      <c r="AE43" s="335"/>
+      <c r="AF43" s="335"/>
+      <c r="AG43" s="335"/>
+      <c r="AH43" s="335"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -13342,14 +13714,14 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="360" t="s">
+      <c r="F44" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="361"/>
-      <c r="H44" s="361"/>
-      <c r="I44" s="361"/>
-      <c r="J44" s="361"/>
-      <c r="K44" s="361"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
+      <c r="I44" s="335"/>
+      <c r="J44" s="335"/>
+      <c r="K44" s="335"/>
       <c r="L44" s="141" t="s">
         <v>128</v>
       </c>
@@ -13360,25 +13732,25 @@
       <c r="Q44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R44" s="360" t="s">
+      <c r="R44" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S44" s="361"/>
-      <c r="T44" s="361"/>
-      <c r="U44" s="361"/>
-      <c r="V44" s="361"/>
-      <c r="W44" s="361"/>
-      <c r="X44" s="361"/>
-      <c r="Y44" s="361"/>
-      <c r="Z44" s="361"/>
-      <c r="AA44" s="361"/>
-      <c r="AB44" s="361"/>
-      <c r="AC44" s="361"/>
-      <c r="AD44" s="361"/>
-      <c r="AE44" s="361"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="361"/>
-      <c r="AH44" s="361"/>
+      <c r="S44" s="335"/>
+      <c r="T44" s="335"/>
+      <c r="U44" s="335"/>
+      <c r="V44" s="335"/>
+      <c r="W44" s="335"/>
+      <c r="X44" s="335"/>
+      <c r="Y44" s="335"/>
+      <c r="Z44" s="335"/>
+      <c r="AA44" s="335"/>
+      <c r="AB44" s="335"/>
+      <c r="AC44" s="335"/>
+      <c r="AD44" s="335"/>
+      <c r="AE44" s="335"/>
+      <c r="AF44" s="335"/>
+      <c r="AG44" s="335"/>
+      <c r="AH44" s="335"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -13386,14 +13758,14 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="360" t="s">
+      <c r="F45" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="361"/>
-      <c r="H45" s="361"/>
-      <c r="I45" s="361"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="361"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
+      <c r="K45" s="335"/>
       <c r="L45" s="141" t="s">
         <v>131</v>
       </c>
@@ -13404,25 +13776,25 @@
       <c r="Q45" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R45" s="360" t="s">
+      <c r="R45" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="361"/>
-      <c r="T45" s="361"/>
-      <c r="U45" s="361"/>
-      <c r="V45" s="361"/>
-      <c r="W45" s="361"/>
-      <c r="X45" s="361"/>
-      <c r="Y45" s="361"/>
-      <c r="Z45" s="361"/>
-      <c r="AA45" s="361"/>
-      <c r="AB45" s="361"/>
-      <c r="AC45" s="361"/>
-      <c r="AD45" s="361"/>
-      <c r="AE45" s="361"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="361"/>
-      <c r="AH45" s="361"/>
+      <c r="S45" s="335"/>
+      <c r="T45" s="335"/>
+      <c r="U45" s="335"/>
+      <c r="V45" s="335"/>
+      <c r="W45" s="335"/>
+      <c r="X45" s="335"/>
+      <c r="Y45" s="335"/>
+      <c r="Z45" s="335"/>
+      <c r="AA45" s="335"/>
+      <c r="AB45" s="335"/>
+      <c r="AC45" s="335"/>
+      <c r="AD45" s="335"/>
+      <c r="AE45" s="335"/>
+      <c r="AF45" s="335"/>
+      <c r="AG45" s="335"/>
+      <c r="AH45" s="335"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13430,14 +13802,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="360" t="s">
+      <c r="F46" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="361"/>
-      <c r="H46" s="361"/>
-      <c r="I46" s="361"/>
-      <c r="J46" s="361"/>
-      <c r="K46" s="361"/>
+      <c r="G46" s="335"/>
+      <c r="H46" s="335"/>
+      <c r="I46" s="335"/>
+      <c r="J46" s="335"/>
+      <c r="K46" s="335"/>
       <c r="L46" s="141" t="s">
         <v>121</v>
       </c>
@@ -13448,25 +13820,25 @@
       <c r="Q46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="360" t="s">
+      <c r="R46" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="361"/>
-      <c r="T46" s="361"/>
-      <c r="U46" s="361"/>
-      <c r="V46" s="361"/>
-      <c r="W46" s="361"/>
-      <c r="X46" s="361"/>
-      <c r="Y46" s="361"/>
-      <c r="Z46" s="361"/>
-      <c r="AA46" s="361"/>
-      <c r="AB46" s="361"/>
-      <c r="AC46" s="361"/>
-      <c r="AD46" s="361"/>
-      <c r="AE46" s="361"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="361"/>
-      <c r="AH46" s="361"/>
+      <c r="S46" s="335"/>
+      <c r="T46" s="335"/>
+      <c r="U46" s="335"/>
+      <c r="V46" s="335"/>
+      <c r="W46" s="335"/>
+      <c r="X46" s="335"/>
+      <c r="Y46" s="335"/>
+      <c r="Z46" s="335"/>
+      <c r="AA46" s="335"/>
+      <c r="AB46" s="335"/>
+      <c r="AC46" s="335"/>
+      <c r="AD46" s="335"/>
+      <c r="AE46" s="335"/>
+      <c r="AF46" s="335"/>
+      <c r="AG46" s="335"/>
+      <c r="AH46" s="335"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13474,14 +13846,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="360" t="s">
+      <c r="F47" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="361"/>
-      <c r="H47" s="361"/>
-      <c r="I47" s="361"/>
-      <c r="J47" s="361"/>
-      <c r="K47" s="361"/>
+      <c r="G47" s="335"/>
+      <c r="H47" s="335"/>
+      <c r="I47" s="335"/>
+      <c r="J47" s="335"/>
+      <c r="K47" s="335"/>
       <c r="L47" s="141" t="s">
         <v>122</v>
       </c>
@@ -13492,25 +13864,25 @@
       <c r="Q47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R47" s="360" t="s">
+      <c r="R47" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="361"/>
-      <c r="T47" s="361"/>
-      <c r="U47" s="361"/>
-      <c r="V47" s="361"/>
-      <c r="W47" s="361"/>
-      <c r="X47" s="361"/>
-      <c r="Y47" s="361"/>
-      <c r="Z47" s="361"/>
-      <c r="AA47" s="361"/>
-      <c r="AB47" s="361"/>
-      <c r="AC47" s="361"/>
-      <c r="AD47" s="361"/>
-      <c r="AE47" s="361"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="361"/>
-      <c r="AH47" s="361"/>
+      <c r="S47" s="335"/>
+      <c r="T47" s="335"/>
+      <c r="U47" s="335"/>
+      <c r="V47" s="335"/>
+      <c r="W47" s="335"/>
+      <c r="X47" s="335"/>
+      <c r="Y47" s="335"/>
+      <c r="Z47" s="335"/>
+      <c r="AA47" s="335"/>
+      <c r="AB47" s="335"/>
+      <c r="AC47" s="335"/>
+      <c r="AD47" s="335"/>
+      <c r="AE47" s="335"/>
+      <c r="AF47" s="335"/>
+      <c r="AG47" s="335"/>
+      <c r="AH47" s="335"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13518,14 +13890,14 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="360" t="s">
+      <c r="F48" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="361"/>
-      <c r="H48" s="361"/>
-      <c r="I48" s="361"/>
-      <c r="J48" s="361"/>
-      <c r="K48" s="361"/>
+      <c r="G48" s="335"/>
+      <c r="H48" s="335"/>
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="335"/>
       <c r="L48" s="141" t="s">
         <v>123</v>
       </c>
@@ -13536,25 +13908,25 @@
       <c r="Q48" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="360" t="s">
+      <c r="R48" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="361"/>
-      <c r="T48" s="361"/>
-      <c r="U48" s="361"/>
-      <c r="V48" s="361"/>
-      <c r="W48" s="361"/>
-      <c r="X48" s="361"/>
-      <c r="Y48" s="361"/>
-      <c r="Z48" s="361"/>
-      <c r="AA48" s="361"/>
-      <c r="AB48" s="361"/>
-      <c r="AC48" s="361"/>
-      <c r="AD48" s="361"/>
-      <c r="AE48" s="361"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="361"/>
-      <c r="AH48" s="361"/>
+      <c r="S48" s="335"/>
+      <c r="T48" s="335"/>
+      <c r="U48" s="335"/>
+      <c r="V48" s="335"/>
+      <c r="W48" s="335"/>
+      <c r="X48" s="335"/>
+      <c r="Y48" s="335"/>
+      <c r="Z48" s="335"/>
+      <c r="AA48" s="335"/>
+      <c r="AB48" s="335"/>
+      <c r="AC48" s="335"/>
+      <c r="AD48" s="335"/>
+      <c r="AE48" s="335"/>
+      <c r="AF48" s="335"/>
+      <c r="AG48" s="335"/>
+      <c r="AH48" s="335"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13562,14 +13934,14 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="360" t="s">
+      <c r="F49" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="361"/>
-      <c r="H49" s="361"/>
-      <c r="I49" s="361"/>
-      <c r="J49" s="361"/>
-      <c r="K49" s="361"/>
+      <c r="G49" s="335"/>
+      <c r="H49" s="335"/>
+      <c r="I49" s="335"/>
+      <c r="J49" s="335"/>
+      <c r="K49" s="335"/>
       <c r="L49" s="141" t="s">
         <v>124</v>
       </c>
@@ -13580,25 +13952,25 @@
       <c r="Q49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="360" t="s">
+      <c r="R49" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="361"/>
-      <c r="T49" s="361"/>
-      <c r="U49" s="361"/>
-      <c r="V49" s="361"/>
-      <c r="W49" s="361"/>
-      <c r="X49" s="361"/>
-      <c r="Y49" s="361"/>
-      <c r="Z49" s="361"/>
-      <c r="AA49" s="361"/>
-      <c r="AB49" s="361"/>
-      <c r="AC49" s="361"/>
-      <c r="AD49" s="361"/>
-      <c r="AE49" s="361"/>
-      <c r="AF49" s="361"/>
-      <c r="AG49" s="361"/>
-      <c r="AH49" s="361"/>
+      <c r="S49" s="335"/>
+      <c r="T49" s="335"/>
+      <c r="U49" s="335"/>
+      <c r="V49" s="335"/>
+      <c r="W49" s="335"/>
+      <c r="X49" s="335"/>
+      <c r="Y49" s="335"/>
+      <c r="Z49" s="335"/>
+      <c r="AA49" s="335"/>
+      <c r="AB49" s="335"/>
+      <c r="AC49" s="335"/>
+      <c r="AD49" s="335"/>
+      <c r="AE49" s="335"/>
+      <c r="AF49" s="335"/>
+      <c r="AG49" s="335"/>
+      <c r="AH49" s="335"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13606,14 +13978,14 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="360" t="s">
+      <c r="F50" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="361"/>
-      <c r="H50" s="361"/>
-      <c r="I50" s="361"/>
-      <c r="J50" s="361"/>
-      <c r="K50" s="361"/>
+      <c r="G50" s="335"/>
+      <c r="H50" s="335"/>
+      <c r="I50" s="335"/>
+      <c r="J50" s="335"/>
+      <c r="K50" s="335"/>
       <c r="L50" s="141" t="s">
         <v>125</v>
       </c>
@@ -13624,25 +13996,25 @@
       <c r="Q50" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R50" s="360" t="s">
+      <c r="R50" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="361"/>
-      <c r="T50" s="361"/>
-      <c r="U50" s="361"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="361"/>
-      <c r="X50" s="361"/>
-      <c r="Y50" s="361"/>
-      <c r="Z50" s="361"/>
-      <c r="AA50" s="361"/>
-      <c r="AB50" s="361"/>
-      <c r="AC50" s="361"/>
-      <c r="AD50" s="361"/>
-      <c r="AE50" s="361"/>
-      <c r="AF50" s="361"/>
-      <c r="AG50" s="361"/>
-      <c r="AH50" s="361"/>
+      <c r="S50" s="335"/>
+      <c r="T50" s="335"/>
+      <c r="U50" s="335"/>
+      <c r="V50" s="335"/>
+      <c r="W50" s="335"/>
+      <c r="X50" s="335"/>
+      <c r="Y50" s="335"/>
+      <c r="Z50" s="335"/>
+      <c r="AA50" s="335"/>
+      <c r="AB50" s="335"/>
+      <c r="AC50" s="335"/>
+      <c r="AD50" s="335"/>
+      <c r="AE50" s="335"/>
+      <c r="AF50" s="335"/>
+      <c r="AG50" s="335"/>
+      <c r="AH50" s="335"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -13650,14 +14022,14 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="360" t="s">
+      <c r="F51" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="361"/>
-      <c r="H51" s="361"/>
-      <c r="I51" s="361"/>
-      <c r="J51" s="361"/>
-      <c r="K51" s="361"/>
+      <c r="G51" s="335"/>
+      <c r="H51" s="335"/>
+      <c r="I51" s="335"/>
+      <c r="J51" s="335"/>
+      <c r="K51" s="335"/>
       <c r="L51" s="141" t="s">
         <v>126</v>
       </c>
@@ -13668,25 +14040,25 @@
       <c r="Q51" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="360" t="s">
+      <c r="R51" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S51" s="361"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="361"/>
-      <c r="V51" s="361"/>
-      <c r="W51" s="361"/>
-      <c r="X51" s="361"/>
-      <c r="Y51" s="361"/>
-      <c r="Z51" s="361"/>
-      <c r="AA51" s="361"/>
-      <c r="AB51" s="361"/>
-      <c r="AC51" s="361"/>
-      <c r="AD51" s="361"/>
-      <c r="AE51" s="361"/>
-      <c r="AF51" s="361"/>
-      <c r="AG51" s="361"/>
-      <c r="AH51" s="361"/>
+      <c r="S51" s="335"/>
+      <c r="T51" s="335"/>
+      <c r="U51" s="335"/>
+      <c r="V51" s="335"/>
+      <c r="W51" s="335"/>
+      <c r="X51" s="335"/>
+      <c r="Y51" s="335"/>
+      <c r="Z51" s="335"/>
+      <c r="AA51" s="335"/>
+      <c r="AB51" s="335"/>
+      <c r="AC51" s="335"/>
+      <c r="AD51" s="335"/>
+      <c r="AE51" s="335"/>
+      <c r="AF51" s="335"/>
+      <c r="AG51" s="335"/>
+      <c r="AH51" s="335"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -13694,14 +14066,14 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="360" t="s">
+      <c r="F52" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="361"/>
-      <c r="H52" s="361"/>
-      <c r="I52" s="361"/>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
+      <c r="G52" s="335"/>
+      <c r="H52" s="335"/>
+      <c r="I52" s="335"/>
+      <c r="J52" s="335"/>
+      <c r="K52" s="335"/>
       <c r="L52" s="141" t="s">
         <v>127</v>
       </c>
@@ -13712,61 +14084,61 @@
       <c r="Q52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R52" s="360" t="s">
+      <c r="R52" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="361"/>
-      <c r="T52" s="361"/>
-      <c r="U52" s="361"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="361"/>
-      <c r="X52" s="361"/>
-      <c r="Y52" s="361"/>
-      <c r="Z52" s="361"/>
-      <c r="AA52" s="361"/>
-      <c r="AB52" s="361"/>
-      <c r="AC52" s="361"/>
-      <c r="AD52" s="361"/>
-      <c r="AE52" s="361"/>
-      <c r="AF52" s="361"/>
-      <c r="AG52" s="361"/>
-      <c r="AH52" s="361"/>
+      <c r="S52" s="335"/>
+      <c r="T52" s="335"/>
+      <c r="U52" s="335"/>
+      <c r="V52" s="335"/>
+      <c r="W52" s="335"/>
+      <c r="X52" s="335"/>
+      <c r="Y52" s="335"/>
+      <c r="Z52" s="335"/>
+      <c r="AA52" s="335"/>
+      <c r="AB52" s="335"/>
+      <c r="AC52" s="335"/>
+      <c r="AD52" s="335"/>
+      <c r="AE52" s="335"/>
+      <c r="AF52" s="335"/>
+      <c r="AG52" s="335"/>
+      <c r="AH52" s="335"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="311" t="s">
+      <c r="E53" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="312"/>
-      <c r="G53" s="312"/>
-      <c r="H53" s="312"/>
-      <c r="I53" s="312"/>
-      <c r="J53" s="312"/>
-      <c r="K53" s="312"/>
-      <c r="L53" s="312"/>
-      <c r="M53" s="312"/>
-      <c r="N53" s="312"/>
-      <c r="O53" s="312"/>
-      <c r="P53" s="312"/>
-      <c r="Q53" s="312"/>
-      <c r="R53" s="312"/>
-      <c r="S53" s="312"/>
-      <c r="T53" s="312"/>
-      <c r="U53" s="312"/>
-      <c r="V53" s="312"/>
-      <c r="W53" s="312"/>
-      <c r="X53" s="312"/>
-      <c r="Y53" s="312"/>
-      <c r="Z53" s="312"/>
-      <c r="AA53" s="312"/>
-      <c r="AB53" s="312"/>
-      <c r="AC53" s="312"/>
-      <c r="AD53" s="312"/>
-      <c r="AE53" s="312"/>
-      <c r="AF53" s="312"/>
-      <c r="AG53" s="312"/>
-      <c r="AH53" s="313"/>
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="287"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="287"/>
+      <c r="K53" s="287"/>
+      <c r="L53" s="287"/>
+      <c r="M53" s="287"/>
+      <c r="N53" s="287"/>
+      <c r="O53" s="287"/>
+      <c r="P53" s="287"/>
+      <c r="Q53" s="287"/>
+      <c r="R53" s="287"/>
+      <c r="S53" s="287"/>
+      <c r="T53" s="287"/>
+      <c r="U53" s="287"/>
+      <c r="V53" s="287"/>
+      <c r="W53" s="287"/>
+      <c r="X53" s="287"/>
+      <c r="Y53" s="287"/>
+      <c r="Z53" s="287"/>
+      <c r="AA53" s="287"/>
+      <c r="AB53" s="287"/>
+      <c r="AC53" s="287"/>
+      <c r="AD53" s="287"/>
+      <c r="AE53" s="287"/>
+      <c r="AF53" s="287"/>
+      <c r="AG53" s="287"/>
+      <c r="AH53" s="288"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -14020,72 +14392,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="350" t="s">
+      <c r="E68" s="347" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="351"/>
-      <c r="G68" s="352"/>
-      <c r="H68" s="353" t="s">
+      <c r="F68" s="348"/>
+      <c r="G68" s="349"/>
+      <c r="H68" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="354"/>
-      <c r="J68" s="355"/>
-      <c r="K68" s="356" t="s">
+      <c r="I68" s="351"/>
+      <c r="J68" s="352"/>
+      <c r="K68" s="373" t="s">
         <v>133</v>
       </c>
-      <c r="L68" s="357"/>
-      <c r="M68" s="357"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="359" t="s">
+      <c r="L68" s="374"/>
+      <c r="M68" s="374"/>
+      <c r="N68" s="375"/>
+      <c r="O68" s="376" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="359"/>
-      <c r="Q68" s="359"/>
-      <c r="R68" s="359"/>
-      <c r="S68" s="359"/>
-      <c r="T68" s="359"/>
-      <c r="U68" s="359"/>
-      <c r="V68" s="359"/>
-      <c r="W68" s="359"/>
-      <c r="X68" s="359"/>
-      <c r="Y68" s="359"/>
-      <c r="Z68" s="359"/>
-      <c r="AA68" s="359"/>
-      <c r="AB68" s="359"/>
+      <c r="P68" s="376"/>
+      <c r="Q68" s="376"/>
+      <c r="R68" s="376"/>
+      <c r="S68" s="376"/>
+      <c r="T68" s="376"/>
+      <c r="U68" s="376"/>
+      <c r="V68" s="376"/>
+      <c r="W68" s="376"/>
+      <c r="X68" s="376"/>
+      <c r="Y68" s="376"/>
+      <c r="Z68" s="376"/>
+      <c r="AA68" s="376"/>
+      <c r="AB68" s="376"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="236">
+      <c r="E69" s="203">
         <v>0</v>
       </c>
-      <c r="F69" s="237"/>
-      <c r="G69" s="238"/>
-      <c r="H69" s="332" t="s">
+      <c r="F69" s="204"/>
+      <c r="G69" s="205"/>
+      <c r="H69" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="237"/>
-      <c r="J69" s="238"/>
-      <c r="K69" s="369" t="s">
+      <c r="I69" s="204"/>
+      <c r="J69" s="205"/>
+      <c r="K69" s="331" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="372"/>
-      <c r="M69" s="372"/>
-      <c r="N69" s="373"/>
-      <c r="O69" s="374" t="s">
+      <c r="L69" s="336"/>
+      <c r="M69" s="336"/>
+      <c r="N69" s="337"/>
+      <c r="O69" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="374"/>
-      <c r="Q69" s="374"/>
-      <c r="R69" s="374"/>
-      <c r="S69" s="374"/>
-      <c r="T69" s="374"/>
-      <c r="U69" s="374"/>
-      <c r="V69" s="374"/>
-      <c r="W69" s="374"/>
-      <c r="X69" s="374"/>
-      <c r="Y69" s="374"/>
-      <c r="Z69" s="374"/>
-      <c r="AA69" s="374"/>
-      <c r="AB69" s="374"/>
+      <c r="P69" s="338"/>
+      <c r="Q69" s="338"/>
+      <c r="R69" s="338"/>
+      <c r="S69" s="338"/>
+      <c r="T69" s="338"/>
+      <c r="U69" s="338"/>
+      <c r="V69" s="338"/>
+      <c r="W69" s="338"/>
+      <c r="X69" s="338"/>
+      <c r="Y69" s="338"/>
+      <c r="Z69" s="338"/>
+      <c r="AA69" s="338"/>
+      <c r="AB69" s="338"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -14324,43 +14696,43 @@
     <row r="81" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
-      <c r="F81" s="375" t="s">
+      <c r="F81" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="G81" s="376"/>
-      <c r="H81" s="377"/>
-      <c r="I81" s="333" t="s">
+      <c r="G81" s="340"/>
+      <c r="H81" s="341"/>
+      <c r="I81" s="342" t="s">
         <v>141</v>
       </c>
-      <c r="J81" s="334"/>
-      <c r="K81" s="334"/>
-      <c r="L81" s="334"/>
-      <c r="M81" s="335"/>
-      <c r="N81" s="375" t="s">
+      <c r="J81" s="343"/>
+      <c r="K81" s="343"/>
+      <c r="L81" s="343"/>
+      <c r="M81" s="344"/>
+      <c r="N81" s="339" t="s">
         <v>91</v>
       </c>
-      <c r="O81" s="376"/>
-      <c r="P81" s="377"/>
-      <c r="Q81" s="333" t="s">
+      <c r="O81" s="340"/>
+      <c r="P81" s="341"/>
+      <c r="Q81" s="342" t="s">
         <v>142</v>
       </c>
-      <c r="R81" s="334"/>
-      <c r="S81" s="334"/>
-      <c r="T81" s="334"/>
-      <c r="U81" s="334"/>
-      <c r="V81" s="334"/>
-      <c r="W81" s="334"/>
-      <c r="X81" s="334"/>
-      <c r="Y81" s="334"/>
-      <c r="Z81" s="334"/>
-      <c r="AA81" s="334"/>
-      <c r="AB81" s="334"/>
-      <c r="AC81" s="334"/>
-      <c r="AD81" s="334"/>
-      <c r="AE81" s="334"/>
-      <c r="AF81" s="334"/>
-      <c r="AG81" s="334"/>
-      <c r="AH81" s="335"/>
+      <c r="R81" s="343"/>
+      <c r="S81" s="343"/>
+      <c r="T81" s="343"/>
+      <c r="U81" s="343"/>
+      <c r="V81" s="343"/>
+      <c r="W81" s="343"/>
+      <c r="X81" s="343"/>
+      <c r="Y81" s="343"/>
+      <c r="Z81" s="343"/>
+      <c r="AA81" s="343"/>
+      <c r="AB81" s="343"/>
+      <c r="AC81" s="343"/>
+      <c r="AD81" s="343"/>
+      <c r="AE81" s="343"/>
+      <c r="AF81" s="343"/>
+      <c r="AG81" s="343"/>
+      <c r="AH81" s="344"/>
     </row>
     <row r="82" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="117"/>
@@ -14470,15 +14842,15 @@
     </row>
     <row r="85" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C85" s="41"/>
-      <c r="F85" s="336" t="s">
+      <c r="F85" s="362" t="s">
         <v>111</v>
       </c>
-      <c r="G85" s="338" t="s">
+      <c r="G85" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="338"/>
-      <c r="I85" s="338"/>
-      <c r="J85" s="338"/>
+      <c r="H85" s="364"/>
+      <c r="I85" s="364"/>
+      <c r="J85" s="364"/>
       <c r="K85" s="161" t="s">
         <v>96</v>
       </c>
@@ -14505,20 +14877,20 @@
       <c r="AB85" s="162"/>
       <c r="AC85" s="162"/>
       <c r="AD85" s="163"/>
-      <c r="AE85" s="339" t="s">
+      <c r="AE85" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="AF85" s="340"/>
-      <c r="AG85" s="340"/>
-      <c r="AH85" s="341"/>
+      <c r="AF85" s="366"/>
+      <c r="AG85" s="366"/>
+      <c r="AH85" s="367"/>
       <c r="AI85" s="113"/>
     </row>
     <row r="86" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F86" s="337"/>
-      <c r="G86" s="338"/>
-      <c r="H86" s="338"/>
-      <c r="I86" s="338"/>
-      <c r="J86" s="338"/>
+      <c r="F86" s="363"/>
+      <c r="G86" s="364"/>
+      <c r="H86" s="364"/>
+      <c r="I86" s="364"/>
+      <c r="J86" s="364"/>
       <c r="K86" s="164"/>
       <c r="L86" s="165"/>
       <c r="M86" s="165"/>
@@ -14543,10 +14915,10 @@
       <c r="AB86" s="165"/>
       <c r="AC86" s="165"/>
       <c r="AD86" s="166"/>
-      <c r="AE86" s="342"/>
-      <c r="AF86" s="343"/>
-      <c r="AG86" s="343"/>
-      <c r="AH86" s="344"/>
+      <c r="AE86" s="368"/>
+      <c r="AF86" s="369"/>
+      <c r="AG86" s="369"/>
+      <c r="AH86" s="370"/>
       <c r="AI86" s="113"/>
     </row>
     <row r="87" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14567,13 +14939,13 @@
       <c r="N87" s="159"/>
       <c r="O87" s="159"/>
       <c r="P87" s="160"/>
-      <c r="Q87" s="362" t="s">
+      <c r="Q87" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R87" s="363"/>
-      <c r="S87" s="363"/>
-      <c r="T87" s="363"/>
-      <c r="U87" s="363"/>
+      <c r="R87" s="330"/>
+      <c r="S87" s="330"/>
+      <c r="T87" s="330"/>
+      <c r="U87" s="330"/>
       <c r="V87" s="141" t="s">
         <v>117</v>
       </c>
@@ -14587,10 +14959,10 @@
       <c r="AB87" s="175"/>
       <c r="AC87" s="175"/>
       <c r="AD87" s="176"/>
-      <c r="AE87" s="369"/>
-      <c r="AF87" s="370"/>
-      <c r="AG87" s="370"/>
-      <c r="AH87" s="371"/>
+      <c r="AE87" s="331"/>
+      <c r="AF87" s="332"/>
+      <c r="AG87" s="332"/>
+      <c r="AH87" s="333"/>
       <c r="AI87" s="113"/>
     </row>
     <row r="88" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14611,13 +14983,13 @@
       <c r="N88" s="159"/>
       <c r="O88" s="159"/>
       <c r="P88" s="160"/>
-      <c r="Q88" s="362" t="s">
+      <c r="Q88" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R88" s="363"/>
-      <c r="S88" s="363"/>
-      <c r="T88" s="363"/>
-      <c r="U88" s="363"/>
+      <c r="R88" s="330"/>
+      <c r="S88" s="330"/>
+      <c r="T88" s="330"/>
+      <c r="U88" s="330"/>
       <c r="V88" s="141" t="s">
         <v>118</v>
       </c>
@@ -14631,10 +15003,10 @@
       <c r="AB88" s="175"/>
       <c r="AC88" s="175"/>
       <c r="AD88" s="176"/>
-      <c r="AE88" s="369"/>
-      <c r="AF88" s="370"/>
-      <c r="AG88" s="370"/>
-      <c r="AH88" s="371"/>
+      <c r="AE88" s="331"/>
+      <c r="AF88" s="332"/>
+      <c r="AG88" s="332"/>
+      <c r="AH88" s="333"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="112">
@@ -14654,13 +15026,13 @@
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="362" t="s">
+      <c r="Q89" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R89" s="363"/>
-      <c r="S89" s="363"/>
-      <c r="T89" s="363"/>
-      <c r="U89" s="363"/>
+      <c r="R89" s="330"/>
+      <c r="S89" s="330"/>
+      <c r="T89" s="330"/>
+      <c r="U89" s="330"/>
       <c r="V89" s="141" t="s">
         <v>119</v>
       </c>
@@ -14674,10 +15046,10 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="369"/>
-      <c r="AF89" s="370"/>
-      <c r="AG89" s="370"/>
-      <c r="AH89" s="371"/>
+      <c r="AE89" s="331"/>
+      <c r="AF89" s="332"/>
+      <c r="AG89" s="332"/>
+      <c r="AH89" s="333"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="112">
@@ -14697,13 +15069,13 @@
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="362" t="s">
+      <c r="Q90" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R90" s="363"/>
-      <c r="S90" s="363"/>
-      <c r="T90" s="363"/>
-      <c r="U90" s="363"/>
+      <c r="R90" s="330"/>
+      <c r="S90" s="330"/>
+      <c r="T90" s="330"/>
+      <c r="U90" s="330"/>
       <c r="V90" s="141" t="s">
         <v>120</v>
       </c>
@@ -14717,10 +15089,10 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="369"/>
-      <c r="AF90" s="370"/>
-      <c r="AG90" s="370"/>
-      <c r="AH90" s="371"/>
+      <c r="AE90" s="331"/>
+      <c r="AF90" s="332"/>
+      <c r="AG90" s="332"/>
+      <c r="AH90" s="333"/>
       <c r="AI90" s="113"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14741,13 +15113,13 @@
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="362" t="s">
+      <c r="Q91" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R91" s="363"/>
-      <c r="S91" s="363"/>
-      <c r="T91" s="363"/>
-      <c r="U91" s="363"/>
+      <c r="R91" s="330"/>
+      <c r="S91" s="330"/>
+      <c r="T91" s="330"/>
+      <c r="U91" s="330"/>
       <c r="V91" s="141" t="s">
         <v>128</v>
       </c>
@@ -14761,10 +15133,10 @@
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="369"/>
-      <c r="AF91" s="370"/>
-      <c r="AG91" s="370"/>
-      <c r="AH91" s="371"/>
+      <c r="AE91" s="331"/>
+      <c r="AF91" s="332"/>
+      <c r="AG91" s="332"/>
+      <c r="AH91" s="333"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
@@ -14784,13 +15156,13 @@
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="362" t="s">
+      <c r="Q92" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R92" s="363"/>
-      <c r="S92" s="363"/>
-      <c r="T92" s="363"/>
-      <c r="U92" s="363"/>
+      <c r="R92" s="330"/>
+      <c r="S92" s="330"/>
+      <c r="T92" s="330"/>
+      <c r="U92" s="330"/>
       <c r="V92" s="141" t="s">
         <v>131</v>
       </c>
@@ -14804,10 +15176,10 @@
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="369"/>
-      <c r="AF92" s="370"/>
-      <c r="AG92" s="370"/>
-      <c r="AH92" s="371"/>
+      <c r="AE92" s="331"/>
+      <c r="AF92" s="332"/>
+      <c r="AG92" s="332"/>
+      <c r="AH92" s="333"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="112">
@@ -14827,13 +15199,13 @@
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="362" t="s">
+      <c r="Q93" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R93" s="363"/>
-      <c r="S93" s="363"/>
-      <c r="T93" s="363"/>
-      <c r="U93" s="363"/>
+      <c r="R93" s="330"/>
+      <c r="S93" s="330"/>
+      <c r="T93" s="330"/>
+      <c r="U93" s="330"/>
       <c r="V93" s="141" t="s">
         <v>121</v>
       </c>
@@ -14847,10 +15219,10 @@
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="369"/>
-      <c r="AF93" s="370"/>
-      <c r="AG93" s="370"/>
-      <c r="AH93" s="371"/>
+      <c r="AE93" s="331"/>
+      <c r="AF93" s="332"/>
+      <c r="AG93" s="332"/>
+      <c r="AH93" s="333"/>
       <c r="AI93" s="113"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14871,13 +15243,13 @@
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="362" t="s">
+      <c r="Q94" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R94" s="363"/>
-      <c r="S94" s="363"/>
-      <c r="T94" s="363"/>
-      <c r="U94" s="363"/>
+      <c r="R94" s="330"/>
+      <c r="S94" s="330"/>
+      <c r="T94" s="330"/>
+      <c r="U94" s="330"/>
       <c r="V94" s="141" t="s">
         <v>122</v>
       </c>
@@ -14891,10 +15263,10 @@
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="369"/>
-      <c r="AF94" s="370"/>
-      <c r="AG94" s="370"/>
-      <c r="AH94" s="371"/>
+      <c r="AE94" s="331"/>
+      <c r="AF94" s="332"/>
+      <c r="AG94" s="332"/>
+      <c r="AH94" s="333"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
@@ -14914,13 +15286,13 @@
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="362" t="s">
+      <c r="Q95" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R95" s="363"/>
-      <c r="S95" s="363"/>
-      <c r="T95" s="363"/>
-      <c r="U95" s="363"/>
+      <c r="R95" s="330"/>
+      <c r="S95" s="330"/>
+      <c r="T95" s="330"/>
+      <c r="U95" s="330"/>
       <c r="V95" s="141" t="s">
         <v>123</v>
       </c>
@@ -14934,10 +15306,10 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="369"/>
-      <c r="AF95" s="370"/>
-      <c r="AG95" s="370"/>
-      <c r="AH95" s="371"/>
+      <c r="AE95" s="331"/>
+      <c r="AF95" s="332"/>
+      <c r="AG95" s="332"/>
+      <c r="AH95" s="333"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F96" s="112">
@@ -14957,13 +15329,13 @@
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="362" t="s">
+      <c r="Q96" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R96" s="363"/>
-      <c r="S96" s="363"/>
-      <c r="T96" s="363"/>
-      <c r="U96" s="363"/>
+      <c r="R96" s="330"/>
+      <c r="S96" s="330"/>
+      <c r="T96" s="330"/>
+      <c r="U96" s="330"/>
       <c r="V96" s="141" t="s">
         <v>124</v>
       </c>
@@ -14977,10 +15349,10 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="369"/>
-      <c r="AF96" s="370"/>
-      <c r="AG96" s="370"/>
-      <c r="AH96" s="371"/>
+      <c r="AE96" s="331"/>
+      <c r="AF96" s="332"/>
+      <c r="AG96" s="332"/>
+      <c r="AH96" s="333"/>
       <c r="AI96" s="113"/>
     </row>
     <row r="97" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15001,13 +15373,13 @@
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="362" t="s">
+      <c r="Q97" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R97" s="363"/>
-      <c r="S97" s="363"/>
-      <c r="T97" s="363"/>
-      <c r="U97" s="363"/>
+      <c r="R97" s="330"/>
+      <c r="S97" s="330"/>
+      <c r="T97" s="330"/>
+      <c r="U97" s="330"/>
       <c r="V97" s="141" t="s">
         <v>125</v>
       </c>
@@ -15021,10 +15393,10 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="369"/>
-      <c r="AF97" s="370"/>
-      <c r="AG97" s="370"/>
-      <c r="AH97" s="371"/>
+      <c r="AE97" s="331"/>
+      <c r="AF97" s="332"/>
+      <c r="AG97" s="332"/>
+      <c r="AH97" s="333"/>
     </row>
     <row r="98" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
@@ -15044,13 +15416,13 @@
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="362" t="s">
+      <c r="Q98" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R98" s="363"/>
-      <c r="S98" s="363"/>
-      <c r="T98" s="363"/>
-      <c r="U98" s="363"/>
+      <c r="R98" s="330"/>
+      <c r="S98" s="330"/>
+      <c r="T98" s="330"/>
+      <c r="U98" s="330"/>
       <c r="V98" s="141" t="s">
         <v>126</v>
       </c>
@@ -15064,10 +15436,10 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="369"/>
-      <c r="AF98" s="370"/>
-      <c r="AG98" s="370"/>
-      <c r="AH98" s="371"/>
+      <c r="AE98" s="331"/>
+      <c r="AF98" s="332"/>
+      <c r="AG98" s="332"/>
+      <c r="AH98" s="333"/>
     </row>
     <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="112">
@@ -15087,13 +15459,13 @@
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="362" t="s">
+      <c r="Q99" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="R99" s="363"/>
-      <c r="S99" s="363"/>
-      <c r="T99" s="363"/>
-      <c r="U99" s="363"/>
+      <c r="R99" s="330"/>
+      <c r="S99" s="330"/>
+      <c r="T99" s="330"/>
+      <c r="U99" s="330"/>
       <c r="V99" s="141" t="s">
         <v>127</v>
       </c>
@@ -15107,10 +15479,10 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="369"/>
-      <c r="AF99" s="370"/>
-      <c r="AG99" s="370"/>
-      <c r="AH99" s="371"/>
+      <c r="AE99" s="331"/>
+      <c r="AF99" s="332"/>
+      <c r="AG99" s="332"/>
+      <c r="AH99" s="333"/>
       <c r="AI99" s="113"/>
     </row>
     <row r="102" spans="3:35" x14ac:dyDescent="0.15">
@@ -15152,30 +15524,82 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q87:U87"/>
-    <mergeCell ref="AE87:AH87"/>
-    <mergeCell ref="Q88:U88"/>
-    <mergeCell ref="AE88:AH88"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q81:AH81"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:J86"/>
+    <mergeCell ref="AE85:AH86"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
     <mergeCell ref="AE99:AH99"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
@@ -15200,82 +15624,30 @@
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="I81:M81"/>
     <mergeCell ref="N81:P81"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q81:AH81"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:J86"/>
-    <mergeCell ref="AE85:AH86"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q87:U87"/>
+    <mergeCell ref="AE87:AH87"/>
+    <mergeCell ref="Q88:U88"/>
+    <mergeCell ref="AE88:AH88"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">
@@ -15304,6 +15676,900 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353806D-FF5C-482E-BB39-2D4895F598BD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AL44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="4.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="267" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="227" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="258" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
+        <v>システム機能設計書(バッチ)
+BA10601/期間内プロジェクト一覧出力バッチ</v>
+      </c>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="221" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="197" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="268">
+        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
+        <v>43634</v>
+      </c>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="10"/>
+    </row>
+    <row r="2" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="267" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="221" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="197" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="268">
+        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+    </row>
+    <row r="3" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="267" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
+        <v>プロジェクト管理システム</v>
+      </c>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="224"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="197" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="268" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="E10" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="357" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="355"/>
+      <c r="G11" s="355"/>
+      <c r="H11" s="355"/>
+      <c r="I11" s="355"/>
+      <c r="J11" s="355"/>
+      <c r="K11" s="355"/>
+      <c r="L11" s="355"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="355"/>
+      <c r="Q11" s="355"/>
+      <c r="R11" s="355"/>
+      <c r="S11" s="355"/>
+      <c r="T11" s="355"/>
+      <c r="U11" s="355"/>
+      <c r="V11" s="355"/>
+      <c r="W11" s="355"/>
+      <c r="X11" s="355"/>
+      <c r="Y11" s="355"/>
+      <c r="Z11" s="355"/>
+      <c r="AA11" s="355"/>
+      <c r="AB11" s="355"/>
+      <c r="AC11" s="355"/>
+      <c r="AD11" s="355"/>
+      <c r="AE11" s="355"/>
+      <c r="AF11" s="355"/>
+      <c r="AG11" s="355"/>
+      <c r="AH11" s="355"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="89"/>
+    </row>
+    <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="182" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="356" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="358"/>
+      <c r="J12" s="358"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="358"/>
+      <c r="M12" s="358"/>
+      <c r="N12" s="358"/>
+      <c r="O12" s="358"/>
+      <c r="P12" s="358"/>
+      <c r="Q12" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="179" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="180"/>
+      <c r="T12" s="180"/>
+      <c r="U12" s="180"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="184"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="89"/>
+    </row>
+    <row r="13" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="386" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="387"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="387"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="387"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="386" t="s">
+        <v>189</v>
+      </c>
+      <c r="S13" s="387"/>
+      <c r="T13" s="387"/>
+      <c r="U13" s="387"/>
+      <c r="V13" s="387"/>
+      <c r="W13" s="387"/>
+      <c r="X13" s="387"/>
+      <c r="Y13" s="387"/>
+      <c r="Z13" s="387"/>
+      <c r="AA13" s="387"/>
+      <c r="AB13" s="387"/>
+      <c r="AC13" s="387"/>
+      <c r="AD13" s="387"/>
+      <c r="AE13" s="387"/>
+      <c r="AF13" s="387"/>
+      <c r="AG13" s="387"/>
+      <c r="AH13" s="389"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="89"/>
+    </row>
+    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="44">
+        <v>2</v>
+      </c>
+      <c r="F14" s="386" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="387"/>
+      <c r="H14" s="387"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="387"/>
+      <c r="K14" s="387"/>
+      <c r="L14" s="388"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="386" t="s">
+        <v>190</v>
+      </c>
+      <c r="S14" s="387"/>
+      <c r="T14" s="387"/>
+      <c r="U14" s="387"/>
+      <c r="V14" s="387"/>
+      <c r="W14" s="387"/>
+      <c r="X14" s="387"/>
+      <c r="Y14" s="387"/>
+      <c r="Z14" s="387"/>
+      <c r="AA14" s="387"/>
+      <c r="AB14" s="387"/>
+      <c r="AC14" s="387"/>
+      <c r="AD14" s="387"/>
+      <c r="AE14" s="387"/>
+      <c r="AF14" s="387"/>
+      <c r="AG14" s="387"/>
+      <c r="AH14" s="389"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="88"/>
+    </row>
+    <row r="15" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="44">
+        <v>3</v>
+      </c>
+      <c r="F15" s="386" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="387"/>
+      <c r="H15" s="387"/>
+      <c r="I15" s="387"/>
+      <c r="J15" s="387"/>
+      <c r="K15" s="387"/>
+      <c r="L15" s="388"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="386" t="s">
+        <v>191</v>
+      </c>
+      <c r="S15" s="387"/>
+      <c r="T15" s="387"/>
+      <c r="U15" s="387"/>
+      <c r="V15" s="387"/>
+      <c r="W15" s="387"/>
+      <c r="X15" s="387"/>
+      <c r="Y15" s="387"/>
+      <c r="Z15" s="387"/>
+      <c r="AA15" s="387"/>
+      <c r="AB15" s="387"/>
+      <c r="AC15" s="387"/>
+      <c r="AD15" s="387"/>
+      <c r="AE15" s="387"/>
+      <c r="AF15" s="387"/>
+      <c r="AG15" s="387"/>
+      <c r="AH15" s="389"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="88"/>
+    </row>
+    <row r="16" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="44">
+        <v>4</v>
+      </c>
+      <c r="F16" s="386" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="387"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="387"/>
+      <c r="J16" s="387"/>
+      <c r="K16" s="387"/>
+      <c r="L16" s="388"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="386" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" s="387"/>
+      <c r="T16" s="387"/>
+      <c r="U16" s="387"/>
+      <c r="V16" s="387"/>
+      <c r="W16" s="387"/>
+      <c r="X16" s="387"/>
+      <c r="Y16" s="387"/>
+      <c r="Z16" s="387"/>
+      <c r="AA16" s="387"/>
+      <c r="AB16" s="387"/>
+      <c r="AC16" s="387"/>
+      <c r="AD16" s="387"/>
+      <c r="AE16" s="387"/>
+      <c r="AF16" s="387"/>
+      <c r="AG16" s="387"/>
+      <c r="AH16" s="389"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="88"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E17" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C19" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E21" s="41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="357" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="355"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="355"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="355"/>
+      <c r="M22" s="355"/>
+      <c r="N22" s="355"/>
+      <c r="O22" s="355"/>
+      <c r="P22" s="355"/>
+      <c r="Q22" s="355"/>
+      <c r="R22" s="355"/>
+      <c r="S22" s="355"/>
+      <c r="T22" s="355"/>
+      <c r="U22" s="355"/>
+      <c r="V22" s="355"/>
+      <c r="W22" s="355"/>
+      <c r="X22" s="355"/>
+      <c r="Y22" s="355"/>
+      <c r="Z22" s="355"/>
+      <c r="AA22" s="355"/>
+      <c r="AB22" s="355"/>
+      <c r="AC22" s="355"/>
+      <c r="AD22" s="355"/>
+      <c r="AE22" s="355"/>
+      <c r="AF22" s="355"/>
+      <c r="AG22" s="355"/>
+      <c r="AH22" s="355"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="182" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="356" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="358"/>
+      <c r="H23" s="358"/>
+      <c r="I23" s="358"/>
+      <c r="J23" s="358"/>
+      <c r="K23" s="358"/>
+      <c r="L23" s="358"/>
+      <c r="M23" s="358"/>
+      <c r="N23" s="358"/>
+      <c r="O23" s="358"/>
+      <c r="P23" s="358"/>
+      <c r="Q23" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="179" t="s">
+        <v>185</v>
+      </c>
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="184"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="386" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="387"/>
+      <c r="H24" s="387"/>
+      <c r="I24" s="387"/>
+      <c r="J24" s="387"/>
+      <c r="K24" s="387"/>
+      <c r="L24" s="388"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R24" s="386" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="387"/>
+      <c r="T24" s="387"/>
+      <c r="U24" s="387"/>
+      <c r="V24" s="387"/>
+      <c r="W24" s="387"/>
+      <c r="X24" s="387"/>
+      <c r="Y24" s="387"/>
+      <c r="Z24" s="387"/>
+      <c r="AA24" s="387"/>
+      <c r="AB24" s="387"/>
+      <c r="AC24" s="387"/>
+      <c r="AD24" s="387"/>
+      <c r="AE24" s="387"/>
+      <c r="AF24" s="387"/>
+      <c r="AG24" s="387"/>
+      <c r="AH24" s="389"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E25" s="44">
+        <v>2</v>
+      </c>
+      <c r="F25" s="386" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="387"/>
+      <c r="H25" s="387"/>
+      <c r="I25" s="387"/>
+      <c r="J25" s="387"/>
+      <c r="K25" s="387"/>
+      <c r="L25" s="388"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="386" t="s">
+        <v>200</v>
+      </c>
+      <c r="S25" s="387"/>
+      <c r="T25" s="387"/>
+      <c r="U25" s="387"/>
+      <c r="V25" s="387"/>
+      <c r="W25" s="387"/>
+      <c r="X25" s="387"/>
+      <c r="Y25" s="387"/>
+      <c r="Z25" s="387"/>
+      <c r="AA25" s="387"/>
+      <c r="AB25" s="387"/>
+      <c r="AC25" s="387"/>
+      <c r="AD25" s="387"/>
+      <c r="AE25" s="387"/>
+      <c r="AF25" s="387"/>
+      <c r="AG25" s="387"/>
+      <c r="AH25" s="389"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E26" s="44">
+        <v>3</v>
+      </c>
+      <c r="F26" s="386" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="387"/>
+      <c r="H26" s="387"/>
+      <c r="I26" s="387"/>
+      <c r="J26" s="387"/>
+      <c r="K26" s="387"/>
+      <c r="L26" s="388"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R26" s="386" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="387"/>
+      <c r="T26" s="387"/>
+      <c r="U26" s="387"/>
+      <c r="V26" s="387"/>
+      <c r="W26" s="387"/>
+      <c r="X26" s="387"/>
+      <c r="Y26" s="387"/>
+      <c r="Z26" s="387"/>
+      <c r="AA26" s="387"/>
+      <c r="AB26" s="387"/>
+      <c r="AC26" s="387"/>
+      <c r="AD26" s="387"/>
+      <c r="AE26" s="387"/>
+      <c r="AF26" s="387"/>
+      <c r="AG26" s="387"/>
+      <c r="AH26" s="389"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E27" s="44">
+        <v>4</v>
+      </c>
+      <c r="F27" s="386" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="387"/>
+      <c r="H27" s="387"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="388"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R27" s="386" t="s">
+        <v>200</v>
+      </c>
+      <c r="S27" s="387"/>
+      <c r="T27" s="387"/>
+      <c r="U27" s="387"/>
+      <c r="V27" s="387"/>
+      <c r="W27" s="387"/>
+      <c r="X27" s="387"/>
+      <c r="Y27" s="387"/>
+      <c r="Z27" s="387"/>
+      <c r="AA27" s="387"/>
+      <c r="AB27" s="387"/>
+      <c r="AC27" s="387"/>
+      <c r="AD27" s="387"/>
+      <c r="AE27" s="387"/>
+      <c r="AF27" s="387"/>
+      <c r="AG27" s="387"/>
+      <c r="AH27" s="389"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C30" s="41"/>
+      <c r="D30" s="105"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C31" s="41"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="105"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="C32" s="41"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="105"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="AI35" s="87"/>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.15">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="E22:AH22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="E11:AH11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q16 Q24:Q27" xr:uid="{BE913035-46E9-4C1A-9190-90005007642D}">
+      <formula1>"○,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0D364F-6363-444D-925F-5E8D2895ADC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B72D1B-4360-4D52-AEDC-E86749064689}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,23 +14,19 @@
     <sheet name="1.1. バッチ取引概要" sheetId="13" r:id="rId4"/>
     <sheet name="1.3. バッチ処理フロー" sheetId="32" r:id="rId5"/>
     <sheet name="2. BA1060101(期間内プロジェクト一覧ファイル作成)" sheetId="33" r:id="rId6"/>
-    <sheet name="3. 設定値一覧" sheetId="36" r:id="rId7"/>
-    <sheet name="データ" sheetId="35" r:id="rId8"/>
+    <sheet name="データ" sheetId="35" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. バッチ取引概要'!$A$1:$AI$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$A$1:$AI$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3. 設定値一覧'!$A$1:$AI$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">データ!$A$1:$B$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$A$1:$AI$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. バッチ取引概要'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3. バッチ処理フロー'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'3. 設定値一覧'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="データ型" localSheetId="6">#REF!</definedName>
     <definedName name="データ型">#REF!</definedName>
     <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
   </definedNames>
@@ -245,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="N83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
   <si>
     <t>PJ名</t>
   </si>
@@ -1508,153 +1504,23 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>フォーマット定義ファイルの格納ディレクトリ</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>出力制御用として以下のファイルパス設定を使用する。</t>
-    <rPh sb="0" eb="4">
-      <t>シュツリョクセイギョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>設定値</t>
-    <rPh sb="0" eb="3">
-      <t>セッテイチ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>出力先ディレクトリ</t>
-  </si>
-  <si>
-    <t>CSVの出力ディレクトリ</t>
-  </si>
-  <si>
-    <t>入力ファイルディレクトリ</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>${nablarch.filePathSetting.basePathSettings.format}</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>${nablarch.filePathSetting.basePathSettings.output}</t>
-  </si>
-  <si>
-    <t>${nablarch.filePathSetting.basePathSettings.csv_output}</t>
-  </si>
-  <si>
-    <t>${nablarch.filePathSetting.basePathSettings.input}</t>
-  </si>
-  <si>
-    <t>nablarch.filePathSetting.basePathSettings.format</t>
-  </si>
-  <si>
-    <t>nablarch.filePathSetting.basePathSettings.output</t>
-  </si>
-  <si>
-    <t>nablarch.filePathSetting.basePathSettings.csv_output</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>nablarch.filePathSetting.basePathSettings.input</t>
-  </si>
-  <si>
-    <t>※環境依存の定義値はenv.configファイルにプロパティとして定義</t>
-    <rPh sb="1" eb="5">
-      <t>カンキョウイゾン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>テイギチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>3.2. env.config</t>
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>出力先ディレクトリパスを設定（環境単位に分離管理）</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ブンリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>別途定義するディレクトリ一覧にて記載</t>
-    <rPh sb="0" eb="2">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>設定項目</t>
-    <rPh sb="0" eb="4">
-      <t>セッテイコウモク</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>2.4. 入出力一覧
+    <t xml:space="preserve">2.4. 入出力一覧
 2.5.1. プロジェクトテーブル
 2.7. 出力データ定義
-3. 設定値一覧</t>
+</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
+    <t>Nablarchのファイルパス管理の機能を使いCSVの出力設定を取得する。</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t>・対象テーブルの表記を「プロジェクトテーブル」から「プロジェクト」へ修正
-・ディレクトリ設定について3. 設定値一覧を追加</t>
+・CSV出力について、Nablarchのファイルパス管理機能を利用して出力することを記載。</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
@@ -1664,11 +1530,20 @@
     <rPh sb="34" eb="36">
       <t>シュウセイ</t>
     </rPh>
-    <rPh sb="44" eb="46">
-      <t>セッテイ</t>
+    <rPh sb="41" eb="43">
+      <t>シュツリョク</t>
     </rPh>
-    <rPh sb="59" eb="61">
-      <t>ツイカ</t>
+    <rPh sb="65" eb="67">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
@@ -2115,7 +1990,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2574,27 +2449,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2612,96 +2466,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2769,9 +2533,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2808,6 +2608,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2835,17 +2701,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2919,106 +2875,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3027,6 +3004,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3036,12 +3028,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3058,150 +3044,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6642,178 +6484,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBFD90A-ECB7-4867-8416-D6E29A1E981E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7883769" y="2996711"/>
-          <a:ext cx="1670539" cy="893884"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 58899"/>
-            <a:gd name="adj2" fmla="val -2387"/>
-            <a:gd name="adj3" fmla="val 70000"/>
-            <a:gd name="adj4" fmla="val -57286"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>愚痴的な設定値は、インフラ設計として定義される想定。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>開発時は単体用としてローカル値を別途定義する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212483</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51292</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>21982</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D90D66-3741-4A6F-B526-E98D12DE48DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4667252" y="3194542"/>
-          <a:ext cx="2593730" cy="974478"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3742"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7228,12 +6898,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="185">
+      <c r="I25" s="178">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="185"/>
-      <c r="K25" s="185"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7321,44 +6991,44 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="180"/>
+      <c r="S34" s="180"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
+      <c r="Q35" s="180"/>
+      <c r="R35" s="180"/>
+      <c r="S35" s="180"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="188"/>
-      <c r="P36" s="187"/>
-      <c r="Q36" s="188"/>
-      <c r="R36" s="187"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="189"/>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="189"/>
-      <c r="R37" s="190"/>
-      <c r="S37" s="189"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="183"/>
+      <c r="S37" s="182"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="190"/>
-      <c r="S38" s="190"/>
+      <c r="O38" s="183"/>
+      <c r="P38" s="183"/>
+      <c r="Q38" s="183"/>
+      <c r="R38" s="183"/>
+      <c r="S38" s="183"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="190"/>
-      <c r="S39" s="190"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183"/>
+      <c r="S39" s="183"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7870,57 +7540,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="206" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="236" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="191">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="242">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="193"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7928,53 +7598,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="191">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="242">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="193"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7982,45 +7652,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="206" t="s">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="248" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="192"/>
-      <c r="AI3" s="193"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -8159,52 +7829,52 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="215"/>
+      <c r="D7" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="209" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="245" t="s">
+      <c r="H7" s="216"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="209" t="s">
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="210"/>
-      <c r="S7" s="210"/>
-      <c r="T7" s="210"/>
-      <c r="U7" s="210"/>
-      <c r="V7" s="210"/>
-      <c r="W7" s="210"/>
-      <c r="X7" s="210"/>
-      <c r="Y7" s="210"/>
-      <c r="Z7" s="210"/>
-      <c r="AA7" s="210"/>
-      <c r="AB7" s="210"/>
-      <c r="AC7" s="210"/>
-      <c r="AD7" s="210"/>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="209" t="s">
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="215"/>
+      <c r="AF7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="210"/>
-      <c r="AH7" s="210"/>
-      <c r="AI7" s="211"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="215"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -8215,52 +7885,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248">
+      <c r="C8" s="222"/>
+      <c r="D8" s="223">
         <v>43634</v>
       </c>
-      <c r="E8" s="249"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="246" t="s">
+      <c r="E8" s="224"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="251"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="252" t="s">
+      <c r="H8" s="226"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="253"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="255" t="s">
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="252" t="s">
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="253"/>
-      <c r="AI8" s="254"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
+      <c r="AI8" s="229"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -8271,52 +7941,52 @@
       <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="215"/>
-      <c r="D9" s="216">
+      <c r="C9" s="209"/>
+      <c r="D9" s="210">
         <v>44796</v>
       </c>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="220" t="s">
+      <c r="E9" s="211"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="236" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="219"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="212" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="212" t="s">
-        <v>203</v>
-      </c>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="204"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="204"/>
-      <c r="AE9" s="205"/>
-      <c r="AF9" s="213" t="s">
+      <c r="H9" s="213"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="240" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="240" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="241" t="s">
         <v>176</v>
       </c>
-      <c r="AG9" s="201"/>
-      <c r="AH9" s="201"/>
-      <c r="AI9" s="202"/>
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="234"/>
+      <c r="AI9" s="235"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -8325,40 +7995,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="200"/>
-      <c r="AG10" s="201"/>
-      <c r="AH10" s="201"/>
-      <c r="AI10" s="202"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="239"/>
+      <c r="AF10" s="233"/>
+      <c r="AG10" s="234"/>
+      <c r="AH10" s="234"/>
+      <c r="AI10" s="235"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -8367,40 +8037,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="214"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="204"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="204"/>
-      <c r="AE11" s="205"/>
-      <c r="AF11" s="200"/>
-      <c r="AG11" s="201"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="202"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
+      <c r="AF11" s="233"/>
+      <c r="AG11" s="234"/>
+      <c r="AH11" s="234"/>
+      <c r="AI11" s="235"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -8409,40 +8079,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="214"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="214"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="204"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="204"/>
-      <c r="V12" s="204"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="204"/>
-      <c r="Z12" s="204"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="204"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="205"/>
-      <c r="AF12" s="200"/>
-      <c r="AG12" s="201"/>
-      <c r="AH12" s="201"/>
-      <c r="AI12" s="202"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="233"/>
+      <c r="AG12" s="234"/>
+      <c r="AH12" s="234"/>
+      <c r="AI12" s="235"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -8451,40 +8121,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="214"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="204"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
-      <c r="Y13" s="204"/>
-      <c r="Z13" s="204"/>
-      <c r="AA13" s="204"/>
-      <c r="AB13" s="204"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="204"/>
-      <c r="AE13" s="205"/>
-      <c r="AF13" s="200"/>
-      <c r="AG13" s="201"/>
-      <c r="AH13" s="201"/>
-      <c r="AI13" s="202"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="238"/>
+      <c r="S13" s="238"/>
+      <c r="T13" s="238"/>
+      <c r="U13" s="238"/>
+      <c r="V13" s="238"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="239"/>
+      <c r="AF13" s="233"/>
+      <c r="AG13" s="234"/>
+      <c r="AH13" s="234"/>
+      <c r="AI13" s="235"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -8493,40 +8163,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="214"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="204"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="204"/>
-      <c r="Y14" s="204"/>
-      <c r="Z14" s="204"/>
-      <c r="AA14" s="204"/>
-      <c r="AB14" s="204"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="204"/>
-      <c r="AE14" s="205"/>
-      <c r="AF14" s="200"/>
-      <c r="AG14" s="201"/>
-      <c r="AH14" s="201"/>
-      <c r="AI14" s="202"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="234"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="238"/>
+      <c r="W14" s="238"/>
+      <c r="X14" s="238"/>
+      <c r="Y14" s="238"/>
+      <c r="Z14" s="238"/>
+      <c r="AA14" s="238"/>
+      <c r="AB14" s="238"/>
+      <c r="AC14" s="238"/>
+      <c r="AD14" s="238"/>
+      <c r="AE14" s="239"/>
+      <c r="AF14" s="233"/>
+      <c r="AG14" s="234"/>
+      <c r="AH14" s="234"/>
+      <c r="AI14" s="235"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -8535,40 +8205,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="214"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="204"/>
-      <c r="T15" s="204"/>
-      <c r="U15" s="204"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="204"/>
-      <c r="X15" s="204"/>
-      <c r="Y15" s="204"/>
-      <c r="Z15" s="204"/>
-      <c r="AA15" s="204"/>
-      <c r="AB15" s="204"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="205"/>
-      <c r="AF15" s="200"/>
-      <c r="AG15" s="201"/>
-      <c r="AH15" s="201"/>
-      <c r="AI15" s="202"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="238"/>
+      <c r="S15" s="238"/>
+      <c r="T15" s="238"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="238"/>
+      <c r="Y15" s="238"/>
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="238"/>
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="239"/>
+      <c r="AF15" s="233"/>
+      <c r="AG15" s="234"/>
+      <c r="AH15" s="234"/>
+      <c r="AI15" s="235"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -8577,40 +8247,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="214"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="202"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="204"/>
-      <c r="S16" s="204"/>
-      <c r="T16" s="204"/>
-      <c r="U16" s="204"/>
-      <c r="V16" s="204"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="204"/>
-      <c r="Y16" s="204"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="204"/>
-      <c r="AB16" s="204"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="204"/>
-      <c r="AE16" s="205"/>
-      <c r="AF16" s="200"/>
-      <c r="AG16" s="201"/>
-      <c r="AH16" s="201"/>
-      <c r="AI16" s="202"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="235"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="238"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="238"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="238"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="238"/>
+      <c r="AA16" s="238"/>
+      <c r="AB16" s="238"/>
+      <c r="AC16" s="238"/>
+      <c r="AD16" s="238"/>
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="233"/>
+      <c r="AG16" s="234"/>
+      <c r="AH16" s="234"/>
+      <c r="AI16" s="235"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -8619,40 +8289,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="204"/>
-      <c r="S17" s="204"/>
-      <c r="T17" s="204"/>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204"/>
-      <c r="AA17" s="204"/>
-      <c r="AB17" s="204"/>
-      <c r="AC17" s="204"/>
-      <c r="AD17" s="204"/>
-      <c r="AE17" s="205"/>
-      <c r="AF17" s="200"/>
-      <c r="AG17" s="201"/>
-      <c r="AH17" s="201"/>
-      <c r="AI17" s="202"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="238"/>
+      <c r="U17" s="238"/>
+      <c r="V17" s="238"/>
+      <c r="W17" s="238"/>
+      <c r="X17" s="238"/>
+      <c r="Y17" s="238"/>
+      <c r="Z17" s="238"/>
+      <c r="AA17" s="238"/>
+      <c r="AB17" s="238"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="238"/>
+      <c r="AE17" s="239"/>
+      <c r="AF17" s="233"/>
+      <c r="AG17" s="234"/>
+      <c r="AH17" s="234"/>
+      <c r="AI17" s="235"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -8661,40 +8331,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="202"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="204"/>
-      <c r="AD18" s="204"/>
-      <c r="AE18" s="205"/>
-      <c r="AF18" s="200"/>
-      <c r="AG18" s="201"/>
-      <c r="AH18" s="201"/>
-      <c r="AI18" s="202"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="238"/>
+      <c r="S18" s="238"/>
+      <c r="T18" s="238"/>
+      <c r="U18" s="238"/>
+      <c r="V18" s="238"/>
+      <c r="W18" s="238"/>
+      <c r="X18" s="238"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="238"/>
+      <c r="AA18" s="238"/>
+      <c r="AB18" s="238"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="238"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="233"/>
+      <c r="AG18" s="234"/>
+      <c r="AH18" s="234"/>
+      <c r="AI18" s="235"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -8703,40 +8373,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="204"/>
-      <c r="W19" s="204"/>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="204"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="205"/>
-      <c r="AF19" s="200"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="201"/>
-      <c r="AI19" s="202"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="238"/>
+      <c r="S19" s="238"/>
+      <c r="T19" s="238"/>
+      <c r="U19" s="238"/>
+      <c r="V19" s="238"/>
+      <c r="W19" s="238"/>
+      <c r="X19" s="238"/>
+      <c r="Y19" s="238"/>
+      <c r="Z19" s="238"/>
+      <c r="AA19" s="238"/>
+      <c r="AB19" s="238"/>
+      <c r="AC19" s="238"/>
+      <c r="AD19" s="238"/>
+      <c r="AE19" s="239"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="234"/>
+      <c r="AH19" s="234"/>
+      <c r="AI19" s="235"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -8745,40 +8415,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="202"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="204"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="204"/>
-      <c r="AE20" s="205"/>
-      <c r="AF20" s="200"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="201"/>
-      <c r="AI20" s="202"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="238"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="238"/>
+      <c r="U20" s="238"/>
+      <c r="V20" s="238"/>
+      <c r="W20" s="238"/>
+      <c r="X20" s="238"/>
+      <c r="Y20" s="238"/>
+      <c r="Z20" s="238"/>
+      <c r="AA20" s="238"/>
+      <c r="AB20" s="238"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="238"/>
+      <c r="AE20" s="239"/>
+      <c r="AF20" s="233"/>
+      <c r="AG20" s="234"/>
+      <c r="AH20" s="234"/>
+      <c r="AI20" s="235"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8787,40 +8457,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="214"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="202"/>
-      <c r="Q21" s="203"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="204"/>
-      <c r="T21" s="204"/>
-      <c r="U21" s="204"/>
-      <c r="V21" s="204"/>
-      <c r="W21" s="204"/>
-      <c r="X21" s="204"/>
-      <c r="Y21" s="204"/>
-      <c r="Z21" s="204"/>
-      <c r="AA21" s="204"/>
-      <c r="AB21" s="204"/>
-      <c r="AC21" s="204"/>
-      <c r="AD21" s="204"/>
-      <c r="AE21" s="205"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="201"/>
-      <c r="AI21" s="202"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="238"/>
+      <c r="S21" s="238"/>
+      <c r="T21" s="238"/>
+      <c r="U21" s="238"/>
+      <c r="V21" s="238"/>
+      <c r="W21" s="238"/>
+      <c r="X21" s="238"/>
+      <c r="Y21" s="238"/>
+      <c r="Z21" s="238"/>
+      <c r="AA21" s="238"/>
+      <c r="AB21" s="238"/>
+      <c r="AC21" s="238"/>
+      <c r="AD21" s="238"/>
+      <c r="AE21" s="239"/>
+      <c r="AF21" s="233"/>
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="234"/>
+      <c r="AI21" s="235"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8829,40 +8499,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="214"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="202"/>
-      <c r="Q22" s="203"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="204"/>
-      <c r="T22" s="204"/>
-      <c r="U22" s="204"/>
-      <c r="V22" s="204"/>
-      <c r="W22" s="204"/>
-      <c r="X22" s="204"/>
-      <c r="Y22" s="204"/>
-      <c r="Z22" s="204"/>
-      <c r="AA22" s="204"/>
-      <c r="AB22" s="204"/>
-      <c r="AC22" s="204"/>
-      <c r="AD22" s="204"/>
-      <c r="AE22" s="205"/>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="201"/>
-      <c r="AH22" s="201"/>
-      <c r="AI22" s="202"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="238"/>
+      <c r="S22" s="238"/>
+      <c r="T22" s="238"/>
+      <c r="U22" s="238"/>
+      <c r="V22" s="238"/>
+      <c r="W22" s="238"/>
+      <c r="X22" s="238"/>
+      <c r="Y22" s="238"/>
+      <c r="Z22" s="238"/>
+      <c r="AA22" s="238"/>
+      <c r="AB22" s="238"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="238"/>
+      <c r="AE22" s="239"/>
+      <c r="AF22" s="233"/>
+      <c r="AG22" s="234"/>
+      <c r="AH22" s="234"/>
+      <c r="AI22" s="235"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8871,40 +8541,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="203"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="204"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="204"/>
-      <c r="V23" s="204"/>
-      <c r="W23" s="204"/>
-      <c r="X23" s="204"/>
-      <c r="Y23" s="204"/>
-      <c r="Z23" s="204"/>
-      <c r="AA23" s="204"/>
-      <c r="AB23" s="204"/>
-      <c r="AC23" s="204"/>
-      <c r="AD23" s="204"/>
-      <c r="AE23" s="205"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="201"/>
-      <c r="AI23" s="202"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="238"/>
+      <c r="S23" s="238"/>
+      <c r="T23" s="238"/>
+      <c r="U23" s="238"/>
+      <c r="V23" s="238"/>
+      <c r="W23" s="238"/>
+      <c r="X23" s="238"/>
+      <c r="Y23" s="238"/>
+      <c r="Z23" s="238"/>
+      <c r="AA23" s="238"/>
+      <c r="AB23" s="238"/>
+      <c r="AC23" s="238"/>
+      <c r="AD23" s="238"/>
+      <c r="AE23" s="239"/>
+      <c r="AF23" s="233"/>
+      <c r="AG23" s="234"/>
+      <c r="AH23" s="234"/>
+      <c r="AI23" s="235"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8913,40 +8583,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="214"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="203"/>
-      <c r="R24" s="204"/>
-      <c r="S24" s="204"/>
-      <c r="T24" s="204"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="204"/>
-      <c r="AD24" s="204"/>
-      <c r="AE24" s="205"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="201"/>
-      <c r="AI24" s="202"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="238"/>
+      <c r="T24" s="238"/>
+      <c r="U24" s="238"/>
+      <c r="V24" s="238"/>
+      <c r="W24" s="238"/>
+      <c r="X24" s="238"/>
+      <c r="Y24" s="238"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="238"/>
+      <c r="AB24" s="238"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="238"/>
+      <c r="AE24" s="239"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="234"/>
+      <c r="AH24" s="234"/>
+      <c r="AI24" s="235"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8955,40 +8625,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="218"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201"/>
-      <c r="O25" s="201"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="204"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="204"/>
-      <c r="AE25" s="205"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="201"/>
-      <c r="AH25" s="201"/>
-      <c r="AI25" s="202"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="238"/>
+      <c r="V25" s="238"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="239"/>
+      <c r="AF25" s="233"/>
+      <c r="AG25" s="234"/>
+      <c r="AH25" s="234"/>
+      <c r="AI25" s="235"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8997,40 +8667,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="214"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="202"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="204"/>
-      <c r="V26" s="204"/>
-      <c r="W26" s="204"/>
-      <c r="X26" s="204"/>
-      <c r="Y26" s="204"/>
-      <c r="Z26" s="204"/>
-      <c r="AA26" s="204"/>
-      <c r="AB26" s="204"/>
-      <c r="AC26" s="204"/>
-      <c r="AD26" s="204"/>
-      <c r="AE26" s="205"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="201"/>
-      <c r="AH26" s="201"/>
-      <c r="AI26" s="202"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="238"/>
+      <c r="V26" s="238"/>
+      <c r="W26" s="238"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="238"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="238"/>
+      <c r="AE26" s="239"/>
+      <c r="AF26" s="233"/>
+      <c r="AG26" s="234"/>
+      <c r="AH26" s="234"/>
+      <c r="AI26" s="235"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -9039,40 +8709,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="214"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="201"/>
-      <c r="P27" s="202"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="204"/>
-      <c r="S27" s="204"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="204"/>
-      <c r="V27" s="204"/>
-      <c r="W27" s="204"/>
-      <c r="X27" s="204"/>
-      <c r="Y27" s="204"/>
-      <c r="Z27" s="204"/>
-      <c r="AA27" s="204"/>
-      <c r="AB27" s="204"/>
-      <c r="AC27" s="204"/>
-      <c r="AD27" s="204"/>
-      <c r="AE27" s="205"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="201"/>
-      <c r="AH27" s="201"/>
-      <c r="AI27" s="202"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="234"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="237"/>
+      <c r="R27" s="238"/>
+      <c r="S27" s="238"/>
+      <c r="T27" s="238"/>
+      <c r="U27" s="238"/>
+      <c r="V27" s="238"/>
+      <c r="W27" s="238"/>
+      <c r="X27" s="238"/>
+      <c r="Y27" s="238"/>
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="238"/>
+      <c r="AB27" s="238"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="239"/>
+      <c r="AF27" s="233"/>
+      <c r="AG27" s="234"/>
+      <c r="AH27" s="234"/>
+      <c r="AI27" s="235"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -9081,40 +8751,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="216"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="218"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="202"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="204"/>
-      <c r="S28" s="204"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="204"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="204"/>
-      <c r="X28" s="204"/>
-      <c r="Y28" s="204"/>
-      <c r="Z28" s="204"/>
-      <c r="AA28" s="204"/>
-      <c r="AB28" s="204"/>
-      <c r="AC28" s="204"/>
-      <c r="AD28" s="204"/>
-      <c r="AE28" s="205"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="201"/>
-      <c r="AH28" s="201"/>
-      <c r="AI28" s="202"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="235"/>
+      <c r="Q28" s="237"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="238"/>
+      <c r="U28" s="238"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
+      <c r="X28" s="238"/>
+      <c r="Y28" s="238"/>
+      <c r="Z28" s="238"/>
+      <c r="AA28" s="238"/>
+      <c r="AB28" s="238"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="238"/>
+      <c r="AE28" s="239"/>
+      <c r="AF28" s="233"/>
+      <c r="AG28" s="234"/>
+      <c r="AH28" s="234"/>
+      <c r="AI28" s="235"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -9123,40 +8793,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="201"/>
-      <c r="O29" s="201"/>
-      <c r="P29" s="202"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="204"/>
-      <c r="S29" s="204"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="204"/>
-      <c r="V29" s="204"/>
-      <c r="W29" s="204"/>
-      <c r="X29" s="204"/>
-      <c r="Y29" s="204"/>
-      <c r="Z29" s="204"/>
-      <c r="AA29" s="204"/>
-      <c r="AB29" s="204"/>
-      <c r="AC29" s="204"/>
-      <c r="AD29" s="204"/>
-      <c r="AE29" s="205"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="201"/>
-      <c r="AH29" s="201"/>
-      <c r="AI29" s="202"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="235"/>
+      <c r="Q29" s="237"/>
+      <c r="R29" s="238"/>
+      <c r="S29" s="238"/>
+      <c r="T29" s="238"/>
+      <c r="U29" s="238"/>
+      <c r="V29" s="238"/>
+      <c r="W29" s="238"/>
+      <c r="X29" s="238"/>
+      <c r="Y29" s="238"/>
+      <c r="Z29" s="238"/>
+      <c r="AA29" s="238"/>
+      <c r="AB29" s="238"/>
+      <c r="AC29" s="238"/>
+      <c r="AD29" s="238"/>
+      <c r="AE29" s="239"/>
+      <c r="AF29" s="233"/>
+      <c r="AG29" s="234"/>
+      <c r="AH29" s="234"/>
+      <c r="AI29" s="235"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -9165,40 +8835,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="216"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
-      <c r="P30" s="202"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="204"/>
-      <c r="S30" s="204"/>
-      <c r="T30" s="204"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="204"/>
-      <c r="AD30" s="204"/>
-      <c r="AE30" s="205"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="201"/>
-      <c r="AH30" s="201"/>
-      <c r="AI30" s="202"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="234"/>
+      <c r="L30" s="234"/>
+      <c r="M30" s="234"/>
+      <c r="N30" s="234"/>
+      <c r="O30" s="234"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="237"/>
+      <c r="R30" s="238"/>
+      <c r="S30" s="238"/>
+      <c r="T30" s="238"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="238"/>
+      <c r="W30" s="238"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="238"/>
+      <c r="Z30" s="238"/>
+      <c r="AA30" s="238"/>
+      <c r="AB30" s="238"/>
+      <c r="AC30" s="238"/>
+      <c r="AD30" s="238"/>
+      <c r="AE30" s="239"/>
+      <c r="AF30" s="233"/>
+      <c r="AG30" s="234"/>
+      <c r="AH30" s="234"/>
+      <c r="AI30" s="235"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -9207,40 +8877,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="214"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="201"/>
-      <c r="O31" s="201"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="203"/>
-      <c r="R31" s="204"/>
-      <c r="S31" s="204"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="204"/>
-      <c r="V31" s="204"/>
-      <c r="W31" s="204"/>
-      <c r="X31" s="204"/>
-      <c r="Y31" s="204"/>
-      <c r="Z31" s="204"/>
-      <c r="AA31" s="204"/>
-      <c r="AB31" s="204"/>
-      <c r="AC31" s="204"/>
-      <c r="AD31" s="204"/>
-      <c r="AE31" s="205"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="201"/>
-      <c r="AH31" s="201"/>
-      <c r="AI31" s="202"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="234"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="237"/>
+      <c r="R31" s="238"/>
+      <c r="S31" s="238"/>
+      <c r="T31" s="238"/>
+      <c r="U31" s="238"/>
+      <c r="V31" s="238"/>
+      <c r="W31" s="238"/>
+      <c r="X31" s="238"/>
+      <c r="Y31" s="238"/>
+      <c r="Z31" s="238"/>
+      <c r="AA31" s="238"/>
+      <c r="AB31" s="238"/>
+      <c r="AC31" s="238"/>
+      <c r="AD31" s="238"/>
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="233"/>
+      <c r="AG31" s="234"/>
+      <c r="AH31" s="234"/>
+      <c r="AI31" s="235"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -9249,40 +8919,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="201"/>
-      <c r="O32" s="201"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="203"/>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="204"/>
-      <c r="U32" s="204"/>
-      <c r="V32" s="204"/>
-      <c r="W32" s="204"/>
-      <c r="X32" s="204"/>
-      <c r="Y32" s="204"/>
-      <c r="Z32" s="204"/>
-      <c r="AA32" s="204"/>
-      <c r="AB32" s="204"/>
-      <c r="AC32" s="204"/>
-      <c r="AD32" s="204"/>
-      <c r="AE32" s="205"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="201"/>
-      <c r="AH32" s="201"/>
-      <c r="AI32" s="202"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
+      <c r="N32" s="234"/>
+      <c r="O32" s="234"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="237"/>
+      <c r="R32" s="238"/>
+      <c r="S32" s="238"/>
+      <c r="T32" s="238"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="238"/>
+      <c r="W32" s="238"/>
+      <c r="X32" s="238"/>
+      <c r="Y32" s="238"/>
+      <c r="Z32" s="238"/>
+      <c r="AA32" s="238"/>
+      <c r="AB32" s="238"/>
+      <c r="AC32" s="238"/>
+      <c r="AD32" s="238"/>
+      <c r="AE32" s="239"/>
+      <c r="AF32" s="233"/>
+      <c r="AG32" s="234"/>
+      <c r="AH32" s="234"/>
+      <c r="AI32" s="235"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -9291,40 +8961,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="201"/>
-      <c r="O33" s="201"/>
-      <c r="P33" s="202"/>
-      <c r="Q33" s="203"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="204"/>
-      <c r="V33" s="204"/>
-      <c r="W33" s="204"/>
-      <c r="X33" s="204"/>
-      <c r="Y33" s="204"/>
-      <c r="Z33" s="204"/>
-      <c r="AA33" s="204"/>
-      <c r="AB33" s="204"/>
-      <c r="AC33" s="204"/>
-      <c r="AD33" s="204"/>
-      <c r="AE33" s="205"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="201"/>
-      <c r="AH33" s="201"/>
-      <c r="AI33" s="202"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="237"/>
+      <c r="R33" s="238"/>
+      <c r="S33" s="238"/>
+      <c r="T33" s="238"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="238"/>
+      <c r="W33" s="238"/>
+      <c r="X33" s="238"/>
+      <c r="Y33" s="238"/>
+      <c r="Z33" s="238"/>
+      <c r="AA33" s="238"/>
+      <c r="AB33" s="238"/>
+      <c r="AC33" s="238"/>
+      <c r="AD33" s="238"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="233"/>
+      <c r="AG33" s="234"/>
+      <c r="AH33" s="234"/>
+      <c r="AI33" s="235"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -9711,6 +9381,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9735,161 +9560,6 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9907,7 +9577,7 @@
   <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10046,158 +9716,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="268">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -10925,7 +10595,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="106"/>
       <c r="C23" s="41" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D23" s="107"/>
       <c r="E23" s="48"/>
@@ -11711,14 +11381,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11728,6 +11390,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11754,158 +11424,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="268">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11921,86 +11591,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="271" t="s">
+      <c r="D8" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="213" t="s">
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="276"/>
-      <c r="AH8" s="277"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="303"/>
+      <c r="P8" s="303"/>
+      <c r="Q8" s="303"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="303"/>
+      <c r="T8" s="303"/>
+      <c r="U8" s="303"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="303"/>
+      <c r="Z8" s="303"/>
+      <c r="AA8" s="303"/>
+      <c r="AB8" s="303"/>
+      <c r="AC8" s="303"/>
+      <c r="AD8" s="303"/>
+      <c r="AE8" s="303"/>
+      <c r="AF8" s="303"/>
+      <c r="AG8" s="303"/>
+      <c r="AH8" s="304"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="289" t="s">
+      <c r="D9" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="213" t="s">
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="241" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="276"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="276"/>
-      <c r="R9" s="276"/>
-      <c r="S9" s="276"/>
-      <c r="T9" s="276"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="276"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="276"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="276"/>
-      <c r="AE9" s="276"/>
-      <c r="AF9" s="276"/>
-      <c r="AG9" s="276"/>
-      <c r="AH9" s="277"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="303"/>
+      <c r="L9" s="303"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="303"/>
+      <c r="P9" s="303"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="303"/>
+      <c r="S9" s="303"/>
+      <c r="T9" s="303"/>
+      <c r="U9" s="303"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
+      <c r="X9" s="303"/>
+      <c r="Y9" s="303"/>
+      <c r="Z9" s="303"/>
+      <c r="AA9" s="303"/>
+      <c r="AB9" s="303"/>
+      <c r="AC9" s="303"/>
+      <c r="AD9" s="303"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="303"/>
+      <c r="AH9" s="304"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="278" t="s">
+      <c r="D10" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="280"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="108" t="s">
         <v>102</v>
       </c>
@@ -12032,10 +11702,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="292"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
-      <c r="G11" s="294"/>
+      <c r="D11" s="319"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="321"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -12065,12 +11735,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="278" t="s">
+      <c r="D12" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="280"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
       <c r="H12" s="108" t="s">
         <v>104</v>
       </c>
@@ -12102,10 +11772,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="292"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="293"/>
-      <c r="G13" s="294"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="321"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -12135,10 +11805,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="281"/>
-      <c r="E14" s="282"/>
-      <c r="F14" s="282"/>
-      <c r="G14" s="283"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="310"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -12168,12 +11838,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="278" t="s">
+      <c r="D15" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="280"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="306"/>
+      <c r="G15" s="307"/>
       <c r="H15" s="108" t="s">
         <v>103</v>
       </c>
@@ -12205,10 +11875,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="281"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="282"/>
-      <c r="G16" s="283"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="310"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -12276,219 +11946,208 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="274" t="s">
+      <c r="D20" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="296" t="s">
+      <c r="E20" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="297"/>
-      <c r="G20" s="297"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="278" t="s">
+      <c r="F20" s="265"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="279"/>
-      <c r="K20" s="279"/>
-      <c r="L20" s="279"/>
-      <c r="M20" s="279"/>
-      <c r="N20" s="279"/>
-      <c r="O20" s="279"/>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="278" t="s">
+      <c r="J20" s="306"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="306"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="307"/>
+      <c r="Q20" s="305" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="280"/>
-      <c r="S20" s="286" t="s">
+      <c r="R20" s="307"/>
+      <c r="S20" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="287"/>
-      <c r="U20" s="287"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="296" t="s">
+      <c r="T20" s="314"/>
+      <c r="U20" s="314"/>
+      <c r="V20" s="315"/>
+      <c r="W20" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="297"/>
-      <c r="Y20" s="297"/>
-      <c r="Z20" s="297"/>
-      <c r="AA20" s="297"/>
-      <c r="AB20" s="297"/>
-      <c r="AC20" s="297"/>
-      <c r="AD20" s="297"/>
-      <c r="AE20" s="297"/>
-      <c r="AF20" s="297"/>
-      <c r="AG20" s="297"/>
-      <c r="AH20" s="298"/>
+      <c r="X20" s="265"/>
+      <c r="Y20" s="265"/>
+      <c r="Z20" s="265"/>
+      <c r="AA20" s="265"/>
+      <c r="AB20" s="265"/>
+      <c r="AC20" s="265"/>
+      <c r="AD20" s="265"/>
+      <c r="AE20" s="265"/>
+      <c r="AF20" s="265"/>
+      <c r="AG20" s="265"/>
+      <c r="AH20" s="266"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="275"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="301"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="282"/>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="283"/>
-      <c r="Q21" s="281"/>
-      <c r="R21" s="283"/>
-      <c r="S21" s="284" t="s">
+      <c r="D21" s="302"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="269"/>
+      <c r="I21" s="308"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309"/>
+      <c r="O21" s="309"/>
+      <c r="P21" s="310"/>
+      <c r="Q21" s="308"/>
+      <c r="R21" s="310"/>
+      <c r="S21" s="311" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="285"/>
-      <c r="U21" s="284" t="s">
+      <c r="T21" s="312"/>
+      <c r="U21" s="311" t="s">
         <v>94</v>
       </c>
-      <c r="V21" s="285"/>
-      <c r="W21" s="299"/>
-      <c r="X21" s="300"/>
-      <c r="Y21" s="300"/>
-      <c r="Z21" s="300"/>
-      <c r="AA21" s="300"/>
-      <c r="AB21" s="300"/>
-      <c r="AC21" s="300"/>
-      <c r="AD21" s="300"/>
-      <c r="AE21" s="300"/>
-      <c r="AF21" s="300"/>
-      <c r="AG21" s="300"/>
-      <c r="AH21" s="301"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="267"/>
+      <c r="X21" s="268"/>
+      <c r="Y21" s="268"/>
+      <c r="Z21" s="268"/>
+      <c r="AA21" s="268"/>
+      <c r="AB21" s="268"/>
+      <c r="AC21" s="268"/>
+      <c r="AD21" s="268"/>
+      <c r="AE21" s="268"/>
+      <c r="AF21" s="268"/>
+      <c r="AG21" s="268"/>
+      <c r="AH21" s="269"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="304">
+      <c r="D22" s="272">
         <v>1</v>
       </c>
-      <c r="E22" s="320" t="s">
+      <c r="E22" s="288" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="321"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="322"/>
-      <c r="I22" s="307" t="s">
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="308"/>
-      <c r="K22" s="308"/>
-      <c r="L22" s="308"/>
-      <c r="M22" s="308"/>
-      <c r="N22" s="308"/>
-      <c r="O22" s="308"/>
-      <c r="P22" s="309"/>
-      <c r="Q22" s="209" t="s">
+      <c r="J22" s="276"/>
+      <c r="K22" s="276"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="276"/>
+      <c r="O22" s="276"/>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="211"/>
-      <c r="S22" s="209" t="s">
+      <c r="R22" s="215"/>
+      <c r="S22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="T22" s="211"/>
-      <c r="U22" s="209" t="s">
+      <c r="T22" s="215"/>
+      <c r="U22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="211"/>
-      <c r="W22" s="302" t="s">
+      <c r="V22" s="215"/>
+      <c r="W22" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="303"/>
-      <c r="Y22" s="303"/>
-      <c r="Z22" s="303"/>
-      <c r="AA22" s="303"/>
-      <c r="AB22" s="303"/>
-      <c r="AC22" s="303"/>
-      <c r="AD22" s="303"/>
-      <c r="AE22" s="303"/>
-      <c r="AF22" s="303"/>
-      <c r="AG22" s="303"/>
-      <c r="AH22" s="303"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="305"/>
-      <c r="E23" s="323"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="310"/>
-      <c r="J23" s="311"/>
-      <c r="K23" s="311"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="311"/>
-      <c r="N23" s="311"/>
-      <c r="O23" s="311"/>
-      <c r="P23" s="312"/>
-      <c r="Q23" s="316"/>
-      <c r="R23" s="317"/>
-      <c r="S23" s="316"/>
-      <c r="T23" s="317"/>
-      <c r="U23" s="316"/>
-      <c r="V23" s="317"/>
-      <c r="W23" s="303"/>
-      <c r="X23" s="303"/>
-      <c r="Y23" s="303"/>
-      <c r="Z23" s="303"/>
-      <c r="AA23" s="303"/>
-      <c r="AB23" s="303"/>
-      <c r="AC23" s="303"/>
-      <c r="AD23" s="303"/>
-      <c r="AE23" s="303"/>
-      <c r="AF23" s="303"/>
-      <c r="AG23" s="303"/>
-      <c r="AH23" s="303"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="279"/>
+      <c r="K23" s="279"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
+      <c r="N23" s="279"/>
+      <c r="O23" s="279"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="284"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="284"/>
+      <c r="V23" s="285"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="306"/>
-      <c r="E24" s="326"/>
-      <c r="F24" s="327"/>
-      <c r="G24" s="327"/>
-      <c r="H24" s="328"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="314"/>
-      <c r="K24" s="314"/>
-      <c r="L24" s="314"/>
-      <c r="M24" s="314"/>
-      <c r="N24" s="314"/>
-      <c r="O24" s="314"/>
-      <c r="P24" s="315"/>
-      <c r="Q24" s="318"/>
-      <c r="R24" s="319"/>
-      <c r="S24" s="318"/>
-      <c r="T24" s="319"/>
-      <c r="U24" s="318"/>
-      <c r="V24" s="319"/>
-      <c r="W24" s="303"/>
-      <c r="X24" s="303"/>
-      <c r="Y24" s="303"/>
-      <c r="Z24" s="303"/>
-      <c r="AA24" s="303"/>
-      <c r="AB24" s="303"/>
-      <c r="AC24" s="303"/>
-      <c r="AD24" s="303"/>
-      <c r="AE24" s="303"/>
-      <c r="AF24" s="303"/>
-      <c r="AG24" s="303"/>
-      <c r="AH24" s="303"/>
+      <c r="D24" s="274"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="282"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="282"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="282"/>
+      <c r="O24" s="282"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="286"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="287"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -12505,12 +12164,23 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12545,158 +12215,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="268">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12707,14 +12377,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12724,6 +12386,14 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12741,7 +12411,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR111"/>
+  <dimension ref="A1:BR113"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -12753,164 +12423,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="197" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="268">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12930,117 +12600,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="359" t="s">
+      <c r="D10" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
-      <c r="G10" s="360"/>
-      <c r="H10" s="361"/>
-      <c r="I10" s="212" t="s">
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="204"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="204"/>
-      <c r="AH10" s="205"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="238"/>
+      <c r="AF10" s="238"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="239"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="359" t="s">
+      <c r="D11" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="361"/>
-      <c r="I11" s="212" t="s">
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="333"/>
+      <c r="I11" s="240" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="204"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="204"/>
-      <c r="AE11" s="204"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="204"/>
-      <c r="AH11" s="205"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="238"/>
+      <c r="AF11" s="238"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="239"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="359" t="s">
+      <c r="D12" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="360"/>
-      <c r="F12" s="360"/>
-      <c r="G12" s="360"/>
-      <c r="H12" s="361"/>
-      <c r="I12" s="212" t="s">
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="333"/>
+      <c r="I12" s="240" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="204"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="204"/>
-      <c r="V12" s="204"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="204"/>
-      <c r="Z12" s="204"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="204"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="204"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="204"/>
-      <c r="AH12" s="205"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="238"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="239"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -13130,83 +12800,83 @@
       <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="347" t="s">
+      <c r="E22" s="351" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="348"/>
-      <c r="G22" s="349"/>
-      <c r="H22" s="350" t="s">
+      <c r="F22" s="352"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="351"/>
-      <c r="J22" s="352"/>
-      <c r="K22" s="289" t="s">
+      <c r="I22" s="355"/>
+      <c r="J22" s="356"/>
+      <c r="K22" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="290"/>
-      <c r="M22" s="290"/>
-      <c r="N22" s="290"/>
-      <c r="O22" s="290"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="290"/>
-      <c r="R22" s="290"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="290"/>
-      <c r="V22" s="290"/>
-      <c r="W22" s="290"/>
-      <c r="X22" s="290"/>
-      <c r="Y22" s="290"/>
-      <c r="Z22" s="290"/>
-      <c r="AA22" s="290"/>
-      <c r="AB22" s="290"/>
-      <c r="AC22" s="290"/>
-      <c r="AD22" s="290"/>
-      <c r="AE22" s="290"/>
-      <c r="AF22" s="290"/>
-      <c r="AG22" s="290"/>
-      <c r="AH22" s="291"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="317"/>
+      <c r="N22" s="317"/>
+      <c r="O22" s="317"/>
+      <c r="P22" s="317"/>
+      <c r="Q22" s="317"/>
+      <c r="R22" s="317"/>
+      <c r="S22" s="317"/>
+      <c r="T22" s="317"/>
+      <c r="U22" s="317"/>
+      <c r="V22" s="317"/>
+      <c r="W22" s="317"/>
+      <c r="X22" s="317"/>
+      <c r="Y22" s="317"/>
+      <c r="Z22" s="317"/>
+      <c r="AA22" s="317"/>
+      <c r="AB22" s="317"/>
+      <c r="AC22" s="317"/>
+      <c r="AD22" s="317"/>
+      <c r="AE22" s="317"/>
+      <c r="AF22" s="317"/>
+      <c r="AG22" s="317"/>
+      <c r="AH22" s="318"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="203">
+      <c r="E23" s="237">
         <v>0</v>
       </c>
-      <c r="F23" s="204"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="212" t="s">
+      <c r="F23" s="238"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="204"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="212" t="s">
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="240" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="345"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="345"/>
-      <c r="O23" s="345"/>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="345"/>
-      <c r="S23" s="345"/>
-      <c r="T23" s="345"/>
-      <c r="U23" s="345"/>
-      <c r="V23" s="345"/>
-      <c r="W23" s="345"/>
-      <c r="X23" s="345"/>
-      <c r="Y23" s="345"/>
-      <c r="Z23" s="345"/>
-      <c r="AA23" s="345"/>
-      <c r="AB23" s="345"/>
-      <c r="AC23" s="345"/>
-      <c r="AD23" s="345"/>
-      <c r="AE23" s="345"/>
-      <c r="AF23" s="345"/>
-      <c r="AG23" s="345"/>
-      <c r="AH23" s="346"/>
+      <c r="L23" s="365"/>
+      <c r="M23" s="365"/>
+      <c r="N23" s="365"/>
+      <c r="O23" s="365"/>
+      <c r="P23" s="365"/>
+      <c r="Q23" s="365"/>
+      <c r="R23" s="365"/>
+      <c r="S23" s="365"/>
+      <c r="T23" s="365"/>
+      <c r="U23" s="365"/>
+      <c r="V23" s="365"/>
+      <c r="W23" s="365"/>
+      <c r="X23" s="365"/>
+      <c r="Y23" s="365"/>
+      <c r="Z23" s="365"/>
+      <c r="AA23" s="365"/>
+      <c r="AB23" s="365"/>
+      <c r="AC23" s="365"/>
+      <c r="AD23" s="365"/>
+      <c r="AE23" s="365"/>
+      <c r="AF23" s="365"/>
+      <c r="AG23" s="365"/>
+      <c r="AH23" s="366"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="41" t="s">
@@ -13214,7 +12884,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="353" t="s">
+      <c r="D28" s="367" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -13236,17 +12906,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="384" t="s">
+      <c r="T28" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="379" t="s">
+      <c r="U28" s="324" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="380"/>
-      <c r="W28" s="380"/>
-      <c r="X28" s="380"/>
-      <c r="Y28" s="380"/>
-      <c r="Z28" s="381"/>
+      <c r="V28" s="325"/>
+      <c r="W28" s="325"/>
+      <c r="X28" s="325"/>
+      <c r="Y28" s="325"/>
+      <c r="Z28" s="326"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -13259,7 +12929,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="354"/>
+      <c r="D29" s="368"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -13275,7 +12945,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="385"/>
+      <c r="T29" s="330"/>
       <c r="U29" s="45" t="s">
         <v>57</v>
       </c>
@@ -13288,10 +12958,10 @@
       <c r="X29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="377" t="s">
+      <c r="Y29" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="378"/>
+      <c r="Z29" s="323"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -13339,10 +13009,10 @@
       <c r="X30" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y30" s="382" t="s">
+      <c r="Y30" s="327" t="s">
         <v>93</v>
       </c>
-      <c r="Z30" s="383"/>
+      <c r="Z30" s="328"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -13390,10 +13060,10 @@
       <c r="X31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="382" t="s">
+      <c r="Y31" s="327" t="s">
         <v>93</v>
       </c>
-      <c r="Z31" s="383"/>
+      <c r="Z31" s="328"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -13417,120 +13087,120 @@
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="355" t="s">
+      <c r="E37" s="349" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="355"/>
-      <c r="G37" s="355"/>
-      <c r="H37" s="355"/>
-      <c r="I37" s="355"/>
-      <c r="J37" s="355"/>
-      <c r="K37" s="355"/>
-      <c r="L37" s="355"/>
-      <c r="M37" s="355"/>
-      <c r="N37" s="355"/>
-      <c r="O37" s="355"/>
-      <c r="P37" s="355"/>
-      <c r="Q37" s="355"/>
-      <c r="R37" s="355"/>
-      <c r="S37" s="355"/>
-      <c r="T37" s="355"/>
-      <c r="U37" s="355"/>
-      <c r="V37" s="355"/>
-      <c r="W37" s="355"/>
-      <c r="X37" s="355"/>
-      <c r="Y37" s="355"/>
-      <c r="Z37" s="355"/>
-      <c r="AA37" s="355"/>
-      <c r="AB37" s="355"/>
-      <c r="AC37" s="355"/>
-      <c r="AD37" s="355"/>
-      <c r="AE37" s="355"/>
-      <c r="AF37" s="355"/>
-      <c r="AG37" s="355"/>
-      <c r="AH37" s="355"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="349"/>
+      <c r="H37" s="349"/>
+      <c r="I37" s="349"/>
+      <c r="J37" s="349"/>
+      <c r="K37" s="349"/>
+      <c r="L37" s="349"/>
+      <c r="M37" s="349"/>
+      <c r="N37" s="349"/>
+      <c r="O37" s="349"/>
+      <c r="P37" s="349"/>
+      <c r="Q37" s="349"/>
+      <c r="R37" s="349"/>
+      <c r="S37" s="349"/>
+      <c r="T37" s="349"/>
+      <c r="U37" s="349"/>
+      <c r="V37" s="349"/>
+      <c r="W37" s="349"/>
+      <c r="X37" s="349"/>
+      <c r="Y37" s="349"/>
+      <c r="Z37" s="349"/>
+      <c r="AA37" s="349"/>
+      <c r="AB37" s="349"/>
+      <c r="AC37" s="349"/>
+      <c r="AD37" s="349"/>
+      <c r="AE37" s="349"/>
+      <c r="AF37" s="349"/>
+      <c r="AG37" s="349"/>
+      <c r="AH37" s="349"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="356" t="s">
+      <c r="E38" s="348" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="358" t="s">
+      <c r="F38" s="369" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="358"/>
-      <c r="H38" s="358"/>
-      <c r="I38" s="358"/>
-      <c r="J38" s="358"/>
-      <c r="K38" s="358"/>
-      <c r="L38" s="358" t="s">
+      <c r="G38" s="369"/>
+      <c r="H38" s="369"/>
+      <c r="I38" s="369"/>
+      <c r="J38" s="369"/>
+      <c r="K38" s="369"/>
+      <c r="L38" s="369" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="358"/>
-      <c r="N38" s="358"/>
-      <c r="O38" s="358"/>
-      <c r="P38" s="358"/>
-      <c r="Q38" s="371" t="s">
+      <c r="M38" s="369"/>
+      <c r="N38" s="369"/>
+      <c r="O38" s="369"/>
+      <c r="P38" s="369"/>
+      <c r="Q38" s="346" t="s">
         <v>39</v>
       </c>
-      <c r="R38" s="356" t="s">
+      <c r="R38" s="348" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="356"/>
-      <c r="T38" s="356"/>
-      <c r="U38" s="356"/>
-      <c r="V38" s="356"/>
-      <c r="W38" s="355" t="s">
+      <c r="S38" s="348"/>
+      <c r="T38" s="348"/>
+      <c r="U38" s="348"/>
+      <c r="V38" s="348"/>
+      <c r="W38" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="355"/>
-      <c r="Y38" s="355"/>
-      <c r="Z38" s="355"/>
-      <c r="AA38" s="355"/>
-      <c r="AB38" s="355"/>
-      <c r="AC38" s="355"/>
-      <c r="AD38" s="355"/>
-      <c r="AE38" s="355"/>
-      <c r="AF38" s="355"/>
-      <c r="AG38" s="355"/>
-      <c r="AH38" s="355"/>
+      <c r="X38" s="349"/>
+      <c r="Y38" s="349"/>
+      <c r="Z38" s="349"/>
+      <c r="AA38" s="349"/>
+      <c r="AB38" s="349"/>
+      <c r="AC38" s="349"/>
+      <c r="AD38" s="349"/>
+      <c r="AE38" s="349"/>
+      <c r="AF38" s="349"/>
+      <c r="AG38" s="349"/>
+      <c r="AH38" s="349"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="357"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="355"/>
-      <c r="J39" s="355"/>
-      <c r="K39" s="355"/>
-      <c r="L39" s="355"/>
-      <c r="M39" s="355"/>
-      <c r="N39" s="355"/>
-      <c r="O39" s="355"/>
-      <c r="P39" s="355"/>
-      <c r="Q39" s="372"/>
-      <c r="R39" s="357" t="s">
+      <c r="E39" s="350"/>
+      <c r="F39" s="349"/>
+      <c r="G39" s="349"/>
+      <c r="H39" s="349"/>
+      <c r="I39" s="349"/>
+      <c r="J39" s="349"/>
+      <c r="K39" s="349"/>
+      <c r="L39" s="349"/>
+      <c r="M39" s="349"/>
+      <c r="N39" s="349"/>
+      <c r="O39" s="349"/>
+      <c r="P39" s="349"/>
+      <c r="Q39" s="347"/>
+      <c r="R39" s="350" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="357"/>
-      <c r="T39" s="357"/>
-      <c r="U39" s="357"/>
-      <c r="V39" s="357"/>
-      <c r="W39" s="355"/>
-      <c r="X39" s="355"/>
-      <c r="Y39" s="355"/>
-      <c r="Z39" s="355"/>
-      <c r="AA39" s="355"/>
-      <c r="AB39" s="355"/>
-      <c r="AC39" s="355"/>
-      <c r="AD39" s="355"/>
-      <c r="AE39" s="355"/>
-      <c r="AF39" s="355"/>
-      <c r="AG39" s="355"/>
-      <c r="AH39" s="355"/>
+      <c r="S39" s="350"/>
+      <c r="T39" s="350"/>
+      <c r="U39" s="350"/>
+      <c r="V39" s="350"/>
+      <c r="W39" s="349"/>
+      <c r="X39" s="349"/>
+      <c r="Y39" s="349"/>
+      <c r="Z39" s="349"/>
+      <c r="AA39" s="349"/>
+      <c r="AB39" s="349"/>
+      <c r="AC39" s="349"/>
+      <c r="AD39" s="349"/>
+      <c r="AE39" s="349"/>
+      <c r="AF39" s="349"/>
+      <c r="AG39" s="349"/>
+      <c r="AH39" s="349"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -13538,14 +13208,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="334" t="s">
+      <c r="F40" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="335"/>
-      <c r="H40" s="335"/>
-      <c r="I40" s="335"/>
-      <c r="J40" s="335"/>
-      <c r="K40" s="335"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362"/>
       <c r="L40" s="141" t="s">
         <v>117</v>
       </c>
@@ -13556,25 +13226,25 @@
       <c r="Q40" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R40" s="334" t="s">
+      <c r="R40" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S40" s="335"/>
-      <c r="T40" s="335"/>
-      <c r="U40" s="335"/>
-      <c r="V40" s="335"/>
-      <c r="W40" s="335"/>
-      <c r="X40" s="335"/>
-      <c r="Y40" s="335"/>
-      <c r="Z40" s="335"/>
-      <c r="AA40" s="335"/>
-      <c r="AB40" s="335"/>
-      <c r="AC40" s="335"/>
-      <c r="AD40" s="335"/>
-      <c r="AE40" s="335"/>
-      <c r="AF40" s="335"/>
-      <c r="AG40" s="335"/>
-      <c r="AH40" s="335"/>
+      <c r="S40" s="362"/>
+      <c r="T40" s="362"/>
+      <c r="U40" s="362"/>
+      <c r="V40" s="362"/>
+      <c r="W40" s="362"/>
+      <c r="X40" s="362"/>
+      <c r="Y40" s="362"/>
+      <c r="Z40" s="362"/>
+      <c r="AA40" s="362"/>
+      <c r="AB40" s="362"/>
+      <c r="AC40" s="362"/>
+      <c r="AD40" s="362"/>
+      <c r="AE40" s="362"/>
+      <c r="AF40" s="362"/>
+      <c r="AG40" s="362"/>
+      <c r="AH40" s="362"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -13582,14 +13252,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="334" t="s">
+      <c r="F41" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="335"/>
-      <c r="K41" s="335"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="362"/>
+      <c r="K41" s="362"/>
       <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
@@ -13600,25 +13270,25 @@
       <c r="Q41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R41" s="334" t="s">
+      <c r="R41" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S41" s="335"/>
-      <c r="T41" s="335"/>
-      <c r="U41" s="335"/>
-      <c r="V41" s="335"/>
-      <c r="W41" s="335"/>
-      <c r="X41" s="335"/>
-      <c r="Y41" s="335"/>
-      <c r="Z41" s="335"/>
-      <c r="AA41" s="335"/>
-      <c r="AB41" s="335"/>
-      <c r="AC41" s="335"/>
-      <c r="AD41" s="335"/>
-      <c r="AE41" s="335"/>
-      <c r="AF41" s="335"/>
-      <c r="AG41" s="335"/>
-      <c r="AH41" s="335"/>
+      <c r="S41" s="362"/>
+      <c r="T41" s="362"/>
+      <c r="U41" s="362"/>
+      <c r="V41" s="362"/>
+      <c r="W41" s="362"/>
+      <c r="X41" s="362"/>
+      <c r="Y41" s="362"/>
+      <c r="Z41" s="362"/>
+      <c r="AA41" s="362"/>
+      <c r="AB41" s="362"/>
+      <c r="AC41" s="362"/>
+      <c r="AD41" s="362"/>
+      <c r="AE41" s="362"/>
+      <c r="AF41" s="362"/>
+      <c r="AG41" s="362"/>
+      <c r="AH41" s="362"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -13626,14 +13296,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="334" t="s">
+      <c r="F42" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="335"/>
-      <c r="H42" s="335"/>
-      <c r="I42" s="335"/>
-      <c r="J42" s="335"/>
-      <c r="K42" s="335"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="362"/>
+      <c r="I42" s="362"/>
+      <c r="J42" s="362"/>
+      <c r="K42" s="362"/>
       <c r="L42" s="141" t="s">
         <v>119</v>
       </c>
@@ -13644,25 +13314,25 @@
       <c r="Q42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="334" t="s">
+      <c r="R42" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S42" s="335"/>
-      <c r="T42" s="335"/>
-      <c r="U42" s="335"/>
-      <c r="V42" s="335"/>
-      <c r="W42" s="335"/>
-      <c r="X42" s="335"/>
-      <c r="Y42" s="335"/>
-      <c r="Z42" s="335"/>
-      <c r="AA42" s="335"/>
-      <c r="AB42" s="335"/>
-      <c r="AC42" s="335"/>
-      <c r="AD42" s="335"/>
-      <c r="AE42" s="335"/>
-      <c r="AF42" s="335"/>
-      <c r="AG42" s="335"/>
-      <c r="AH42" s="335"/>
+      <c r="S42" s="362"/>
+      <c r="T42" s="362"/>
+      <c r="U42" s="362"/>
+      <c r="V42" s="362"/>
+      <c r="W42" s="362"/>
+      <c r="X42" s="362"/>
+      <c r="Y42" s="362"/>
+      <c r="Z42" s="362"/>
+      <c r="AA42" s="362"/>
+      <c r="AB42" s="362"/>
+      <c r="AC42" s="362"/>
+      <c r="AD42" s="362"/>
+      <c r="AE42" s="362"/>
+      <c r="AF42" s="362"/>
+      <c r="AG42" s="362"/>
+      <c r="AH42" s="362"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -13670,14 +13340,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="334" t="s">
+      <c r="F43" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
-      <c r="I43" s="335"/>
-      <c r="J43" s="335"/>
-      <c r="K43" s="335"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="362"/>
+      <c r="K43" s="362"/>
       <c r="L43" s="141" t="s">
         <v>120</v>
       </c>
@@ -13688,25 +13358,25 @@
       <c r="Q43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R43" s="334" t="s">
+      <c r="R43" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="335"/>
-      <c r="T43" s="335"/>
-      <c r="U43" s="335"/>
-      <c r="V43" s="335"/>
-      <c r="W43" s="335"/>
-      <c r="X43" s="335"/>
-      <c r="Y43" s="335"/>
-      <c r="Z43" s="335"/>
-      <c r="AA43" s="335"/>
-      <c r="AB43" s="335"/>
-      <c r="AC43" s="335"/>
-      <c r="AD43" s="335"/>
-      <c r="AE43" s="335"/>
-      <c r="AF43" s="335"/>
-      <c r="AG43" s="335"/>
-      <c r="AH43" s="335"/>
+      <c r="S43" s="362"/>
+      <c r="T43" s="362"/>
+      <c r="U43" s="362"/>
+      <c r="V43" s="362"/>
+      <c r="W43" s="362"/>
+      <c r="X43" s="362"/>
+      <c r="Y43" s="362"/>
+      <c r="Z43" s="362"/>
+      <c r="AA43" s="362"/>
+      <c r="AB43" s="362"/>
+      <c r="AC43" s="362"/>
+      <c r="AD43" s="362"/>
+      <c r="AE43" s="362"/>
+      <c r="AF43" s="362"/>
+      <c r="AG43" s="362"/>
+      <c r="AH43" s="362"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -13714,14 +13384,14 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="334" t="s">
+      <c r="F44" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="335"/>
-      <c r="H44" s="335"/>
-      <c r="I44" s="335"/>
-      <c r="J44" s="335"/>
-      <c r="K44" s="335"/>
+      <c r="G44" s="362"/>
+      <c r="H44" s="362"/>
+      <c r="I44" s="362"/>
+      <c r="J44" s="362"/>
+      <c r="K44" s="362"/>
       <c r="L44" s="141" t="s">
         <v>128</v>
       </c>
@@ -13732,25 +13402,25 @@
       <c r="Q44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R44" s="334" t="s">
+      <c r="R44" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S44" s="335"/>
-      <c r="T44" s="335"/>
-      <c r="U44" s="335"/>
-      <c r="V44" s="335"/>
-      <c r="W44" s="335"/>
-      <c r="X44" s="335"/>
-      <c r="Y44" s="335"/>
-      <c r="Z44" s="335"/>
-      <c r="AA44" s="335"/>
-      <c r="AB44" s="335"/>
-      <c r="AC44" s="335"/>
-      <c r="AD44" s="335"/>
-      <c r="AE44" s="335"/>
-      <c r="AF44" s="335"/>
-      <c r="AG44" s="335"/>
-      <c r="AH44" s="335"/>
+      <c r="S44" s="362"/>
+      <c r="T44" s="362"/>
+      <c r="U44" s="362"/>
+      <c r="V44" s="362"/>
+      <c r="W44" s="362"/>
+      <c r="X44" s="362"/>
+      <c r="Y44" s="362"/>
+      <c r="Z44" s="362"/>
+      <c r="AA44" s="362"/>
+      <c r="AB44" s="362"/>
+      <c r="AC44" s="362"/>
+      <c r="AD44" s="362"/>
+      <c r="AE44" s="362"/>
+      <c r="AF44" s="362"/>
+      <c r="AG44" s="362"/>
+      <c r="AH44" s="362"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -13758,14 +13428,14 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="334" t="s">
+      <c r="F45" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335"/>
-      <c r="K45" s="335"/>
+      <c r="G45" s="362"/>
+      <c r="H45" s="362"/>
+      <c r="I45" s="362"/>
+      <c r="J45" s="362"/>
+      <c r="K45" s="362"/>
       <c r="L45" s="141" t="s">
         <v>131</v>
       </c>
@@ -13776,25 +13446,25 @@
       <c r="Q45" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R45" s="334" t="s">
+      <c r="R45" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="335"/>
-      <c r="T45" s="335"/>
-      <c r="U45" s="335"/>
-      <c r="V45" s="335"/>
-      <c r="W45" s="335"/>
-      <c r="X45" s="335"/>
-      <c r="Y45" s="335"/>
-      <c r="Z45" s="335"/>
-      <c r="AA45" s="335"/>
-      <c r="AB45" s="335"/>
-      <c r="AC45" s="335"/>
-      <c r="AD45" s="335"/>
-      <c r="AE45" s="335"/>
-      <c r="AF45" s="335"/>
-      <c r="AG45" s="335"/>
-      <c r="AH45" s="335"/>
+      <c r="S45" s="362"/>
+      <c r="T45" s="362"/>
+      <c r="U45" s="362"/>
+      <c r="V45" s="362"/>
+      <c r="W45" s="362"/>
+      <c r="X45" s="362"/>
+      <c r="Y45" s="362"/>
+      <c r="Z45" s="362"/>
+      <c r="AA45" s="362"/>
+      <c r="AB45" s="362"/>
+      <c r="AC45" s="362"/>
+      <c r="AD45" s="362"/>
+      <c r="AE45" s="362"/>
+      <c r="AF45" s="362"/>
+      <c r="AG45" s="362"/>
+      <c r="AH45" s="362"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13802,14 +13472,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="334" t="s">
+      <c r="F46" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="335"/>
-      <c r="H46" s="335"/>
-      <c r="I46" s="335"/>
-      <c r="J46" s="335"/>
-      <c r="K46" s="335"/>
+      <c r="G46" s="362"/>
+      <c r="H46" s="362"/>
+      <c r="I46" s="362"/>
+      <c r="J46" s="362"/>
+      <c r="K46" s="362"/>
       <c r="L46" s="141" t="s">
         <v>121</v>
       </c>
@@ -13820,25 +13490,25 @@
       <c r="Q46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="334" t="s">
+      <c r="R46" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="335"/>
-      <c r="T46" s="335"/>
-      <c r="U46" s="335"/>
-      <c r="V46" s="335"/>
-      <c r="W46" s="335"/>
-      <c r="X46" s="335"/>
-      <c r="Y46" s="335"/>
-      <c r="Z46" s="335"/>
-      <c r="AA46" s="335"/>
-      <c r="AB46" s="335"/>
-      <c r="AC46" s="335"/>
-      <c r="AD46" s="335"/>
-      <c r="AE46" s="335"/>
-      <c r="AF46" s="335"/>
-      <c r="AG46" s="335"/>
-      <c r="AH46" s="335"/>
+      <c r="S46" s="362"/>
+      <c r="T46" s="362"/>
+      <c r="U46" s="362"/>
+      <c r="V46" s="362"/>
+      <c r="W46" s="362"/>
+      <c r="X46" s="362"/>
+      <c r="Y46" s="362"/>
+      <c r="Z46" s="362"/>
+      <c r="AA46" s="362"/>
+      <c r="AB46" s="362"/>
+      <c r="AC46" s="362"/>
+      <c r="AD46" s="362"/>
+      <c r="AE46" s="362"/>
+      <c r="AF46" s="362"/>
+      <c r="AG46" s="362"/>
+      <c r="AH46" s="362"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13846,14 +13516,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="334" t="s">
+      <c r="F47" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="335"/>
-      <c r="H47" s="335"/>
-      <c r="I47" s="335"/>
-      <c r="J47" s="335"/>
-      <c r="K47" s="335"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="362"/>
       <c r="L47" s="141" t="s">
         <v>122</v>
       </c>
@@ -13864,25 +13534,25 @@
       <c r="Q47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R47" s="334" t="s">
+      <c r="R47" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="335"/>
-      <c r="T47" s="335"/>
-      <c r="U47" s="335"/>
-      <c r="V47" s="335"/>
-      <c r="W47" s="335"/>
-      <c r="X47" s="335"/>
-      <c r="Y47" s="335"/>
-      <c r="Z47" s="335"/>
-      <c r="AA47" s="335"/>
-      <c r="AB47" s="335"/>
-      <c r="AC47" s="335"/>
-      <c r="AD47" s="335"/>
-      <c r="AE47" s="335"/>
-      <c r="AF47" s="335"/>
-      <c r="AG47" s="335"/>
-      <c r="AH47" s="335"/>
+      <c r="S47" s="362"/>
+      <c r="T47" s="362"/>
+      <c r="U47" s="362"/>
+      <c r="V47" s="362"/>
+      <c r="W47" s="362"/>
+      <c r="X47" s="362"/>
+      <c r="Y47" s="362"/>
+      <c r="Z47" s="362"/>
+      <c r="AA47" s="362"/>
+      <c r="AB47" s="362"/>
+      <c r="AC47" s="362"/>
+      <c r="AD47" s="362"/>
+      <c r="AE47" s="362"/>
+      <c r="AF47" s="362"/>
+      <c r="AG47" s="362"/>
+      <c r="AH47" s="362"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13890,14 +13560,14 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="334" t="s">
+      <c r="F48" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="335"/>
+      <c r="G48" s="362"/>
+      <c r="H48" s="362"/>
+      <c r="I48" s="362"/>
+      <c r="J48" s="362"/>
+      <c r="K48" s="362"/>
       <c r="L48" s="141" t="s">
         <v>123</v>
       </c>
@@ -13908,25 +13578,25 @@
       <c r="Q48" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="334" t="s">
+      <c r="R48" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="335"/>
-      <c r="T48" s="335"/>
-      <c r="U48" s="335"/>
-      <c r="V48" s="335"/>
-      <c r="W48" s="335"/>
-      <c r="X48" s="335"/>
-      <c r="Y48" s="335"/>
-      <c r="Z48" s="335"/>
-      <c r="AA48" s="335"/>
-      <c r="AB48" s="335"/>
-      <c r="AC48" s="335"/>
-      <c r="AD48" s="335"/>
-      <c r="AE48" s="335"/>
-      <c r="AF48" s="335"/>
-      <c r="AG48" s="335"/>
-      <c r="AH48" s="335"/>
+      <c r="S48" s="362"/>
+      <c r="T48" s="362"/>
+      <c r="U48" s="362"/>
+      <c r="V48" s="362"/>
+      <c r="W48" s="362"/>
+      <c r="X48" s="362"/>
+      <c r="Y48" s="362"/>
+      <c r="Z48" s="362"/>
+      <c r="AA48" s="362"/>
+      <c r="AB48" s="362"/>
+      <c r="AC48" s="362"/>
+      <c r="AD48" s="362"/>
+      <c r="AE48" s="362"/>
+      <c r="AF48" s="362"/>
+      <c r="AG48" s="362"/>
+      <c r="AH48" s="362"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13934,14 +13604,14 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="334" t="s">
+      <c r="F49" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="335"/>
-      <c r="H49" s="335"/>
-      <c r="I49" s="335"/>
-      <c r="J49" s="335"/>
-      <c r="K49" s="335"/>
+      <c r="G49" s="362"/>
+      <c r="H49" s="362"/>
+      <c r="I49" s="362"/>
+      <c r="J49" s="362"/>
+      <c r="K49" s="362"/>
       <c r="L49" s="141" t="s">
         <v>124</v>
       </c>
@@ -13952,25 +13622,25 @@
       <c r="Q49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="334" t="s">
+      <c r="R49" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="335"/>
-      <c r="T49" s="335"/>
-      <c r="U49" s="335"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="335"/>
-      <c r="X49" s="335"/>
-      <c r="Y49" s="335"/>
-      <c r="Z49" s="335"/>
-      <c r="AA49" s="335"/>
-      <c r="AB49" s="335"/>
-      <c r="AC49" s="335"/>
-      <c r="AD49" s="335"/>
-      <c r="AE49" s="335"/>
-      <c r="AF49" s="335"/>
-      <c r="AG49" s="335"/>
-      <c r="AH49" s="335"/>
+      <c r="S49" s="362"/>
+      <c r="T49" s="362"/>
+      <c r="U49" s="362"/>
+      <c r="V49" s="362"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="362"/>
+      <c r="Y49" s="362"/>
+      <c r="Z49" s="362"/>
+      <c r="AA49" s="362"/>
+      <c r="AB49" s="362"/>
+      <c r="AC49" s="362"/>
+      <c r="AD49" s="362"/>
+      <c r="AE49" s="362"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="362"/>
+      <c r="AH49" s="362"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13978,14 +13648,14 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="334" t="s">
+      <c r="F50" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="335"/>
-      <c r="H50" s="335"/>
-      <c r="I50" s="335"/>
-      <c r="J50" s="335"/>
-      <c r="K50" s="335"/>
+      <c r="G50" s="362"/>
+      <c r="H50" s="362"/>
+      <c r="I50" s="362"/>
+      <c r="J50" s="362"/>
+      <c r="K50" s="362"/>
       <c r="L50" s="141" t="s">
         <v>125</v>
       </c>
@@ -13996,25 +13666,25 @@
       <c r="Q50" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R50" s="334" t="s">
+      <c r="R50" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="335"/>
-      <c r="T50" s="335"/>
-      <c r="U50" s="335"/>
-      <c r="V50" s="335"/>
-      <c r="W50" s="335"/>
-      <c r="X50" s="335"/>
-      <c r="Y50" s="335"/>
-      <c r="Z50" s="335"/>
-      <c r="AA50" s="335"/>
-      <c r="AB50" s="335"/>
-      <c r="AC50" s="335"/>
-      <c r="AD50" s="335"/>
-      <c r="AE50" s="335"/>
-      <c r="AF50" s="335"/>
-      <c r="AG50" s="335"/>
-      <c r="AH50" s="335"/>
+      <c r="S50" s="362"/>
+      <c r="T50" s="362"/>
+      <c r="U50" s="362"/>
+      <c r="V50" s="362"/>
+      <c r="W50" s="362"/>
+      <c r="X50" s="362"/>
+      <c r="Y50" s="362"/>
+      <c r="Z50" s="362"/>
+      <c r="AA50" s="362"/>
+      <c r="AB50" s="362"/>
+      <c r="AC50" s="362"/>
+      <c r="AD50" s="362"/>
+      <c r="AE50" s="362"/>
+      <c r="AF50" s="362"/>
+      <c r="AG50" s="362"/>
+      <c r="AH50" s="362"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -14022,14 +13692,14 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="334" t="s">
+      <c r="F51" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="335"/>
-      <c r="H51" s="335"/>
-      <c r="I51" s="335"/>
-      <c r="J51" s="335"/>
-      <c r="K51" s="335"/>
+      <c r="G51" s="362"/>
+      <c r="H51" s="362"/>
+      <c r="I51" s="362"/>
+      <c r="J51" s="362"/>
+      <c r="K51" s="362"/>
       <c r="L51" s="141" t="s">
         <v>126</v>
       </c>
@@ -14040,25 +13710,25 @@
       <c r="Q51" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="334" t="s">
+      <c r="R51" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S51" s="335"/>
-      <c r="T51" s="335"/>
-      <c r="U51" s="335"/>
-      <c r="V51" s="335"/>
-      <c r="W51" s="335"/>
-      <c r="X51" s="335"/>
-      <c r="Y51" s="335"/>
-      <c r="Z51" s="335"/>
-      <c r="AA51" s="335"/>
-      <c r="AB51" s="335"/>
-      <c r="AC51" s="335"/>
-      <c r="AD51" s="335"/>
-      <c r="AE51" s="335"/>
-      <c r="AF51" s="335"/>
-      <c r="AG51" s="335"/>
-      <c r="AH51" s="335"/>
+      <c r="S51" s="362"/>
+      <c r="T51" s="362"/>
+      <c r="U51" s="362"/>
+      <c r="V51" s="362"/>
+      <c r="W51" s="362"/>
+      <c r="X51" s="362"/>
+      <c r="Y51" s="362"/>
+      <c r="Z51" s="362"/>
+      <c r="AA51" s="362"/>
+      <c r="AB51" s="362"/>
+      <c r="AC51" s="362"/>
+      <c r="AD51" s="362"/>
+      <c r="AE51" s="362"/>
+      <c r="AF51" s="362"/>
+      <c r="AG51" s="362"/>
+      <c r="AH51" s="362"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -14066,14 +13736,14 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="334" t="s">
+      <c r="F52" s="361" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="335"/>
-      <c r="H52" s="335"/>
-      <c r="I52" s="335"/>
-      <c r="J52" s="335"/>
-      <c r="K52" s="335"/>
+      <c r="G52" s="362"/>
+      <c r="H52" s="362"/>
+      <c r="I52" s="362"/>
+      <c r="J52" s="362"/>
+      <c r="K52" s="362"/>
       <c r="L52" s="141" t="s">
         <v>127</v>
       </c>
@@ -14084,61 +13754,61 @@
       <c r="Q52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R52" s="334" t="s">
+      <c r="R52" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="335"/>
-      <c r="T52" s="335"/>
-      <c r="U52" s="335"/>
-      <c r="V52" s="335"/>
-      <c r="W52" s="335"/>
-      <c r="X52" s="335"/>
-      <c r="Y52" s="335"/>
-      <c r="Z52" s="335"/>
-      <c r="AA52" s="335"/>
-      <c r="AB52" s="335"/>
-      <c r="AC52" s="335"/>
-      <c r="AD52" s="335"/>
-      <c r="AE52" s="335"/>
-      <c r="AF52" s="335"/>
-      <c r="AG52" s="335"/>
-      <c r="AH52" s="335"/>
+      <c r="S52" s="362"/>
+      <c r="T52" s="362"/>
+      <c r="U52" s="362"/>
+      <c r="V52" s="362"/>
+      <c r="W52" s="362"/>
+      <c r="X52" s="362"/>
+      <c r="Y52" s="362"/>
+      <c r="Z52" s="362"/>
+      <c r="AA52" s="362"/>
+      <c r="AB52" s="362"/>
+      <c r="AC52" s="362"/>
+      <c r="AD52" s="362"/>
+      <c r="AE52" s="362"/>
+      <c r="AF52" s="362"/>
+      <c r="AG52" s="362"/>
+      <c r="AH52" s="362"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="286" t="s">
+      <c r="E53" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="287"/>
-      <c r="G53" s="287"/>
-      <c r="H53" s="287"/>
-      <c r="I53" s="287"/>
-      <c r="J53" s="287"/>
-      <c r="K53" s="287"/>
-      <c r="L53" s="287"/>
-      <c r="M53" s="287"/>
-      <c r="N53" s="287"/>
-      <c r="O53" s="287"/>
-      <c r="P53" s="287"/>
-      <c r="Q53" s="287"/>
-      <c r="R53" s="287"/>
-      <c r="S53" s="287"/>
-      <c r="T53" s="287"/>
-      <c r="U53" s="287"/>
-      <c r="V53" s="287"/>
-      <c r="W53" s="287"/>
-      <c r="X53" s="287"/>
-      <c r="Y53" s="287"/>
-      <c r="Z53" s="287"/>
-      <c r="AA53" s="287"/>
-      <c r="AB53" s="287"/>
-      <c r="AC53" s="287"/>
-      <c r="AD53" s="287"/>
-      <c r="AE53" s="287"/>
-      <c r="AF53" s="287"/>
-      <c r="AG53" s="287"/>
-      <c r="AH53" s="288"/>
+      <c r="F53" s="314"/>
+      <c r="G53" s="314"/>
+      <c r="H53" s="314"/>
+      <c r="I53" s="314"/>
+      <c r="J53" s="314"/>
+      <c r="K53" s="314"/>
+      <c r="L53" s="314"/>
+      <c r="M53" s="314"/>
+      <c r="N53" s="314"/>
+      <c r="O53" s="314"/>
+      <c r="P53" s="314"/>
+      <c r="Q53" s="314"/>
+      <c r="R53" s="314"/>
+      <c r="S53" s="314"/>
+      <c r="T53" s="314"/>
+      <c r="U53" s="314"/>
+      <c r="V53" s="314"/>
+      <c r="W53" s="314"/>
+      <c r="X53" s="314"/>
+      <c r="Y53" s="314"/>
+      <c r="Z53" s="314"/>
+      <c r="AA53" s="314"/>
+      <c r="AB53" s="314"/>
+      <c r="AC53" s="314"/>
+      <c r="AD53" s="314"/>
+      <c r="AE53" s="314"/>
+      <c r="AF53" s="314"/>
+      <c r="AG53" s="314"/>
+      <c r="AH53" s="315"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -14392,72 +14062,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="347" t="s">
+      <c r="E68" s="351" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="348"/>
-      <c r="G68" s="349"/>
-      <c r="H68" s="350" t="s">
+      <c r="F68" s="352"/>
+      <c r="G68" s="353"/>
+      <c r="H68" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="351"/>
-      <c r="J68" s="352"/>
-      <c r="K68" s="373" t="s">
+      <c r="I68" s="355"/>
+      <c r="J68" s="356"/>
+      <c r="K68" s="357" t="s">
         <v>133</v>
       </c>
-      <c r="L68" s="374"/>
-      <c r="M68" s="374"/>
-      <c r="N68" s="375"/>
-      <c r="O68" s="376" t="s">
+      <c r="L68" s="358"/>
+      <c r="M68" s="358"/>
+      <c r="N68" s="359"/>
+      <c r="O68" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="376"/>
-      <c r="Q68" s="376"/>
-      <c r="R68" s="376"/>
-      <c r="S68" s="376"/>
-      <c r="T68" s="376"/>
-      <c r="U68" s="376"/>
-      <c r="V68" s="376"/>
-      <c r="W68" s="376"/>
-      <c r="X68" s="376"/>
-      <c r="Y68" s="376"/>
-      <c r="Z68" s="376"/>
-      <c r="AA68" s="376"/>
-      <c r="AB68" s="376"/>
+      <c r="P68" s="360"/>
+      <c r="Q68" s="360"/>
+      <c r="R68" s="360"/>
+      <c r="S68" s="360"/>
+      <c r="T68" s="360"/>
+      <c r="U68" s="360"/>
+      <c r="V68" s="360"/>
+      <c r="W68" s="360"/>
+      <c r="X68" s="360"/>
+      <c r="Y68" s="360"/>
+      <c r="Z68" s="360"/>
+      <c r="AA68" s="360"/>
+      <c r="AB68" s="360"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="203">
+      <c r="E69" s="237">
         <v>0</v>
       </c>
-      <c r="F69" s="204"/>
-      <c r="G69" s="205"/>
-      <c r="H69" s="212" t="s">
+      <c r="F69" s="238"/>
+      <c r="G69" s="239"/>
+      <c r="H69" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="204"/>
-      <c r="J69" s="205"/>
-      <c r="K69" s="331" t="s">
+      <c r="I69" s="238"/>
+      <c r="J69" s="239"/>
+      <c r="K69" s="370" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="336"/>
-      <c r="M69" s="336"/>
-      <c r="N69" s="337"/>
-      <c r="O69" s="338" t="s">
+      <c r="L69" s="373"/>
+      <c r="M69" s="373"/>
+      <c r="N69" s="374"/>
+      <c r="O69" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="338"/>
-      <c r="Q69" s="338"/>
-      <c r="R69" s="338"/>
-      <c r="S69" s="338"/>
-      <c r="T69" s="338"/>
-      <c r="U69" s="338"/>
-      <c r="V69" s="338"/>
-      <c r="W69" s="338"/>
-      <c r="X69" s="338"/>
-      <c r="Y69" s="338"/>
-      <c r="Z69" s="338"/>
-      <c r="AA69" s="338"/>
-      <c r="AB69" s="338"/>
+      <c r="P69" s="375"/>
+      <c r="Q69" s="375"/>
+      <c r="R69" s="375"/>
+      <c r="S69" s="375"/>
+      <c r="T69" s="375"/>
+      <c r="U69" s="375"/>
+      <c r="V69" s="375"/>
+      <c r="W69" s="375"/>
+      <c r="X69" s="375"/>
+      <c r="Y69" s="375"/>
+      <c r="Z69" s="375"/>
+      <c r="AA69" s="375"/>
+      <c r="AB69" s="375"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -14521,10 +14191,9 @@
       <c r="BR75" s="17"/>
     </row>
     <row r="76" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="D76" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="18"/>
+      <c r="D76" s="41" t="s">
+        <v>184</v>
+      </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -14556,11 +14225,8 @@
       <c r="AH76" s="18"/>
     </row>
     <row r="77" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C77" s="41"/>
       <c r="D77" s="42"/>
-      <c r="E77" s="42" t="s">
-        <v>137</v>
-      </c>
+      <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -14592,8 +14258,9 @@
       <c r="AH77" s="18"/>
     </row>
     <row r="78" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="42" t="s">
+        <v>135</v>
+      </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -14628,9 +14295,10 @@
     <row r="79" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C79" s="41"/>
       <c r="D79" s="42"/>
-      <c r="F79" s="52" t="s">
-        <v>140</v>
-      </c>
+      <c r="E79" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -14663,7 +14331,8 @@
     <row r="80" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C80" s="41"/>
       <c r="D80" s="42"/>
-      <c r="F80" s="52"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -14696,345 +14365,326 @@
     <row r="81" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
-      <c r="F81" s="339" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="340"/>
-      <c r="H81" s="341"/>
-      <c r="I81" s="342" t="s">
-        <v>141</v>
-      </c>
-      <c r="J81" s="343"/>
-      <c r="K81" s="343"/>
-      <c r="L81" s="343"/>
-      <c r="M81" s="344"/>
-      <c r="N81" s="339" t="s">
-        <v>91</v>
-      </c>
-      <c r="O81" s="340"/>
-      <c r="P81" s="341"/>
-      <c r="Q81" s="342" t="s">
-        <v>142</v>
-      </c>
-      <c r="R81" s="343"/>
-      <c r="S81" s="343"/>
-      <c r="T81" s="343"/>
-      <c r="U81" s="343"/>
-      <c r="V81" s="343"/>
-      <c r="W81" s="343"/>
-      <c r="X81" s="343"/>
-      <c r="Y81" s="343"/>
-      <c r="Z81" s="343"/>
-      <c r="AA81" s="343"/>
-      <c r="AB81" s="343"/>
-      <c r="AC81" s="343"/>
-      <c r="AD81" s="343"/>
-      <c r="AE81" s="343"/>
-      <c r="AF81" s="343"/>
-      <c r="AG81" s="343"/>
-      <c r="AH81" s="344"/>
-    </row>
-    <row r="82" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="117"/>
-      <c r="D82" s="118"/>
-      <c r="F82" s="119"/>
-      <c r="G82" s="119"/>
-      <c r="H82" s="119"/>
-      <c r="I82" s="119"/>
-      <c r="J82" s="119"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="119"/>
-      <c r="M82" s="119"/>
-      <c r="N82" s="119"/>
-      <c r="O82" s="119"/>
-      <c r="P82" s="119"/>
-      <c r="Q82" s="119"/>
-      <c r="R82" s="119"/>
-      <c r="S82" s="119"/>
-      <c r="T82" s="119"/>
-      <c r="U82" s="119"/>
-      <c r="V82" s="119"/>
-      <c r="W82" s="119"/>
-      <c r="X82" s="119"/>
-      <c r="Y82" s="119"/>
-      <c r="Z82" s="119"/>
-      <c r="AA82" s="119"/>
-      <c r="AB82" s="119"/>
-      <c r="AC82" s="119"/>
-      <c r="AD82" s="119"/>
-      <c r="AE82" s="119"/>
-      <c r="AF82" s="119"/>
-      <c r="AG82" s="119"/>
-      <c r="AH82" s="119"/>
+      <c r="F81" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="18"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
+      <c r="AG81" s="18"/>
+      <c r="AH81" s="18"/>
+    </row>
+    <row r="82" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="18"/>
+      <c r="X82" s="18"/>
+      <c r="Y82" s="18"/>
+      <c r="Z82" s="18"/>
+      <c r="AA82" s="18"/>
+      <c r="AB82" s="18"/>
+      <c r="AC82" s="18"/>
+      <c r="AD82" s="18"/>
+      <c r="AE82" s="18"/>
+      <c r="AF82" s="18"/>
+      <c r="AG82" s="18"/>
+      <c r="AH82" s="18"/>
     </row>
     <row r="83" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
-      <c r="E83" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
-      <c r="AB83" s="18"/>
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="18"/>
-      <c r="AF83" s="18"/>
-      <c r="AG83" s="18"/>
-      <c r="AH83" s="18"/>
-      <c r="BL83" s="88"/>
-      <c r="BM83" s="88"/>
-      <c r="BN83" s="88"/>
-      <c r="BO83" s="88"/>
-    </row>
-    <row r="84" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="18"/>
-      <c r="AB84" s="18"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-      <c r="AE84" s="18"/>
-      <c r="AF84" s="18"/>
-      <c r="AG84" s="18"/>
-      <c r="AH84" s="18"/>
+      <c r="F83" s="376" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="377"/>
+      <c r="H83" s="378"/>
+      <c r="I83" s="334" t="s">
+        <v>141</v>
+      </c>
+      <c r="J83" s="335"/>
+      <c r="K83" s="335"/>
+      <c r="L83" s="335"/>
+      <c r="M83" s="336"/>
+      <c r="N83" s="376" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="377"/>
+      <c r="P83" s="378"/>
+      <c r="Q83" s="334" t="s">
+        <v>142</v>
+      </c>
+      <c r="R83" s="335"/>
+      <c r="S83" s="335"/>
+      <c r="T83" s="335"/>
+      <c r="U83" s="335"/>
+      <c r="V83" s="335"/>
+      <c r="W83" s="335"/>
+      <c r="X83" s="335"/>
+      <c r="Y83" s="335"/>
+      <c r="Z83" s="335"/>
+      <c r="AA83" s="335"/>
+      <c r="AB83" s="335"/>
+      <c r="AC83" s="335"/>
+      <c r="AD83" s="335"/>
+      <c r="AE83" s="335"/>
+      <c r="AF83" s="335"/>
+      <c r="AG83" s="335"/>
+      <c r="AH83" s="336"/>
+    </row>
+    <row r="84" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="117"/>
+      <c r="D84" s="118"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="119"/>
+      <c r="I84" s="119"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="119"/>
+      <c r="N84" s="119"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="119"/>
+      <c r="Q84" s="119"/>
+      <c r="R84" s="119"/>
+      <c r="S84" s="119"/>
+      <c r="T84" s="119"/>
+      <c r="U84" s="119"/>
+      <c r="V84" s="119"/>
+      <c r="W84" s="119"/>
+      <c r="X84" s="119"/>
+      <c r="Y84" s="119"/>
+      <c r="Z84" s="119"/>
+      <c r="AA84" s="119"/>
+      <c r="AB84" s="119"/>
+      <c r="AC84" s="119"/>
+      <c r="AD84" s="119"/>
+      <c r="AE84" s="119"/>
+      <c r="AF84" s="119"/>
+      <c r="AG84" s="119"/>
+      <c r="AH84" s="119"/>
     </row>
     <row r="85" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C85" s="41"/>
-      <c r="F85" s="362" t="s">
+      <c r="D85" s="42"/>
+      <c r="E85" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18"/>
+      <c r="BL85" s="88"/>
+      <c r="BM85" s="88"/>
+      <c r="BN85" s="88"/>
+      <c r="BO85" s="88"/>
+    </row>
+    <row r="86" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
+    </row>
+    <row r="87" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="C87" s="41"/>
+      <c r="F87" s="337" t="s">
         <v>111</v>
       </c>
-      <c r="G85" s="364" t="s">
+      <c r="G87" s="339" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="364"/>
-      <c r="I85" s="364"/>
-      <c r="J85" s="364"/>
-      <c r="K85" s="161" t="s">
+      <c r="H87" s="339"/>
+      <c r="I87" s="339"/>
+      <c r="J87" s="339"/>
+      <c r="K87" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="L85" s="162"/>
-      <c r="M85" s="162"/>
-      <c r="N85" s="162"/>
-      <c r="O85" s="162"/>
-      <c r="P85" s="163"/>
-      <c r="Q85" s="128" t="s">
+      <c r="L87" s="162"/>
+      <c r="M87" s="162"/>
+      <c r="N87" s="162"/>
+      <c r="O87" s="162"/>
+      <c r="P87" s="163"/>
+      <c r="Q87" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="R85" s="129"/>
-      <c r="S85" s="129"/>
-      <c r="T85" s="129"/>
-      <c r="U85" s="129"/>
-      <c r="V85" s="129"/>
-      <c r="W85" s="129"/>
-      <c r="X85" s="129"/>
-      <c r="Y85" s="129"/>
-      <c r="Z85" s="130"/>
-      <c r="AA85" s="161" t="s">
+      <c r="R87" s="129"/>
+      <c r="S87" s="129"/>
+      <c r="T87" s="129"/>
+      <c r="U87" s="129"/>
+      <c r="V87" s="129"/>
+      <c r="W87" s="129"/>
+      <c r="X87" s="129"/>
+      <c r="Y87" s="129"/>
+      <c r="Z87" s="130"/>
+      <c r="AA87" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="AB85" s="162"/>
-      <c r="AC85" s="162"/>
-      <c r="AD85" s="163"/>
-      <c r="AE85" s="365" t="s">
+      <c r="AB87" s="162"/>
+      <c r="AC87" s="162"/>
+      <c r="AD87" s="163"/>
+      <c r="AE87" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="AF85" s="366"/>
-      <c r="AG85" s="366"/>
-      <c r="AH85" s="367"/>
-      <c r="AI85" s="113"/>
-    </row>
-    <row r="86" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F86" s="363"/>
-      <c r="G86" s="364"/>
-      <c r="H86" s="364"/>
-      <c r="I86" s="364"/>
-      <c r="J86" s="364"/>
-      <c r="K86" s="164"/>
-      <c r="L86" s="165"/>
-      <c r="M86" s="165"/>
-      <c r="N86" s="165"/>
-      <c r="O86" s="165"/>
-      <c r="P86" s="166"/>
-      <c r="Q86" s="170" t="s">
+      <c r="AF87" s="341"/>
+      <c r="AG87" s="341"/>
+      <c r="AH87" s="342"/>
+      <c r="AI87" s="113"/>
+    </row>
+    <row r="88" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="F88" s="338"/>
+      <c r="G88" s="339"/>
+      <c r="H88" s="339"/>
+      <c r="I88" s="339"/>
+      <c r="J88" s="339"/>
+      <c r="K88" s="164"/>
+      <c r="L88" s="165"/>
+      <c r="M88" s="165"/>
+      <c r="N88" s="165"/>
+      <c r="O88" s="165"/>
+      <c r="P88" s="166"/>
+      <c r="Q88" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="R86" s="129"/>
-      <c r="S86" s="129"/>
-      <c r="T86" s="129"/>
-      <c r="U86" s="130"/>
-      <c r="V86" s="171" t="s">
+      <c r="R88" s="129"/>
+      <c r="S88" s="129"/>
+      <c r="T88" s="129"/>
+      <c r="U88" s="130"/>
+      <c r="V88" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="W86" s="172"/>
-      <c r="X86" s="172"/>
-      <c r="Y86" s="172"/>
-      <c r="Z86" s="173"/>
-      <c r="AA86" s="164"/>
-      <c r="AB86" s="165"/>
-      <c r="AC86" s="165"/>
-      <c r="AD86" s="166"/>
-      <c r="AE86" s="368"/>
-      <c r="AF86" s="369"/>
-      <c r="AG86" s="369"/>
-      <c r="AH86" s="370"/>
-      <c r="AI86" s="113"/>
-    </row>
-    <row r="87" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F87" s="112">
-        <v>1</v>
-      </c>
-      <c r="G87" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="H87" s="157"/>
-      <c r="I87" s="157"/>
-      <c r="J87" s="158"/>
-      <c r="K87" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="167"/>
-      <c r="M87" s="167"/>
-      <c r="N87" s="159"/>
-      <c r="O87" s="159"/>
-      <c r="P87" s="160"/>
-      <c r="Q87" s="329" t="s">
-        <v>173</v>
-      </c>
-      <c r="R87" s="330"/>
-      <c r="S87" s="330"/>
-      <c r="T87" s="330"/>
-      <c r="U87" s="330"/>
-      <c r="V87" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="W87" s="167"/>
-      <c r="X87" s="168"/>
-      <c r="Y87" s="168"/>
-      <c r="Z87" s="169"/>
-      <c r="AA87" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB87" s="175"/>
-      <c r="AC87" s="175"/>
-      <c r="AD87" s="176"/>
-      <c r="AE87" s="331"/>
-      <c r="AF87" s="332"/>
-      <c r="AG87" s="332"/>
-      <c r="AH87" s="333"/>
-      <c r="AI87" s="113"/>
-    </row>
-    <row r="88" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F88" s="112">
-        <v>2</v>
-      </c>
-      <c r="G88" s="156" t="s">
-        <v>152</v>
-      </c>
-      <c r="H88" s="157"/>
-      <c r="I88" s="157"/>
-      <c r="J88" s="158"/>
-      <c r="K88" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="L88" s="167"/>
-      <c r="M88" s="167"/>
-      <c r="N88" s="159"/>
-      <c r="O88" s="159"/>
-      <c r="P88" s="160"/>
-      <c r="Q88" s="329" t="s">
-        <v>173</v>
-      </c>
-      <c r="R88" s="330"/>
-      <c r="S88" s="330"/>
-      <c r="T88" s="330"/>
-      <c r="U88" s="330"/>
-      <c r="V88" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="W88" s="167"/>
-      <c r="X88" s="168"/>
-      <c r="Y88" s="168"/>
-      <c r="Z88" s="169"/>
-      <c r="AA88" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB88" s="175"/>
-      <c r="AC88" s="175"/>
-      <c r="AD88" s="176"/>
-      <c r="AE88" s="331"/>
-      <c r="AF88" s="332"/>
-      <c r="AG88" s="332"/>
-      <c r="AH88" s="333"/>
+      <c r="W88" s="172"/>
+      <c r="X88" s="172"/>
+      <c r="Y88" s="172"/>
+      <c r="Z88" s="173"/>
+      <c r="AA88" s="164"/>
+      <c r="AB88" s="165"/>
+      <c r="AC88" s="165"/>
+      <c r="AD88" s="166"/>
+      <c r="AE88" s="343"/>
+      <c r="AF88" s="344"/>
+      <c r="AG88" s="344"/>
+      <c r="AH88" s="345"/>
+      <c r="AI88" s="113"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" s="156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H89" s="157"/>
       <c r="I89" s="157"/>
       <c r="J89" s="158"/>
       <c r="K89" s="141" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L89" s="167"/>
       <c r="M89" s="167"/>
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="329" t="s">
+      <c r="Q89" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R89" s="330"/>
-      <c r="S89" s="330"/>
-      <c r="T89" s="330"/>
-      <c r="U89" s="330"/>
+      <c r="R89" s="364"/>
+      <c r="S89" s="364"/>
+      <c r="T89" s="364"/>
+      <c r="U89" s="364"/>
       <c r="V89" s="141" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W89" s="167"/>
       <c r="X89" s="168"/>
@@ -15046,38 +14696,39 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="331"/>
-      <c r="AF89" s="332"/>
-      <c r="AG89" s="332"/>
-      <c r="AH89" s="333"/>
+      <c r="AE89" s="370"/>
+      <c r="AF89" s="371"/>
+      <c r="AG89" s="371"/>
+      <c r="AH89" s="372"/>
+      <c r="AI89" s="113"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" s="156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H90" s="157"/>
       <c r="I90" s="157"/>
       <c r="J90" s="158"/>
       <c r="K90" s="141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L90" s="167"/>
       <c r="M90" s="167"/>
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="329" t="s">
+      <c r="Q90" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R90" s="330"/>
-      <c r="S90" s="330"/>
-      <c r="T90" s="330"/>
-      <c r="U90" s="330"/>
+      <c r="R90" s="364"/>
+      <c r="S90" s="364"/>
+      <c r="T90" s="364"/>
+      <c r="U90" s="364"/>
       <c r="V90" s="141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W90" s="167"/>
       <c r="X90" s="168"/>
@@ -15089,212 +14740,211 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="331"/>
-      <c r="AF90" s="332"/>
-      <c r="AG90" s="332"/>
-      <c r="AH90" s="333"/>
-      <c r="AI90" s="113"/>
+      <c r="AE90" s="370"/>
+      <c r="AF90" s="371"/>
+      <c r="AG90" s="371"/>
+      <c r="AH90" s="372"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G91" s="156" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H91" s="157"/>
       <c r="I91" s="157"/>
       <c r="J91" s="158"/>
       <c r="K91" s="141" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="L91" s="167"/>
       <c r="M91" s="167"/>
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="329" t="s">
+      <c r="Q91" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R91" s="330"/>
-      <c r="S91" s="330"/>
-      <c r="T91" s="330"/>
-      <c r="U91" s="330"/>
+      <c r="R91" s="364"/>
+      <c r="S91" s="364"/>
+      <c r="T91" s="364"/>
+      <c r="U91" s="364"/>
       <c r="V91" s="141" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="W91" s="167"/>
       <c r="X91" s="168"/>
       <c r="Y91" s="168"/>
       <c r="Z91" s="169"/>
       <c r="AA91" s="174" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="331"/>
-      <c r="AF91" s="332"/>
-      <c r="AG91" s="332"/>
-      <c r="AH91" s="333"/>
+      <c r="AE91" s="370"/>
+      <c r="AF91" s="371"/>
+      <c r="AG91" s="371"/>
+      <c r="AH91" s="372"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G92" s="156" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H92" s="157"/>
       <c r="I92" s="157"/>
       <c r="J92" s="158"/>
       <c r="K92" s="141" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="L92" s="167"/>
       <c r="M92" s="167"/>
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="329" t="s">
+      <c r="Q92" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R92" s="330"/>
-      <c r="S92" s="330"/>
-      <c r="T92" s="330"/>
-      <c r="U92" s="330"/>
+      <c r="R92" s="364"/>
+      <c r="S92" s="364"/>
+      <c r="T92" s="364"/>
+      <c r="U92" s="364"/>
       <c r="V92" s="141" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="W92" s="167"/>
       <c r="X92" s="168"/>
       <c r="Y92" s="168"/>
       <c r="Z92" s="169"/>
       <c r="AA92" s="174" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="331"/>
-      <c r="AF92" s="332"/>
-      <c r="AG92" s="332"/>
-      <c r="AH92" s="333"/>
+      <c r="AE92" s="370"/>
+      <c r="AF92" s="371"/>
+      <c r="AG92" s="371"/>
+      <c r="AH92" s="372"/>
+      <c r="AI92" s="113"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G93" s="156" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H93" s="157"/>
       <c r="I93" s="157"/>
       <c r="J93" s="158"/>
       <c r="K93" s="141" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L93" s="167"/>
       <c r="M93" s="167"/>
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="329" t="s">
+      <c r="Q93" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R93" s="330"/>
-      <c r="S93" s="330"/>
-      <c r="T93" s="330"/>
-      <c r="U93" s="330"/>
+      <c r="R93" s="364"/>
+      <c r="S93" s="364"/>
+      <c r="T93" s="364"/>
+      <c r="U93" s="364"/>
       <c r="V93" s="141" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="W93" s="167"/>
       <c r="X93" s="168"/>
       <c r="Y93" s="168"/>
       <c r="Z93" s="169"/>
       <c r="AA93" s="174" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="331"/>
-      <c r="AF93" s="332"/>
-      <c r="AG93" s="332"/>
-      <c r="AH93" s="333"/>
-      <c r="AI93" s="113"/>
+      <c r="AE93" s="370"/>
+      <c r="AF93" s="371"/>
+      <c r="AG93" s="371"/>
+      <c r="AH93" s="372"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F94" s="112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G94" s="156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H94" s="157"/>
       <c r="I94" s="157"/>
       <c r="J94" s="158"/>
       <c r="K94" s="141" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="L94" s="167"/>
       <c r="M94" s="167"/>
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="329" t="s">
+      <c r="Q94" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R94" s="330"/>
-      <c r="S94" s="330"/>
-      <c r="T94" s="330"/>
-      <c r="U94" s="330"/>
+      <c r="R94" s="364"/>
+      <c r="S94" s="364"/>
+      <c r="T94" s="364"/>
+      <c r="U94" s="364"/>
       <c r="V94" s="141" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="W94" s="167"/>
       <c r="X94" s="168"/>
       <c r="Y94" s="168"/>
       <c r="Z94" s="169"/>
       <c r="AA94" s="174" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="331"/>
-      <c r="AF94" s="332"/>
-      <c r="AG94" s="332"/>
-      <c r="AH94" s="333"/>
+      <c r="AE94" s="370"/>
+      <c r="AF94" s="371"/>
+      <c r="AG94" s="371"/>
+      <c r="AH94" s="372"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G95" s="156" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H95" s="157"/>
       <c r="I95" s="157"/>
       <c r="J95" s="158"/>
       <c r="K95" s="141" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L95" s="167"/>
       <c r="M95" s="167"/>
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="329" t="s">
+      <c r="Q95" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R95" s="330"/>
-      <c r="S95" s="330"/>
-      <c r="T95" s="330"/>
-      <c r="U95" s="330"/>
+      <c r="R95" s="364"/>
+      <c r="S95" s="364"/>
+      <c r="T95" s="364"/>
+      <c r="U95" s="364"/>
       <c r="V95" s="141" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W95" s="167"/>
       <c r="X95" s="168"/>
@@ -15306,38 +14956,39 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="331"/>
-      <c r="AF95" s="332"/>
-      <c r="AG95" s="332"/>
-      <c r="AH95" s="333"/>
+      <c r="AE95" s="370"/>
+      <c r="AF95" s="371"/>
+      <c r="AG95" s="371"/>
+      <c r="AH95" s="372"/>
+      <c r="AI95" s="113"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F96" s="112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96" s="156" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H96" s="157"/>
       <c r="I96" s="157"/>
       <c r="J96" s="158"/>
       <c r="K96" s="141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L96" s="167"/>
       <c r="M96" s="167"/>
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="329" t="s">
+      <c r="Q96" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R96" s="330"/>
-      <c r="S96" s="330"/>
-      <c r="T96" s="330"/>
-      <c r="U96" s="330"/>
+      <c r="R96" s="364"/>
+      <c r="S96" s="364"/>
+      <c r="T96" s="364"/>
+      <c r="U96" s="364"/>
       <c r="V96" s="141" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W96" s="167"/>
       <c r="X96" s="168"/>
@@ -15349,39 +15000,38 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="331"/>
-      <c r="AF96" s="332"/>
-      <c r="AG96" s="332"/>
-      <c r="AH96" s="333"/>
-      <c r="AI96" s="113"/>
-    </row>
-    <row r="97" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE96" s="370"/>
+      <c r="AF96" s="371"/>
+      <c r="AG96" s="371"/>
+      <c r="AH96" s="372"/>
+    </row>
+    <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="112">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G97" s="156" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H97" s="157"/>
       <c r="I97" s="157"/>
       <c r="J97" s="158"/>
       <c r="K97" s="141" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L97" s="167"/>
       <c r="M97" s="167"/>
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="329" t="s">
+      <c r="Q97" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R97" s="330"/>
-      <c r="S97" s="330"/>
-      <c r="T97" s="330"/>
-      <c r="U97" s="330"/>
+      <c r="R97" s="364"/>
+      <c r="S97" s="364"/>
+      <c r="T97" s="364"/>
+      <c r="U97" s="364"/>
       <c r="V97" s="141" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W97" s="167"/>
       <c r="X97" s="168"/>
@@ -15393,38 +15043,38 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="331"/>
-      <c r="AF97" s="332"/>
-      <c r="AG97" s="332"/>
-      <c r="AH97" s="333"/>
-    </row>
-    <row r="98" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE97" s="370"/>
+      <c r="AF97" s="371"/>
+      <c r="AG97" s="371"/>
+      <c r="AH97" s="372"/>
+    </row>
+    <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="156" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H98" s="157"/>
       <c r="I98" s="157"/>
       <c r="J98" s="158"/>
       <c r="K98" s="141" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="L98" s="167"/>
       <c r="M98" s="167"/>
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="329" t="s">
+      <c r="Q98" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R98" s="330"/>
-      <c r="S98" s="330"/>
-      <c r="T98" s="330"/>
-      <c r="U98" s="330"/>
+      <c r="R98" s="364"/>
+      <c r="S98" s="364"/>
+      <c r="T98" s="364"/>
+      <c r="U98" s="364"/>
       <c r="V98" s="141" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W98" s="167"/>
       <c r="X98" s="168"/>
@@ -15436,38 +15086,39 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="331"/>
-      <c r="AF98" s="332"/>
-      <c r="AG98" s="332"/>
-      <c r="AH98" s="333"/>
-    </row>
-    <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE98" s="370"/>
+      <c r="AF98" s="371"/>
+      <c r="AG98" s="371"/>
+      <c r="AH98" s="372"/>
+      <c r="AI98" s="113"/>
+    </row>
+    <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="112">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G99" s="156" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H99" s="157"/>
       <c r="I99" s="157"/>
       <c r="J99" s="158"/>
       <c r="K99" s="141" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L99" s="167"/>
       <c r="M99" s="167"/>
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="329" t="s">
+      <c r="Q99" s="363" t="s">
         <v>173</v>
       </c>
-      <c r="R99" s="330"/>
-      <c r="S99" s="330"/>
-      <c r="T99" s="330"/>
-      <c r="U99" s="330"/>
+      <c r="R99" s="364"/>
+      <c r="S99" s="364"/>
+      <c r="T99" s="364"/>
+      <c r="U99" s="364"/>
       <c r="V99" s="141" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W99" s="167"/>
       <c r="X99" s="168"/>
@@ -15479,86 +15130,204 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="331"/>
-      <c r="AF99" s="332"/>
-      <c r="AG99" s="332"/>
-      <c r="AH99" s="333"/>
-      <c r="AI99" s="113"/>
-    </row>
-    <row r="102" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="AI102" s="87"/>
-    </row>
-    <row r="111" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
-      <c r="T111" s="24"/>
-      <c r="U111" s="24"/>
-      <c r="V111" s="24"/>
-      <c r="W111" s="24"/>
-      <c r="X111" s="24"/>
-      <c r="Y111" s="25"/>
-      <c r="Z111" s="25"/>
-      <c r="AA111" s="25"/>
-      <c r="AB111" s="25"/>
-      <c r="AC111" s="25"/>
-      <c r="AD111" s="25"/>
-      <c r="AE111" s="26"/>
-      <c r="AF111" s="26"/>
-      <c r="AG111" s="26"/>
-      <c r="AH111" s="26"/>
+      <c r="AE99" s="370"/>
+      <c r="AF99" s="371"/>
+      <c r="AG99" s="371"/>
+      <c r="AH99" s="372"/>
+    </row>
+    <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="112">
+        <v>12</v>
+      </c>
+      <c r="G100" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="H100" s="157"/>
+      <c r="I100" s="157"/>
+      <c r="J100" s="158"/>
+      <c r="K100" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="L100" s="167"/>
+      <c r="M100" s="167"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="160"/>
+      <c r="Q100" s="363" t="s">
+        <v>173</v>
+      </c>
+      <c r="R100" s="364"/>
+      <c r="S100" s="364"/>
+      <c r="T100" s="364"/>
+      <c r="U100" s="364"/>
+      <c r="V100" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="W100" s="167"/>
+      <c r="X100" s="168"/>
+      <c r="Y100" s="168"/>
+      <c r="Z100" s="169"/>
+      <c r="AA100" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB100" s="175"/>
+      <c r="AC100" s="175"/>
+      <c r="AD100" s="176"/>
+      <c r="AE100" s="370"/>
+      <c r="AF100" s="371"/>
+      <c r="AG100" s="371"/>
+      <c r="AH100" s="372"/>
+    </row>
+    <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="112">
+        <v>13</v>
+      </c>
+      <c r="G101" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="H101" s="157"/>
+      <c r="I101" s="157"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="159"/>
+      <c r="O101" s="159"/>
+      <c r="P101" s="160"/>
+      <c r="Q101" s="363" t="s">
+        <v>173</v>
+      </c>
+      <c r="R101" s="364"/>
+      <c r="S101" s="364"/>
+      <c r="T101" s="364"/>
+      <c r="U101" s="364"/>
+      <c r="V101" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="W101" s="167"/>
+      <c r="X101" s="168"/>
+      <c r="Y101" s="168"/>
+      <c r="Z101" s="169"/>
+      <c r="AA101" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB101" s="175"/>
+      <c r="AC101" s="175"/>
+      <c r="AD101" s="176"/>
+      <c r="AE101" s="370"/>
+      <c r="AF101" s="371"/>
+      <c r="AG101" s="371"/>
+      <c r="AH101" s="372"/>
+      <c r="AI101" s="113"/>
+    </row>
+    <row r="104" spans="6:35" x14ac:dyDescent="0.15">
+      <c r="AI104" s="87"/>
+    </row>
+    <row r="113" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="24"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="24"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="25"/>
+      <c r="Z113" s="25"/>
+      <c r="AA113" s="25"/>
+      <c r="AB113" s="25"/>
+      <c r="AC113" s="25"/>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="26"/>
+      <c r="AF113" s="26"/>
+      <c r="AG113" s="26"/>
+      <c r="AH113" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q81:AH81"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:J86"/>
-    <mergeCell ref="AE85:AH86"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
     <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="AE101:AH101"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="W50:AH50"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="W48:AH48"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="W52:AH52"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="W51:AH51"/>
+    <mergeCell ref="E53:AH53"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:AB69"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
+    <mergeCell ref="Q101:U101"/>
     <mergeCell ref="K22:AH22"/>
     <mergeCell ref="K23:AH23"/>
     <mergeCell ref="A1:D1"/>
@@ -15582,72 +15351,40 @@
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:K39"/>
     <mergeCell ref="L38:P39"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="W50:AH50"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="W48:AH48"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="W52:AH52"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="W51:AH51"/>
-    <mergeCell ref="E53:AH53"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:AB69"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:M81"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q87:U87"/>
-    <mergeCell ref="AE87:AH87"/>
-    <mergeCell ref="Q88:U88"/>
-    <mergeCell ref="AE88:AH88"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q83:AH83"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="AE87:AH88"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">
@@ -15676,900 +15413,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E353806D-FF5C-482E-BB39-2D4895F598BD}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AL44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="4.83203125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="267" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v>サンプルプロジェクト</v>
-      </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="227" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="258" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>システム機能設計書(バッチ)
-BA10601/期間内プロジェクト一覧出力バッチ</v>
-      </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="221" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="197" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="268">
-        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v>43634</v>
-      </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="10"/>
-    </row>
-    <row r="2" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="267" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v>サンプルシステム</v>
-      </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="221" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="197" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="268">
-        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44796</v>
-      </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" s="178" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="267" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
-        <v>プロジェクト管理システム</v>
-      </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="197" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
-        <v/>
-      </c>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="268" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
-        <v/>
-      </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-    </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="E10" s="41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="357" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="355"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="355"/>
-      <c r="I11" s="355"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="355"/>
-      <c r="L11" s="355"/>
-      <c r="M11" s="355"/>
-      <c r="N11" s="355"/>
-      <c r="O11" s="355"/>
-      <c r="P11" s="355"/>
-      <c r="Q11" s="355"/>
-      <c r="R11" s="355"/>
-      <c r="S11" s="355"/>
-      <c r="T11" s="355"/>
-      <c r="U11" s="355"/>
-      <c r="V11" s="355"/>
-      <c r="W11" s="355"/>
-      <c r="X11" s="355"/>
-      <c r="Y11" s="355"/>
-      <c r="Z11" s="355"/>
-      <c r="AA11" s="355"/>
-      <c r="AB11" s="355"/>
-      <c r="AC11" s="355"/>
-      <c r="AD11" s="355"/>
-      <c r="AE11" s="355"/>
-      <c r="AF11" s="355"/>
-      <c r="AG11" s="355"/>
-      <c r="AH11" s="355"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="89"/>
-    </row>
-    <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="356" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="358"/>
-      <c r="J12" s="358"/>
-      <c r="K12" s="358"/>
-      <c r="L12" s="358"/>
-      <c r="M12" s="358"/>
-      <c r="N12" s="358"/>
-      <c r="O12" s="358"/>
-      <c r="P12" s="358"/>
-      <c r="Q12" s="181" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="179" t="s">
-        <v>185</v>
-      </c>
-      <c r="S12" s="180"/>
-      <c r="T12" s="180"/>
-      <c r="U12" s="180"/>
-      <c r="V12" s="180"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="89"/>
-    </row>
-    <row r="13" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="44">
-        <v>1</v>
-      </c>
-      <c r="F13" s="386" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="387"/>
-      <c r="H13" s="387"/>
-      <c r="I13" s="387"/>
-      <c r="J13" s="387"/>
-      <c r="K13" s="387"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="386" t="s">
-        <v>189</v>
-      </c>
-      <c r="S13" s="387"/>
-      <c r="T13" s="387"/>
-      <c r="U13" s="387"/>
-      <c r="V13" s="387"/>
-      <c r="W13" s="387"/>
-      <c r="X13" s="387"/>
-      <c r="Y13" s="387"/>
-      <c r="Z13" s="387"/>
-      <c r="AA13" s="387"/>
-      <c r="AB13" s="387"/>
-      <c r="AC13" s="387"/>
-      <c r="AD13" s="387"/>
-      <c r="AE13" s="387"/>
-      <c r="AF13" s="387"/>
-      <c r="AG13" s="387"/>
-      <c r="AH13" s="389"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="89"/>
-    </row>
-    <row r="14" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="44">
-        <v>2</v>
-      </c>
-      <c r="F14" s="386" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="387"/>
-      <c r="H14" s="387"/>
-      <c r="I14" s="387"/>
-      <c r="J14" s="387"/>
-      <c r="K14" s="387"/>
-      <c r="L14" s="388"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R14" s="386" t="s">
-        <v>190</v>
-      </c>
-      <c r="S14" s="387"/>
-      <c r="T14" s="387"/>
-      <c r="U14" s="387"/>
-      <c r="V14" s="387"/>
-      <c r="W14" s="387"/>
-      <c r="X14" s="387"/>
-      <c r="Y14" s="387"/>
-      <c r="Z14" s="387"/>
-      <c r="AA14" s="387"/>
-      <c r="AB14" s="387"/>
-      <c r="AC14" s="387"/>
-      <c r="AD14" s="387"/>
-      <c r="AE14" s="387"/>
-      <c r="AF14" s="387"/>
-      <c r="AG14" s="387"/>
-      <c r="AH14" s="389"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="88"/>
-    </row>
-    <row r="15" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="44">
-        <v>3</v>
-      </c>
-      <c r="F15" s="386" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="387"/>
-      <c r="H15" s="387"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="387"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="388"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R15" s="386" t="s">
-        <v>191</v>
-      </c>
-      <c r="S15" s="387"/>
-      <c r="T15" s="387"/>
-      <c r="U15" s="387"/>
-      <c r="V15" s="387"/>
-      <c r="W15" s="387"/>
-      <c r="X15" s="387"/>
-      <c r="Y15" s="387"/>
-      <c r="Z15" s="387"/>
-      <c r="AA15" s="387"/>
-      <c r="AB15" s="387"/>
-      <c r="AC15" s="387"/>
-      <c r="AD15" s="387"/>
-      <c r="AE15" s="387"/>
-      <c r="AF15" s="387"/>
-      <c r="AG15" s="387"/>
-      <c r="AH15" s="389"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="88"/>
-    </row>
-    <row r="16" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="44">
-        <v>4</v>
-      </c>
-      <c r="F16" s="386" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="387"/>
-      <c r="H16" s="387"/>
-      <c r="I16" s="387"/>
-      <c r="J16" s="387"/>
-      <c r="K16" s="387"/>
-      <c r="L16" s="388"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R16" s="386" t="s">
-        <v>192</v>
-      </c>
-      <c r="S16" s="387"/>
-      <c r="T16" s="387"/>
-      <c r="U16" s="387"/>
-      <c r="V16" s="387"/>
-      <c r="W16" s="387"/>
-      <c r="X16" s="387"/>
-      <c r="Y16" s="387"/>
-      <c r="Z16" s="387"/>
-      <c r="AA16" s="387"/>
-      <c r="AB16" s="387"/>
-      <c r="AC16" s="387"/>
-      <c r="AD16" s="387"/>
-      <c r="AE16" s="387"/>
-      <c r="AF16" s="387"/>
-      <c r="AG16" s="387"/>
-      <c r="AH16" s="389"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="88"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E17" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C19" s="41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E21" s="41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="357" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" s="355"/>
-      <c r="G22" s="355"/>
-      <c r="H22" s="355"/>
-      <c r="I22" s="355"/>
-      <c r="J22" s="355"/>
-      <c r="K22" s="355"/>
-      <c r="L22" s="355"/>
-      <c r="M22" s="355"/>
-      <c r="N22" s="355"/>
-      <c r="O22" s="355"/>
-      <c r="P22" s="355"/>
-      <c r="Q22" s="355"/>
-      <c r="R22" s="355"/>
-      <c r="S22" s="355"/>
-      <c r="T22" s="355"/>
-      <c r="U22" s="355"/>
-      <c r="V22" s="355"/>
-      <c r="W22" s="355"/>
-      <c r="X22" s="355"/>
-      <c r="Y22" s="355"/>
-      <c r="Z22" s="355"/>
-      <c r="AA22" s="355"/>
-      <c r="AB22" s="355"/>
-      <c r="AC22" s="355"/>
-      <c r="AD22" s="355"/>
-      <c r="AE22" s="355"/>
-      <c r="AF22" s="355"/>
-      <c r="AG22" s="355"/>
-      <c r="AH22" s="355"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="356" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="358"/>
-      <c r="H23" s="358"/>
-      <c r="I23" s="358"/>
-      <c r="J23" s="358"/>
-      <c r="K23" s="358"/>
-      <c r="L23" s="358"/>
-      <c r="M23" s="358"/>
-      <c r="N23" s="358"/>
-      <c r="O23" s="358"/>
-      <c r="P23" s="358"/>
-      <c r="Q23" s="181" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="179" t="s">
-        <v>185</v>
-      </c>
-      <c r="S23" s="180"/>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180"/>
-      <c r="V23" s="180"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="184"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="44">
-        <v>1</v>
-      </c>
-      <c r="F24" s="386" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="387"/>
-      <c r="H24" s="387"/>
-      <c r="I24" s="387"/>
-      <c r="J24" s="387"/>
-      <c r="K24" s="387"/>
-      <c r="L24" s="388"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R24" s="386" t="s">
-        <v>200</v>
-      </c>
-      <c r="S24" s="387"/>
-      <c r="T24" s="387"/>
-      <c r="U24" s="387"/>
-      <c r="V24" s="387"/>
-      <c r="W24" s="387"/>
-      <c r="X24" s="387"/>
-      <c r="Y24" s="387"/>
-      <c r="Z24" s="387"/>
-      <c r="AA24" s="387"/>
-      <c r="AB24" s="387"/>
-      <c r="AC24" s="387"/>
-      <c r="AD24" s="387"/>
-      <c r="AE24" s="387"/>
-      <c r="AF24" s="387"/>
-      <c r="AG24" s="387"/>
-      <c r="AH24" s="389"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E25" s="44">
-        <v>2</v>
-      </c>
-      <c r="F25" s="386" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="387"/>
-      <c r="H25" s="387"/>
-      <c r="I25" s="387"/>
-      <c r="J25" s="387"/>
-      <c r="K25" s="387"/>
-      <c r="L25" s="388"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R25" s="386" t="s">
-        <v>200</v>
-      </c>
-      <c r="S25" s="387"/>
-      <c r="T25" s="387"/>
-      <c r="U25" s="387"/>
-      <c r="V25" s="387"/>
-      <c r="W25" s="387"/>
-      <c r="X25" s="387"/>
-      <c r="Y25" s="387"/>
-      <c r="Z25" s="387"/>
-      <c r="AA25" s="387"/>
-      <c r="AB25" s="387"/>
-      <c r="AC25" s="387"/>
-      <c r="AD25" s="387"/>
-      <c r="AE25" s="387"/>
-      <c r="AF25" s="387"/>
-      <c r="AG25" s="387"/>
-      <c r="AH25" s="389"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E26" s="44">
-        <v>3</v>
-      </c>
-      <c r="F26" s="386" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="387"/>
-      <c r="H26" s="387"/>
-      <c r="I26" s="387"/>
-      <c r="J26" s="387"/>
-      <c r="K26" s="387"/>
-      <c r="L26" s="388"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R26" s="386" t="s">
-        <v>200</v>
-      </c>
-      <c r="S26" s="387"/>
-      <c r="T26" s="387"/>
-      <c r="U26" s="387"/>
-      <c r="V26" s="387"/>
-      <c r="W26" s="387"/>
-      <c r="X26" s="387"/>
-      <c r="Y26" s="387"/>
-      <c r="Z26" s="387"/>
-      <c r="AA26" s="387"/>
-      <c r="AB26" s="387"/>
-      <c r="AC26" s="387"/>
-      <c r="AD26" s="387"/>
-      <c r="AE26" s="387"/>
-      <c r="AF26" s="387"/>
-      <c r="AG26" s="387"/>
-      <c r="AH26" s="389"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E27" s="44">
-        <v>4</v>
-      </c>
-      <c r="F27" s="386" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="387"/>
-      <c r="H27" s="387"/>
-      <c r="I27" s="387"/>
-      <c r="J27" s="387"/>
-      <c r="K27" s="387"/>
-      <c r="L27" s="388"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="R27" s="386" t="s">
-        <v>200</v>
-      </c>
-      <c r="S27" s="387"/>
-      <c r="T27" s="387"/>
-      <c r="U27" s="387"/>
-      <c r="V27" s="387"/>
-      <c r="W27" s="387"/>
-      <c r="X27" s="387"/>
-      <c r="Y27" s="387"/>
-      <c r="Z27" s="387"/>
-      <c r="AA27" s="387"/>
-      <c r="AB27" s="387"/>
-      <c r="AC27" s="387"/>
-      <c r="AD27" s="387"/>
-      <c r="AE27" s="387"/>
-      <c r="AF27" s="387"/>
-      <c r="AG27" s="387"/>
-      <c r="AH27" s="389"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C30" s="41"/>
-      <c r="D30" s="105"/>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C31" s="41"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="105"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C32" s="41"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="105"/>
-    </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="AI35" s="87"/>
-    </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E22:AH22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="E11:AH11"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-  </mergeCells>
-  <phoneticPr fontId="12"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q16 Q24:Q27" xr:uid="{BE913035-46E9-4C1A-9190-90005007642D}">
-      <formula1>"○,-"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B72D1B-4360-4D52-AEDC-E86749064689}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5C55B-A9C9-4D3C-9E60-3EF5C6A5864B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t>PJ名</t>
   </si>
@@ -1177,13 +1177,6 @@
     <t>備考</t>
   </si>
   <si>
-    <t>売上高</t>
-    <rPh sb="0" eb="3">
-      <t>ウリアゲダカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>バージョン番号</t>
   </si>
   <si>
@@ -1519,8 +1512,26 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
+    <t>PMユーザ氏名（漢字）</t>
+  </si>
+  <si>
+    <t>PLユーザ氏名（漢字）</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>売上高金額</t>
+    <rPh sb="0" eb="3">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>・対象テーブルの表記を「プロジェクトテーブル」から「プロジェクト」へ修正
-・CSV出力について、Nablarchのファイルパス管理機能を利用して出力することを記載。</t>
+・CSV出力について、Nablarchのファイルパス管理機能を利用して出力することを記載。
+・テーブル定義に合わせてカラム名を修正</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
@@ -1544,6 +1555,18 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>キサイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
@@ -2467,6 +2490,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2533,45 +2646,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2608,58 +2685,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2671,35 +2724,80 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2800,79 +2898,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,150 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6880,7 +6903,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="33"/>
       <c r="J23" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -7540,57 +7563,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="248" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="184" t="s">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="229" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="242">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="184">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="244"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="186"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7598,53 +7621,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="248" t="s">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="242">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="184">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="243"/>
-      <c r="AI2" s="244"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7652,45 +7675,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="248" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="242"/>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="244"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="199" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="186"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7829,52 +7852,52 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="215"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="215"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7885,108 +7908,108 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="240"/>
+      <c r="D8" s="241">
         <v>43634</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221" t="s">
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="227" t="s">
+      <c r="H8" s="244"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="230" t="s">
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="248" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="227" t="s">
+      <c r="R8" s="249"/>
+      <c r="S8" s="249"/>
+      <c r="T8" s="249"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="249"/>
+      <c r="W8" s="249"/>
+      <c r="X8" s="249"/>
+      <c r="Y8" s="249"/>
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="249"/>
+      <c r="AB8" s="249"/>
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="249"/>
+      <c r="AE8" s="250"/>
+      <c r="AF8" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="228"/>
-      <c r="AH8" s="228"/>
-      <c r="AI8" s="229"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="247"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209">
+        <v>44796</v>
+      </c>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="210">
-        <v>44796</v>
-      </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="236" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="240" t="s">
-        <v>183</v>
-      </c>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="240" t="s">
-        <v>185</v>
-      </c>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="238"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="238"/>
-      <c r="AD9" s="238"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="241" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="235"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="205" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="205" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="198"/>
+      <c r="AF9" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="195"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -7995,40 +8018,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="238"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="238"/>
-      <c r="AE10" s="239"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="234"/>
-      <c r="AI10" s="235"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="195"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -8037,40 +8060,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="239"/>
-      <c r="AF11" s="233"/>
-      <c r="AG11" s="234"/>
-      <c r="AH11" s="234"/>
-      <c r="AI11" s="235"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="195"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -8079,40 +8102,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="233"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="195"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -8121,40 +8144,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="238"/>
-      <c r="S13" s="238"/>
-      <c r="T13" s="238"/>
-      <c r="U13" s="238"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="238"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="238"/>
-      <c r="AD13" s="238"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="233"/>
-      <c r="AG13" s="234"/>
-      <c r="AH13" s="234"/>
-      <c r="AI13" s="235"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="195"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -8163,40 +8186,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="238"/>
-      <c r="S14" s="238"/>
-      <c r="T14" s="238"/>
-      <c r="U14" s="238"/>
-      <c r="V14" s="238"/>
-      <c r="W14" s="238"/>
-      <c r="X14" s="238"/>
-      <c r="Y14" s="238"/>
-      <c r="Z14" s="238"/>
-      <c r="AA14" s="238"/>
-      <c r="AB14" s="238"/>
-      <c r="AC14" s="238"/>
-      <c r="AD14" s="238"/>
-      <c r="AE14" s="239"/>
-      <c r="AF14" s="233"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="234"/>
-      <c r="AI14" s="235"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="195"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -8205,40 +8228,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="238"/>
-      <c r="U15" s="238"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238"/>
-      <c r="AB15" s="238"/>
-      <c r="AC15" s="238"/>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="239"/>
-      <c r="AF15" s="233"/>
-      <c r="AG15" s="234"/>
-      <c r="AH15" s="234"/>
-      <c r="AI15" s="235"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="195"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -8247,40 +8270,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="238"/>
-      <c r="S16" s="238"/>
-      <c r="T16" s="238"/>
-      <c r="U16" s="238"/>
-      <c r="V16" s="238"/>
-      <c r="W16" s="238"/>
-      <c r="X16" s="238"/>
-      <c r="Y16" s="238"/>
-      <c r="Z16" s="238"/>
-      <c r="AA16" s="238"/>
-      <c r="AB16" s="238"/>
-      <c r="AC16" s="238"/>
-      <c r="AD16" s="238"/>
-      <c r="AE16" s="239"/>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="234"/>
-      <c r="AH16" s="234"/>
-      <c r="AI16" s="235"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="196"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="198"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="195"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -8289,40 +8312,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="238"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
-      <c r="X17" s="238"/>
-      <c r="Y17" s="238"/>
-      <c r="Z17" s="238"/>
-      <c r="AA17" s="238"/>
-      <c r="AB17" s="238"/>
-      <c r="AC17" s="238"/>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="239"/>
-      <c r="AF17" s="233"/>
-      <c r="AG17" s="234"/>
-      <c r="AH17" s="234"/>
-      <c r="AI17" s="235"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="197"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="198"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="195"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -8331,40 +8354,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="237"/>
-      <c r="R18" s="238"/>
-      <c r="S18" s="238"/>
-      <c r="T18" s="238"/>
-      <c r="U18" s="238"/>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
-      <c r="X18" s="238"/>
-      <c r="Y18" s="238"/>
-      <c r="Z18" s="238"/>
-      <c r="AA18" s="238"/>
-      <c r="AB18" s="238"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="238"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="233"/>
-      <c r="AG18" s="234"/>
-      <c r="AH18" s="234"/>
-      <c r="AI18" s="235"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="195"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -8373,40 +8396,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="237"/>
-      <c r="R19" s="238"/>
-      <c r="S19" s="238"/>
-      <c r="T19" s="238"/>
-      <c r="U19" s="238"/>
-      <c r="V19" s="238"/>
-      <c r="W19" s="238"/>
-      <c r="X19" s="238"/>
-      <c r="Y19" s="238"/>
-      <c r="Z19" s="238"/>
-      <c r="AA19" s="238"/>
-      <c r="AB19" s="238"/>
-      <c r="AC19" s="238"/>
-      <c r="AD19" s="238"/>
-      <c r="AE19" s="239"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="234"/>
-      <c r="AH19" s="234"/>
-      <c r="AI19" s="235"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="197"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="197"/>
+      <c r="AD19" s="197"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="194"/>
+      <c r="AI19" s="195"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -8415,40 +8438,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="237"/>
-      <c r="R20" s="238"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="238"/>
-      <c r="U20" s="238"/>
-      <c r="V20" s="238"/>
-      <c r="W20" s="238"/>
-      <c r="X20" s="238"/>
-      <c r="Y20" s="238"/>
-      <c r="Z20" s="238"/>
-      <c r="AA20" s="238"/>
-      <c r="AB20" s="238"/>
-      <c r="AC20" s="238"/>
-      <c r="AD20" s="238"/>
-      <c r="AE20" s="239"/>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="234"/>
-      <c r="AH20" s="234"/>
-      <c r="AI20" s="235"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="197"/>
+      <c r="S20" s="197"/>
+      <c r="T20" s="197"/>
+      <c r="U20" s="197"/>
+      <c r="V20" s="197"/>
+      <c r="W20" s="197"/>
+      <c r="X20" s="197"/>
+      <c r="Y20" s="197"/>
+      <c r="Z20" s="197"/>
+      <c r="AA20" s="197"/>
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="197"/>
+      <c r="AE20" s="198"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="194"/>
+      <c r="AI20" s="195"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8457,40 +8480,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="237"/>
-      <c r="R21" s="238"/>
-      <c r="S21" s="238"/>
-      <c r="T21" s="238"/>
-      <c r="U21" s="238"/>
-      <c r="V21" s="238"/>
-      <c r="W21" s="238"/>
-      <c r="X21" s="238"/>
-      <c r="Y21" s="238"/>
-      <c r="Z21" s="238"/>
-      <c r="AA21" s="238"/>
-      <c r="AB21" s="238"/>
-      <c r="AC21" s="238"/>
-      <c r="AD21" s="238"/>
-      <c r="AE21" s="239"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="234"/>
-      <c r="AH21" s="234"/>
-      <c r="AI21" s="235"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
+      <c r="W21" s="197"/>
+      <c r="X21" s="197"/>
+      <c r="Y21" s="197"/>
+      <c r="Z21" s="197"/>
+      <c r="AA21" s="197"/>
+      <c r="AB21" s="197"/>
+      <c r="AC21" s="197"/>
+      <c r="AD21" s="197"/>
+      <c r="AE21" s="198"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="194"/>
+      <c r="AI21" s="195"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8499,40 +8522,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="237"/>
-      <c r="R22" s="238"/>
-      <c r="S22" s="238"/>
-      <c r="T22" s="238"/>
-      <c r="U22" s="238"/>
-      <c r="V22" s="238"/>
-      <c r="W22" s="238"/>
-      <c r="X22" s="238"/>
-      <c r="Y22" s="238"/>
-      <c r="Z22" s="238"/>
-      <c r="AA22" s="238"/>
-      <c r="AB22" s="238"/>
-      <c r="AC22" s="238"/>
-      <c r="AD22" s="238"/>
-      <c r="AE22" s="239"/>
-      <c r="AF22" s="233"/>
-      <c r="AG22" s="234"/>
-      <c r="AH22" s="234"/>
-      <c r="AI22" s="235"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="197"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="197"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="197"/>
+      <c r="AB22" s="197"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="197"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
+      <c r="AH22" s="194"/>
+      <c r="AI22" s="195"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8541,40 +8564,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="238"/>
-      <c r="S23" s="238"/>
-      <c r="T23" s="238"/>
-      <c r="U23" s="238"/>
-      <c r="V23" s="238"/>
-      <c r="W23" s="238"/>
-      <c r="X23" s="238"/>
-      <c r="Y23" s="238"/>
-      <c r="Z23" s="238"/>
-      <c r="AA23" s="238"/>
-      <c r="AB23" s="238"/>
-      <c r="AC23" s="238"/>
-      <c r="AD23" s="238"/>
-      <c r="AE23" s="239"/>
-      <c r="AF23" s="233"/>
-      <c r="AG23" s="234"/>
-      <c r="AH23" s="234"/>
-      <c r="AI23" s="235"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
+      <c r="T23" s="197"/>
+      <c r="U23" s="197"/>
+      <c r="V23" s="197"/>
+      <c r="W23" s="197"/>
+      <c r="X23" s="197"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="197"/>
+      <c r="AA23" s="197"/>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="197"/>
+      <c r="AD23" s="197"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="194"/>
+      <c r="AI23" s="195"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8583,40 +8606,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="238"/>
-      <c r="S24" s="238"/>
-      <c r="T24" s="238"/>
-      <c r="U24" s="238"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="238"/>
-      <c r="X24" s="238"/>
-      <c r="Y24" s="238"/>
-      <c r="Z24" s="238"/>
-      <c r="AA24" s="238"/>
-      <c r="AB24" s="238"/>
-      <c r="AC24" s="238"/>
-      <c r="AD24" s="238"/>
-      <c r="AE24" s="239"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="234"/>
-      <c r="AH24" s="234"/>
-      <c r="AI24" s="235"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="196"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="197"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="194"/>
+      <c r="AI24" s="195"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8625,40 +8648,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="237"/>
-      <c r="R25" s="238"/>
-      <c r="S25" s="238"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="238"/>
-      <c r="V25" s="238"/>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="238"/>
-      <c r="Z25" s="238"/>
-      <c r="AA25" s="238"/>
-      <c r="AB25" s="238"/>
-      <c r="AC25" s="238"/>
-      <c r="AD25" s="238"/>
-      <c r="AE25" s="239"/>
-      <c r="AF25" s="233"/>
-      <c r="AG25" s="234"/>
-      <c r="AH25" s="234"/>
-      <c r="AI25" s="235"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
+      <c r="AB25" s="197"/>
+      <c r="AC25" s="197"/>
+      <c r="AD25" s="197"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="194"/>
+      <c r="AI25" s="195"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8667,40 +8690,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="237"/>
-      <c r="R26" s="238"/>
-      <c r="S26" s="238"/>
-      <c r="T26" s="238"/>
-      <c r="U26" s="238"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="238"/>
-      <c r="Z26" s="238"/>
-      <c r="AA26" s="238"/>
-      <c r="AB26" s="238"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="238"/>
-      <c r="AE26" s="239"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="234"/>
-      <c r="AH26" s="234"/>
-      <c r="AI26" s="235"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="197"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="197"/>
+      <c r="AC26" s="197"/>
+      <c r="AD26" s="197"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194"/>
+      <c r="AI26" s="195"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -8709,40 +8732,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="234"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="237"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="238"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
-      <c r="X27" s="238"/>
-      <c r="Y27" s="238"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="238"/>
-      <c r="AB27" s="238"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="239"/>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="234"/>
-      <c r="AH27" s="234"/>
-      <c r="AI27" s="235"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="197"/>
+      <c r="Y27" s="197"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="197"/>
+      <c r="AC27" s="197"/>
+      <c r="AD27" s="197"/>
+      <c r="AE27" s="198"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="195"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -8751,40 +8774,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="235"/>
-      <c r="Q28" s="237"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="238"/>
-      <c r="T28" s="238"/>
-      <c r="U28" s="238"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
-      <c r="X28" s="238"/>
-      <c r="Y28" s="238"/>
-      <c r="Z28" s="238"/>
-      <c r="AA28" s="238"/>
-      <c r="AB28" s="238"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="238"/>
-      <c r="AE28" s="239"/>
-      <c r="AF28" s="233"/>
-      <c r="AG28" s="234"/>
-      <c r="AH28" s="234"/>
-      <c r="AI28" s="235"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="197"/>
+      <c r="AC28" s="197"/>
+      <c r="AD28" s="197"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AH28" s="194"/>
+      <c r="AI28" s="195"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -8793,40 +8816,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="235"/>
-      <c r="Q29" s="237"/>
-      <c r="R29" s="238"/>
-      <c r="S29" s="238"/>
-      <c r="T29" s="238"/>
-      <c r="U29" s="238"/>
-      <c r="V29" s="238"/>
-      <c r="W29" s="238"/>
-      <c r="X29" s="238"/>
-      <c r="Y29" s="238"/>
-      <c r="Z29" s="238"/>
-      <c r="AA29" s="238"/>
-      <c r="AB29" s="238"/>
-      <c r="AC29" s="238"/>
-      <c r="AD29" s="238"/>
-      <c r="AE29" s="239"/>
-      <c r="AF29" s="233"/>
-      <c r="AG29" s="234"/>
-      <c r="AH29" s="234"/>
-      <c r="AI29" s="235"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="197"/>
+      <c r="AC29" s="197"/>
+      <c r="AD29" s="197"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="195"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -8835,40 +8858,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="234"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="237"/>
-      <c r="R30" s="238"/>
-      <c r="S30" s="238"/>
-      <c r="T30" s="238"/>
-      <c r="U30" s="238"/>
-      <c r="V30" s="238"/>
-      <c r="W30" s="238"/>
-      <c r="X30" s="238"/>
-      <c r="Y30" s="238"/>
-      <c r="Z30" s="238"/>
-      <c r="AA30" s="238"/>
-      <c r="AB30" s="238"/>
-      <c r="AC30" s="238"/>
-      <c r="AD30" s="238"/>
-      <c r="AE30" s="239"/>
-      <c r="AF30" s="233"/>
-      <c r="AG30" s="234"/>
-      <c r="AH30" s="234"/>
-      <c r="AI30" s="235"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="197"/>
+      <c r="AC30" s="197"/>
+      <c r="AD30" s="197"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="195"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -8877,40 +8900,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="234"/>
-      <c r="P31" s="235"/>
-      <c r="Q31" s="237"/>
-      <c r="R31" s="238"/>
-      <c r="S31" s="238"/>
-      <c r="T31" s="238"/>
-      <c r="U31" s="238"/>
-      <c r="V31" s="238"/>
-      <c r="W31" s="238"/>
-      <c r="X31" s="238"/>
-      <c r="Y31" s="238"/>
-      <c r="Z31" s="238"/>
-      <c r="AA31" s="238"/>
-      <c r="AB31" s="238"/>
-      <c r="AC31" s="238"/>
-      <c r="AD31" s="238"/>
-      <c r="AE31" s="239"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="234"/>
-      <c r="AH31" s="234"/>
-      <c r="AI31" s="235"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="197"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="197"/>
+      <c r="AC31" s="197"/>
+      <c r="AD31" s="197"/>
+      <c r="AE31" s="198"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="195"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -8919,40 +8942,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="235"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="238"/>
-      <c r="S32" s="238"/>
-      <c r="T32" s="238"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="238"/>
-      <c r="W32" s="238"/>
-      <c r="X32" s="238"/>
-      <c r="Y32" s="238"/>
-      <c r="Z32" s="238"/>
-      <c r="AA32" s="238"/>
-      <c r="AB32" s="238"/>
-      <c r="AC32" s="238"/>
-      <c r="AD32" s="238"/>
-      <c r="AE32" s="239"/>
-      <c r="AF32" s="233"/>
-      <c r="AG32" s="234"/>
-      <c r="AH32" s="234"/>
-      <c r="AI32" s="235"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="196"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="197"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
+      <c r="AB32" s="197"/>
+      <c r="AC32" s="197"/>
+      <c r="AD32" s="197"/>
+      <c r="AE32" s="198"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="195"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -8961,40 +8984,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="238"/>
-      <c r="S33" s="238"/>
-      <c r="T33" s="238"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="238"/>
-      <c r="W33" s="238"/>
-      <c r="X33" s="238"/>
-      <c r="Y33" s="238"/>
-      <c r="Z33" s="238"/>
-      <c r="AA33" s="238"/>
-      <c r="AB33" s="238"/>
-      <c r="AC33" s="238"/>
-      <c r="AD33" s="238"/>
-      <c r="AE33" s="239"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="234"/>
-      <c r="AH33" s="234"/>
-      <c r="AI33" s="235"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
+      <c r="Y33" s="197"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
+      <c r="AB33" s="197"/>
+      <c r="AC33" s="197"/>
+      <c r="AD33" s="197"/>
+      <c r="AE33" s="198"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -9381,161 +9404,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9560,6 +9428,161 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9716,158 +9739,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -10177,7 +10200,7 @@
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="18"/>
@@ -10516,7 +10539,7 @@
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="105"/>
       <c r="D21" s="104"/>
@@ -10556,7 +10579,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="104"/>
       <c r="C22" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="104"/>
       <c r="E22" s="48"/>
@@ -10595,7 +10618,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="106"/>
       <c r="C23" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="107"/>
       <c r="E23" s="48"/>
@@ -11381,6 +11404,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11390,14 +11421,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11424,158 +11447,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11591,86 +11614,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="298" t="s">
+      <c r="D8" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="241" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="303"/>
-      <c r="Q8" s="303"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
-      <c r="Z8" s="303"/>
-      <c r="AA8" s="303"/>
-      <c r="AB8" s="303"/>
-      <c r="AC8" s="303"/>
-      <c r="AD8" s="303"/>
-      <c r="AE8" s="303"/>
-      <c r="AF8" s="303"/>
-      <c r="AG8" s="303"/>
-      <c r="AH8" s="304"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="269"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="269"/>
+      <c r="Q8" s="269"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="269"/>
+      <c r="T8" s="269"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
+      <c r="AA8" s="269"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="316" t="s">
+      <c r="D9" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="317"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="241" t="s">
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303"/>
-      <c r="T9" s="303"/>
-      <c r="U9" s="303"/>
-      <c r="V9" s="303"/>
-      <c r="W9" s="303"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="303"/>
-      <c r="Z9" s="303"/>
-      <c r="AA9" s="303"/>
-      <c r="AB9" s="303"/>
-      <c r="AC9" s="303"/>
-      <c r="AD9" s="303"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="303"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="304"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="269"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="269"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="269"/>
+      <c r="S9" s="269"/>
+      <c r="T9" s="269"/>
+      <c r="U9" s="269"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="270"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="305" t="s">
+      <c r="D10" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="307"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="273"/>
       <c r="H10" s="108" t="s">
         <v>102</v>
       </c>
@@ -11702,10 +11725,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="319"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="321"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="287"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -11735,12 +11758,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="305" t="s">
+      <c r="D12" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="306"/>
-      <c r="F12" s="306"/>
-      <c r="G12" s="307"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="108" t="s">
         <v>104</v>
       </c>
@@ -11772,10 +11795,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="319"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="321"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="287"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -11805,10 +11828,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="308"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="310"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="276"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -11838,12 +11861,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="305" t="s">
+      <c r="D15" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="306"/>
-      <c r="F15" s="306"/>
-      <c r="G15" s="307"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="273"/>
       <c r="H15" s="108" t="s">
         <v>103</v>
       </c>
@@ -11875,10 +11898,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="308"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="310"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="276"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -11946,208 +11969,219 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="301" t="s">
+      <c r="D20" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="264" t="s">
+      <c r="E20" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="305" t="s">
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="306"/>
-      <c r="K20" s="306"/>
-      <c r="L20" s="306"/>
-      <c r="M20" s="306"/>
-      <c r="N20" s="306"/>
-      <c r="O20" s="306"/>
-      <c r="P20" s="307"/>
-      <c r="Q20" s="305" t="s">
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="273"/>
+      <c r="Q20" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="307"/>
-      <c r="S20" s="313" t="s">
+      <c r="R20" s="273"/>
+      <c r="S20" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="314"/>
-      <c r="U20" s="314"/>
-      <c r="V20" s="315"/>
-      <c r="W20" s="264" t="s">
+      <c r="T20" s="280"/>
+      <c r="U20" s="280"/>
+      <c r="V20" s="281"/>
+      <c r="W20" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="265"/>
-      <c r="Y20" s="265"/>
-      <c r="Z20" s="265"/>
-      <c r="AA20" s="265"/>
-      <c r="AB20" s="265"/>
-      <c r="AC20" s="265"/>
-      <c r="AD20" s="265"/>
-      <c r="AE20" s="265"/>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="266"/>
+      <c r="X20" s="290"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="290"/>
+      <c r="AF20" s="290"/>
+      <c r="AG20" s="290"/>
+      <c r="AH20" s="291"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="302"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="308"/>
-      <c r="J21" s="309"/>
-      <c r="K21" s="309"/>
-      <c r="L21" s="309"/>
-      <c r="M21" s="309"/>
-      <c r="N21" s="309"/>
-      <c r="O21" s="309"/>
-      <c r="P21" s="310"/>
-      <c r="Q21" s="308"/>
-      <c r="R21" s="310"/>
-      <c r="S21" s="311" t="s">
+      <c r="D21" s="268"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="275"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="275"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="274"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="312"/>
-      <c r="U21" s="311" t="s">
+      <c r="T21" s="278"/>
+      <c r="U21" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="V21" s="312"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="268"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="268"/>
-      <c r="AH21" s="269"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="292"/>
+      <c r="X21" s="293"/>
+      <c r="Y21" s="293"/>
+      <c r="Z21" s="293"/>
+      <c r="AA21" s="293"/>
+      <c r="AB21" s="293"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="293"/>
+      <c r="AE21" s="293"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="294"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="272">
+      <c r="D22" s="297">
         <v>1</v>
       </c>
-      <c r="E22" s="288" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="275" t="s">
+      <c r="E22" s="313" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="300" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="276"/>
-      <c r="K22" s="276"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="276"/>
-      <c r="O22" s="276"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="214" t="s">
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="302"/>
+      <c r="Q22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="214" t="s">
+      <c r="R22" s="204"/>
+      <c r="S22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="214" t="s">
+      <c r="T22" s="204"/>
+      <c r="U22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="270" t="s">
+      <c r="V22" s="204"/>
+      <c r="W22" s="295" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="271"/>
-      <c r="AA22" s="271"/>
-      <c r="AB22" s="271"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="271"/>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="271"/>
-      <c r="AH22" s="271"/>
+      <c r="X22" s="296"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="296"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="296"/>
+      <c r="AE22" s="296"/>
+      <c r="AF22" s="296"/>
+      <c r="AG22" s="296"/>
+      <c r="AH22" s="296"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="273"/>
-      <c r="E23" s="291"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="292"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="279"/>
-      <c r="K23" s="279"/>
-      <c r="L23" s="279"/>
-      <c r="M23" s="279"/>
-      <c r="N23" s="279"/>
-      <c r="O23" s="279"/>
-      <c r="P23" s="280"/>
-      <c r="Q23" s="284"/>
-      <c r="R23" s="285"/>
-      <c r="S23" s="284"/>
-      <c r="T23" s="285"/>
-      <c r="U23" s="284"/>
-      <c r="V23" s="285"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="316"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="303"/>
+      <c r="J23" s="304"/>
+      <c r="K23" s="304"/>
+      <c r="L23" s="304"/>
+      <c r="M23" s="304"/>
+      <c r="N23" s="304"/>
+      <c r="O23" s="304"/>
+      <c r="P23" s="305"/>
+      <c r="Q23" s="309"/>
+      <c r="R23" s="310"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="310"/>
+      <c r="U23" s="309"/>
+      <c r="V23" s="310"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="296"/>
+      <c r="AB23" s="296"/>
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="296"/>
+      <c r="AE23" s="296"/>
+      <c r="AF23" s="296"/>
+      <c r="AG23" s="296"/>
+      <c r="AH23" s="296"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="274"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282"/>
-      <c r="O24" s="282"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="286"/>
-      <c r="R24" s="287"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="287"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="271"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="307"/>
+      <c r="N24" s="307"/>
+      <c r="O24" s="307"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="311"/>
+      <c r="R24" s="312"/>
+      <c r="S24" s="311"/>
+      <c r="T24" s="312"/>
+      <c r="U24" s="311"/>
+      <c r="V24" s="312"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="296"/>
+      <c r="Z24" s="296"/>
+      <c r="AA24" s="296"/>
+      <c r="AB24" s="296"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="296"/>
+      <c r="AE24" s="296"/>
+      <c r="AF24" s="296"/>
+      <c r="AG24" s="296"/>
+      <c r="AH24" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -12164,23 +12198,12 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12215,158 +12238,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12377,6 +12400,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12386,14 +12417,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12414,7 +12437,7 @@
   <dimension ref="A1:BR113"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="S1" sqref="S1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12423,164 +12446,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12590,7 +12613,7 @@
     <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12600,117 +12623,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="331" t="s">
+      <c r="D10" s="352" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="333"/>
-      <c r="I10" s="240" t="s">
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="238"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="238"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="238"/>
-      <c r="AE10" s="238"/>
-      <c r="AF10" s="238"/>
-      <c r="AG10" s="238"/>
-      <c r="AH10" s="239"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="198"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="331" t="s">
+      <c r="D11" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="240" t="s">
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="238"/>
-      <c r="AF11" s="238"/>
-      <c r="AG11" s="238"/>
-      <c r="AH11" s="239"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="198"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="331" t="s">
+      <c r="D12" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
-      <c r="H12" s="333"/>
-      <c r="I12" s="240" t="s">
+      <c r="E12" s="353"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="239"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="198"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -12800,83 +12823,83 @@
       <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="351" t="s">
+      <c r="E22" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="352"/>
-      <c r="G22" s="353"/>
-      <c r="H22" s="354" t="s">
+      <c r="F22" s="341"/>
+      <c r="G22" s="342"/>
+      <c r="H22" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="355"/>
-      <c r="J22" s="356"/>
-      <c r="K22" s="316" t="s">
+      <c r="I22" s="344"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="317"/>
-      <c r="M22" s="317"/>
-      <c r="N22" s="317"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="317"/>
-      <c r="Q22" s="317"/>
-      <c r="R22" s="317"/>
-      <c r="S22" s="317"/>
-      <c r="T22" s="317"/>
-      <c r="U22" s="317"/>
-      <c r="V22" s="317"/>
-      <c r="W22" s="317"/>
-      <c r="X22" s="317"/>
-      <c r="Y22" s="317"/>
-      <c r="Z22" s="317"/>
-      <c r="AA22" s="317"/>
-      <c r="AB22" s="317"/>
-      <c r="AC22" s="317"/>
-      <c r="AD22" s="317"/>
-      <c r="AE22" s="317"/>
-      <c r="AF22" s="317"/>
-      <c r="AG22" s="317"/>
-      <c r="AH22" s="318"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="283"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="283"/>
+      <c r="V22" s="283"/>
+      <c r="W22" s="283"/>
+      <c r="X22" s="283"/>
+      <c r="Y22" s="283"/>
+      <c r="Z22" s="283"/>
+      <c r="AA22" s="283"/>
+      <c r="AB22" s="283"/>
+      <c r="AC22" s="283"/>
+      <c r="AD22" s="283"/>
+      <c r="AE22" s="283"/>
+      <c r="AF22" s="283"/>
+      <c r="AG22" s="283"/>
+      <c r="AH22" s="284"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="237">
+      <c r="E23" s="196">
         <v>0</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="240" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="365"/>
-      <c r="M23" s="365"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="365"/>
-      <c r="P23" s="365"/>
-      <c r="Q23" s="365"/>
-      <c r="R23" s="365"/>
-      <c r="S23" s="365"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="365"/>
-      <c r="V23" s="365"/>
-      <c r="W23" s="365"/>
-      <c r="X23" s="365"/>
-      <c r="Y23" s="365"/>
-      <c r="Z23" s="365"/>
-      <c r="AA23" s="365"/>
-      <c r="AB23" s="365"/>
-      <c r="AC23" s="365"/>
-      <c r="AD23" s="365"/>
-      <c r="AE23" s="365"/>
-      <c r="AF23" s="365"/>
-      <c r="AG23" s="365"/>
-      <c r="AH23" s="366"/>
+      <c r="L23" s="338"/>
+      <c r="M23" s="338"/>
+      <c r="N23" s="338"/>
+      <c r="O23" s="338"/>
+      <c r="P23" s="338"/>
+      <c r="Q23" s="338"/>
+      <c r="R23" s="338"/>
+      <c r="S23" s="338"/>
+      <c r="T23" s="338"/>
+      <c r="U23" s="338"/>
+      <c r="V23" s="338"/>
+      <c r="W23" s="338"/>
+      <c r="X23" s="338"/>
+      <c r="Y23" s="338"/>
+      <c r="Z23" s="338"/>
+      <c r="AA23" s="338"/>
+      <c r="AB23" s="338"/>
+      <c r="AC23" s="338"/>
+      <c r="AD23" s="338"/>
+      <c r="AE23" s="338"/>
+      <c r="AF23" s="338"/>
+      <c r="AG23" s="338"/>
+      <c r="AH23" s="339"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="41" t="s">
@@ -12884,7 +12907,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="367" t="s">
+      <c r="D28" s="346" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -12906,17 +12929,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="329" t="s">
+      <c r="T28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="324" t="s">
+      <c r="U28" s="372" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="325"/>
-      <c r="W28" s="325"/>
-      <c r="X28" s="325"/>
-      <c r="Y28" s="325"/>
-      <c r="Z28" s="326"/>
+      <c r="V28" s="373"/>
+      <c r="W28" s="373"/>
+      <c r="X28" s="373"/>
+      <c r="Y28" s="373"/>
+      <c r="Z28" s="374"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -12929,7 +12952,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="368"/>
+      <c r="D29" s="347"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -12945,7 +12968,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="330"/>
+      <c r="T29" s="378"/>
       <c r="U29" s="45" t="s">
         <v>57</v>
       </c>
@@ -12958,10 +12981,10 @@
       <c r="X29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="322" t="s">
+      <c r="Y29" s="370" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="323"/>
+      <c r="Z29" s="371"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -12976,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
@@ -13009,10 +13032,10 @@
       <c r="X30" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y30" s="327" t="s">
+      <c r="Y30" s="375" t="s">
         <v>93</v>
       </c>
-      <c r="Z30" s="328"/>
+      <c r="Z30" s="376"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -13060,10 +13083,10 @@
       <c r="X31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="327" t="s">
+      <c r="Y31" s="375" t="s">
         <v>93</v>
       </c>
-      <c r="Z31" s="328"/>
+      <c r="Z31" s="376"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -13080,108 +13103,108 @@
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.15">
       <c r="D35" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:36" x14ac:dyDescent="0.15">
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="349" t="s">
+      <c r="E37" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="349"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="349"/>
-      <c r="I37" s="349"/>
-      <c r="J37" s="349"/>
-      <c r="K37" s="349"/>
-      <c r="L37" s="349"/>
-      <c r="M37" s="349"/>
-      <c r="N37" s="349"/>
-      <c r="O37" s="349"/>
-      <c r="P37" s="349"/>
-      <c r="Q37" s="349"/>
-      <c r="R37" s="349"/>
-      <c r="S37" s="349"/>
-      <c r="T37" s="349"/>
-      <c r="U37" s="349"/>
-      <c r="V37" s="349"/>
-      <c r="W37" s="349"/>
-      <c r="X37" s="349"/>
-      <c r="Y37" s="349"/>
-      <c r="Z37" s="349"/>
-      <c r="AA37" s="349"/>
-      <c r="AB37" s="349"/>
-      <c r="AC37" s="349"/>
-      <c r="AD37" s="349"/>
-      <c r="AE37" s="349"/>
-      <c r="AF37" s="349"/>
-      <c r="AG37" s="349"/>
-      <c r="AH37" s="349"/>
+      <c r="F37" s="348"/>
+      <c r="G37" s="348"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="348"/>
+      <c r="J37" s="348"/>
+      <c r="K37" s="348"/>
+      <c r="L37" s="348"/>
+      <c r="M37" s="348"/>
+      <c r="N37" s="348"/>
+      <c r="O37" s="348"/>
+      <c r="P37" s="348"/>
+      <c r="Q37" s="348"/>
+      <c r="R37" s="348"/>
+      <c r="S37" s="348"/>
+      <c r="T37" s="348"/>
+      <c r="U37" s="348"/>
+      <c r="V37" s="348"/>
+      <c r="W37" s="348"/>
+      <c r="X37" s="348"/>
+      <c r="Y37" s="348"/>
+      <c r="Z37" s="348"/>
+      <c r="AA37" s="348"/>
+      <c r="AB37" s="348"/>
+      <c r="AC37" s="348"/>
+      <c r="AD37" s="348"/>
+      <c r="AE37" s="348"/>
+      <c r="AF37" s="348"/>
+      <c r="AG37" s="348"/>
+      <c r="AH37" s="348"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="348" t="s">
+      <c r="E38" s="349" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="369" t="s">
+      <c r="F38" s="351" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="369"/>
-      <c r="H38" s="369"/>
-      <c r="I38" s="369"/>
-      <c r="J38" s="369"/>
-      <c r="K38" s="369"/>
-      <c r="L38" s="369" t="s">
+      <c r="G38" s="351"/>
+      <c r="H38" s="351"/>
+      <c r="I38" s="351"/>
+      <c r="J38" s="351"/>
+      <c r="K38" s="351"/>
+      <c r="L38" s="351" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="369"/>
-      <c r="N38" s="369"/>
-      <c r="O38" s="369"/>
-      <c r="P38" s="369"/>
-      <c r="Q38" s="346" t="s">
+      <c r="M38" s="351"/>
+      <c r="N38" s="351"/>
+      <c r="O38" s="351"/>
+      <c r="P38" s="351"/>
+      <c r="Q38" s="364" t="s">
         <v>39</v>
       </c>
-      <c r="R38" s="348" t="s">
+      <c r="R38" s="349" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="348"/>
-      <c r="T38" s="348"/>
-      <c r="U38" s="348"/>
-      <c r="V38" s="348"/>
-      <c r="W38" s="349" t="s">
+      <c r="S38" s="349"/>
+      <c r="T38" s="349"/>
+      <c r="U38" s="349"/>
+      <c r="V38" s="349"/>
+      <c r="W38" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="349"/>
-      <c r="Y38" s="349"/>
-      <c r="Z38" s="349"/>
-      <c r="AA38" s="349"/>
-      <c r="AB38" s="349"/>
-      <c r="AC38" s="349"/>
-      <c r="AD38" s="349"/>
-      <c r="AE38" s="349"/>
-      <c r="AF38" s="349"/>
-      <c r="AG38" s="349"/>
-      <c r="AH38" s="349"/>
+      <c r="X38" s="348"/>
+      <c r="Y38" s="348"/>
+      <c r="Z38" s="348"/>
+      <c r="AA38" s="348"/>
+      <c r="AB38" s="348"/>
+      <c r="AC38" s="348"/>
+      <c r="AD38" s="348"/>
+      <c r="AE38" s="348"/>
+      <c r="AF38" s="348"/>
+      <c r="AG38" s="348"/>
+      <c r="AH38" s="348"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="350"/>
-      <c r="F39" s="349"/>
-      <c r="G39" s="349"/>
-      <c r="H39" s="349"/>
-      <c r="I39" s="349"/>
-      <c r="J39" s="349"/>
-      <c r="K39" s="349"/>
-      <c r="L39" s="349"/>
-      <c r="M39" s="349"/>
-      <c r="N39" s="349"/>
-      <c r="O39" s="349"/>
-      <c r="P39" s="349"/>
-      <c r="Q39" s="347"/>
+      <c r="F39" s="348"/>
+      <c r="G39" s="348"/>
+      <c r="H39" s="348"/>
+      <c r="I39" s="348"/>
+      <c r="J39" s="348"/>
+      <c r="K39" s="348"/>
+      <c r="L39" s="348"/>
+      <c r="M39" s="348"/>
+      <c r="N39" s="348"/>
+      <c r="O39" s="348"/>
+      <c r="P39" s="348"/>
+      <c r="Q39" s="365"/>
       <c r="R39" s="350" t="s">
         <v>40</v>
       </c>
@@ -13189,18 +13212,18 @@
       <c r="T39" s="350"/>
       <c r="U39" s="350"/>
       <c r="V39" s="350"/>
-      <c r="W39" s="349"/>
-      <c r="X39" s="349"/>
-      <c r="Y39" s="349"/>
-      <c r="Z39" s="349"/>
-      <c r="AA39" s="349"/>
-      <c r="AB39" s="349"/>
-      <c r="AC39" s="349"/>
-      <c r="AD39" s="349"/>
-      <c r="AE39" s="349"/>
-      <c r="AF39" s="349"/>
-      <c r="AG39" s="349"/>
-      <c r="AH39" s="349"/>
+      <c r="W39" s="348"/>
+      <c r="X39" s="348"/>
+      <c r="Y39" s="348"/>
+      <c r="Z39" s="348"/>
+      <c r="AA39" s="348"/>
+      <c r="AB39" s="348"/>
+      <c r="AC39" s="348"/>
+      <c r="AD39" s="348"/>
+      <c r="AE39" s="348"/>
+      <c r="AF39" s="348"/>
+      <c r="AG39" s="348"/>
+      <c r="AH39" s="348"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -13208,14 +13231,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="362"/>
-      <c r="H40" s="362"/>
-      <c r="I40" s="362"/>
-      <c r="J40" s="362"/>
-      <c r="K40" s="362"/>
+      <c r="F40" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
       <c r="L40" s="141" t="s">
         <v>117</v>
       </c>
@@ -13226,25 +13249,25 @@
       <c r="Q40" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R40" s="361" t="s">
+      <c r="R40" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S40" s="362"/>
-      <c r="T40" s="362"/>
-      <c r="U40" s="362"/>
-      <c r="V40" s="362"/>
-      <c r="W40" s="362"/>
-      <c r="X40" s="362"/>
-      <c r="Y40" s="362"/>
-      <c r="Z40" s="362"/>
-      <c r="AA40" s="362"/>
-      <c r="AB40" s="362"/>
-      <c r="AC40" s="362"/>
-      <c r="AD40" s="362"/>
-      <c r="AE40" s="362"/>
-      <c r="AF40" s="362"/>
-      <c r="AG40" s="362"/>
-      <c r="AH40" s="362"/>
+      <c r="S40" s="328"/>
+      <c r="T40" s="328"/>
+      <c r="U40" s="328"/>
+      <c r="V40" s="328"/>
+      <c r="W40" s="328"/>
+      <c r="X40" s="328"/>
+      <c r="Y40" s="328"/>
+      <c r="Z40" s="328"/>
+      <c r="AA40" s="328"/>
+      <c r="AB40" s="328"/>
+      <c r="AC40" s="328"/>
+      <c r="AD40" s="328"/>
+      <c r="AE40" s="328"/>
+      <c r="AF40" s="328"/>
+      <c r="AG40" s="328"/>
+      <c r="AH40" s="328"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -13252,14 +13275,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="362"/>
-      <c r="K41" s="362"/>
+      <c r="F41" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
+      <c r="K41" s="328"/>
       <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
@@ -13270,25 +13293,25 @@
       <c r="Q41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R41" s="361" t="s">
+      <c r="R41" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S41" s="362"/>
-      <c r="T41" s="362"/>
-      <c r="U41" s="362"/>
-      <c r="V41" s="362"/>
-      <c r="W41" s="362"/>
-      <c r="X41" s="362"/>
-      <c r="Y41" s="362"/>
-      <c r="Z41" s="362"/>
-      <c r="AA41" s="362"/>
-      <c r="AB41" s="362"/>
-      <c r="AC41" s="362"/>
-      <c r="AD41" s="362"/>
-      <c r="AE41" s="362"/>
-      <c r="AF41" s="362"/>
-      <c r="AG41" s="362"/>
-      <c r="AH41" s="362"/>
+      <c r="S41" s="328"/>
+      <c r="T41" s="328"/>
+      <c r="U41" s="328"/>
+      <c r="V41" s="328"/>
+      <c r="W41" s="328"/>
+      <c r="X41" s="328"/>
+      <c r="Y41" s="328"/>
+      <c r="Z41" s="328"/>
+      <c r="AA41" s="328"/>
+      <c r="AB41" s="328"/>
+      <c r="AC41" s="328"/>
+      <c r="AD41" s="328"/>
+      <c r="AE41" s="328"/>
+      <c r="AF41" s="328"/>
+      <c r="AG41" s="328"/>
+      <c r="AH41" s="328"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -13296,14 +13319,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="362"/>
-      <c r="H42" s="362"/>
-      <c r="I42" s="362"/>
-      <c r="J42" s="362"/>
-      <c r="K42" s="362"/>
+      <c r="F42" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="328"/>
       <c r="L42" s="141" t="s">
         <v>119</v>
       </c>
@@ -13314,25 +13337,25 @@
       <c r="Q42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="361" t="s">
+      <c r="R42" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S42" s="362"/>
-      <c r="T42" s="362"/>
-      <c r="U42" s="362"/>
-      <c r="V42" s="362"/>
-      <c r="W42" s="362"/>
-      <c r="X42" s="362"/>
-      <c r="Y42" s="362"/>
-      <c r="Z42" s="362"/>
-      <c r="AA42" s="362"/>
-      <c r="AB42" s="362"/>
-      <c r="AC42" s="362"/>
-      <c r="AD42" s="362"/>
-      <c r="AE42" s="362"/>
-      <c r="AF42" s="362"/>
-      <c r="AG42" s="362"/>
-      <c r="AH42" s="362"/>
+      <c r="S42" s="328"/>
+      <c r="T42" s="328"/>
+      <c r="U42" s="328"/>
+      <c r="V42" s="328"/>
+      <c r="W42" s="328"/>
+      <c r="X42" s="328"/>
+      <c r="Y42" s="328"/>
+      <c r="Z42" s="328"/>
+      <c r="AA42" s="328"/>
+      <c r="AB42" s="328"/>
+      <c r="AC42" s="328"/>
+      <c r="AD42" s="328"/>
+      <c r="AE42" s="328"/>
+      <c r="AF42" s="328"/>
+      <c r="AG42" s="328"/>
+      <c r="AH42" s="328"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -13340,14 +13363,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="362"/>
-      <c r="K43" s="362"/>
+      <c r="F43" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="328"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
       <c r="L43" s="141" t="s">
         <v>120</v>
       </c>
@@ -13358,25 +13381,25 @@
       <c r="Q43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R43" s="361" t="s">
+      <c r="R43" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="362"/>
-      <c r="T43" s="362"/>
-      <c r="U43" s="362"/>
-      <c r="V43" s="362"/>
-      <c r="W43" s="362"/>
-      <c r="X43" s="362"/>
-      <c r="Y43" s="362"/>
-      <c r="Z43" s="362"/>
-      <c r="AA43" s="362"/>
-      <c r="AB43" s="362"/>
-      <c r="AC43" s="362"/>
-      <c r="AD43" s="362"/>
-      <c r="AE43" s="362"/>
-      <c r="AF43" s="362"/>
-      <c r="AG43" s="362"/>
-      <c r="AH43" s="362"/>
+      <c r="S43" s="328"/>
+      <c r="T43" s="328"/>
+      <c r="U43" s="328"/>
+      <c r="V43" s="328"/>
+      <c r="W43" s="328"/>
+      <c r="X43" s="328"/>
+      <c r="Y43" s="328"/>
+      <c r="Z43" s="328"/>
+      <c r="AA43" s="328"/>
+      <c r="AB43" s="328"/>
+      <c r="AC43" s="328"/>
+      <c r="AD43" s="328"/>
+      <c r="AE43" s="328"/>
+      <c r="AF43" s="328"/>
+      <c r="AG43" s="328"/>
+      <c r="AH43" s="328"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -13384,16 +13407,16 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="362"/>
-      <c r="H44" s="362"/>
-      <c r="I44" s="362"/>
-      <c r="J44" s="362"/>
-      <c r="K44" s="362"/>
+      <c r="F44" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="328"/>
+      <c r="H44" s="328"/>
+      <c r="I44" s="328"/>
+      <c r="J44" s="328"/>
+      <c r="K44" s="328"/>
       <c r="L44" s="141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M44" s="142"/>
       <c r="N44" s="142"/>
@@ -13402,25 +13425,25 @@
       <c r="Q44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R44" s="361" t="s">
+      <c r="R44" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S44" s="362"/>
-      <c r="T44" s="362"/>
-      <c r="U44" s="362"/>
-      <c r="V44" s="362"/>
-      <c r="W44" s="362"/>
-      <c r="X44" s="362"/>
-      <c r="Y44" s="362"/>
-      <c r="Z44" s="362"/>
-      <c r="AA44" s="362"/>
-      <c r="AB44" s="362"/>
-      <c r="AC44" s="362"/>
-      <c r="AD44" s="362"/>
-      <c r="AE44" s="362"/>
-      <c r="AF44" s="362"/>
-      <c r="AG44" s="362"/>
-      <c r="AH44" s="362"/>
+      <c r="S44" s="328"/>
+      <c r="T44" s="328"/>
+      <c r="U44" s="328"/>
+      <c r="V44" s="328"/>
+      <c r="W44" s="328"/>
+      <c r="X44" s="328"/>
+      <c r="Y44" s="328"/>
+      <c r="Z44" s="328"/>
+      <c r="AA44" s="328"/>
+      <c r="AB44" s="328"/>
+      <c r="AC44" s="328"/>
+      <c r="AD44" s="328"/>
+      <c r="AE44" s="328"/>
+      <c r="AF44" s="328"/>
+      <c r="AG44" s="328"/>
+      <c r="AH44" s="328"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -13428,16 +13451,16 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="362"/>
-      <c r="H45" s="362"/>
-      <c r="I45" s="362"/>
-      <c r="J45" s="362"/>
-      <c r="K45" s="362"/>
+      <c r="F45" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="328"/>
+      <c r="H45" s="328"/>
+      <c r="I45" s="328"/>
+      <c r="J45" s="328"/>
+      <c r="K45" s="328"/>
       <c r="L45" s="141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="142"/>
       <c r="N45" s="142"/>
@@ -13446,25 +13469,25 @@
       <c r="Q45" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R45" s="361" t="s">
+      <c r="R45" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="362"/>
-      <c r="T45" s="362"/>
-      <c r="U45" s="362"/>
-      <c r="V45" s="362"/>
-      <c r="W45" s="362"/>
-      <c r="X45" s="362"/>
-      <c r="Y45" s="362"/>
-      <c r="Z45" s="362"/>
-      <c r="AA45" s="362"/>
-      <c r="AB45" s="362"/>
-      <c r="AC45" s="362"/>
-      <c r="AD45" s="362"/>
-      <c r="AE45" s="362"/>
-      <c r="AF45" s="362"/>
-      <c r="AG45" s="362"/>
-      <c r="AH45" s="362"/>
+      <c r="S45" s="328"/>
+      <c r="T45" s="328"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="328"/>
+      <c r="W45" s="328"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="328"/>
+      <c r="Z45" s="328"/>
+      <c r="AA45" s="328"/>
+      <c r="AB45" s="328"/>
+      <c r="AC45" s="328"/>
+      <c r="AD45" s="328"/>
+      <c r="AE45" s="328"/>
+      <c r="AF45" s="328"/>
+      <c r="AG45" s="328"/>
+      <c r="AH45" s="328"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13472,14 +13495,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="362"/>
-      <c r="H46" s="362"/>
-      <c r="I46" s="362"/>
-      <c r="J46" s="362"/>
-      <c r="K46" s="362"/>
+      <c r="F46" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="328"/>
+      <c r="H46" s="328"/>
+      <c r="I46" s="328"/>
+      <c r="J46" s="328"/>
+      <c r="K46" s="328"/>
       <c r="L46" s="141" t="s">
         <v>121</v>
       </c>
@@ -13490,25 +13513,25 @@
       <c r="Q46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="361" t="s">
+      <c r="R46" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="362"/>
-      <c r="T46" s="362"/>
-      <c r="U46" s="362"/>
-      <c r="V46" s="362"/>
-      <c r="W46" s="362"/>
-      <c r="X46" s="362"/>
-      <c r="Y46" s="362"/>
-      <c r="Z46" s="362"/>
-      <c r="AA46" s="362"/>
-      <c r="AB46" s="362"/>
-      <c r="AC46" s="362"/>
-      <c r="AD46" s="362"/>
-      <c r="AE46" s="362"/>
-      <c r="AF46" s="362"/>
-      <c r="AG46" s="362"/>
-      <c r="AH46" s="362"/>
+      <c r="S46" s="328"/>
+      <c r="T46" s="328"/>
+      <c r="U46" s="328"/>
+      <c r="V46" s="328"/>
+      <c r="W46" s="328"/>
+      <c r="X46" s="328"/>
+      <c r="Y46" s="328"/>
+      <c r="Z46" s="328"/>
+      <c r="AA46" s="328"/>
+      <c r="AB46" s="328"/>
+      <c r="AC46" s="328"/>
+      <c r="AD46" s="328"/>
+      <c r="AE46" s="328"/>
+      <c r="AF46" s="328"/>
+      <c r="AG46" s="328"/>
+      <c r="AH46" s="328"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13516,14 +13539,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="362"/>
-      <c r="K47" s="362"/>
+      <c r="F47" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="328"/>
+      <c r="H47" s="328"/>
+      <c r="I47" s="328"/>
+      <c r="J47" s="328"/>
+      <c r="K47" s="328"/>
       <c r="L47" s="141" t="s">
         <v>122</v>
       </c>
@@ -13534,25 +13557,25 @@
       <c r="Q47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R47" s="361" t="s">
+      <c r="R47" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="362"/>
-      <c r="T47" s="362"/>
-      <c r="U47" s="362"/>
-      <c r="V47" s="362"/>
-      <c r="W47" s="362"/>
-      <c r="X47" s="362"/>
-      <c r="Y47" s="362"/>
-      <c r="Z47" s="362"/>
-      <c r="AA47" s="362"/>
-      <c r="AB47" s="362"/>
-      <c r="AC47" s="362"/>
-      <c r="AD47" s="362"/>
-      <c r="AE47" s="362"/>
-      <c r="AF47" s="362"/>
-      <c r="AG47" s="362"/>
-      <c r="AH47" s="362"/>
+      <c r="S47" s="328"/>
+      <c r="T47" s="328"/>
+      <c r="U47" s="328"/>
+      <c r="V47" s="328"/>
+      <c r="W47" s="328"/>
+      <c r="X47" s="328"/>
+      <c r="Y47" s="328"/>
+      <c r="Z47" s="328"/>
+      <c r="AA47" s="328"/>
+      <c r="AB47" s="328"/>
+      <c r="AC47" s="328"/>
+      <c r="AD47" s="328"/>
+      <c r="AE47" s="328"/>
+      <c r="AF47" s="328"/>
+      <c r="AG47" s="328"/>
+      <c r="AH47" s="328"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13560,16 +13583,16 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="362"/>
-      <c r="H48" s="362"/>
-      <c r="I48" s="362"/>
-      <c r="J48" s="362"/>
-      <c r="K48" s="362"/>
+      <c r="F48" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="328"/>
+      <c r="H48" s="328"/>
+      <c r="I48" s="328"/>
+      <c r="J48" s="328"/>
+      <c r="K48" s="328"/>
       <c r="L48" s="141" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="M48" s="142"/>
       <c r="N48" s="142"/>
@@ -13578,25 +13601,25 @@
       <c r="Q48" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="361" t="s">
+      <c r="R48" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="362"/>
-      <c r="T48" s="362"/>
-      <c r="U48" s="362"/>
-      <c r="V48" s="362"/>
-      <c r="W48" s="362"/>
-      <c r="X48" s="362"/>
-      <c r="Y48" s="362"/>
-      <c r="Z48" s="362"/>
-      <c r="AA48" s="362"/>
-      <c r="AB48" s="362"/>
-      <c r="AC48" s="362"/>
-      <c r="AD48" s="362"/>
-      <c r="AE48" s="362"/>
-      <c r="AF48" s="362"/>
-      <c r="AG48" s="362"/>
-      <c r="AH48" s="362"/>
+      <c r="S48" s="328"/>
+      <c r="T48" s="328"/>
+      <c r="U48" s="328"/>
+      <c r="V48" s="328"/>
+      <c r="W48" s="328"/>
+      <c r="X48" s="328"/>
+      <c r="Y48" s="328"/>
+      <c r="Z48" s="328"/>
+      <c r="AA48" s="328"/>
+      <c r="AB48" s="328"/>
+      <c r="AC48" s="328"/>
+      <c r="AD48" s="328"/>
+      <c r="AE48" s="328"/>
+      <c r="AF48" s="328"/>
+      <c r="AG48" s="328"/>
+      <c r="AH48" s="328"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13604,16 +13627,16 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="362"/>
-      <c r="K49" s="362"/>
+      <c r="F49" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="328"/>
+      <c r="H49" s="328"/>
+      <c r="I49" s="328"/>
+      <c r="J49" s="328"/>
+      <c r="K49" s="328"/>
       <c r="L49" s="141" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="M49" s="142"/>
       <c r="N49" s="142"/>
@@ -13622,25 +13645,25 @@
       <c r="Q49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="361" t="s">
+      <c r="R49" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="362"/>
-      <c r="T49" s="362"/>
-      <c r="U49" s="362"/>
-      <c r="V49" s="362"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="362"/>
-      <c r="Y49" s="362"/>
-      <c r="Z49" s="362"/>
-      <c r="AA49" s="362"/>
-      <c r="AB49" s="362"/>
-      <c r="AC49" s="362"/>
-      <c r="AD49" s="362"/>
-      <c r="AE49" s="362"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="362"/>
-      <c r="AH49" s="362"/>
+      <c r="S49" s="328"/>
+      <c r="T49" s="328"/>
+      <c r="U49" s="328"/>
+      <c r="V49" s="328"/>
+      <c r="W49" s="328"/>
+      <c r="X49" s="328"/>
+      <c r="Y49" s="328"/>
+      <c r="Z49" s="328"/>
+      <c r="AA49" s="328"/>
+      <c r="AB49" s="328"/>
+      <c r="AC49" s="328"/>
+      <c r="AD49" s="328"/>
+      <c r="AE49" s="328"/>
+      <c r="AF49" s="328"/>
+      <c r="AG49" s="328"/>
+      <c r="AH49" s="328"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13648,14 +13671,14 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="362"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362"/>
-      <c r="K50" s="362"/>
+      <c r="F50" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="328"/>
+      <c r="H50" s="328"/>
+      <c r="I50" s="328"/>
+      <c r="J50" s="328"/>
+      <c r="K50" s="328"/>
       <c r="L50" s="141" t="s">
         <v>125</v>
       </c>
@@ -13666,25 +13689,25 @@
       <c r="Q50" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R50" s="361" t="s">
+      <c r="R50" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="362"/>
-      <c r="T50" s="362"/>
-      <c r="U50" s="362"/>
-      <c r="V50" s="362"/>
-      <c r="W50" s="362"/>
-      <c r="X50" s="362"/>
-      <c r="Y50" s="362"/>
-      <c r="Z50" s="362"/>
-      <c r="AA50" s="362"/>
-      <c r="AB50" s="362"/>
-      <c r="AC50" s="362"/>
-      <c r="AD50" s="362"/>
-      <c r="AE50" s="362"/>
-      <c r="AF50" s="362"/>
-      <c r="AG50" s="362"/>
-      <c r="AH50" s="362"/>
+      <c r="S50" s="328"/>
+      <c r="T50" s="328"/>
+      <c r="U50" s="328"/>
+      <c r="V50" s="328"/>
+      <c r="W50" s="328"/>
+      <c r="X50" s="328"/>
+      <c r="Y50" s="328"/>
+      <c r="Z50" s="328"/>
+      <c r="AA50" s="328"/>
+      <c r="AB50" s="328"/>
+      <c r="AC50" s="328"/>
+      <c r="AD50" s="328"/>
+      <c r="AE50" s="328"/>
+      <c r="AF50" s="328"/>
+      <c r="AG50" s="328"/>
+      <c r="AH50" s="328"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -13692,16 +13715,16 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="362"/>
-      <c r="H51" s="362"/>
-      <c r="I51" s="362"/>
-      <c r="J51" s="362"/>
-      <c r="K51" s="362"/>
+      <c r="F51" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="328"/>
+      <c r="H51" s="328"/>
+      <c r="I51" s="328"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
       <c r="L51" s="141" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="M51" s="142"/>
       <c r="N51" s="142"/>
@@ -13710,25 +13733,25 @@
       <c r="Q51" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="361" t="s">
+      <c r="R51" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S51" s="362"/>
-      <c r="T51" s="362"/>
-      <c r="U51" s="362"/>
-      <c r="V51" s="362"/>
-      <c r="W51" s="362"/>
-      <c r="X51" s="362"/>
-      <c r="Y51" s="362"/>
-      <c r="Z51" s="362"/>
-      <c r="AA51" s="362"/>
-      <c r="AB51" s="362"/>
-      <c r="AC51" s="362"/>
-      <c r="AD51" s="362"/>
-      <c r="AE51" s="362"/>
-      <c r="AF51" s="362"/>
-      <c r="AG51" s="362"/>
-      <c r="AH51" s="362"/>
+      <c r="S51" s="328"/>
+      <c r="T51" s="328"/>
+      <c r="U51" s="328"/>
+      <c r="V51" s="328"/>
+      <c r="W51" s="328"/>
+      <c r="X51" s="328"/>
+      <c r="Y51" s="328"/>
+      <c r="Z51" s="328"/>
+      <c r="AA51" s="328"/>
+      <c r="AB51" s="328"/>
+      <c r="AC51" s="328"/>
+      <c r="AD51" s="328"/>
+      <c r="AE51" s="328"/>
+      <c r="AF51" s="328"/>
+      <c r="AG51" s="328"/>
+      <c r="AH51" s="328"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -13736,16 +13759,16 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="361" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="362"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
-      <c r="K52" s="362"/>
+      <c r="F52" s="327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="328"/>
+      <c r="H52" s="328"/>
+      <c r="I52" s="328"/>
+      <c r="J52" s="328"/>
+      <c r="K52" s="328"/>
       <c r="L52" s="141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M52" s="142"/>
       <c r="N52" s="142"/>
@@ -13754,61 +13777,61 @@
       <c r="Q52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R52" s="361" t="s">
+      <c r="R52" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="362"/>
-      <c r="T52" s="362"/>
-      <c r="U52" s="362"/>
-      <c r="V52" s="362"/>
-      <c r="W52" s="362"/>
-      <c r="X52" s="362"/>
-      <c r="Y52" s="362"/>
-      <c r="Z52" s="362"/>
-      <c r="AA52" s="362"/>
-      <c r="AB52" s="362"/>
-      <c r="AC52" s="362"/>
-      <c r="AD52" s="362"/>
-      <c r="AE52" s="362"/>
-      <c r="AF52" s="362"/>
-      <c r="AG52" s="362"/>
-      <c r="AH52" s="362"/>
+      <c r="S52" s="328"/>
+      <c r="T52" s="328"/>
+      <c r="U52" s="328"/>
+      <c r="V52" s="328"/>
+      <c r="W52" s="328"/>
+      <c r="X52" s="328"/>
+      <c r="Y52" s="328"/>
+      <c r="Z52" s="328"/>
+      <c r="AA52" s="328"/>
+      <c r="AB52" s="328"/>
+      <c r="AC52" s="328"/>
+      <c r="AD52" s="328"/>
+      <c r="AE52" s="328"/>
+      <c r="AF52" s="328"/>
+      <c r="AG52" s="328"/>
+      <c r="AH52" s="328"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="313" t="s">
+      <c r="E53" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="314"/>
-      <c r="G53" s="314"/>
-      <c r="H53" s="314"/>
-      <c r="I53" s="314"/>
-      <c r="J53" s="314"/>
-      <c r="K53" s="314"/>
-      <c r="L53" s="314"/>
-      <c r="M53" s="314"/>
-      <c r="N53" s="314"/>
-      <c r="O53" s="314"/>
-      <c r="P53" s="314"/>
-      <c r="Q53" s="314"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="314"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="314"/>
-      <c r="V53" s="314"/>
-      <c r="W53" s="314"/>
-      <c r="X53" s="314"/>
-      <c r="Y53" s="314"/>
-      <c r="Z53" s="314"/>
-      <c r="AA53" s="314"/>
-      <c r="AB53" s="314"/>
-      <c r="AC53" s="314"/>
-      <c r="AD53" s="314"/>
-      <c r="AE53" s="314"/>
-      <c r="AF53" s="314"/>
-      <c r="AG53" s="314"/>
-      <c r="AH53" s="315"/>
+      <c r="F53" s="280"/>
+      <c r="G53" s="280"/>
+      <c r="H53" s="280"/>
+      <c r="I53" s="280"/>
+      <c r="J53" s="280"/>
+      <c r="K53" s="280"/>
+      <c r="L53" s="280"/>
+      <c r="M53" s="280"/>
+      <c r="N53" s="280"/>
+      <c r="O53" s="280"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="280"/>
+      <c r="R53" s="280"/>
+      <c r="S53" s="280"/>
+      <c r="T53" s="280"/>
+      <c r="U53" s="280"/>
+      <c r="V53" s="280"/>
+      <c r="W53" s="280"/>
+      <c r="X53" s="280"/>
+      <c r="Y53" s="280"/>
+      <c r="Z53" s="280"/>
+      <c r="AA53" s="280"/>
+      <c r="AB53" s="280"/>
+      <c r="AC53" s="280"/>
+      <c r="AD53" s="280"/>
+      <c r="AE53" s="280"/>
+      <c r="AF53" s="280"/>
+      <c r="AG53" s="280"/>
+      <c r="AH53" s="281"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -13850,7 +13873,7 @@
       <c r="E55" s="152"/>
       <c r="F55" s="155"/>
       <c r="G55" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
@@ -13859,11 +13882,11 @@
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
       <c r="Q55" s="154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R55" s="25"/>
       <c r="S55" s="150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U55" s="121"/>
       <c r="V55" s="121"/>
@@ -13885,10 +13908,10 @@
     <row r="56" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E56" s="152"/>
       <c r="F56" s="155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -13897,11 +13920,11 @@
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="Q56" s="154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R56" s="25"/>
       <c r="S56" s="150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U56" s="121"/>
       <c r="V56" s="121"/>
@@ -14030,13 +14053,13 @@
     </row>
     <row r="61" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D61" s="105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="110"/>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E62" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:36" x14ac:dyDescent="0.15">
@@ -14044,13 +14067,13 @@
     </row>
     <row r="64" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D64" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E64" s="110"/>
     </row>
     <row r="65" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E65" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:70" x14ac:dyDescent="0.15">
@@ -14062,72 +14085,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="351" t="s">
+      <c r="E68" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="352"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="354" t="s">
+      <c r="F68" s="341"/>
+      <c r="G68" s="342"/>
+      <c r="H68" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="355"/>
-      <c r="J68" s="356"/>
-      <c r="K68" s="357" t="s">
-        <v>133</v>
-      </c>
-      <c r="L68" s="358"/>
-      <c r="M68" s="358"/>
-      <c r="N68" s="359"/>
-      <c r="O68" s="360" t="s">
+      <c r="I68" s="344"/>
+      <c r="J68" s="345"/>
+      <c r="K68" s="366" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68" s="367"/>
+      <c r="M68" s="367"/>
+      <c r="N68" s="368"/>
+      <c r="O68" s="369" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="360"/>
-      <c r="Q68" s="360"/>
-      <c r="R68" s="360"/>
-      <c r="S68" s="360"/>
-      <c r="T68" s="360"/>
-      <c r="U68" s="360"/>
-      <c r="V68" s="360"/>
-      <c r="W68" s="360"/>
-      <c r="X68" s="360"/>
-      <c r="Y68" s="360"/>
-      <c r="Z68" s="360"/>
-      <c r="AA68" s="360"/>
-      <c r="AB68" s="360"/>
+      <c r="P68" s="369"/>
+      <c r="Q68" s="369"/>
+      <c r="R68" s="369"/>
+      <c r="S68" s="369"/>
+      <c r="T68" s="369"/>
+      <c r="U68" s="369"/>
+      <c r="V68" s="369"/>
+      <c r="W68" s="369"/>
+      <c r="X68" s="369"/>
+      <c r="Y68" s="369"/>
+      <c r="Z68" s="369"/>
+      <c r="AA68" s="369"/>
+      <c r="AB68" s="369"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="237">
+      <c r="E69" s="196">
         <v>0</v>
       </c>
-      <c r="F69" s="238"/>
-      <c r="G69" s="239"/>
-      <c r="H69" s="240" t="s">
+      <c r="F69" s="197"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="238"/>
-      <c r="J69" s="239"/>
-      <c r="K69" s="370" t="s">
+      <c r="I69" s="197"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="324" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="373"/>
-      <c r="M69" s="373"/>
-      <c r="N69" s="374"/>
-      <c r="O69" s="375" t="s">
+      <c r="L69" s="329"/>
+      <c r="M69" s="329"/>
+      <c r="N69" s="330"/>
+      <c r="O69" s="331" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="375"/>
-      <c r="Q69" s="375"/>
-      <c r="R69" s="375"/>
-      <c r="S69" s="375"/>
-      <c r="T69" s="375"/>
-      <c r="U69" s="375"/>
-      <c r="V69" s="375"/>
-      <c r="W69" s="375"/>
-      <c r="X69" s="375"/>
-      <c r="Y69" s="375"/>
-      <c r="Z69" s="375"/>
-      <c r="AA69" s="375"/>
-      <c r="AB69" s="375"/>
+      <c r="P69" s="331"/>
+      <c r="Q69" s="331"/>
+      <c r="R69" s="331"/>
+      <c r="S69" s="331"/>
+      <c r="T69" s="331"/>
+      <c r="U69" s="331"/>
+      <c r="V69" s="331"/>
+      <c r="W69" s="331"/>
+      <c r="X69" s="331"/>
+      <c r="Y69" s="331"/>
+      <c r="Z69" s="331"/>
+      <c r="AA69" s="331"/>
+      <c r="AB69" s="331"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -14135,7 +14158,7 @@
     <row r="71" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C71" s="41"/>
       <c r="D71" s="105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I71" s="41"/>
     </row>
@@ -14143,7 +14166,7 @@
       <c r="C72" s="41"/>
       <c r="D72" s="110"/>
       <c r="E72" s="105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:70" x14ac:dyDescent="0.15">
@@ -14192,7 +14215,7 @@
     </row>
     <row r="76" spans="2:70" x14ac:dyDescent="0.15">
       <c r="D76" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -14259,7 +14282,7 @@
     </row>
     <row r="78" spans="2:70" x14ac:dyDescent="0.15">
       <c r="D78" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
@@ -14296,7 +14319,7 @@
       <c r="C79" s="41"/>
       <c r="D79" s="42"/>
       <c r="E79" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -14366,7 +14389,7 @@
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
       <c r="F81" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -14433,43 +14456,43 @@
     <row r="83" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
-      <c r="F83" s="376" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="377"/>
-      <c r="H83" s="378"/>
-      <c r="I83" s="334" t="s">
+      <c r="F83" s="332" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="333"/>
+      <c r="H83" s="334"/>
+      <c r="I83" s="335" t="s">
+        <v>140</v>
+      </c>
+      <c r="J83" s="336"/>
+      <c r="K83" s="336"/>
+      <c r="L83" s="336"/>
+      <c r="M83" s="337"/>
+      <c r="N83" s="332" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="333"/>
+      <c r="P83" s="334"/>
+      <c r="Q83" s="335" t="s">
         <v>141</v>
       </c>
-      <c r="J83" s="335"/>
-      <c r="K83" s="335"/>
-      <c r="L83" s="335"/>
-      <c r="M83" s="336"/>
-      <c r="N83" s="376" t="s">
-        <v>91</v>
-      </c>
-      <c r="O83" s="377"/>
-      <c r="P83" s="378"/>
-      <c r="Q83" s="334" t="s">
-        <v>142</v>
-      </c>
-      <c r="R83" s="335"/>
-      <c r="S83" s="335"/>
-      <c r="T83" s="335"/>
-      <c r="U83" s="335"/>
-      <c r="V83" s="335"/>
-      <c r="W83" s="335"/>
-      <c r="X83" s="335"/>
-      <c r="Y83" s="335"/>
-      <c r="Z83" s="335"/>
-      <c r="AA83" s="335"/>
-      <c r="AB83" s="335"/>
-      <c r="AC83" s="335"/>
-      <c r="AD83" s="335"/>
-      <c r="AE83" s="335"/>
-      <c r="AF83" s="335"/>
-      <c r="AG83" s="335"/>
-      <c r="AH83" s="336"/>
+      <c r="R83" s="336"/>
+      <c r="S83" s="336"/>
+      <c r="T83" s="336"/>
+      <c r="U83" s="336"/>
+      <c r="V83" s="336"/>
+      <c r="W83" s="336"/>
+      <c r="X83" s="336"/>
+      <c r="Y83" s="336"/>
+      <c r="Z83" s="336"/>
+      <c r="AA83" s="336"/>
+      <c r="AB83" s="336"/>
+      <c r="AC83" s="336"/>
+      <c r="AD83" s="336"/>
+      <c r="AE83" s="336"/>
+      <c r="AF83" s="336"/>
+      <c r="AG83" s="336"/>
+      <c r="AH83" s="337"/>
     </row>
     <row r="84" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="117"/>
@@ -14508,7 +14531,7 @@
       <c r="C85" s="41"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
@@ -14579,15 +14602,15 @@
     </row>
     <row r="87" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C87" s="41"/>
-      <c r="F87" s="337" t="s">
+      <c r="F87" s="355" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="339" t="s">
+      <c r="G87" s="357" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="339"/>
-      <c r="I87" s="339"/>
-      <c r="J87" s="339"/>
+      <c r="H87" s="357"/>
+      <c r="I87" s="357"/>
+      <c r="J87" s="357"/>
       <c r="K87" s="161" t="s">
         <v>96</v>
       </c>
@@ -14614,20 +14637,20 @@
       <c r="AB87" s="162"/>
       <c r="AC87" s="162"/>
       <c r="AD87" s="163"/>
-      <c r="AE87" s="340" t="s">
+      <c r="AE87" s="358" t="s">
         <v>21</v>
       </c>
-      <c r="AF87" s="341"/>
-      <c r="AG87" s="341"/>
-      <c r="AH87" s="342"/>
+      <c r="AF87" s="359"/>
+      <c r="AG87" s="359"/>
+      <c r="AH87" s="360"/>
       <c r="AI87" s="113"/>
     </row>
     <row r="88" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F88" s="338"/>
-      <c r="G88" s="339"/>
-      <c r="H88" s="339"/>
-      <c r="I88" s="339"/>
-      <c r="J88" s="339"/>
+      <c r="F88" s="356"/>
+      <c r="G88" s="357"/>
+      <c r="H88" s="357"/>
+      <c r="I88" s="357"/>
+      <c r="J88" s="357"/>
       <c r="K88" s="164"/>
       <c r="L88" s="165"/>
       <c r="M88" s="165"/>
@@ -14652,10 +14675,10 @@
       <c r="AB88" s="165"/>
       <c r="AC88" s="165"/>
       <c r="AD88" s="166"/>
-      <c r="AE88" s="343"/>
-      <c r="AF88" s="344"/>
-      <c r="AG88" s="344"/>
-      <c r="AH88" s="345"/>
+      <c r="AE88" s="361"/>
+      <c r="AF88" s="362"/>
+      <c r="AG88" s="362"/>
+      <c r="AH88" s="363"/>
       <c r="AI88" s="113"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14663,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H89" s="157"/>
       <c r="I89" s="157"/>
@@ -14676,13 +14699,13 @@
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R89" s="364"/>
-      <c r="S89" s="364"/>
-      <c r="T89" s="364"/>
-      <c r="U89" s="364"/>
+      <c r="Q89" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R89" s="323"/>
+      <c r="S89" s="323"/>
+      <c r="T89" s="323"/>
+      <c r="U89" s="323"/>
       <c r="V89" s="141" t="s">
         <v>117</v>
       </c>
@@ -14696,10 +14719,10 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="370"/>
-      <c r="AF89" s="371"/>
-      <c r="AG89" s="371"/>
-      <c r="AH89" s="372"/>
+      <c r="AE89" s="324"/>
+      <c r="AF89" s="325"/>
+      <c r="AG89" s="325"/>
+      <c r="AH89" s="326"/>
       <c r="AI89" s="113"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14707,7 +14730,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H90" s="157"/>
       <c r="I90" s="157"/>
@@ -14720,13 +14743,13 @@
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R90" s="364"/>
-      <c r="S90" s="364"/>
-      <c r="T90" s="364"/>
-      <c r="U90" s="364"/>
+      <c r="Q90" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R90" s="323"/>
+      <c r="S90" s="323"/>
+      <c r="T90" s="323"/>
+      <c r="U90" s="323"/>
       <c r="V90" s="141" t="s">
         <v>118</v>
       </c>
@@ -14740,17 +14763,17 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="370"/>
-      <c r="AF90" s="371"/>
-      <c r="AG90" s="371"/>
-      <c r="AH90" s="372"/>
+      <c r="AE90" s="324"/>
+      <c r="AF90" s="325"/>
+      <c r="AG90" s="325"/>
+      <c r="AH90" s="326"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="112">
         <v>3</v>
       </c>
       <c r="G91" s="156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H91" s="157"/>
       <c r="I91" s="157"/>
@@ -14763,13 +14786,13 @@
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R91" s="364"/>
-      <c r="S91" s="364"/>
-      <c r="T91" s="364"/>
-      <c r="U91" s="364"/>
+      <c r="Q91" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R91" s="323"/>
+      <c r="S91" s="323"/>
+      <c r="T91" s="323"/>
+      <c r="U91" s="323"/>
       <c r="V91" s="141" t="s">
         <v>119</v>
       </c>
@@ -14783,17 +14806,17 @@
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="370"/>
-      <c r="AF91" s="371"/>
-      <c r="AG91" s="371"/>
-      <c r="AH91" s="372"/>
+      <c r="AE91" s="324"/>
+      <c r="AF91" s="325"/>
+      <c r="AG91" s="325"/>
+      <c r="AH91" s="326"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
         <v>4</v>
       </c>
       <c r="G92" s="156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H92" s="157"/>
       <c r="I92" s="157"/>
@@ -14806,13 +14829,13 @@
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R92" s="364"/>
-      <c r="S92" s="364"/>
-      <c r="T92" s="364"/>
-      <c r="U92" s="364"/>
+      <c r="Q92" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R92" s="323"/>
+      <c r="S92" s="323"/>
+      <c r="T92" s="323"/>
+      <c r="U92" s="323"/>
       <c r="V92" s="141" t="s">
         <v>120</v>
       </c>
@@ -14826,10 +14849,10 @@
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="370"/>
-      <c r="AF92" s="371"/>
-      <c r="AG92" s="371"/>
-      <c r="AH92" s="372"/>
+      <c r="AE92" s="324"/>
+      <c r="AF92" s="325"/>
+      <c r="AG92" s="325"/>
+      <c r="AH92" s="326"/>
       <c r="AI92" s="113"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14837,112 +14860,112 @@
         <v>5</v>
       </c>
       <c r="G93" s="156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H93" s="157"/>
       <c r="I93" s="157"/>
       <c r="J93" s="158"/>
       <c r="K93" s="141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L93" s="167"/>
       <c r="M93" s="167"/>
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R93" s="364"/>
-      <c r="S93" s="364"/>
-      <c r="T93" s="364"/>
-      <c r="U93" s="364"/>
+      <c r="Q93" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R93" s="323"/>
+      <c r="S93" s="323"/>
+      <c r="T93" s="323"/>
+      <c r="U93" s="323"/>
       <c r="V93" s="141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W93" s="167"/>
       <c r="X93" s="168"/>
       <c r="Y93" s="168"/>
       <c r="Z93" s="169"/>
       <c r="AA93" s="174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="370"/>
-      <c r="AF93" s="371"/>
-      <c r="AG93" s="371"/>
-      <c r="AH93" s="372"/>
+      <c r="AE93" s="324"/>
+      <c r="AF93" s="325"/>
+      <c r="AG93" s="325"/>
+      <c r="AH93" s="326"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F94" s="112">
         <v>6</v>
       </c>
       <c r="G94" s="156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H94" s="157"/>
       <c r="I94" s="157"/>
       <c r="J94" s="158"/>
       <c r="K94" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L94" s="167"/>
       <c r="M94" s="167"/>
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R94" s="364"/>
-      <c r="S94" s="364"/>
-      <c r="T94" s="364"/>
-      <c r="U94" s="364"/>
+      <c r="Q94" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R94" s="323"/>
+      <c r="S94" s="323"/>
+      <c r="T94" s="323"/>
+      <c r="U94" s="323"/>
       <c r="V94" s="141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W94" s="167"/>
       <c r="X94" s="168"/>
       <c r="Y94" s="168"/>
       <c r="Z94" s="169"/>
       <c r="AA94" s="174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="370"/>
-      <c r="AF94" s="371"/>
-      <c r="AG94" s="371"/>
-      <c r="AH94" s="372"/>
+      <c r="AE94" s="324"/>
+      <c r="AF94" s="325"/>
+      <c r="AG94" s="325"/>
+      <c r="AH94" s="326"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
         <v>7</v>
       </c>
       <c r="G95" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H95" s="157"/>
       <c r="I95" s="157"/>
       <c r="J95" s="158"/>
       <c r="K95" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L95" s="167"/>
       <c r="M95" s="167"/>
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R95" s="364"/>
-      <c r="S95" s="364"/>
-      <c r="T95" s="364"/>
-      <c r="U95" s="364"/>
+      <c r="Q95" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R95" s="323"/>
+      <c r="S95" s="323"/>
+      <c r="T95" s="323"/>
+      <c r="U95" s="323"/>
       <c r="V95" s="141" t="s">
         <v>121</v>
       </c>
@@ -14956,10 +14979,10 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="370"/>
-      <c r="AF95" s="371"/>
-      <c r="AG95" s="371"/>
-      <c r="AH95" s="372"/>
+      <c r="AE95" s="324"/>
+      <c r="AF95" s="325"/>
+      <c r="AG95" s="325"/>
+      <c r="AH95" s="326"/>
       <c r="AI95" s="113"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14967,7 +14990,7 @@
         <v>8</v>
       </c>
       <c r="G96" s="156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H96" s="157"/>
       <c r="I96" s="157"/>
@@ -14980,13 +15003,13 @@
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R96" s="364"/>
-      <c r="S96" s="364"/>
-      <c r="T96" s="364"/>
-      <c r="U96" s="364"/>
+      <c r="Q96" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R96" s="323"/>
+      <c r="S96" s="323"/>
+      <c r="T96" s="323"/>
+      <c r="U96" s="323"/>
       <c r="V96" s="141" t="s">
         <v>122</v>
       </c>
@@ -15000,17 +15023,17 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="370"/>
-      <c r="AF96" s="371"/>
-      <c r="AG96" s="371"/>
-      <c r="AH96" s="372"/>
+      <c r="AE96" s="324"/>
+      <c r="AF96" s="325"/>
+      <c r="AG96" s="325"/>
+      <c r="AH96" s="326"/>
     </row>
     <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="112">
         <v>9</v>
       </c>
       <c r="G97" s="156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H97" s="157"/>
       <c r="I97" s="157"/>
@@ -15023,15 +15046,15 @@
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R97" s="364"/>
-      <c r="S97" s="364"/>
-      <c r="T97" s="364"/>
-      <c r="U97" s="364"/>
+      <c r="Q97" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R97" s="323"/>
+      <c r="S97" s="323"/>
+      <c r="T97" s="323"/>
+      <c r="U97" s="323"/>
       <c r="V97" s="141" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="W97" s="167"/>
       <c r="X97" s="168"/>
@@ -15043,17 +15066,17 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="370"/>
-      <c r="AF97" s="371"/>
-      <c r="AG97" s="371"/>
-      <c r="AH97" s="372"/>
+      <c r="AE97" s="324"/>
+      <c r="AF97" s="325"/>
+      <c r="AG97" s="325"/>
+      <c r="AH97" s="326"/>
     </row>
     <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
         <v>10</v>
       </c>
       <c r="G98" s="156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H98" s="157"/>
       <c r="I98" s="157"/>
@@ -15066,15 +15089,15 @@
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R98" s="364"/>
-      <c r="S98" s="364"/>
-      <c r="T98" s="364"/>
-      <c r="U98" s="364"/>
+      <c r="Q98" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R98" s="323"/>
+      <c r="S98" s="323"/>
+      <c r="T98" s="323"/>
+      <c r="U98" s="323"/>
       <c r="V98" s="141" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="W98" s="167"/>
       <c r="X98" s="168"/>
@@ -15086,10 +15109,10 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="370"/>
-      <c r="AF98" s="371"/>
-      <c r="AG98" s="371"/>
-      <c r="AH98" s="372"/>
+      <c r="AE98" s="324"/>
+      <c r="AF98" s="325"/>
+      <c r="AG98" s="325"/>
+      <c r="AH98" s="326"/>
       <c r="AI98" s="113"/>
     </row>
     <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15097,7 +15120,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H99" s="157"/>
       <c r="I99" s="157"/>
@@ -15110,13 +15133,13 @@
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R99" s="364"/>
-      <c r="S99" s="364"/>
-      <c r="T99" s="364"/>
-      <c r="U99" s="364"/>
+      <c r="Q99" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R99" s="323"/>
+      <c r="S99" s="323"/>
+      <c r="T99" s="323"/>
+      <c r="U99" s="323"/>
       <c r="V99" s="141" t="s">
         <v>125</v>
       </c>
@@ -15130,38 +15153,38 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="370"/>
-      <c r="AF99" s="371"/>
-      <c r="AG99" s="371"/>
-      <c r="AH99" s="372"/>
+      <c r="AE99" s="324"/>
+      <c r="AF99" s="325"/>
+      <c r="AG99" s="325"/>
+      <c r="AH99" s="326"/>
     </row>
     <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F100" s="112">
         <v>12</v>
       </c>
       <c r="G100" s="156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H100" s="157"/>
       <c r="I100" s="157"/>
       <c r="J100" s="158"/>
       <c r="K100" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L100" s="167"/>
       <c r="M100" s="167"/>
       <c r="N100" s="159"/>
       <c r="O100" s="159"/>
       <c r="P100" s="160"/>
-      <c r="Q100" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R100" s="364"/>
-      <c r="S100" s="364"/>
-      <c r="T100" s="364"/>
-      <c r="U100" s="364"/>
+      <c r="Q100" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R100" s="323"/>
+      <c r="S100" s="323"/>
+      <c r="T100" s="323"/>
+      <c r="U100" s="323"/>
       <c r="V100" s="141" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="W100" s="167"/>
       <c r="X100" s="168"/>
@@ -15173,38 +15196,38 @@
       <c r="AB100" s="175"/>
       <c r="AC100" s="175"/>
       <c r="AD100" s="176"/>
-      <c r="AE100" s="370"/>
-      <c r="AF100" s="371"/>
-      <c r="AG100" s="371"/>
-      <c r="AH100" s="372"/>
+      <c r="AE100" s="324"/>
+      <c r="AF100" s="325"/>
+      <c r="AG100" s="325"/>
+      <c r="AH100" s="326"/>
     </row>
     <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="112">
         <v>13</v>
       </c>
       <c r="G101" s="156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H101" s="157"/>
       <c r="I101" s="157"/>
       <c r="J101" s="158"/>
       <c r="K101" s="141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L101" s="167"/>
       <c r="M101" s="167"/>
       <c r="N101" s="159"/>
       <c r="O101" s="159"/>
       <c r="P101" s="160"/>
-      <c r="Q101" s="363" t="s">
-        <v>173</v>
-      </c>
-      <c r="R101" s="364"/>
-      <c r="S101" s="364"/>
-      <c r="T101" s="364"/>
-      <c r="U101" s="364"/>
+      <c r="Q101" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="R101" s="323"/>
+      <c r="S101" s="323"/>
+      <c r="T101" s="323"/>
+      <c r="U101" s="323"/>
       <c r="V101" s="141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W101" s="167"/>
       <c r="X101" s="168"/>
@@ -15216,10 +15239,10 @@
       <c r="AB101" s="175"/>
       <c r="AC101" s="175"/>
       <c r="AD101" s="176"/>
-      <c r="AE101" s="370"/>
-      <c r="AF101" s="371"/>
-      <c r="AG101" s="371"/>
-      <c r="AH101" s="372"/>
+      <c r="AE101" s="324"/>
+      <c r="AF101" s="325"/>
+      <c r="AG101" s="325"/>
+      <c r="AH101" s="326"/>
       <c r="AI101" s="113"/>
     </row>
     <row r="104" spans="6:35" x14ac:dyDescent="0.15">
@@ -15261,30 +15284,82 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q83:AH83"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="AE87:AH88"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q101:U101"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
     <mergeCell ref="AE101:AH101"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
@@ -15309,82 +15384,30 @@
     <mergeCell ref="F83:H83"/>
     <mergeCell ref="I83:M83"/>
     <mergeCell ref="N83:P83"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="Q101:U101"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q83:AH83"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="AE87:AH88"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5C55B-A9C9-4D3C-9E60-3EF5C6A5864B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D27CEC-B59B-4E73-ADA0-2FB5603C6CCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2490,96 +2490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2646,9 +2556,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2685,6 +2631,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2712,17 +2724,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2796,106 +2898,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2904,6 +3027,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2913,12 +3051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2936,138 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7553,8 +7553,8 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7563,57 +7563,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="199" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="229" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="214" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="190" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="242">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7621,53 +7621,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="199" t="s">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="214" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="187" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="184">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="242">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7675,45 +7675,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="199" t="s">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="248" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="235"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
-      <c r="X3" s="236"/>
-      <c r="Y3" s="236"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7852,52 +7852,52 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="202" t="s">
+      <c r="C7" s="215"/>
+      <c r="D7" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="202" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="238" t="s">
+      <c r="H7" s="216"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="202" t="s">
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="202" t="s">
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="216"/>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="215"/>
+      <c r="AF7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="204"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="215"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7908,52 +7908,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="241">
+      <c r="C8" s="222"/>
+      <c r="D8" s="223">
         <v>43634</v>
       </c>
-      <c r="E8" s="242"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="239" t="s">
+      <c r="E8" s="224"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="221" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="244"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="245" t="s">
+      <c r="H8" s="226"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="248" t="s">
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="249"/>
-      <c r="W8" s="249"/>
-      <c r="X8" s="249"/>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="249"/>
-      <c r="AB8" s="249"/>
-      <c r="AC8" s="249"/>
-      <c r="AD8" s="249"/>
-      <c r="AE8" s="250"/>
-      <c r="AF8" s="245" t="s">
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="246"/>
-      <c r="AH8" s="246"/>
-      <c r="AI8" s="247"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
+      <c r="AI8" s="229"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -7964,52 +7964,52 @@
       <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209">
+      <c r="C9" s="209"/>
+      <c r="D9" s="210">
         <v>44796</v>
       </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="213" t="s">
+      <c r="E9" s="211"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="212"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="205" t="s">
+      <c r="H9" s="213"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="240" t="s">
         <v>182</v>
       </c>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="195"/>
-      <c r="Q9" s="205" t="s">
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="240" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="197"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="198"/>
-      <c r="AF9" s="206" t="s">
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="241" t="s">
         <v>175</v>
       </c>
-      <c r="AG9" s="194"/>
-      <c r="AH9" s="194"/>
-      <c r="AI9" s="195"/>
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="234"/>
+      <c r="AI9" s="235"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -8018,40 +8018,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="198"/>
-      <c r="AF10" s="193"/>
-      <c r="AG10" s="194"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="195"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="239"/>
+      <c r="AF10" s="233"/>
+      <c r="AG10" s="234"/>
+      <c r="AH10" s="234"/>
+      <c r="AI10" s="235"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -8060,40 +8060,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="195"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="193"/>
-      <c r="AG11" s="194"/>
-      <c r="AH11" s="194"/>
-      <c r="AI11" s="195"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
+      <c r="AF11" s="233"/>
+      <c r="AG11" s="234"/>
+      <c r="AH11" s="234"/>
+      <c r="AI11" s="235"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -8102,40 +8102,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="193"/>
-      <c r="AG12" s="194"/>
-      <c r="AH12" s="194"/>
-      <c r="AI12" s="195"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="233"/>
+      <c r="AG12" s="234"/>
+      <c r="AH12" s="234"/>
+      <c r="AI12" s="235"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -8144,40 +8144,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="197"/>
-      <c r="V13" s="197"/>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="194"/>
-      <c r="AH13" s="194"/>
-      <c r="AI13" s="195"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="238"/>
+      <c r="S13" s="238"/>
+      <c r="T13" s="238"/>
+      <c r="U13" s="238"/>
+      <c r="V13" s="238"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="239"/>
+      <c r="AF13" s="233"/>
+      <c r="AG13" s="234"/>
+      <c r="AH13" s="234"/>
+      <c r="AI13" s="235"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -8186,40 +8186,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="194"/>
-      <c r="O14" s="194"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="194"/>
-      <c r="AH14" s="194"/>
-      <c r="AI14" s="195"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="234"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="238"/>
+      <c r="W14" s="238"/>
+      <c r="X14" s="238"/>
+      <c r="Y14" s="238"/>
+      <c r="Z14" s="238"/>
+      <c r="AA14" s="238"/>
+      <c r="AB14" s="238"/>
+      <c r="AC14" s="238"/>
+      <c r="AD14" s="238"/>
+      <c r="AE14" s="239"/>
+      <c r="AF14" s="233"/>
+      <c r="AG14" s="234"/>
+      <c r="AH14" s="234"/>
+      <c r="AI14" s="235"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -8228,40 +8228,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="207"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="195"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="194"/>
-      <c r="AH15" s="194"/>
-      <c r="AI15" s="195"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="238"/>
+      <c r="S15" s="238"/>
+      <c r="T15" s="238"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="238"/>
+      <c r="Y15" s="238"/>
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="238"/>
+      <c r="AB15" s="238"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="238"/>
+      <c r="AE15" s="239"/>
+      <c r="AF15" s="233"/>
+      <c r="AG15" s="234"/>
+      <c r="AH15" s="234"/>
+      <c r="AI15" s="235"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -8270,40 +8270,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="207"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="196"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="198"/>
-      <c r="AF16" s="193"/>
-      <c r="AG16" s="194"/>
-      <c r="AH16" s="194"/>
-      <c r="AI16" s="195"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="235"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="238"/>
+      <c r="S16" s="238"/>
+      <c r="T16" s="238"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="238"/>
+      <c r="Y16" s="238"/>
+      <c r="Z16" s="238"/>
+      <c r="AA16" s="238"/>
+      <c r="AB16" s="238"/>
+      <c r="AC16" s="238"/>
+      <c r="AD16" s="238"/>
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="233"/>
+      <c r="AG16" s="234"/>
+      <c r="AH16" s="234"/>
+      <c r="AI16" s="235"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -8312,40 +8312,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="195"/>
-      <c r="Q17" s="196"/>
-      <c r="R17" s="197"/>
-      <c r="S17" s="197"/>
-      <c r="T17" s="197"/>
-      <c r="U17" s="197"/>
-      <c r="V17" s="197"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="198"/>
-      <c r="AF17" s="193"/>
-      <c r="AG17" s="194"/>
-      <c r="AH17" s="194"/>
-      <c r="AI17" s="195"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="238"/>
+      <c r="S17" s="238"/>
+      <c r="T17" s="238"/>
+      <c r="U17" s="238"/>
+      <c r="V17" s="238"/>
+      <c r="W17" s="238"/>
+      <c r="X17" s="238"/>
+      <c r="Y17" s="238"/>
+      <c r="Z17" s="238"/>
+      <c r="AA17" s="238"/>
+      <c r="AB17" s="238"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="238"/>
+      <c r="AE17" s="239"/>
+      <c r="AF17" s="233"/>
+      <c r="AG17" s="234"/>
+      <c r="AH17" s="234"/>
+      <c r="AI17" s="235"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -8354,40 +8354,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="197"/>
-      <c r="AE18" s="198"/>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="194"/>
-      <c r="AH18" s="194"/>
-      <c r="AI18" s="195"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="238"/>
+      <c r="S18" s="238"/>
+      <c r="T18" s="238"/>
+      <c r="U18" s="238"/>
+      <c r="V18" s="238"/>
+      <c r="W18" s="238"/>
+      <c r="X18" s="238"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="238"/>
+      <c r="AA18" s="238"/>
+      <c r="AB18" s="238"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="238"/>
+      <c r="AE18" s="239"/>
+      <c r="AF18" s="233"/>
+      <c r="AG18" s="234"/>
+      <c r="AH18" s="234"/>
+      <c r="AI18" s="235"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -8396,40 +8396,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="197"/>
-      <c r="S19" s="197"/>
-      <c r="T19" s="197"/>
-      <c r="U19" s="197"/>
-      <c r="V19" s="197"/>
-      <c r="W19" s="197"/>
-      <c r="X19" s="197"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="197"/>
-      <c r="AC19" s="197"/>
-      <c r="AD19" s="197"/>
-      <c r="AE19" s="198"/>
-      <c r="AF19" s="193"/>
-      <c r="AG19" s="194"/>
-      <c r="AH19" s="194"/>
-      <c r="AI19" s="195"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="238"/>
+      <c r="S19" s="238"/>
+      <c r="T19" s="238"/>
+      <c r="U19" s="238"/>
+      <c r="V19" s="238"/>
+      <c r="W19" s="238"/>
+      <c r="X19" s="238"/>
+      <c r="Y19" s="238"/>
+      <c r="Z19" s="238"/>
+      <c r="AA19" s="238"/>
+      <c r="AB19" s="238"/>
+      <c r="AC19" s="238"/>
+      <c r="AD19" s="238"/>
+      <c r="AE19" s="239"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="234"/>
+      <c r="AH19" s="234"/>
+      <c r="AI19" s="235"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -8438,40 +8438,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195"/>
-      <c r="Q20" s="196"/>
-      <c r="R20" s="197"/>
-      <c r="S20" s="197"/>
-      <c r="T20" s="197"/>
-      <c r="U20" s="197"/>
-      <c r="V20" s="197"/>
-      <c r="W20" s="197"/>
-      <c r="X20" s="197"/>
-      <c r="Y20" s="197"/>
-      <c r="Z20" s="197"/>
-      <c r="AA20" s="197"/>
-      <c r="AB20" s="197"/>
-      <c r="AC20" s="197"/>
-      <c r="AD20" s="197"/>
-      <c r="AE20" s="198"/>
-      <c r="AF20" s="193"/>
-      <c r="AG20" s="194"/>
-      <c r="AH20" s="194"/>
-      <c r="AI20" s="195"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="238"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="238"/>
+      <c r="U20" s="238"/>
+      <c r="V20" s="238"/>
+      <c r="W20" s="238"/>
+      <c r="X20" s="238"/>
+      <c r="Y20" s="238"/>
+      <c r="Z20" s="238"/>
+      <c r="AA20" s="238"/>
+      <c r="AB20" s="238"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="238"/>
+      <c r="AE20" s="239"/>
+      <c r="AF20" s="233"/>
+      <c r="AG20" s="234"/>
+      <c r="AH20" s="234"/>
+      <c r="AI20" s="235"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8480,40 +8480,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="207"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="194"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="196"/>
-      <c r="R21" s="197"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="197"/>
-      <c r="U21" s="197"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
-      <c r="X21" s="197"/>
-      <c r="Y21" s="197"/>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="197"/>
-      <c r="AB21" s="197"/>
-      <c r="AC21" s="197"/>
-      <c r="AD21" s="197"/>
-      <c r="AE21" s="198"/>
-      <c r="AF21" s="193"/>
-      <c r="AG21" s="194"/>
-      <c r="AH21" s="194"/>
-      <c r="AI21" s="195"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="234"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="238"/>
+      <c r="S21" s="238"/>
+      <c r="T21" s="238"/>
+      <c r="U21" s="238"/>
+      <c r="V21" s="238"/>
+      <c r="W21" s="238"/>
+      <c r="X21" s="238"/>
+      <c r="Y21" s="238"/>
+      <c r="Z21" s="238"/>
+      <c r="AA21" s="238"/>
+      <c r="AB21" s="238"/>
+      <c r="AC21" s="238"/>
+      <c r="AD21" s="238"/>
+      <c r="AE21" s="239"/>
+      <c r="AF21" s="233"/>
+      <c r="AG21" s="234"/>
+      <c r="AH21" s="234"/>
+      <c r="AI21" s="235"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8522,40 +8522,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="196"/>
-      <c r="R22" s="197"/>
-      <c r="S22" s="197"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="197"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="197"/>
-      <c r="X22" s="197"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="197"/>
-      <c r="AC22" s="197"/>
-      <c r="AD22" s="197"/>
-      <c r="AE22" s="198"/>
-      <c r="AF22" s="193"/>
-      <c r="AG22" s="194"/>
-      <c r="AH22" s="194"/>
-      <c r="AI22" s="195"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="234"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="237"/>
+      <c r="R22" s="238"/>
+      <c r="S22" s="238"/>
+      <c r="T22" s="238"/>
+      <c r="U22" s="238"/>
+      <c r="V22" s="238"/>
+      <c r="W22" s="238"/>
+      <c r="X22" s="238"/>
+      <c r="Y22" s="238"/>
+      <c r="Z22" s="238"/>
+      <c r="AA22" s="238"/>
+      <c r="AB22" s="238"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="238"/>
+      <c r="AE22" s="239"/>
+      <c r="AF22" s="233"/>
+      <c r="AG22" s="234"/>
+      <c r="AH22" s="234"/>
+      <c r="AI22" s="235"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8564,40 +8564,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="194"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="197"/>
-      <c r="S23" s="197"/>
-      <c r="T23" s="197"/>
-      <c r="U23" s="197"/>
-      <c r="V23" s="197"/>
-      <c r="W23" s="197"/>
-      <c r="X23" s="197"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="197"/>
-      <c r="AA23" s="197"/>
-      <c r="AB23" s="197"/>
-      <c r="AC23" s="197"/>
-      <c r="AD23" s="197"/>
-      <c r="AE23" s="198"/>
-      <c r="AF23" s="193"/>
-      <c r="AG23" s="194"/>
-      <c r="AH23" s="194"/>
-      <c r="AI23" s="195"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="237"/>
+      <c r="R23" s="238"/>
+      <c r="S23" s="238"/>
+      <c r="T23" s="238"/>
+      <c r="U23" s="238"/>
+      <c r="V23" s="238"/>
+      <c r="W23" s="238"/>
+      <c r="X23" s="238"/>
+      <c r="Y23" s="238"/>
+      <c r="Z23" s="238"/>
+      <c r="AA23" s="238"/>
+      <c r="AB23" s="238"/>
+      <c r="AC23" s="238"/>
+      <c r="AD23" s="238"/>
+      <c r="AE23" s="239"/>
+      <c r="AF23" s="233"/>
+      <c r="AG23" s="234"/>
+      <c r="AH23" s="234"/>
+      <c r="AI23" s="235"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8606,40 +8606,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
-      <c r="N24" s="194"/>
-      <c r="O24" s="194"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="196"/>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197"/>
-      <c r="U24" s="197"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="197"/>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="197"/>
-      <c r="AC24" s="197"/>
-      <c r="AD24" s="197"/>
-      <c r="AE24" s="198"/>
-      <c r="AF24" s="193"/>
-      <c r="AG24" s="194"/>
-      <c r="AH24" s="194"/>
-      <c r="AI24" s="195"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="237"/>
+      <c r="R24" s="238"/>
+      <c r="S24" s="238"/>
+      <c r="T24" s="238"/>
+      <c r="U24" s="238"/>
+      <c r="V24" s="238"/>
+      <c r="W24" s="238"/>
+      <c r="X24" s="238"/>
+      <c r="Y24" s="238"/>
+      <c r="Z24" s="238"/>
+      <c r="AA24" s="238"/>
+      <c r="AB24" s="238"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="238"/>
+      <c r="AE24" s="239"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="234"/>
+      <c r="AH24" s="234"/>
+      <c r="AI24" s="235"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8648,40 +8648,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="207"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="194"/>
-      <c r="N25" s="194"/>
-      <c r="O25" s="194"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="197"/>
-      <c r="V25" s="197"/>
-      <c r="W25" s="197"/>
-      <c r="X25" s="197"/>
-      <c r="Y25" s="197"/>
-      <c r="Z25" s="197"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="197"/>
-      <c r="AC25" s="197"/>
-      <c r="AD25" s="197"/>
-      <c r="AE25" s="198"/>
-      <c r="AF25" s="193"/>
-      <c r="AG25" s="194"/>
-      <c r="AH25" s="194"/>
-      <c r="AI25" s="195"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="238"/>
+      <c r="V25" s="238"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
+      <c r="Y25" s="238"/>
+      <c r="Z25" s="238"/>
+      <c r="AA25" s="238"/>
+      <c r="AB25" s="238"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="238"/>
+      <c r="AE25" s="239"/>
+      <c r="AF25" s="233"/>
+      <c r="AG25" s="234"/>
+      <c r="AH25" s="234"/>
+      <c r="AI25" s="235"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8690,40 +8690,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="M26" s="194"/>
-      <c r="N26" s="194"/>
-      <c r="O26" s="194"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
-      <c r="W26" s="197"/>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="197"/>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="197"/>
-      <c r="AC26" s="197"/>
-      <c r="AD26" s="197"/>
-      <c r="AE26" s="198"/>
-      <c r="AF26" s="193"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="194"/>
-      <c r="AI26" s="195"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="237"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="238"/>
+      <c r="V26" s="238"/>
+      <c r="W26" s="238"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="238"/>
+      <c r="Z26" s="238"/>
+      <c r="AA26" s="238"/>
+      <c r="AB26" s="238"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="238"/>
+      <c r="AE26" s="239"/>
+      <c r="AF26" s="233"/>
+      <c r="AG26" s="234"/>
+      <c r="AH26" s="234"/>
+      <c r="AI26" s="235"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -8732,40 +8732,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="194"/>
-      <c r="M27" s="194"/>
-      <c r="N27" s="194"/>
-      <c r="O27" s="194"/>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="196"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="197"/>
-      <c r="AC27" s="197"/>
-      <c r="AD27" s="197"/>
-      <c r="AE27" s="198"/>
-      <c r="AF27" s="193"/>
-      <c r="AG27" s="194"/>
-      <c r="AH27" s="194"/>
-      <c r="AI27" s="195"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="234"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="237"/>
+      <c r="R27" s="238"/>
+      <c r="S27" s="238"/>
+      <c r="T27" s="238"/>
+      <c r="U27" s="238"/>
+      <c r="V27" s="238"/>
+      <c r="W27" s="238"/>
+      <c r="X27" s="238"/>
+      <c r="Y27" s="238"/>
+      <c r="Z27" s="238"/>
+      <c r="AA27" s="238"/>
+      <c r="AB27" s="238"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="238"/>
+      <c r="AE27" s="239"/>
+      <c r="AF27" s="233"/>
+      <c r="AG27" s="234"/>
+      <c r="AH27" s="234"/>
+      <c r="AI27" s="235"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -8774,40 +8774,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
-      <c r="N28" s="194"/>
-      <c r="O28" s="194"/>
-      <c r="P28" s="195"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="197"/>
-      <c r="T28" s="197"/>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="197"/>
-      <c r="X28" s="197"/>
-      <c r="Y28" s="197"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="197"/>
-      <c r="AC28" s="197"/>
-      <c r="AD28" s="197"/>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="194"/>
-      <c r="AH28" s="194"/>
-      <c r="AI28" s="195"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="235"/>
+      <c r="Q28" s="237"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="238"/>
+      <c r="U28" s="238"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
+      <c r="X28" s="238"/>
+      <c r="Y28" s="238"/>
+      <c r="Z28" s="238"/>
+      <c r="AA28" s="238"/>
+      <c r="AB28" s="238"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="238"/>
+      <c r="AE28" s="239"/>
+      <c r="AF28" s="233"/>
+      <c r="AG28" s="234"/>
+      <c r="AH28" s="234"/>
+      <c r="AI28" s="235"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -8816,40 +8816,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="195"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="197"/>
-      <c r="AC29" s="197"/>
-      <c r="AD29" s="197"/>
-      <c r="AE29" s="198"/>
-      <c r="AF29" s="193"/>
-      <c r="AG29" s="194"/>
-      <c r="AH29" s="194"/>
-      <c r="AI29" s="195"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="235"/>
+      <c r="Q29" s="237"/>
+      <c r="R29" s="238"/>
+      <c r="S29" s="238"/>
+      <c r="T29" s="238"/>
+      <c r="U29" s="238"/>
+      <c r="V29" s="238"/>
+      <c r="W29" s="238"/>
+      <c r="X29" s="238"/>
+      <c r="Y29" s="238"/>
+      <c r="Z29" s="238"/>
+      <c r="AA29" s="238"/>
+      <c r="AB29" s="238"/>
+      <c r="AC29" s="238"/>
+      <c r="AD29" s="238"/>
+      <c r="AE29" s="239"/>
+      <c r="AF29" s="233"/>
+      <c r="AG29" s="234"/>
+      <c r="AH29" s="234"/>
+      <c r="AI29" s="235"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -8858,40 +8858,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="194"/>
-      <c r="M30" s="194"/>
-      <c r="N30" s="194"/>
-      <c r="O30" s="194"/>
-      <c r="P30" s="195"/>
-      <c r="Q30" s="196"/>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="197"/>
-      <c r="U30" s="197"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="197"/>
-      <c r="X30" s="197"/>
-      <c r="Y30" s="197"/>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="197"/>
-      <c r="AB30" s="197"/>
-      <c r="AC30" s="197"/>
-      <c r="AD30" s="197"/>
-      <c r="AE30" s="198"/>
-      <c r="AF30" s="193"/>
-      <c r="AG30" s="194"/>
-      <c r="AH30" s="194"/>
-      <c r="AI30" s="195"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="234"/>
+      <c r="L30" s="234"/>
+      <c r="M30" s="234"/>
+      <c r="N30" s="234"/>
+      <c r="O30" s="234"/>
+      <c r="P30" s="235"/>
+      <c r="Q30" s="237"/>
+      <c r="R30" s="238"/>
+      <c r="S30" s="238"/>
+      <c r="T30" s="238"/>
+      <c r="U30" s="238"/>
+      <c r="V30" s="238"/>
+      <c r="W30" s="238"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="238"/>
+      <c r="Z30" s="238"/>
+      <c r="AA30" s="238"/>
+      <c r="AB30" s="238"/>
+      <c r="AC30" s="238"/>
+      <c r="AD30" s="238"/>
+      <c r="AE30" s="239"/>
+      <c r="AF30" s="233"/>
+      <c r="AG30" s="234"/>
+      <c r="AH30" s="234"/>
+      <c r="AI30" s="235"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -8900,40 +8900,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="207"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="194"/>
-      <c r="O31" s="194"/>
-      <c r="P31" s="195"/>
-      <c r="Q31" s="196"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
-      <c r="W31" s="197"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="197"/>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="197"/>
-      <c r="AC31" s="197"/>
-      <c r="AD31" s="197"/>
-      <c r="AE31" s="198"/>
-      <c r="AF31" s="193"/>
-      <c r="AG31" s="194"/>
-      <c r="AH31" s="194"/>
-      <c r="AI31" s="195"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="234"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="237"/>
+      <c r="R31" s="238"/>
+      <c r="S31" s="238"/>
+      <c r="T31" s="238"/>
+      <c r="U31" s="238"/>
+      <c r="V31" s="238"/>
+      <c r="W31" s="238"/>
+      <c r="X31" s="238"/>
+      <c r="Y31" s="238"/>
+      <c r="Z31" s="238"/>
+      <c r="AA31" s="238"/>
+      <c r="AB31" s="238"/>
+      <c r="AC31" s="238"/>
+      <c r="AD31" s="238"/>
+      <c r="AE31" s="239"/>
+      <c r="AF31" s="233"/>
+      <c r="AG31" s="234"/>
+      <c r="AH31" s="234"/>
+      <c r="AI31" s="235"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -8942,40 +8942,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
-      <c r="O32" s="194"/>
-      <c r="P32" s="195"/>
-      <c r="Q32" s="196"/>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="197"/>
-      <c r="U32" s="197"/>
-      <c r="V32" s="197"/>
-      <c r="W32" s="197"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="197"/>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="197"/>
-      <c r="AB32" s="197"/>
-      <c r="AC32" s="197"/>
-      <c r="AD32" s="197"/>
-      <c r="AE32" s="198"/>
-      <c r="AF32" s="193"/>
-      <c r="AG32" s="194"/>
-      <c r="AH32" s="194"/>
-      <c r="AI32" s="195"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
+      <c r="N32" s="234"/>
+      <c r="O32" s="234"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="237"/>
+      <c r="R32" s="238"/>
+      <c r="S32" s="238"/>
+      <c r="T32" s="238"/>
+      <c r="U32" s="238"/>
+      <c r="V32" s="238"/>
+      <c r="W32" s="238"/>
+      <c r="X32" s="238"/>
+      <c r="Y32" s="238"/>
+      <c r="Z32" s="238"/>
+      <c r="AA32" s="238"/>
+      <c r="AB32" s="238"/>
+      <c r="AC32" s="238"/>
+      <c r="AD32" s="238"/>
+      <c r="AE32" s="239"/>
+      <c r="AF32" s="233"/>
+      <c r="AG32" s="234"/>
+      <c r="AH32" s="234"/>
+      <c r="AI32" s="235"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -8984,40 +8984,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="207"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="194"/>
-      <c r="P33" s="195"/>
-      <c r="Q33" s="196"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
-      <c r="Y33" s="197"/>
-      <c r="Z33" s="197"/>
-      <c r="AA33" s="197"/>
-      <c r="AB33" s="197"/>
-      <c r="AC33" s="197"/>
-      <c r="AD33" s="197"/>
-      <c r="AE33" s="198"/>
-      <c r="AF33" s="193"/>
-      <c r="AG33" s="194"/>
-      <c r="AH33" s="194"/>
-      <c r="AI33" s="195"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="237"/>
+      <c r="R33" s="238"/>
+      <c r="S33" s="238"/>
+      <c r="T33" s="238"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="238"/>
+      <c r="W33" s="238"/>
+      <c r="X33" s="238"/>
+      <c r="Y33" s="238"/>
+      <c r="Z33" s="238"/>
+      <c r="AA33" s="238"/>
+      <c r="AB33" s="238"/>
+      <c r="AC33" s="238"/>
+      <c r="AD33" s="238"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="233"/>
+      <c r="AG33" s="234"/>
+      <c r="AH33" s="234"/>
+      <c r="AI33" s="235"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -9404,6 +9404,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9428,161 +9583,6 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9739,158 +9739,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="260" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="251" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="214" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="190" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="260" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="214" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="190" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="261">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="260" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="190" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -11404,14 +11404,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11421,6 +11413,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11447,158 +11447,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="260" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="251" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="214" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="190" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="260" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="214" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="190" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="261">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="260" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="190" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11614,86 +11614,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="206" t="s">
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="269"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="270"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="303"/>
+      <c r="P8" s="303"/>
+      <c r="Q8" s="303"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="303"/>
+      <c r="T8" s="303"/>
+      <c r="U8" s="303"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="303"/>
+      <c r="Z8" s="303"/>
+      <c r="AA8" s="303"/>
+      <c r="AB8" s="303"/>
+      <c r="AC8" s="303"/>
+      <c r="AD8" s="303"/>
+      <c r="AE8" s="303"/>
+      <c r="AF8" s="303"/>
+      <c r="AG8" s="303"/>
+      <c r="AH8" s="304"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="282" t="s">
+      <c r="D9" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="283"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="284"/>
-      <c r="H9" s="206" t="s">
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="241" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="269"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="269"/>
-      <c r="Q9" s="269"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="270"/>
+      <c r="I9" s="303"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="303"/>
+      <c r="L9" s="303"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="303"/>
+      <c r="P9" s="303"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="303"/>
+      <c r="S9" s="303"/>
+      <c r="T9" s="303"/>
+      <c r="U9" s="303"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
+      <c r="X9" s="303"/>
+      <c r="Y9" s="303"/>
+      <c r="Z9" s="303"/>
+      <c r="AA9" s="303"/>
+      <c r="AB9" s="303"/>
+      <c r="AC9" s="303"/>
+      <c r="AD9" s="303"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="303"/>
+      <c r="AH9" s="304"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="271" t="s">
+      <c r="D10" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="273"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="307"/>
       <c r="H10" s="108" t="s">
         <v>102</v>
       </c>
@@ -11725,10 +11725,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="285"/>
-      <c r="E11" s="286"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="287"/>
+      <c r="D11" s="319"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="321"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -11758,12 +11758,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="271" t="s">
+      <c r="D12" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
       <c r="H12" s="108" t="s">
         <v>104</v>
       </c>
@@ -11795,10 +11795,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="285"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="287"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="321"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -11828,10 +11828,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="274"/>
-      <c r="E14" s="275"/>
-      <c r="F14" s="275"/>
-      <c r="G14" s="276"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="310"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -11861,12 +11861,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="271" t="s">
+      <c r="D15" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="272"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="273"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="306"/>
+      <c r="G15" s="307"/>
       <c r="H15" s="108" t="s">
         <v>103</v>
       </c>
@@ -11898,10 +11898,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="274"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="276"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="310"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -11969,219 +11969,208 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="267" t="s">
+      <c r="D20" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="289" t="s">
+      <c r="E20" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="271" t="s">
+      <c r="F20" s="265"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="272"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
-      <c r="M20" s="272"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="273"/>
-      <c r="Q20" s="271" t="s">
+      <c r="J20" s="306"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="306"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="307"/>
+      <c r="Q20" s="305" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="273"/>
-      <c r="S20" s="279" t="s">
+      <c r="R20" s="307"/>
+      <c r="S20" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="280"/>
-      <c r="U20" s="280"/>
-      <c r="V20" s="281"/>
-      <c r="W20" s="289" t="s">
+      <c r="T20" s="314"/>
+      <c r="U20" s="314"/>
+      <c r="V20" s="315"/>
+      <c r="W20" s="264" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="290"/>
-      <c r="Y20" s="290"/>
-      <c r="Z20" s="290"/>
-      <c r="AA20" s="290"/>
-      <c r="AB20" s="290"/>
-      <c r="AC20" s="290"/>
-      <c r="AD20" s="290"/>
-      <c r="AE20" s="290"/>
-      <c r="AF20" s="290"/>
-      <c r="AG20" s="290"/>
-      <c r="AH20" s="291"/>
+      <c r="X20" s="265"/>
+      <c r="Y20" s="265"/>
+      <c r="Z20" s="265"/>
+      <c r="AA20" s="265"/>
+      <c r="AB20" s="265"/>
+      <c r="AC20" s="265"/>
+      <c r="AD20" s="265"/>
+      <c r="AE20" s="265"/>
+      <c r="AF20" s="265"/>
+      <c r="AG20" s="265"/>
+      <c r="AH20" s="266"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="268"/>
-      <c r="E21" s="292"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="274"/>
-      <c r="J21" s="275"/>
-      <c r="K21" s="275"/>
-      <c r="L21" s="275"/>
-      <c r="M21" s="275"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="275"/>
-      <c r="P21" s="276"/>
-      <c r="Q21" s="274"/>
-      <c r="R21" s="276"/>
-      <c r="S21" s="277" t="s">
+      <c r="D21" s="302"/>
+      <c r="E21" s="267"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="269"/>
+      <c r="I21" s="308"/>
+      <c r="J21" s="309"/>
+      <c r="K21" s="309"/>
+      <c r="L21" s="309"/>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309"/>
+      <c r="O21" s="309"/>
+      <c r="P21" s="310"/>
+      <c r="Q21" s="308"/>
+      <c r="R21" s="310"/>
+      <c r="S21" s="311" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="278"/>
-      <c r="U21" s="277" t="s">
+      <c r="T21" s="312"/>
+      <c r="U21" s="311" t="s">
         <v>94</v>
       </c>
-      <c r="V21" s="278"/>
-      <c r="W21" s="292"/>
-      <c r="X21" s="293"/>
-      <c r="Y21" s="293"/>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="293"/>
-      <c r="AB21" s="293"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="293"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="294"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="267"/>
+      <c r="X21" s="268"/>
+      <c r="Y21" s="268"/>
+      <c r="Z21" s="268"/>
+      <c r="AA21" s="268"/>
+      <c r="AB21" s="268"/>
+      <c r="AC21" s="268"/>
+      <c r="AD21" s="268"/>
+      <c r="AE21" s="268"/>
+      <c r="AF21" s="268"/>
+      <c r="AG21" s="268"/>
+      <c r="AH21" s="269"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="297">
+      <c r="D22" s="272">
         <v>1</v>
       </c>
-      <c r="E22" s="313" t="s">
+      <c r="E22" s="288" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="314"/>
-      <c r="G22" s="314"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="300" t="s">
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301"/>
-      <c r="L22" s="301"/>
-      <c r="M22" s="301"/>
-      <c r="N22" s="301"/>
-      <c r="O22" s="301"/>
-      <c r="P22" s="302"/>
-      <c r="Q22" s="202" t="s">
+      <c r="J22" s="276"/>
+      <c r="K22" s="276"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="276"/>
+      <c r="O22" s="276"/>
+      <c r="P22" s="277"/>
+      <c r="Q22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="204"/>
-      <c r="S22" s="202" t="s">
+      <c r="R22" s="215"/>
+      <c r="S22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="T22" s="204"/>
-      <c r="U22" s="202" t="s">
+      <c r="T22" s="215"/>
+      <c r="U22" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="204"/>
-      <c r="W22" s="295" t="s">
+      <c r="V22" s="215"/>
+      <c r="W22" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="296"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
-      <c r="AA22" s="296"/>
-      <c r="AB22" s="296"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="296"/>
-      <c r="AF22" s="296"/>
-      <c r="AG22" s="296"/>
-      <c r="AH22" s="296"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="298"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="317"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="303"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="304"/>
-      <c r="L23" s="304"/>
-      <c r="M23" s="304"/>
-      <c r="N23" s="304"/>
-      <c r="O23" s="304"/>
-      <c r="P23" s="305"/>
-      <c r="Q23" s="309"/>
-      <c r="R23" s="310"/>
-      <c r="S23" s="309"/>
-      <c r="T23" s="310"/>
-      <c r="U23" s="309"/>
-      <c r="V23" s="310"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
-      <c r="AA23" s="296"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="296"/>
-      <c r="AE23" s="296"/>
-      <c r="AF23" s="296"/>
-      <c r="AG23" s="296"/>
-      <c r="AH23" s="296"/>
+      <c r="D23" s="273"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="278"/>
+      <c r="J23" s="279"/>
+      <c r="K23" s="279"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
+      <c r="N23" s="279"/>
+      <c r="O23" s="279"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="284"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="284"/>
+      <c r="V23" s="285"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="299"/>
-      <c r="E24" s="319"/>
-      <c r="F24" s="320"/>
-      <c r="G24" s="320"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="306"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="307"/>
-      <c r="N24" s="307"/>
-      <c r="O24" s="307"/>
-      <c r="P24" s="308"/>
-      <c r="Q24" s="311"/>
-      <c r="R24" s="312"/>
-      <c r="S24" s="311"/>
-      <c r="T24" s="312"/>
-      <c r="U24" s="311"/>
-      <c r="V24" s="312"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="296"/>
-      <c r="Z24" s="296"/>
-      <c r="AA24" s="296"/>
-      <c r="AB24" s="296"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="296"/>
-      <c r="AE24" s="296"/>
-      <c r="AF24" s="296"/>
-      <c r="AG24" s="296"/>
-      <c r="AH24" s="296"/>
+      <c r="D24" s="274"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="282"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="282"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="282"/>
+      <c r="O24" s="282"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="286"/>
+      <c r="R24" s="287"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="287"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -12198,12 +12187,23 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12238,158 +12238,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="260" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="251" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="214" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="190" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="260" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="214" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="190" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="261">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="260" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="190" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12400,14 +12400,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12417,6 +12409,14 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12446,164 +12446,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="260" t="str">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="251" t="str">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="214" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="216"/>
-      <c r="AC1" s="190" t="str">
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="260" t="str">
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="214" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="190" t="str">
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="261">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="260" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="257"/>
-      <c r="T3" s="258"/>
-      <c r="U3" s="258"/>
-      <c r="V3" s="258"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="258"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="190" t="str">
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12623,117 +12623,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="352" t="s">
+      <c r="D10" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="353"/>
-      <c r="F10" s="353"/>
-      <c r="G10" s="353"/>
-      <c r="H10" s="354"/>
-      <c r="I10" s="205" t="s">
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AA10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197"/>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="198"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="238"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="238"/>
+      <c r="AF10" s="238"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="239"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="352" t="s">
+      <c r="D11" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="354"/>
-      <c r="I11" s="205" t="s">
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="333"/>
+      <c r="I11" s="240" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="197"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="197"/>
-      <c r="AE11" s="197"/>
-      <c r="AF11" s="197"/>
-      <c r="AG11" s="197"/>
-      <c r="AH11" s="198"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="238"/>
+      <c r="AF11" s="238"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="239"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="352" t="s">
+      <c r="D12" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="353"/>
-      <c r="F12" s="353"/>
-      <c r="G12" s="353"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="205" t="s">
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="333"/>
+      <c r="I12" s="240" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="198"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="238"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="239"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -12823,83 +12823,83 @@
       <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="340" t="s">
+      <c r="E22" s="351" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="341"/>
-      <c r="G22" s="342"/>
-      <c r="H22" s="343" t="s">
+      <c r="F22" s="352"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="344"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="282" t="s">
+      <c r="I22" s="355"/>
+      <c r="J22" s="356"/>
+      <c r="K22" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="283"/>
-      <c r="M22" s="283"/>
-      <c r="N22" s="283"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="283"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="283"/>
-      <c r="T22" s="283"/>
-      <c r="U22" s="283"/>
-      <c r="V22" s="283"/>
-      <c r="W22" s="283"/>
-      <c r="X22" s="283"/>
-      <c r="Y22" s="283"/>
-      <c r="Z22" s="283"/>
-      <c r="AA22" s="283"/>
-      <c r="AB22" s="283"/>
-      <c r="AC22" s="283"/>
-      <c r="AD22" s="283"/>
-      <c r="AE22" s="283"/>
-      <c r="AF22" s="283"/>
-      <c r="AG22" s="283"/>
-      <c r="AH22" s="284"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="317"/>
+      <c r="N22" s="317"/>
+      <c r="O22" s="317"/>
+      <c r="P22" s="317"/>
+      <c r="Q22" s="317"/>
+      <c r="R22" s="317"/>
+      <c r="S22" s="317"/>
+      <c r="T22" s="317"/>
+      <c r="U22" s="317"/>
+      <c r="V22" s="317"/>
+      <c r="W22" s="317"/>
+      <c r="X22" s="317"/>
+      <c r="Y22" s="317"/>
+      <c r="Z22" s="317"/>
+      <c r="AA22" s="317"/>
+      <c r="AB22" s="317"/>
+      <c r="AC22" s="317"/>
+      <c r="AD22" s="317"/>
+      <c r="AE22" s="317"/>
+      <c r="AF22" s="317"/>
+      <c r="AG22" s="317"/>
+      <c r="AH22" s="318"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="196">
+      <c r="E23" s="237">
         <v>0</v>
       </c>
-      <c r="F23" s="197"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="205" t="s">
+      <c r="F23" s="238"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="197"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="205" t="s">
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="240" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="338"/>
-      <c r="M23" s="338"/>
-      <c r="N23" s="338"/>
-      <c r="O23" s="338"/>
-      <c r="P23" s="338"/>
-      <c r="Q23" s="338"/>
-      <c r="R23" s="338"/>
-      <c r="S23" s="338"/>
-      <c r="T23" s="338"/>
-      <c r="U23" s="338"/>
-      <c r="V23" s="338"/>
-      <c r="W23" s="338"/>
-      <c r="X23" s="338"/>
-      <c r="Y23" s="338"/>
-      <c r="Z23" s="338"/>
-      <c r="AA23" s="338"/>
-      <c r="AB23" s="338"/>
-      <c r="AC23" s="338"/>
-      <c r="AD23" s="338"/>
-      <c r="AE23" s="338"/>
-      <c r="AF23" s="338"/>
-      <c r="AG23" s="338"/>
-      <c r="AH23" s="339"/>
+      <c r="L23" s="365"/>
+      <c r="M23" s="365"/>
+      <c r="N23" s="365"/>
+      <c r="O23" s="365"/>
+      <c r="P23" s="365"/>
+      <c r="Q23" s="365"/>
+      <c r="R23" s="365"/>
+      <c r="S23" s="365"/>
+      <c r="T23" s="365"/>
+      <c r="U23" s="365"/>
+      <c r="V23" s="365"/>
+      <c r="W23" s="365"/>
+      <c r="X23" s="365"/>
+      <c r="Y23" s="365"/>
+      <c r="Z23" s="365"/>
+      <c r="AA23" s="365"/>
+      <c r="AB23" s="365"/>
+      <c r="AC23" s="365"/>
+      <c r="AD23" s="365"/>
+      <c r="AE23" s="365"/>
+      <c r="AF23" s="365"/>
+      <c r="AG23" s="365"/>
+      <c r="AH23" s="366"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="41" t="s">
@@ -12907,7 +12907,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="346" t="s">
+      <c r="D28" s="367" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -12929,17 +12929,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="377" t="s">
+      <c r="T28" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="372" t="s">
+      <c r="U28" s="324" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="373"/>
-      <c r="W28" s="373"/>
-      <c r="X28" s="373"/>
-      <c r="Y28" s="373"/>
-      <c r="Z28" s="374"/>
+      <c r="V28" s="325"/>
+      <c r="W28" s="325"/>
+      <c r="X28" s="325"/>
+      <c r="Y28" s="325"/>
+      <c r="Z28" s="326"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -12952,7 +12952,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="347"/>
+      <c r="D29" s="368"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -12968,7 +12968,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="378"/>
+      <c r="T29" s="330"/>
       <c r="U29" s="45" t="s">
         <v>57</v>
       </c>
@@ -12981,10 +12981,10 @@
       <c r="X29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="370" t="s">
+      <c r="Y29" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="371"/>
+      <c r="Z29" s="323"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -13032,10 +13032,10 @@
       <c r="X30" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y30" s="375" t="s">
+      <c r="Y30" s="327" t="s">
         <v>93</v>
       </c>
-      <c r="Z30" s="376"/>
+      <c r="Z30" s="328"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -13083,10 +13083,10 @@
       <c r="X31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="375" t="s">
+      <c r="Y31" s="327" t="s">
         <v>93</v>
       </c>
-      <c r="Z31" s="376"/>
+      <c r="Z31" s="328"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -13110,101 +13110,101 @@
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="348" t="s">
+      <c r="E37" s="349" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="348"/>
-      <c r="G37" s="348"/>
-      <c r="H37" s="348"/>
-      <c r="I37" s="348"/>
-      <c r="J37" s="348"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="348"/>
-      <c r="M37" s="348"/>
-      <c r="N37" s="348"/>
-      <c r="O37" s="348"/>
-      <c r="P37" s="348"/>
-      <c r="Q37" s="348"/>
-      <c r="R37" s="348"/>
-      <c r="S37" s="348"/>
-      <c r="T37" s="348"/>
-      <c r="U37" s="348"/>
-      <c r="V37" s="348"/>
-      <c r="W37" s="348"/>
-      <c r="X37" s="348"/>
-      <c r="Y37" s="348"/>
-      <c r="Z37" s="348"/>
-      <c r="AA37" s="348"/>
-      <c r="AB37" s="348"/>
-      <c r="AC37" s="348"/>
-      <c r="AD37" s="348"/>
-      <c r="AE37" s="348"/>
-      <c r="AF37" s="348"/>
-      <c r="AG37" s="348"/>
-      <c r="AH37" s="348"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="349"/>
+      <c r="H37" s="349"/>
+      <c r="I37" s="349"/>
+      <c r="J37" s="349"/>
+      <c r="K37" s="349"/>
+      <c r="L37" s="349"/>
+      <c r="M37" s="349"/>
+      <c r="N37" s="349"/>
+      <c r="O37" s="349"/>
+      <c r="P37" s="349"/>
+      <c r="Q37" s="349"/>
+      <c r="R37" s="349"/>
+      <c r="S37" s="349"/>
+      <c r="T37" s="349"/>
+      <c r="U37" s="349"/>
+      <c r="V37" s="349"/>
+      <c r="W37" s="349"/>
+      <c r="X37" s="349"/>
+      <c r="Y37" s="349"/>
+      <c r="Z37" s="349"/>
+      <c r="AA37" s="349"/>
+      <c r="AB37" s="349"/>
+      <c r="AC37" s="349"/>
+      <c r="AD37" s="349"/>
+      <c r="AE37" s="349"/>
+      <c r="AF37" s="349"/>
+      <c r="AG37" s="349"/>
+      <c r="AH37" s="349"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="349" t="s">
+      <c r="E38" s="348" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="351" t="s">
+      <c r="F38" s="369" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="351"/>
-      <c r="H38" s="351"/>
-      <c r="I38" s="351"/>
-      <c r="J38" s="351"/>
-      <c r="K38" s="351"/>
-      <c r="L38" s="351" t="s">
+      <c r="G38" s="369"/>
+      <c r="H38" s="369"/>
+      <c r="I38" s="369"/>
+      <c r="J38" s="369"/>
+      <c r="K38" s="369"/>
+      <c r="L38" s="369" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="351"/>
-      <c r="N38" s="351"/>
-      <c r="O38" s="351"/>
-      <c r="P38" s="351"/>
-      <c r="Q38" s="364" t="s">
+      <c r="M38" s="369"/>
+      <c r="N38" s="369"/>
+      <c r="O38" s="369"/>
+      <c r="P38" s="369"/>
+      <c r="Q38" s="346" t="s">
         <v>39</v>
       </c>
-      <c r="R38" s="349" t="s">
+      <c r="R38" s="348" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="349"/>
-      <c r="T38" s="349"/>
-      <c r="U38" s="349"/>
-      <c r="V38" s="349"/>
-      <c r="W38" s="348" t="s">
+      <c r="S38" s="348"/>
+      <c r="T38" s="348"/>
+      <c r="U38" s="348"/>
+      <c r="V38" s="348"/>
+      <c r="W38" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="348"/>
-      <c r="Y38" s="348"/>
-      <c r="Z38" s="348"/>
-      <c r="AA38" s="348"/>
-      <c r="AB38" s="348"/>
-      <c r="AC38" s="348"/>
-      <c r="AD38" s="348"/>
-      <c r="AE38" s="348"/>
-      <c r="AF38" s="348"/>
-      <c r="AG38" s="348"/>
-      <c r="AH38" s="348"/>
+      <c r="X38" s="349"/>
+      <c r="Y38" s="349"/>
+      <c r="Z38" s="349"/>
+      <c r="AA38" s="349"/>
+      <c r="AB38" s="349"/>
+      <c r="AC38" s="349"/>
+      <c r="AD38" s="349"/>
+      <c r="AE38" s="349"/>
+      <c r="AF38" s="349"/>
+      <c r="AG38" s="349"/>
+      <c r="AH38" s="349"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="350"/>
-      <c r="F39" s="348"/>
-      <c r="G39" s="348"/>
-      <c r="H39" s="348"/>
-      <c r="I39" s="348"/>
-      <c r="J39" s="348"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
-      <c r="M39" s="348"/>
-      <c r="N39" s="348"/>
-      <c r="O39" s="348"/>
-      <c r="P39" s="348"/>
-      <c r="Q39" s="365"/>
+      <c r="F39" s="349"/>
+      <c r="G39" s="349"/>
+      <c r="H39" s="349"/>
+      <c r="I39" s="349"/>
+      <c r="J39" s="349"/>
+      <c r="K39" s="349"/>
+      <c r="L39" s="349"/>
+      <c r="M39" s="349"/>
+      <c r="N39" s="349"/>
+      <c r="O39" s="349"/>
+      <c r="P39" s="349"/>
+      <c r="Q39" s="347"/>
       <c r="R39" s="350" t="s">
         <v>40</v>
       </c>
@@ -13212,18 +13212,18 @@
       <c r="T39" s="350"/>
       <c r="U39" s="350"/>
       <c r="V39" s="350"/>
-      <c r="W39" s="348"/>
-      <c r="X39" s="348"/>
-      <c r="Y39" s="348"/>
-      <c r="Z39" s="348"/>
-      <c r="AA39" s="348"/>
-      <c r="AB39" s="348"/>
-      <c r="AC39" s="348"/>
-      <c r="AD39" s="348"/>
-      <c r="AE39" s="348"/>
-      <c r="AF39" s="348"/>
-      <c r="AG39" s="348"/>
-      <c r="AH39" s="348"/>
+      <c r="W39" s="349"/>
+      <c r="X39" s="349"/>
+      <c r="Y39" s="349"/>
+      <c r="Z39" s="349"/>
+      <c r="AA39" s="349"/>
+      <c r="AB39" s="349"/>
+      <c r="AC39" s="349"/>
+      <c r="AD39" s="349"/>
+      <c r="AE39" s="349"/>
+      <c r="AF39" s="349"/>
+      <c r="AG39" s="349"/>
+      <c r="AH39" s="349"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -13231,14 +13231,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="327" t="s">
+      <c r="F40" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="328"/>
-      <c r="H40" s="328"/>
-      <c r="I40" s="328"/>
-      <c r="J40" s="328"/>
-      <c r="K40" s="328"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362"/>
       <c r="L40" s="141" t="s">
         <v>117</v>
       </c>
@@ -13249,25 +13249,25 @@
       <c r="Q40" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R40" s="327" t="s">
+      <c r="R40" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S40" s="328"/>
-      <c r="T40" s="328"/>
-      <c r="U40" s="328"/>
-      <c r="V40" s="328"/>
-      <c r="W40" s="328"/>
-      <c r="X40" s="328"/>
-      <c r="Y40" s="328"/>
-      <c r="Z40" s="328"/>
-      <c r="AA40" s="328"/>
-      <c r="AB40" s="328"/>
-      <c r="AC40" s="328"/>
-      <c r="AD40" s="328"/>
-      <c r="AE40" s="328"/>
-      <c r="AF40" s="328"/>
-      <c r="AG40" s="328"/>
-      <c r="AH40" s="328"/>
+      <c r="S40" s="362"/>
+      <c r="T40" s="362"/>
+      <c r="U40" s="362"/>
+      <c r="V40" s="362"/>
+      <c r="W40" s="362"/>
+      <c r="X40" s="362"/>
+      <c r="Y40" s="362"/>
+      <c r="Z40" s="362"/>
+      <c r="AA40" s="362"/>
+      <c r="AB40" s="362"/>
+      <c r="AC40" s="362"/>
+      <c r="AD40" s="362"/>
+      <c r="AE40" s="362"/>
+      <c r="AF40" s="362"/>
+      <c r="AG40" s="362"/>
+      <c r="AH40" s="362"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -13275,14 +13275,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="327" t="s">
+      <c r="F41" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="328"/>
-      <c r="H41" s="328"/>
-      <c r="I41" s="328"/>
-      <c r="J41" s="328"/>
-      <c r="K41" s="328"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="362"/>
+      <c r="K41" s="362"/>
       <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
@@ -13293,25 +13293,25 @@
       <c r="Q41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R41" s="327" t="s">
+      <c r="R41" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S41" s="328"/>
-      <c r="T41" s="328"/>
-      <c r="U41" s="328"/>
-      <c r="V41" s="328"/>
-      <c r="W41" s="328"/>
-      <c r="X41" s="328"/>
-      <c r="Y41" s="328"/>
-      <c r="Z41" s="328"/>
-      <c r="AA41" s="328"/>
-      <c r="AB41" s="328"/>
-      <c r="AC41" s="328"/>
-      <c r="AD41" s="328"/>
-      <c r="AE41" s="328"/>
-      <c r="AF41" s="328"/>
-      <c r="AG41" s="328"/>
-      <c r="AH41" s="328"/>
+      <c r="S41" s="362"/>
+      <c r="T41" s="362"/>
+      <c r="U41" s="362"/>
+      <c r="V41" s="362"/>
+      <c r="W41" s="362"/>
+      <c r="X41" s="362"/>
+      <c r="Y41" s="362"/>
+      <c r="Z41" s="362"/>
+      <c r="AA41" s="362"/>
+      <c r="AB41" s="362"/>
+      <c r="AC41" s="362"/>
+      <c r="AD41" s="362"/>
+      <c r="AE41" s="362"/>
+      <c r="AF41" s="362"/>
+      <c r="AG41" s="362"/>
+      <c r="AH41" s="362"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -13319,14 +13319,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="327" t="s">
+      <c r="F42" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="328"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="362"/>
+      <c r="I42" s="362"/>
+      <c r="J42" s="362"/>
+      <c r="K42" s="362"/>
       <c r="L42" s="141" t="s">
         <v>119</v>
       </c>
@@ -13337,25 +13337,25 @@
       <c r="Q42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="327" t="s">
+      <c r="R42" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S42" s="328"/>
-      <c r="T42" s="328"/>
-      <c r="U42" s="328"/>
-      <c r="V42" s="328"/>
-      <c r="W42" s="328"/>
-      <c r="X42" s="328"/>
-      <c r="Y42" s="328"/>
-      <c r="Z42" s="328"/>
-      <c r="AA42" s="328"/>
-      <c r="AB42" s="328"/>
-      <c r="AC42" s="328"/>
-      <c r="AD42" s="328"/>
-      <c r="AE42" s="328"/>
-      <c r="AF42" s="328"/>
-      <c r="AG42" s="328"/>
-      <c r="AH42" s="328"/>
+      <c r="S42" s="362"/>
+      <c r="T42" s="362"/>
+      <c r="U42" s="362"/>
+      <c r="V42" s="362"/>
+      <c r="W42" s="362"/>
+      <c r="X42" s="362"/>
+      <c r="Y42" s="362"/>
+      <c r="Z42" s="362"/>
+      <c r="AA42" s="362"/>
+      <c r="AB42" s="362"/>
+      <c r="AC42" s="362"/>
+      <c r="AD42" s="362"/>
+      <c r="AE42" s="362"/>
+      <c r="AF42" s="362"/>
+      <c r="AG42" s="362"/>
+      <c r="AH42" s="362"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -13363,14 +13363,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="327" t="s">
+      <c r="F43" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="328"/>
-      <c r="H43" s="328"/>
-      <c r="I43" s="328"/>
-      <c r="J43" s="328"/>
-      <c r="K43" s="328"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="362"/>
+      <c r="K43" s="362"/>
       <c r="L43" s="141" t="s">
         <v>120</v>
       </c>
@@ -13381,25 +13381,25 @@
       <c r="Q43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R43" s="327" t="s">
+      <c r="R43" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="328"/>
-      <c r="T43" s="328"/>
-      <c r="U43" s="328"/>
-      <c r="V43" s="328"/>
-      <c r="W43" s="328"/>
-      <c r="X43" s="328"/>
-      <c r="Y43" s="328"/>
-      <c r="Z43" s="328"/>
-      <c r="AA43" s="328"/>
-      <c r="AB43" s="328"/>
-      <c r="AC43" s="328"/>
-      <c r="AD43" s="328"/>
-      <c r="AE43" s="328"/>
-      <c r="AF43" s="328"/>
-      <c r="AG43" s="328"/>
-      <c r="AH43" s="328"/>
+      <c r="S43" s="362"/>
+      <c r="T43" s="362"/>
+      <c r="U43" s="362"/>
+      <c r="V43" s="362"/>
+      <c r="W43" s="362"/>
+      <c r="X43" s="362"/>
+      <c r="Y43" s="362"/>
+      <c r="Z43" s="362"/>
+      <c r="AA43" s="362"/>
+      <c r="AB43" s="362"/>
+      <c r="AC43" s="362"/>
+      <c r="AD43" s="362"/>
+      <c r="AE43" s="362"/>
+      <c r="AF43" s="362"/>
+      <c r="AG43" s="362"/>
+      <c r="AH43" s="362"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -13407,14 +13407,14 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="327" t="s">
+      <c r="F44" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="328"/>
-      <c r="H44" s="328"/>
-      <c r="I44" s="328"/>
-      <c r="J44" s="328"/>
-      <c r="K44" s="328"/>
+      <c r="G44" s="362"/>
+      <c r="H44" s="362"/>
+      <c r="I44" s="362"/>
+      <c r="J44" s="362"/>
+      <c r="K44" s="362"/>
       <c r="L44" s="141" t="s">
         <v>127</v>
       </c>
@@ -13425,25 +13425,25 @@
       <c r="Q44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R44" s="327" t="s">
+      <c r="R44" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S44" s="328"/>
-      <c r="T44" s="328"/>
-      <c r="U44" s="328"/>
-      <c r="V44" s="328"/>
-      <c r="W44" s="328"/>
-      <c r="X44" s="328"/>
-      <c r="Y44" s="328"/>
-      <c r="Z44" s="328"/>
-      <c r="AA44" s="328"/>
-      <c r="AB44" s="328"/>
-      <c r="AC44" s="328"/>
-      <c r="AD44" s="328"/>
-      <c r="AE44" s="328"/>
-      <c r="AF44" s="328"/>
-      <c r="AG44" s="328"/>
-      <c r="AH44" s="328"/>
+      <c r="S44" s="362"/>
+      <c r="T44" s="362"/>
+      <c r="U44" s="362"/>
+      <c r="V44" s="362"/>
+      <c r="W44" s="362"/>
+      <c r="X44" s="362"/>
+      <c r="Y44" s="362"/>
+      <c r="Z44" s="362"/>
+      <c r="AA44" s="362"/>
+      <c r="AB44" s="362"/>
+      <c r="AC44" s="362"/>
+      <c r="AD44" s="362"/>
+      <c r="AE44" s="362"/>
+      <c r="AF44" s="362"/>
+      <c r="AG44" s="362"/>
+      <c r="AH44" s="362"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -13451,14 +13451,14 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="327" t="s">
+      <c r="F45" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="328"/>
-      <c r="H45" s="328"/>
-      <c r="I45" s="328"/>
-      <c r="J45" s="328"/>
-      <c r="K45" s="328"/>
+      <c r="G45" s="362"/>
+      <c r="H45" s="362"/>
+      <c r="I45" s="362"/>
+      <c r="J45" s="362"/>
+      <c r="K45" s="362"/>
       <c r="L45" s="141" t="s">
         <v>130</v>
       </c>
@@ -13469,25 +13469,25 @@
       <c r="Q45" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R45" s="327" t="s">
+      <c r="R45" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="328"/>
-      <c r="T45" s="328"/>
-      <c r="U45" s="328"/>
-      <c r="V45" s="328"/>
-      <c r="W45" s="328"/>
-      <c r="X45" s="328"/>
-      <c r="Y45" s="328"/>
-      <c r="Z45" s="328"/>
-      <c r="AA45" s="328"/>
-      <c r="AB45" s="328"/>
-      <c r="AC45" s="328"/>
-      <c r="AD45" s="328"/>
-      <c r="AE45" s="328"/>
-      <c r="AF45" s="328"/>
-      <c r="AG45" s="328"/>
-      <c r="AH45" s="328"/>
+      <c r="S45" s="362"/>
+      <c r="T45" s="362"/>
+      <c r="U45" s="362"/>
+      <c r="V45" s="362"/>
+      <c r="W45" s="362"/>
+      <c r="X45" s="362"/>
+      <c r="Y45" s="362"/>
+      <c r="Z45" s="362"/>
+      <c r="AA45" s="362"/>
+      <c r="AB45" s="362"/>
+      <c r="AC45" s="362"/>
+      <c r="AD45" s="362"/>
+      <c r="AE45" s="362"/>
+      <c r="AF45" s="362"/>
+      <c r="AG45" s="362"/>
+      <c r="AH45" s="362"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13495,14 +13495,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="327" t="s">
+      <c r="F46" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="328"/>
-      <c r="H46" s="328"/>
-      <c r="I46" s="328"/>
-      <c r="J46" s="328"/>
-      <c r="K46" s="328"/>
+      <c r="G46" s="362"/>
+      <c r="H46" s="362"/>
+      <c r="I46" s="362"/>
+      <c r="J46" s="362"/>
+      <c r="K46" s="362"/>
       <c r="L46" s="141" t="s">
         <v>121</v>
       </c>
@@ -13513,25 +13513,25 @@
       <c r="Q46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="327" t="s">
+      <c r="R46" s="361" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="328"/>
-      <c r="T46" s="328"/>
-      <c r="U46" s="328"/>
-      <c r="V46" s="328"/>
-      <c r="W46" s="328"/>
-      <c r="X46" s="328"/>
-      <c r="Y46" s="328"/>
-      <c r="Z46" s="328"/>
-      <c r="AA46" s="328"/>
-      <c r="AB46" s="328"/>
-      <c r="AC46" s="328"/>
-      <c r="AD46" s="328"/>
-      <c r="AE46" s="328"/>
-      <c r="AF46" s="328"/>
-      <c r="AG46" s="328"/>
-      <c r="AH46" s="328"/>
+      <c r="S46" s="362"/>
+      <c r="T46" s="362"/>
+      <c r="U46" s="362"/>
+      <c r="V46" s="362"/>
+      <c r="W46" s="362"/>
+      <c r="X46" s="362"/>
+      <c r="Y46" s="362"/>
+      <c r="Z46" s="362"/>
+      <c r="AA46" s="362"/>
+      <c r="AB46" s="362"/>
+      <c r="AC46" s="362"/>
+      <c r="AD46" s="362"/>
+      <c r="AE46" s="362"/>
+      <c r="AF46" s="362"/>
+      <c r="AG46" s="362"/>
+      <c r="AH46" s="362"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13539,14 +13539,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="327" t="s">
+      <c r="F47" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="328"/>
-      <c r="H47" s="328"/>
-      <c r="I47" s="328"/>
-      <c r="J47" s="328"/>
-      <c r="K47" s="328"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="362"/>
       <c r="L47" s="141" t="s">
         <v>122</v>
       </c>
@@ -13557,25 +13557,25 @@
       <c r="Q47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R47" s="327" t="s">
+      <c r="R47" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="328"/>
-      <c r="T47" s="328"/>
-      <c r="U47" s="328"/>
-      <c r="V47" s="328"/>
-      <c r="W47" s="328"/>
-      <c r="X47" s="328"/>
-      <c r="Y47" s="328"/>
-      <c r="Z47" s="328"/>
-      <c r="AA47" s="328"/>
-      <c r="AB47" s="328"/>
-      <c r="AC47" s="328"/>
-      <c r="AD47" s="328"/>
-      <c r="AE47" s="328"/>
-      <c r="AF47" s="328"/>
-      <c r="AG47" s="328"/>
-      <c r="AH47" s="328"/>
+      <c r="S47" s="362"/>
+      <c r="T47" s="362"/>
+      <c r="U47" s="362"/>
+      <c r="V47" s="362"/>
+      <c r="W47" s="362"/>
+      <c r="X47" s="362"/>
+      <c r="Y47" s="362"/>
+      <c r="Z47" s="362"/>
+      <c r="AA47" s="362"/>
+      <c r="AB47" s="362"/>
+      <c r="AC47" s="362"/>
+      <c r="AD47" s="362"/>
+      <c r="AE47" s="362"/>
+      <c r="AF47" s="362"/>
+      <c r="AG47" s="362"/>
+      <c r="AH47" s="362"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13583,14 +13583,14 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="327" t="s">
+      <c r="F48" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="328"/>
-      <c r="H48" s="328"/>
-      <c r="I48" s="328"/>
-      <c r="J48" s="328"/>
-      <c r="K48" s="328"/>
+      <c r="G48" s="362"/>
+      <c r="H48" s="362"/>
+      <c r="I48" s="362"/>
+      <c r="J48" s="362"/>
+      <c r="K48" s="362"/>
       <c r="L48" s="141" t="s">
         <v>184</v>
       </c>
@@ -13601,25 +13601,25 @@
       <c r="Q48" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="327" t="s">
+      <c r="R48" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="328"/>
-      <c r="T48" s="328"/>
-      <c r="U48" s="328"/>
-      <c r="V48" s="328"/>
-      <c r="W48" s="328"/>
-      <c r="X48" s="328"/>
-      <c r="Y48" s="328"/>
-      <c r="Z48" s="328"/>
-      <c r="AA48" s="328"/>
-      <c r="AB48" s="328"/>
-      <c r="AC48" s="328"/>
-      <c r="AD48" s="328"/>
-      <c r="AE48" s="328"/>
-      <c r="AF48" s="328"/>
-      <c r="AG48" s="328"/>
-      <c r="AH48" s="328"/>
+      <c r="S48" s="362"/>
+      <c r="T48" s="362"/>
+      <c r="U48" s="362"/>
+      <c r="V48" s="362"/>
+      <c r="W48" s="362"/>
+      <c r="X48" s="362"/>
+      <c r="Y48" s="362"/>
+      <c r="Z48" s="362"/>
+      <c r="AA48" s="362"/>
+      <c r="AB48" s="362"/>
+      <c r="AC48" s="362"/>
+      <c r="AD48" s="362"/>
+      <c r="AE48" s="362"/>
+      <c r="AF48" s="362"/>
+      <c r="AG48" s="362"/>
+      <c r="AH48" s="362"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13627,14 +13627,14 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="327" t="s">
+      <c r="F49" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="328"/>
-      <c r="H49" s="328"/>
-      <c r="I49" s="328"/>
-      <c r="J49" s="328"/>
-      <c r="K49" s="328"/>
+      <c r="G49" s="362"/>
+      <c r="H49" s="362"/>
+      <c r="I49" s="362"/>
+      <c r="J49" s="362"/>
+      <c r="K49" s="362"/>
       <c r="L49" s="141" t="s">
         <v>185</v>
       </c>
@@ -13645,25 +13645,25 @@
       <c r="Q49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="327" t="s">
+      <c r="R49" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="328"/>
-      <c r="T49" s="328"/>
-      <c r="U49" s="328"/>
-      <c r="V49" s="328"/>
-      <c r="W49" s="328"/>
-      <c r="X49" s="328"/>
-      <c r="Y49" s="328"/>
-      <c r="Z49" s="328"/>
-      <c r="AA49" s="328"/>
-      <c r="AB49" s="328"/>
-      <c r="AC49" s="328"/>
-      <c r="AD49" s="328"/>
-      <c r="AE49" s="328"/>
-      <c r="AF49" s="328"/>
-      <c r="AG49" s="328"/>
-      <c r="AH49" s="328"/>
+      <c r="S49" s="362"/>
+      <c r="T49" s="362"/>
+      <c r="U49" s="362"/>
+      <c r="V49" s="362"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="362"/>
+      <c r="Y49" s="362"/>
+      <c r="Z49" s="362"/>
+      <c r="AA49" s="362"/>
+      <c r="AB49" s="362"/>
+      <c r="AC49" s="362"/>
+      <c r="AD49" s="362"/>
+      <c r="AE49" s="362"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="362"/>
+      <c r="AH49" s="362"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13671,14 +13671,14 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="327" t="s">
+      <c r="F50" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
+      <c r="G50" s="362"/>
+      <c r="H50" s="362"/>
+      <c r="I50" s="362"/>
+      <c r="J50" s="362"/>
+      <c r="K50" s="362"/>
       <c r="L50" s="141" t="s">
         <v>125</v>
       </c>
@@ -13689,25 +13689,25 @@
       <c r="Q50" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R50" s="327" t="s">
+      <c r="R50" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="328"/>
-      <c r="T50" s="328"/>
-      <c r="U50" s="328"/>
-      <c r="V50" s="328"/>
-      <c r="W50" s="328"/>
-      <c r="X50" s="328"/>
-      <c r="Y50" s="328"/>
-      <c r="Z50" s="328"/>
-      <c r="AA50" s="328"/>
-      <c r="AB50" s="328"/>
-      <c r="AC50" s="328"/>
-      <c r="AD50" s="328"/>
-      <c r="AE50" s="328"/>
-      <c r="AF50" s="328"/>
-      <c r="AG50" s="328"/>
-      <c r="AH50" s="328"/>
+      <c r="S50" s="362"/>
+      <c r="T50" s="362"/>
+      <c r="U50" s="362"/>
+      <c r="V50" s="362"/>
+      <c r="W50" s="362"/>
+      <c r="X50" s="362"/>
+      <c r="Y50" s="362"/>
+      <c r="Z50" s="362"/>
+      <c r="AA50" s="362"/>
+      <c r="AB50" s="362"/>
+      <c r="AC50" s="362"/>
+      <c r="AD50" s="362"/>
+      <c r="AE50" s="362"/>
+      <c r="AF50" s="362"/>
+      <c r="AG50" s="362"/>
+      <c r="AH50" s="362"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -13715,14 +13715,14 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="327" t="s">
+      <c r="F51" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G51" s="328"/>
-      <c r="H51" s="328"/>
-      <c r="I51" s="328"/>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
+      <c r="G51" s="362"/>
+      <c r="H51" s="362"/>
+      <c r="I51" s="362"/>
+      <c r="J51" s="362"/>
+      <c r="K51" s="362"/>
       <c r="L51" s="141" t="s">
         <v>186</v>
       </c>
@@ -13733,25 +13733,25 @@
       <c r="Q51" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="327" t="s">
+      <c r="R51" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S51" s="328"/>
-      <c r="T51" s="328"/>
-      <c r="U51" s="328"/>
-      <c r="V51" s="328"/>
-      <c r="W51" s="328"/>
-      <c r="X51" s="328"/>
-      <c r="Y51" s="328"/>
-      <c r="Z51" s="328"/>
-      <c r="AA51" s="328"/>
-      <c r="AB51" s="328"/>
-      <c r="AC51" s="328"/>
-      <c r="AD51" s="328"/>
-      <c r="AE51" s="328"/>
-      <c r="AF51" s="328"/>
-      <c r="AG51" s="328"/>
-      <c r="AH51" s="328"/>
+      <c r="S51" s="362"/>
+      <c r="T51" s="362"/>
+      <c r="U51" s="362"/>
+      <c r="V51" s="362"/>
+      <c r="W51" s="362"/>
+      <c r="X51" s="362"/>
+      <c r="Y51" s="362"/>
+      <c r="Z51" s="362"/>
+      <c r="AA51" s="362"/>
+      <c r="AB51" s="362"/>
+      <c r="AC51" s="362"/>
+      <c r="AD51" s="362"/>
+      <c r="AE51" s="362"/>
+      <c r="AF51" s="362"/>
+      <c r="AG51" s="362"/>
+      <c r="AH51" s="362"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -13759,14 +13759,14 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="327" t="s">
+      <c r="F52" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="G52" s="328"/>
-      <c r="H52" s="328"/>
-      <c r="I52" s="328"/>
-      <c r="J52" s="328"/>
-      <c r="K52" s="328"/>
+      <c r="G52" s="362"/>
+      <c r="H52" s="362"/>
+      <c r="I52" s="362"/>
+      <c r="J52" s="362"/>
+      <c r="K52" s="362"/>
       <c r="L52" s="141" t="s">
         <v>126</v>
       </c>
@@ -13777,61 +13777,61 @@
       <c r="Q52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R52" s="327" t="s">
+      <c r="R52" s="361" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="328"/>
-      <c r="T52" s="328"/>
-      <c r="U52" s="328"/>
-      <c r="V52" s="328"/>
-      <c r="W52" s="328"/>
-      <c r="X52" s="328"/>
-      <c r="Y52" s="328"/>
-      <c r="Z52" s="328"/>
-      <c r="AA52" s="328"/>
-      <c r="AB52" s="328"/>
-      <c r="AC52" s="328"/>
-      <c r="AD52" s="328"/>
-      <c r="AE52" s="328"/>
-      <c r="AF52" s="328"/>
-      <c r="AG52" s="328"/>
-      <c r="AH52" s="328"/>
+      <c r="S52" s="362"/>
+      <c r="T52" s="362"/>
+      <c r="U52" s="362"/>
+      <c r="V52" s="362"/>
+      <c r="W52" s="362"/>
+      <c r="X52" s="362"/>
+      <c r="Y52" s="362"/>
+      <c r="Z52" s="362"/>
+      <c r="AA52" s="362"/>
+      <c r="AB52" s="362"/>
+      <c r="AC52" s="362"/>
+      <c r="AD52" s="362"/>
+      <c r="AE52" s="362"/>
+      <c r="AF52" s="362"/>
+      <c r="AG52" s="362"/>
+      <c r="AH52" s="362"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="279" t="s">
+      <c r="E53" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="280"/>
-      <c r="G53" s="280"/>
-      <c r="H53" s="280"/>
-      <c r="I53" s="280"/>
-      <c r="J53" s="280"/>
-      <c r="K53" s="280"/>
-      <c r="L53" s="280"/>
-      <c r="M53" s="280"/>
-      <c r="N53" s="280"/>
-      <c r="O53" s="280"/>
-      <c r="P53" s="280"/>
-      <c r="Q53" s="280"/>
-      <c r="R53" s="280"/>
-      <c r="S53" s="280"/>
-      <c r="T53" s="280"/>
-      <c r="U53" s="280"/>
-      <c r="V53" s="280"/>
-      <c r="W53" s="280"/>
-      <c r="X53" s="280"/>
-      <c r="Y53" s="280"/>
-      <c r="Z53" s="280"/>
-      <c r="AA53" s="280"/>
-      <c r="AB53" s="280"/>
-      <c r="AC53" s="280"/>
-      <c r="AD53" s="280"/>
-      <c r="AE53" s="280"/>
-      <c r="AF53" s="280"/>
-      <c r="AG53" s="280"/>
-      <c r="AH53" s="281"/>
+      <c r="F53" s="314"/>
+      <c r="G53" s="314"/>
+      <c r="H53" s="314"/>
+      <c r="I53" s="314"/>
+      <c r="J53" s="314"/>
+      <c r="K53" s="314"/>
+      <c r="L53" s="314"/>
+      <c r="M53" s="314"/>
+      <c r="N53" s="314"/>
+      <c r="O53" s="314"/>
+      <c r="P53" s="314"/>
+      <c r="Q53" s="314"/>
+      <c r="R53" s="314"/>
+      <c r="S53" s="314"/>
+      <c r="T53" s="314"/>
+      <c r="U53" s="314"/>
+      <c r="V53" s="314"/>
+      <c r="W53" s="314"/>
+      <c r="X53" s="314"/>
+      <c r="Y53" s="314"/>
+      <c r="Z53" s="314"/>
+      <c r="AA53" s="314"/>
+      <c r="AB53" s="314"/>
+      <c r="AC53" s="314"/>
+      <c r="AD53" s="314"/>
+      <c r="AE53" s="314"/>
+      <c r="AF53" s="314"/>
+      <c r="AG53" s="314"/>
+      <c r="AH53" s="315"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -14085,72 +14085,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="340" t="s">
+      <c r="E68" s="351" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="341"/>
-      <c r="G68" s="342"/>
-      <c r="H68" s="343" t="s">
+      <c r="F68" s="352"/>
+      <c r="G68" s="353"/>
+      <c r="H68" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="344"/>
-      <c r="J68" s="345"/>
-      <c r="K68" s="366" t="s">
+      <c r="I68" s="355"/>
+      <c r="J68" s="356"/>
+      <c r="K68" s="357" t="s">
         <v>132</v>
       </c>
-      <c r="L68" s="367"/>
-      <c r="M68" s="367"/>
-      <c r="N68" s="368"/>
-      <c r="O68" s="369" t="s">
+      <c r="L68" s="358"/>
+      <c r="M68" s="358"/>
+      <c r="N68" s="359"/>
+      <c r="O68" s="360" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="369"/>
-      <c r="Q68" s="369"/>
-      <c r="R68" s="369"/>
-      <c r="S68" s="369"/>
-      <c r="T68" s="369"/>
-      <c r="U68" s="369"/>
-      <c r="V68" s="369"/>
-      <c r="W68" s="369"/>
-      <c r="X68" s="369"/>
-      <c r="Y68" s="369"/>
-      <c r="Z68" s="369"/>
-      <c r="AA68" s="369"/>
-      <c r="AB68" s="369"/>
+      <c r="P68" s="360"/>
+      <c r="Q68" s="360"/>
+      <c r="R68" s="360"/>
+      <c r="S68" s="360"/>
+      <c r="T68" s="360"/>
+      <c r="U68" s="360"/>
+      <c r="V68" s="360"/>
+      <c r="W68" s="360"/>
+      <c r="X68" s="360"/>
+      <c r="Y68" s="360"/>
+      <c r="Z68" s="360"/>
+      <c r="AA68" s="360"/>
+      <c r="AB68" s="360"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="196">
+      <c r="E69" s="237">
         <v>0</v>
       </c>
-      <c r="F69" s="197"/>
-      <c r="G69" s="198"/>
-      <c r="H69" s="205" t="s">
+      <c r="F69" s="238"/>
+      <c r="G69" s="239"/>
+      <c r="H69" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="197"/>
-      <c r="J69" s="198"/>
-      <c r="K69" s="324" t="s">
+      <c r="I69" s="238"/>
+      <c r="J69" s="239"/>
+      <c r="K69" s="370" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="329"/>
-      <c r="M69" s="329"/>
-      <c r="N69" s="330"/>
-      <c r="O69" s="331" t="s">
+      <c r="L69" s="373"/>
+      <c r="M69" s="373"/>
+      <c r="N69" s="374"/>
+      <c r="O69" s="375" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="331"/>
-      <c r="Q69" s="331"/>
-      <c r="R69" s="331"/>
-      <c r="S69" s="331"/>
-      <c r="T69" s="331"/>
-      <c r="U69" s="331"/>
-      <c r="V69" s="331"/>
-      <c r="W69" s="331"/>
-      <c r="X69" s="331"/>
-      <c r="Y69" s="331"/>
-      <c r="Z69" s="331"/>
-      <c r="AA69" s="331"/>
-      <c r="AB69" s="331"/>
+      <c r="P69" s="375"/>
+      <c r="Q69" s="375"/>
+      <c r="R69" s="375"/>
+      <c r="S69" s="375"/>
+      <c r="T69" s="375"/>
+      <c r="U69" s="375"/>
+      <c r="V69" s="375"/>
+      <c r="W69" s="375"/>
+      <c r="X69" s="375"/>
+      <c r="Y69" s="375"/>
+      <c r="Z69" s="375"/>
+      <c r="AA69" s="375"/>
+      <c r="AB69" s="375"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -14456,43 +14456,43 @@
     <row r="83" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
-      <c r="F83" s="332" t="s">
+      <c r="F83" s="376" t="s">
         <v>137</v>
       </c>
-      <c r="G83" s="333"/>
-      <c r="H83" s="334"/>
-      <c r="I83" s="335" t="s">
+      <c r="G83" s="377"/>
+      <c r="H83" s="378"/>
+      <c r="I83" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="J83" s="336"/>
-      <c r="K83" s="336"/>
-      <c r="L83" s="336"/>
-      <c r="M83" s="337"/>
-      <c r="N83" s="332" t="s">
+      <c r="J83" s="335"/>
+      <c r="K83" s="335"/>
+      <c r="L83" s="335"/>
+      <c r="M83" s="336"/>
+      <c r="N83" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="333"/>
-      <c r="P83" s="334"/>
-      <c r="Q83" s="335" t="s">
+      <c r="O83" s="377"/>
+      <c r="P83" s="378"/>
+      <c r="Q83" s="334" t="s">
         <v>141</v>
       </c>
-      <c r="R83" s="336"/>
-      <c r="S83" s="336"/>
-      <c r="T83" s="336"/>
-      <c r="U83" s="336"/>
-      <c r="V83" s="336"/>
-      <c r="W83" s="336"/>
-      <c r="X83" s="336"/>
-      <c r="Y83" s="336"/>
-      <c r="Z83" s="336"/>
-      <c r="AA83" s="336"/>
-      <c r="AB83" s="336"/>
-      <c r="AC83" s="336"/>
-      <c r="AD83" s="336"/>
-      <c r="AE83" s="336"/>
-      <c r="AF83" s="336"/>
-      <c r="AG83" s="336"/>
-      <c r="AH83" s="337"/>
+      <c r="R83" s="335"/>
+      <c r="S83" s="335"/>
+      <c r="T83" s="335"/>
+      <c r="U83" s="335"/>
+      <c r="V83" s="335"/>
+      <c r="W83" s="335"/>
+      <c r="X83" s="335"/>
+      <c r="Y83" s="335"/>
+      <c r="Z83" s="335"/>
+      <c r="AA83" s="335"/>
+      <c r="AB83" s="335"/>
+      <c r="AC83" s="335"/>
+      <c r="AD83" s="335"/>
+      <c r="AE83" s="335"/>
+      <c r="AF83" s="335"/>
+      <c r="AG83" s="335"/>
+      <c r="AH83" s="336"/>
     </row>
     <row r="84" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="117"/>
@@ -14602,15 +14602,15 @@
     </row>
     <row r="87" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C87" s="41"/>
-      <c r="F87" s="355" t="s">
+      <c r="F87" s="337" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="357" t="s">
+      <c r="G87" s="339" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="357"/>
-      <c r="I87" s="357"/>
-      <c r="J87" s="357"/>
+      <c r="H87" s="339"/>
+      <c r="I87" s="339"/>
+      <c r="J87" s="339"/>
       <c r="K87" s="161" t="s">
         <v>96</v>
       </c>
@@ -14637,20 +14637,20 @@
       <c r="AB87" s="162"/>
       <c r="AC87" s="162"/>
       <c r="AD87" s="163"/>
-      <c r="AE87" s="358" t="s">
+      <c r="AE87" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="AF87" s="359"/>
-      <c r="AG87" s="359"/>
-      <c r="AH87" s="360"/>
+      <c r="AF87" s="341"/>
+      <c r="AG87" s="341"/>
+      <c r="AH87" s="342"/>
       <c r="AI87" s="113"/>
     </row>
     <row r="88" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F88" s="356"/>
-      <c r="G88" s="357"/>
-      <c r="H88" s="357"/>
-      <c r="I88" s="357"/>
-      <c r="J88" s="357"/>
+      <c r="F88" s="338"/>
+      <c r="G88" s="339"/>
+      <c r="H88" s="339"/>
+      <c r="I88" s="339"/>
+      <c r="J88" s="339"/>
       <c r="K88" s="164"/>
       <c r="L88" s="165"/>
       <c r="M88" s="165"/>
@@ -14675,10 +14675,10 @@
       <c r="AB88" s="165"/>
       <c r="AC88" s="165"/>
       <c r="AD88" s="166"/>
-      <c r="AE88" s="361"/>
-      <c r="AF88" s="362"/>
-      <c r="AG88" s="362"/>
-      <c r="AH88" s="363"/>
+      <c r="AE88" s="343"/>
+      <c r="AF88" s="344"/>
+      <c r="AG88" s="344"/>
+      <c r="AH88" s="345"/>
       <c r="AI88" s="113"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14699,13 +14699,13 @@
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="322" t="s">
+      <c r="Q89" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R89" s="323"/>
-      <c r="S89" s="323"/>
-      <c r="T89" s="323"/>
-      <c r="U89" s="323"/>
+      <c r="R89" s="364"/>
+      <c r="S89" s="364"/>
+      <c r="T89" s="364"/>
+      <c r="U89" s="364"/>
       <c r="V89" s="141" t="s">
         <v>117</v>
       </c>
@@ -14719,10 +14719,10 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="324"/>
-      <c r="AF89" s="325"/>
-      <c r="AG89" s="325"/>
-      <c r="AH89" s="326"/>
+      <c r="AE89" s="370"/>
+      <c r="AF89" s="371"/>
+      <c r="AG89" s="371"/>
+      <c r="AH89" s="372"/>
       <c r="AI89" s="113"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14743,13 +14743,13 @@
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="322" t="s">
+      <c r="Q90" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R90" s="323"/>
-      <c r="S90" s="323"/>
-      <c r="T90" s="323"/>
-      <c r="U90" s="323"/>
+      <c r="R90" s="364"/>
+      <c r="S90" s="364"/>
+      <c r="T90" s="364"/>
+      <c r="U90" s="364"/>
       <c r="V90" s="141" t="s">
         <v>118</v>
       </c>
@@ -14763,10 +14763,10 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="324"/>
-      <c r="AF90" s="325"/>
-      <c r="AG90" s="325"/>
-      <c r="AH90" s="326"/>
+      <c r="AE90" s="370"/>
+      <c r="AF90" s="371"/>
+      <c r="AG90" s="371"/>
+      <c r="AH90" s="372"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="112">
@@ -14786,13 +14786,13 @@
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="322" t="s">
+      <c r="Q91" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R91" s="323"/>
-      <c r="S91" s="323"/>
-      <c r="T91" s="323"/>
-      <c r="U91" s="323"/>
+      <c r="R91" s="364"/>
+      <c r="S91" s="364"/>
+      <c r="T91" s="364"/>
+      <c r="U91" s="364"/>
       <c r="V91" s="141" t="s">
         <v>119</v>
       </c>
@@ -14806,10 +14806,10 @@
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="324"/>
-      <c r="AF91" s="325"/>
-      <c r="AG91" s="325"/>
-      <c r="AH91" s="326"/>
+      <c r="AE91" s="370"/>
+      <c r="AF91" s="371"/>
+      <c r="AG91" s="371"/>
+      <c r="AH91" s="372"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
@@ -14829,13 +14829,13 @@
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="322" t="s">
+      <c r="Q92" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R92" s="323"/>
-      <c r="S92" s="323"/>
-      <c r="T92" s="323"/>
-      <c r="U92" s="323"/>
+      <c r="R92" s="364"/>
+      <c r="S92" s="364"/>
+      <c r="T92" s="364"/>
+      <c r="U92" s="364"/>
       <c r="V92" s="141" t="s">
         <v>120</v>
       </c>
@@ -14849,10 +14849,10 @@
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="324"/>
-      <c r="AF92" s="325"/>
-      <c r="AG92" s="325"/>
-      <c r="AH92" s="326"/>
+      <c r="AE92" s="370"/>
+      <c r="AF92" s="371"/>
+      <c r="AG92" s="371"/>
+      <c r="AH92" s="372"/>
       <c r="AI92" s="113"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14873,13 +14873,13 @@
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="322" t="s">
+      <c r="Q93" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R93" s="323"/>
-      <c r="S93" s="323"/>
-      <c r="T93" s="323"/>
-      <c r="U93" s="323"/>
+      <c r="R93" s="364"/>
+      <c r="S93" s="364"/>
+      <c r="T93" s="364"/>
+      <c r="U93" s="364"/>
       <c r="V93" s="141" t="s">
         <v>127</v>
       </c>
@@ -14893,10 +14893,10 @@
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="324"/>
-      <c r="AF93" s="325"/>
-      <c r="AG93" s="325"/>
-      <c r="AH93" s="326"/>
+      <c r="AE93" s="370"/>
+      <c r="AF93" s="371"/>
+      <c r="AG93" s="371"/>
+      <c r="AH93" s="372"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F94" s="112">
@@ -14916,13 +14916,13 @@
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="322" t="s">
+      <c r="Q94" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R94" s="323"/>
-      <c r="S94" s="323"/>
-      <c r="T94" s="323"/>
-      <c r="U94" s="323"/>
+      <c r="R94" s="364"/>
+      <c r="S94" s="364"/>
+      <c r="T94" s="364"/>
+      <c r="U94" s="364"/>
       <c r="V94" s="141" t="s">
         <v>130</v>
       </c>
@@ -14936,10 +14936,10 @@
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="324"/>
-      <c r="AF94" s="325"/>
-      <c r="AG94" s="325"/>
-      <c r="AH94" s="326"/>
+      <c r="AE94" s="370"/>
+      <c r="AF94" s="371"/>
+      <c r="AG94" s="371"/>
+      <c r="AH94" s="372"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
@@ -14959,13 +14959,13 @@
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="322" t="s">
+      <c r="Q95" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R95" s="323"/>
-      <c r="S95" s="323"/>
-      <c r="T95" s="323"/>
-      <c r="U95" s="323"/>
+      <c r="R95" s="364"/>
+      <c r="S95" s="364"/>
+      <c r="T95" s="364"/>
+      <c r="U95" s="364"/>
       <c r="V95" s="141" t="s">
         <v>121</v>
       </c>
@@ -14979,10 +14979,10 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="324"/>
-      <c r="AF95" s="325"/>
-      <c r="AG95" s="325"/>
-      <c r="AH95" s="326"/>
+      <c r="AE95" s="370"/>
+      <c r="AF95" s="371"/>
+      <c r="AG95" s="371"/>
+      <c r="AH95" s="372"/>
       <c r="AI95" s="113"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15003,13 +15003,13 @@
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="322" t="s">
+      <c r="Q96" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R96" s="323"/>
-      <c r="S96" s="323"/>
-      <c r="T96" s="323"/>
-      <c r="U96" s="323"/>
+      <c r="R96" s="364"/>
+      <c r="S96" s="364"/>
+      <c r="T96" s="364"/>
+      <c r="U96" s="364"/>
       <c r="V96" s="141" t="s">
         <v>122</v>
       </c>
@@ -15023,10 +15023,10 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="324"/>
-      <c r="AF96" s="325"/>
-      <c r="AG96" s="325"/>
-      <c r="AH96" s="326"/>
+      <c r="AE96" s="370"/>
+      <c r="AF96" s="371"/>
+      <c r="AG96" s="371"/>
+      <c r="AH96" s="372"/>
     </row>
     <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="112">
@@ -15046,13 +15046,13 @@
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="322" t="s">
+      <c r="Q97" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R97" s="323"/>
-      <c r="S97" s="323"/>
-      <c r="T97" s="323"/>
-      <c r="U97" s="323"/>
+      <c r="R97" s="364"/>
+      <c r="S97" s="364"/>
+      <c r="T97" s="364"/>
+      <c r="U97" s="364"/>
       <c r="V97" s="141" t="s">
         <v>184</v>
       </c>
@@ -15066,10 +15066,10 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="324"/>
-      <c r="AF97" s="325"/>
-      <c r="AG97" s="325"/>
-      <c r="AH97" s="326"/>
+      <c r="AE97" s="370"/>
+      <c r="AF97" s="371"/>
+      <c r="AG97" s="371"/>
+      <c r="AH97" s="372"/>
     </row>
     <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
@@ -15089,13 +15089,13 @@
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="322" t="s">
+      <c r="Q98" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R98" s="323"/>
-      <c r="S98" s="323"/>
-      <c r="T98" s="323"/>
-      <c r="U98" s="323"/>
+      <c r="R98" s="364"/>
+      <c r="S98" s="364"/>
+      <c r="T98" s="364"/>
+      <c r="U98" s="364"/>
       <c r="V98" s="141" t="s">
         <v>185</v>
       </c>
@@ -15109,10 +15109,10 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="324"/>
-      <c r="AF98" s="325"/>
-      <c r="AG98" s="325"/>
-      <c r="AH98" s="326"/>
+      <c r="AE98" s="370"/>
+      <c r="AF98" s="371"/>
+      <c r="AG98" s="371"/>
+      <c r="AH98" s="372"/>
       <c r="AI98" s="113"/>
     </row>
     <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15133,13 +15133,13 @@
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="322" t="s">
+      <c r="Q99" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R99" s="323"/>
-      <c r="S99" s="323"/>
-      <c r="T99" s="323"/>
-      <c r="U99" s="323"/>
+      <c r="R99" s="364"/>
+      <c r="S99" s="364"/>
+      <c r="T99" s="364"/>
+      <c r="U99" s="364"/>
       <c r="V99" s="141" t="s">
         <v>125</v>
       </c>
@@ -15153,10 +15153,10 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="324"/>
-      <c r="AF99" s="325"/>
-      <c r="AG99" s="325"/>
-      <c r="AH99" s="326"/>
+      <c r="AE99" s="370"/>
+      <c r="AF99" s="371"/>
+      <c r="AG99" s="371"/>
+      <c r="AH99" s="372"/>
     </row>
     <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F100" s="112">
@@ -15176,13 +15176,13 @@
       <c r="N100" s="159"/>
       <c r="O100" s="159"/>
       <c r="P100" s="160"/>
-      <c r="Q100" s="322" t="s">
+      <c r="Q100" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R100" s="323"/>
-      <c r="S100" s="323"/>
-      <c r="T100" s="323"/>
-      <c r="U100" s="323"/>
+      <c r="R100" s="364"/>
+      <c r="S100" s="364"/>
+      <c r="T100" s="364"/>
+      <c r="U100" s="364"/>
       <c r="V100" s="141" t="s">
         <v>186</v>
       </c>
@@ -15196,10 +15196,10 @@
       <c r="AB100" s="175"/>
       <c r="AC100" s="175"/>
       <c r="AD100" s="176"/>
-      <c r="AE100" s="324"/>
-      <c r="AF100" s="325"/>
-      <c r="AG100" s="325"/>
-      <c r="AH100" s="326"/>
+      <c r="AE100" s="370"/>
+      <c r="AF100" s="371"/>
+      <c r="AG100" s="371"/>
+      <c r="AH100" s="372"/>
     </row>
     <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="112">
@@ -15219,13 +15219,13 @@
       <c r="N101" s="159"/>
       <c r="O101" s="159"/>
       <c r="P101" s="160"/>
-      <c r="Q101" s="322" t="s">
+      <c r="Q101" s="363" t="s">
         <v>172</v>
       </c>
-      <c r="R101" s="323"/>
-      <c r="S101" s="323"/>
-      <c r="T101" s="323"/>
-      <c r="U101" s="323"/>
+      <c r="R101" s="364"/>
+      <c r="S101" s="364"/>
+      <c r="T101" s="364"/>
+      <c r="U101" s="364"/>
       <c r="V101" s="141" t="s">
         <v>126</v>
       </c>
@@ -15239,10 +15239,10 @@
       <c r="AB101" s="175"/>
       <c r="AC101" s="175"/>
       <c r="AD101" s="176"/>
-      <c r="AE101" s="324"/>
-      <c r="AF101" s="325"/>
-      <c r="AG101" s="325"/>
-      <c r="AH101" s="326"/>
+      <c r="AE101" s="370"/>
+      <c r="AF101" s="371"/>
+      <c r="AG101" s="371"/>
+      <c r="AH101" s="372"/>
       <c r="AI101" s="113"/>
     </row>
     <row r="104" spans="6:35" x14ac:dyDescent="0.15">
@@ -15284,16 +15284,96 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="AE101:AH101"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="R50:V50"/>
+    <mergeCell ref="W50:AH50"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="R48:V48"/>
+    <mergeCell ref="W48:AH48"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="R52:V52"/>
+    <mergeCell ref="W52:AH52"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="W51:AH51"/>
+    <mergeCell ref="E53:AH53"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="O69:AB69"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
+    <mergeCell ref="Q101:U101"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
@@ -15318,96 +15398,16 @@
     <mergeCell ref="F41:K41"/>
     <mergeCell ref="R41:V41"/>
     <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Q101:U101"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="AE101:AH101"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="R50:V50"/>
-    <mergeCell ref="W50:AH50"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="W48:AH48"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="R52:V52"/>
-    <mergeCell ref="W52:AH52"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="R51:V51"/>
-    <mergeCell ref="W51:AH51"/>
-    <mergeCell ref="E53:AH53"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:AB69"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D27CEC-B59B-4E73-ADA0-2FB5603C6CCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59463B6-FAA8-409A-B275-9A26AC1F2EB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,9 +1168,6 @@
     <t>顧客ID</t>
   </si>
   <si>
-    <t>プロジェクトマネージャー</t>
-  </si>
-  <si>
     <t>プロジェクトリーダー</t>
   </si>
   <si>
@@ -1569,6 +1566,9 @@
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャ</t>
   </si>
 </sst>
 </file>
@@ -2490,6 +2490,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2556,45 +2646,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2631,58 +2685,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2694,35 +2724,80 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2823,79 +2898,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2924,150 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6903,7 +6903,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="33"/>
       <c r="J23" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -7553,7 +7553,7 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -7563,57 +7563,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="248" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="184" t="s">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="229" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="242">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="184">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="244"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="186"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7621,53 +7621,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="248" t="s">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="242">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="184">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="243"/>
-      <c r="AI2" s="244"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7675,45 +7675,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="248" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="242"/>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="244"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="199" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="186"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7852,52 +7852,52 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="215"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="215"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7908,52 +7908,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="240"/>
+      <c r="D8" s="241">
         <v>43634</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221" t="s">
+      <c r="E8" s="242"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="227" t="s">
+      <c r="H8" s="244"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="230" t="s">
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="247"/>
+      <c r="Q8" s="248" t="s">
         <v>82</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="227" t="s">
+      <c r="R8" s="249"/>
+      <c r="S8" s="249"/>
+      <c r="T8" s="249"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="249"/>
+      <c r="W8" s="249"/>
+      <c r="X8" s="249"/>
+      <c r="Y8" s="249"/>
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="249"/>
+      <c r="AB8" s="249"/>
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="249"/>
+      <c r="AE8" s="250"/>
+      <c r="AF8" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="228"/>
-      <c r="AH8" s="228"/>
-      <c r="AI8" s="229"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="247"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -7964,52 +7964,52 @@
       <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="213" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="208"/>
+      <c r="D9" s="209">
+        <v>44796</v>
+      </c>
+      <c r="E9" s="210"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="210">
-        <v>44796</v>
-      </c>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="236" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="240" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="240" t="s">
-        <v>187</v>
-      </c>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="238"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="238"/>
-      <c r="AD9" s="238"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="241" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="235"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="205" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="205" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="198"/>
+      <c r="AF9" s="206" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="195"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -8018,40 +8018,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="238"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="238"/>
-      <c r="AE10" s="239"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="234"/>
-      <c r="AI10" s="235"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="195"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -8060,40 +8060,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="239"/>
-      <c r="AF11" s="233"/>
-      <c r="AG11" s="234"/>
-      <c r="AH11" s="234"/>
-      <c r="AI11" s="235"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="195"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -8102,40 +8102,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="233"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="195"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -8144,40 +8144,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="238"/>
-      <c r="S13" s="238"/>
-      <c r="T13" s="238"/>
-      <c r="U13" s="238"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="238"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="238"/>
-      <c r="AD13" s="238"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="233"/>
-      <c r="AG13" s="234"/>
-      <c r="AH13" s="234"/>
-      <c r="AI13" s="235"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="195"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -8186,40 +8186,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="238"/>
-      <c r="S14" s="238"/>
-      <c r="T14" s="238"/>
-      <c r="U14" s="238"/>
-      <c r="V14" s="238"/>
-      <c r="W14" s="238"/>
-      <c r="X14" s="238"/>
-      <c r="Y14" s="238"/>
-      <c r="Z14" s="238"/>
-      <c r="AA14" s="238"/>
-      <c r="AB14" s="238"/>
-      <c r="AC14" s="238"/>
-      <c r="AD14" s="238"/>
-      <c r="AE14" s="239"/>
-      <c r="AF14" s="233"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="234"/>
-      <c r="AI14" s="235"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="195"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -8228,40 +8228,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="238"/>
-      <c r="S15" s="238"/>
-      <c r="T15" s="238"/>
-      <c r="U15" s="238"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="238"/>
-      <c r="Y15" s="238"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="238"/>
-      <c r="AB15" s="238"/>
-      <c r="AC15" s="238"/>
-      <c r="AD15" s="238"/>
-      <c r="AE15" s="239"/>
-      <c r="AF15" s="233"/>
-      <c r="AG15" s="234"/>
-      <c r="AH15" s="234"/>
-      <c r="AI15" s="235"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="195"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -8270,40 +8270,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="238"/>
-      <c r="S16" s="238"/>
-      <c r="T16" s="238"/>
-      <c r="U16" s="238"/>
-      <c r="V16" s="238"/>
-      <c r="W16" s="238"/>
-      <c r="X16" s="238"/>
-      <c r="Y16" s="238"/>
-      <c r="Z16" s="238"/>
-      <c r="AA16" s="238"/>
-      <c r="AB16" s="238"/>
-      <c r="AC16" s="238"/>
-      <c r="AD16" s="238"/>
-      <c r="AE16" s="239"/>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="234"/>
-      <c r="AH16" s="234"/>
-      <c r="AI16" s="235"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="196"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="198"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="195"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -8312,40 +8312,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="238"/>
-      <c r="T17" s="238"/>
-      <c r="U17" s="238"/>
-      <c r="V17" s="238"/>
-      <c r="W17" s="238"/>
-      <c r="X17" s="238"/>
-      <c r="Y17" s="238"/>
-      <c r="Z17" s="238"/>
-      <c r="AA17" s="238"/>
-      <c r="AB17" s="238"/>
-      <c r="AC17" s="238"/>
-      <c r="AD17" s="238"/>
-      <c r="AE17" s="239"/>
-      <c r="AF17" s="233"/>
-      <c r="AG17" s="234"/>
-      <c r="AH17" s="234"/>
-      <c r="AI17" s="235"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="197"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="198"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="195"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -8354,40 +8354,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="237"/>
-      <c r="R18" s="238"/>
-      <c r="S18" s="238"/>
-      <c r="T18" s="238"/>
-      <c r="U18" s="238"/>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
-      <c r="X18" s="238"/>
-      <c r="Y18" s="238"/>
-      <c r="Z18" s="238"/>
-      <c r="AA18" s="238"/>
-      <c r="AB18" s="238"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="238"/>
-      <c r="AE18" s="239"/>
-      <c r="AF18" s="233"/>
-      <c r="AG18" s="234"/>
-      <c r="AH18" s="234"/>
-      <c r="AI18" s="235"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="195"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -8396,40 +8396,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="237"/>
-      <c r="R19" s="238"/>
-      <c r="S19" s="238"/>
-      <c r="T19" s="238"/>
-      <c r="U19" s="238"/>
-      <c r="V19" s="238"/>
-      <c r="W19" s="238"/>
-      <c r="X19" s="238"/>
-      <c r="Y19" s="238"/>
-      <c r="Z19" s="238"/>
-      <c r="AA19" s="238"/>
-      <c r="AB19" s="238"/>
-      <c r="AC19" s="238"/>
-      <c r="AD19" s="238"/>
-      <c r="AE19" s="239"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="234"/>
-      <c r="AH19" s="234"/>
-      <c r="AI19" s="235"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="197"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="197"/>
+      <c r="AD19" s="197"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="194"/>
+      <c r="AI19" s="195"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -8438,40 +8438,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="237"/>
-      <c r="R20" s="238"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="238"/>
-      <c r="U20" s="238"/>
-      <c r="V20" s="238"/>
-      <c r="W20" s="238"/>
-      <c r="X20" s="238"/>
-      <c r="Y20" s="238"/>
-      <c r="Z20" s="238"/>
-      <c r="AA20" s="238"/>
-      <c r="AB20" s="238"/>
-      <c r="AC20" s="238"/>
-      <c r="AD20" s="238"/>
-      <c r="AE20" s="239"/>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="234"/>
-      <c r="AH20" s="234"/>
-      <c r="AI20" s="235"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="197"/>
+      <c r="S20" s="197"/>
+      <c r="T20" s="197"/>
+      <c r="U20" s="197"/>
+      <c r="V20" s="197"/>
+      <c r="W20" s="197"/>
+      <c r="X20" s="197"/>
+      <c r="Y20" s="197"/>
+      <c r="Z20" s="197"/>
+      <c r="AA20" s="197"/>
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="197"/>
+      <c r="AE20" s="198"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="194"/>
+      <c r="AI20" s="195"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8480,40 +8480,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="237"/>
-      <c r="R21" s="238"/>
-      <c r="S21" s="238"/>
-      <c r="T21" s="238"/>
-      <c r="U21" s="238"/>
-      <c r="V21" s="238"/>
-      <c r="W21" s="238"/>
-      <c r="X21" s="238"/>
-      <c r="Y21" s="238"/>
-      <c r="Z21" s="238"/>
-      <c r="AA21" s="238"/>
-      <c r="AB21" s="238"/>
-      <c r="AC21" s="238"/>
-      <c r="AD21" s="238"/>
-      <c r="AE21" s="239"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="234"/>
-      <c r="AH21" s="234"/>
-      <c r="AI21" s="235"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
+      <c r="W21" s="197"/>
+      <c r="X21" s="197"/>
+      <c r="Y21" s="197"/>
+      <c r="Z21" s="197"/>
+      <c r="AA21" s="197"/>
+      <c r="AB21" s="197"/>
+      <c r="AC21" s="197"/>
+      <c r="AD21" s="197"/>
+      <c r="AE21" s="198"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="194"/>
+      <c r="AI21" s="195"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8522,40 +8522,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="237"/>
-      <c r="R22" s="238"/>
-      <c r="S22" s="238"/>
-      <c r="T22" s="238"/>
-      <c r="U22" s="238"/>
-      <c r="V22" s="238"/>
-      <c r="W22" s="238"/>
-      <c r="X22" s="238"/>
-      <c r="Y22" s="238"/>
-      <c r="Z22" s="238"/>
-      <c r="AA22" s="238"/>
-      <c r="AB22" s="238"/>
-      <c r="AC22" s="238"/>
-      <c r="AD22" s="238"/>
-      <c r="AE22" s="239"/>
-      <c r="AF22" s="233"/>
-      <c r="AG22" s="234"/>
-      <c r="AH22" s="234"/>
-      <c r="AI22" s="235"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="197"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="197"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="197"/>
+      <c r="AB22" s="197"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="197"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
+      <c r="AH22" s="194"/>
+      <c r="AI22" s="195"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8564,40 +8564,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="237"/>
-      <c r="R23" s="238"/>
-      <c r="S23" s="238"/>
-      <c r="T23" s="238"/>
-      <c r="U23" s="238"/>
-      <c r="V23" s="238"/>
-      <c r="W23" s="238"/>
-      <c r="X23" s="238"/>
-      <c r="Y23" s="238"/>
-      <c r="Z23" s="238"/>
-      <c r="AA23" s="238"/>
-      <c r="AB23" s="238"/>
-      <c r="AC23" s="238"/>
-      <c r="AD23" s="238"/>
-      <c r="AE23" s="239"/>
-      <c r="AF23" s="233"/>
-      <c r="AG23" s="234"/>
-      <c r="AH23" s="234"/>
-      <c r="AI23" s="235"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
+      <c r="T23" s="197"/>
+      <c r="U23" s="197"/>
+      <c r="V23" s="197"/>
+      <c r="W23" s="197"/>
+      <c r="X23" s="197"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="197"/>
+      <c r="AA23" s="197"/>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="197"/>
+      <c r="AD23" s="197"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="194"/>
+      <c r="AI23" s="195"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8606,40 +8606,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="237"/>
-      <c r="R24" s="238"/>
-      <c r="S24" s="238"/>
-      <c r="T24" s="238"/>
-      <c r="U24" s="238"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="238"/>
-      <c r="X24" s="238"/>
-      <c r="Y24" s="238"/>
-      <c r="Z24" s="238"/>
-      <c r="AA24" s="238"/>
-      <c r="AB24" s="238"/>
-      <c r="AC24" s="238"/>
-      <c r="AD24" s="238"/>
-      <c r="AE24" s="239"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="234"/>
-      <c r="AH24" s="234"/>
-      <c r="AI24" s="235"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="196"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="197"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="194"/>
+      <c r="AI24" s="195"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8648,40 +8648,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="237"/>
-      <c r="R25" s="238"/>
-      <c r="S25" s="238"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="238"/>
-      <c r="V25" s="238"/>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="238"/>
-      <c r="Z25" s="238"/>
-      <c r="AA25" s="238"/>
-      <c r="AB25" s="238"/>
-      <c r="AC25" s="238"/>
-      <c r="AD25" s="238"/>
-      <c r="AE25" s="239"/>
-      <c r="AF25" s="233"/>
-      <c r="AG25" s="234"/>
-      <c r="AH25" s="234"/>
-      <c r="AI25" s="235"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
+      <c r="AB25" s="197"/>
+      <c r="AC25" s="197"/>
+      <c r="AD25" s="197"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="194"/>
+      <c r="AI25" s="195"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8690,40 +8690,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="237"/>
-      <c r="R26" s="238"/>
-      <c r="S26" s="238"/>
-      <c r="T26" s="238"/>
-      <c r="U26" s="238"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="238"/>
-      <c r="Z26" s="238"/>
-      <c r="AA26" s="238"/>
-      <c r="AB26" s="238"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="238"/>
-      <c r="AE26" s="239"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="234"/>
-      <c r="AH26" s="234"/>
-      <c r="AI26" s="235"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="197"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="197"/>
+      <c r="AC26" s="197"/>
+      <c r="AD26" s="197"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194"/>
+      <c r="AI26" s="195"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -8732,40 +8732,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="234"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="237"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="238"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
-      <c r="X27" s="238"/>
-      <c r="Y27" s="238"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="238"/>
-      <c r="AB27" s="238"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="238"/>
-      <c r="AE27" s="239"/>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="234"/>
-      <c r="AH27" s="234"/>
-      <c r="AI27" s="235"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="197"/>
+      <c r="Y27" s="197"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="197"/>
+      <c r="AC27" s="197"/>
+      <c r="AD27" s="197"/>
+      <c r="AE27" s="198"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="195"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -8774,40 +8774,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="235"/>
-      <c r="Q28" s="237"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="238"/>
-      <c r="T28" s="238"/>
-      <c r="U28" s="238"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
-      <c r="X28" s="238"/>
-      <c r="Y28" s="238"/>
-      <c r="Z28" s="238"/>
-      <c r="AA28" s="238"/>
-      <c r="AB28" s="238"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="238"/>
-      <c r="AE28" s="239"/>
-      <c r="AF28" s="233"/>
-      <c r="AG28" s="234"/>
-      <c r="AH28" s="234"/>
-      <c r="AI28" s="235"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="197"/>
+      <c r="AC28" s="197"/>
+      <c r="AD28" s="197"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AH28" s="194"/>
+      <c r="AI28" s="195"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -8816,40 +8816,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="235"/>
-      <c r="Q29" s="237"/>
-      <c r="R29" s="238"/>
-      <c r="S29" s="238"/>
-      <c r="T29" s="238"/>
-      <c r="U29" s="238"/>
-      <c r="V29" s="238"/>
-      <c r="W29" s="238"/>
-      <c r="X29" s="238"/>
-      <c r="Y29" s="238"/>
-      <c r="Z29" s="238"/>
-      <c r="AA29" s="238"/>
-      <c r="AB29" s="238"/>
-      <c r="AC29" s="238"/>
-      <c r="AD29" s="238"/>
-      <c r="AE29" s="239"/>
-      <c r="AF29" s="233"/>
-      <c r="AG29" s="234"/>
-      <c r="AH29" s="234"/>
-      <c r="AI29" s="235"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="197"/>
+      <c r="AC29" s="197"/>
+      <c r="AD29" s="197"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="195"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -8858,40 +8858,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="234"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="237"/>
-      <c r="R30" s="238"/>
-      <c r="S30" s="238"/>
-      <c r="T30" s="238"/>
-      <c r="U30" s="238"/>
-      <c r="V30" s="238"/>
-      <c r="W30" s="238"/>
-      <c r="X30" s="238"/>
-      <c r="Y30" s="238"/>
-      <c r="Z30" s="238"/>
-      <c r="AA30" s="238"/>
-      <c r="AB30" s="238"/>
-      <c r="AC30" s="238"/>
-      <c r="AD30" s="238"/>
-      <c r="AE30" s="239"/>
-      <c r="AF30" s="233"/>
-      <c r="AG30" s="234"/>
-      <c r="AH30" s="234"/>
-      <c r="AI30" s="235"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="197"/>
+      <c r="AC30" s="197"/>
+      <c r="AD30" s="197"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="195"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -8900,40 +8900,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="234"/>
-      <c r="P31" s="235"/>
-      <c r="Q31" s="237"/>
-      <c r="R31" s="238"/>
-      <c r="S31" s="238"/>
-      <c r="T31" s="238"/>
-      <c r="U31" s="238"/>
-      <c r="V31" s="238"/>
-      <c r="W31" s="238"/>
-      <c r="X31" s="238"/>
-      <c r="Y31" s="238"/>
-      <c r="Z31" s="238"/>
-      <c r="AA31" s="238"/>
-      <c r="AB31" s="238"/>
-      <c r="AC31" s="238"/>
-      <c r="AD31" s="238"/>
-      <c r="AE31" s="239"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="234"/>
-      <c r="AH31" s="234"/>
-      <c r="AI31" s="235"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="197"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="197"/>
+      <c r="AC31" s="197"/>
+      <c r="AD31" s="197"/>
+      <c r="AE31" s="198"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="195"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -8942,40 +8942,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="235"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="238"/>
-      <c r="S32" s="238"/>
-      <c r="T32" s="238"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="238"/>
-      <c r="W32" s="238"/>
-      <c r="X32" s="238"/>
-      <c r="Y32" s="238"/>
-      <c r="Z32" s="238"/>
-      <c r="AA32" s="238"/>
-      <c r="AB32" s="238"/>
-      <c r="AC32" s="238"/>
-      <c r="AD32" s="238"/>
-      <c r="AE32" s="239"/>
-      <c r="AF32" s="233"/>
-      <c r="AG32" s="234"/>
-      <c r="AH32" s="234"/>
-      <c r="AI32" s="235"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="196"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="197"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
+      <c r="AB32" s="197"/>
+      <c r="AC32" s="197"/>
+      <c r="AD32" s="197"/>
+      <c r="AE32" s="198"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="195"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -8984,40 +8984,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="238"/>
-      <c r="S33" s="238"/>
-      <c r="T33" s="238"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="238"/>
-      <c r="W33" s="238"/>
-      <c r="X33" s="238"/>
-      <c r="Y33" s="238"/>
-      <c r="Z33" s="238"/>
-      <c r="AA33" s="238"/>
-      <c r="AB33" s="238"/>
-      <c r="AC33" s="238"/>
-      <c r="AD33" s="238"/>
-      <c r="AE33" s="239"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="234"/>
-      <c r="AH33" s="234"/>
-      <c r="AI33" s="235"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
+      <c r="Y33" s="197"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
+      <c r="AB33" s="197"/>
+      <c r="AC33" s="197"/>
+      <c r="AD33" s="197"/>
+      <c r="AE33" s="198"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -9404,161 +9404,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9583,6 +9428,161 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9739,158 +9739,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -10200,7 +10200,7 @@
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="18"/>
@@ -10539,7 +10539,7 @@
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="105"/>
       <c r="D21" s="104"/>
@@ -10579,7 +10579,7 @@
       <c r="A22" s="18"/>
       <c r="B22" s="104"/>
       <c r="C22" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="104"/>
       <c r="E22" s="48"/>
@@ -10618,7 +10618,7 @@
       <c r="A23" s="18"/>
       <c r="B23" s="106"/>
       <c r="C23" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="107"/>
       <c r="E23" s="48"/>
@@ -11404,6 +11404,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -11413,14 +11421,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11447,158 +11447,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11614,86 +11614,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="298" t="s">
+      <c r="D8" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="241" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="303"/>
-      <c r="Q8" s="303"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
-      <c r="Z8" s="303"/>
-      <c r="AA8" s="303"/>
-      <c r="AB8" s="303"/>
-      <c r="AC8" s="303"/>
-      <c r="AD8" s="303"/>
-      <c r="AE8" s="303"/>
-      <c r="AF8" s="303"/>
-      <c r="AG8" s="303"/>
-      <c r="AH8" s="304"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="206" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="269"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="269"/>
+      <c r="Q8" s="269"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="269"/>
+      <c r="T8" s="269"/>
+      <c r="U8" s="269"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
+      <c r="AA8" s="269"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+      <c r="AH8" s="270"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="316" t="s">
+      <c r="D9" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="317"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="241" t="s">
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="206" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303"/>
-      <c r="T9" s="303"/>
-      <c r="U9" s="303"/>
-      <c r="V9" s="303"/>
-      <c r="W9" s="303"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="303"/>
-      <c r="Z9" s="303"/>
-      <c r="AA9" s="303"/>
-      <c r="AB9" s="303"/>
-      <c r="AC9" s="303"/>
-      <c r="AD9" s="303"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="303"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="304"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="269"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="269"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="269"/>
+      <c r="S9" s="269"/>
+      <c r="T9" s="269"/>
+      <c r="U9" s="269"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="270"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="305" t="s">
+      <c r="D10" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="307"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="273"/>
       <c r="H10" s="108" t="s">
         <v>102</v>
       </c>
@@ -11725,10 +11725,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="319"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="321"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="287"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -11758,12 +11758,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="305" t="s">
+      <c r="D12" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="306"/>
-      <c r="F12" s="306"/>
-      <c r="G12" s="307"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="108" t="s">
         <v>104</v>
       </c>
@@ -11795,10 +11795,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="319"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="321"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="287"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -11828,10 +11828,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="308"/>
-      <c r="E14" s="309"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="310"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="275"/>
+      <c r="F14" s="275"/>
+      <c r="G14" s="276"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -11861,12 +11861,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="305" t="s">
+      <c r="D15" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="306"/>
-      <c r="F15" s="306"/>
-      <c r="G15" s="307"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="273"/>
       <c r="H15" s="108" t="s">
         <v>103</v>
       </c>
@@ -11898,10 +11898,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="308"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="310"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="276"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -11969,208 +11969,219 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="301" t="s">
+      <c r="D20" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="264" t="s">
+      <c r="E20" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="305" t="s">
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="306"/>
-      <c r="K20" s="306"/>
-      <c r="L20" s="306"/>
-      <c r="M20" s="306"/>
-      <c r="N20" s="306"/>
-      <c r="O20" s="306"/>
-      <c r="P20" s="307"/>
-      <c r="Q20" s="305" t="s">
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="273"/>
+      <c r="Q20" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="307"/>
-      <c r="S20" s="313" t="s">
+      <c r="R20" s="273"/>
+      <c r="S20" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="314"/>
-      <c r="U20" s="314"/>
-      <c r="V20" s="315"/>
-      <c r="W20" s="264" t="s">
+      <c r="T20" s="280"/>
+      <c r="U20" s="280"/>
+      <c r="V20" s="281"/>
+      <c r="W20" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="265"/>
-      <c r="Y20" s="265"/>
-      <c r="Z20" s="265"/>
-      <c r="AA20" s="265"/>
-      <c r="AB20" s="265"/>
-      <c r="AC20" s="265"/>
-      <c r="AD20" s="265"/>
-      <c r="AE20" s="265"/>
-      <c r="AF20" s="265"/>
-      <c r="AG20" s="265"/>
-      <c r="AH20" s="266"/>
+      <c r="X20" s="290"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="290"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="290"/>
+      <c r="AE20" s="290"/>
+      <c r="AF20" s="290"/>
+      <c r="AG20" s="290"/>
+      <c r="AH20" s="291"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="302"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="308"/>
-      <c r="J21" s="309"/>
-      <c r="K21" s="309"/>
-      <c r="L21" s="309"/>
-      <c r="M21" s="309"/>
-      <c r="N21" s="309"/>
-      <c r="O21" s="309"/>
-      <c r="P21" s="310"/>
-      <c r="Q21" s="308"/>
-      <c r="R21" s="310"/>
-      <c r="S21" s="311" t="s">
+      <c r="D21" s="268"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="275"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="275"/>
+      <c r="M21" s="275"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="275"/>
+      <c r="P21" s="276"/>
+      <c r="Q21" s="274"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="312"/>
-      <c r="U21" s="311" t="s">
+      <c r="T21" s="278"/>
+      <c r="U21" s="277" t="s">
         <v>94</v>
       </c>
-      <c r="V21" s="312"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="268"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="268"/>
-      <c r="AH21" s="269"/>
+      <c r="V21" s="278"/>
+      <c r="W21" s="292"/>
+      <c r="X21" s="293"/>
+      <c r="Y21" s="293"/>
+      <c r="Z21" s="293"/>
+      <c r="AA21" s="293"/>
+      <c r="AB21" s="293"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="293"/>
+      <c r="AE21" s="293"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="294"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="272">
+      <c r="D22" s="297">
         <v>1</v>
       </c>
-      <c r="E22" s="288" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="275" t="s">
+      <c r="E22" s="313" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="300" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="276"/>
-      <c r="K22" s="276"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="276"/>
-      <c r="O22" s="276"/>
-      <c r="P22" s="277"/>
-      <c r="Q22" s="214" t="s">
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+      <c r="M22" s="301"/>
+      <c r="N22" s="301"/>
+      <c r="O22" s="301"/>
+      <c r="P22" s="302"/>
+      <c r="Q22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="214" t="s">
+      <c r="R22" s="204"/>
+      <c r="S22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="214" t="s">
+      <c r="T22" s="204"/>
+      <c r="U22" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="270" t="s">
+      <c r="V22" s="204"/>
+      <c r="W22" s="295" t="s">
         <v>107</v>
       </c>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="271"/>
-      <c r="AA22" s="271"/>
-      <c r="AB22" s="271"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="271"/>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="271"/>
-      <c r="AH22" s="271"/>
+      <c r="X22" s="296"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="296"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="296"/>
+      <c r="AE22" s="296"/>
+      <c r="AF22" s="296"/>
+      <c r="AG22" s="296"/>
+      <c r="AH22" s="296"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="273"/>
-      <c r="E23" s="291"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="292"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="279"/>
-      <c r="K23" s="279"/>
-      <c r="L23" s="279"/>
-      <c r="M23" s="279"/>
-      <c r="N23" s="279"/>
-      <c r="O23" s="279"/>
-      <c r="P23" s="280"/>
-      <c r="Q23" s="284"/>
-      <c r="R23" s="285"/>
-      <c r="S23" s="284"/>
-      <c r="T23" s="285"/>
-      <c r="U23" s="284"/>
-      <c r="V23" s="285"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="316"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="303"/>
+      <c r="J23" s="304"/>
+      <c r="K23" s="304"/>
+      <c r="L23" s="304"/>
+      <c r="M23" s="304"/>
+      <c r="N23" s="304"/>
+      <c r="O23" s="304"/>
+      <c r="P23" s="305"/>
+      <c r="Q23" s="309"/>
+      <c r="R23" s="310"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="310"/>
+      <c r="U23" s="309"/>
+      <c r="V23" s="310"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="296"/>
+      <c r="AB23" s="296"/>
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="296"/>
+      <c r="AE23" s="296"/>
+      <c r="AF23" s="296"/>
+      <c r="AG23" s="296"/>
+      <c r="AH23" s="296"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="274"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="281"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282"/>
-      <c r="O24" s="282"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="286"/>
-      <c r="R24" s="287"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="287"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="271"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="307"/>
+      <c r="N24" s="307"/>
+      <c r="O24" s="307"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="311"/>
+      <c r="R24" s="312"/>
+      <c r="S24" s="311"/>
+      <c r="T24" s="312"/>
+      <c r="U24" s="311"/>
+      <c r="V24" s="312"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="296"/>
+      <c r="Z24" s="296"/>
+      <c r="AA24" s="296"/>
+      <c r="AB24" s="296"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="296"/>
+      <c r="AE24" s="296"/>
+      <c r="AF24" s="296"/>
+      <c r="AG24" s="296"/>
+      <c r="AH24" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -12187,23 +12198,12 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12238,158 +12238,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12400,6 +12400,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12409,14 +12417,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12437,7 +12437,7 @@
   <dimension ref="A1:BR113"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Z3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12446,164 +12446,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="254" t="str">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="251">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="254" t="str">
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="251">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="254" t="str">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="260" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="228"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="251" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12613,7 +12613,7 @@
     <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12623,117 +12623,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="331" t="s">
+      <c r="D10" s="352" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="333"/>
-      <c r="I10" s="240" t="s">
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="238"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="238"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="238"/>
-      <c r="AE10" s="238"/>
-      <c r="AF10" s="238"/>
-      <c r="AG10" s="238"/>
-      <c r="AH10" s="239"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="198"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="331" t="s">
+      <c r="D11" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="240" t="s">
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="238"/>
-      <c r="AF11" s="238"/>
-      <c r="AG11" s="238"/>
-      <c r="AH11" s="239"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="198"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="331" t="s">
+      <c r="D12" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
-      <c r="H12" s="333"/>
-      <c r="I12" s="240" t="s">
+      <c r="E12" s="353"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="239"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="198"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -12823,83 +12823,83 @@
       <c r="D22" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="351" t="s">
+      <c r="E22" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="352"/>
-      <c r="G22" s="353"/>
-      <c r="H22" s="354" t="s">
+      <c r="F22" s="341"/>
+      <c r="G22" s="342"/>
+      <c r="H22" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="355"/>
-      <c r="J22" s="356"/>
-      <c r="K22" s="316" t="s">
+      <c r="I22" s="344"/>
+      <c r="J22" s="345"/>
+      <c r="K22" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="317"/>
-      <c r="M22" s="317"/>
-      <c r="N22" s="317"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="317"/>
-      <c r="Q22" s="317"/>
-      <c r="R22" s="317"/>
-      <c r="S22" s="317"/>
-      <c r="T22" s="317"/>
-      <c r="U22" s="317"/>
-      <c r="V22" s="317"/>
-      <c r="W22" s="317"/>
-      <c r="X22" s="317"/>
-      <c r="Y22" s="317"/>
-      <c r="Z22" s="317"/>
-      <c r="AA22" s="317"/>
-      <c r="AB22" s="317"/>
-      <c r="AC22" s="317"/>
-      <c r="AD22" s="317"/>
-      <c r="AE22" s="317"/>
-      <c r="AF22" s="317"/>
-      <c r="AG22" s="317"/>
-      <c r="AH22" s="318"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="283"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="283"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="283"/>
+      <c r="V22" s="283"/>
+      <c r="W22" s="283"/>
+      <c r="X22" s="283"/>
+      <c r="Y22" s="283"/>
+      <c r="Z22" s="283"/>
+      <c r="AA22" s="283"/>
+      <c r="AB22" s="283"/>
+      <c r="AC22" s="283"/>
+      <c r="AD22" s="283"/>
+      <c r="AE22" s="283"/>
+      <c r="AF22" s="283"/>
+      <c r="AG22" s="283"/>
+      <c r="AH22" s="284"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="237">
+      <c r="E23" s="196">
         <v>0</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="240" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="365"/>
-      <c r="M23" s="365"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="365"/>
-      <c r="P23" s="365"/>
-      <c r="Q23" s="365"/>
-      <c r="R23" s="365"/>
-      <c r="S23" s="365"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="365"/>
-      <c r="V23" s="365"/>
-      <c r="W23" s="365"/>
-      <c r="X23" s="365"/>
-      <c r="Y23" s="365"/>
-      <c r="Z23" s="365"/>
-      <c r="AA23" s="365"/>
-      <c r="AB23" s="365"/>
-      <c r="AC23" s="365"/>
-      <c r="AD23" s="365"/>
-      <c r="AE23" s="365"/>
-      <c r="AF23" s="365"/>
-      <c r="AG23" s="365"/>
-      <c r="AH23" s="366"/>
+      <c r="L23" s="338"/>
+      <c r="M23" s="338"/>
+      <c r="N23" s="338"/>
+      <c r="O23" s="338"/>
+      <c r="P23" s="338"/>
+      <c r="Q23" s="338"/>
+      <c r="R23" s="338"/>
+      <c r="S23" s="338"/>
+      <c r="T23" s="338"/>
+      <c r="U23" s="338"/>
+      <c r="V23" s="338"/>
+      <c r="W23" s="338"/>
+      <c r="X23" s="338"/>
+      <c r="Y23" s="338"/>
+      <c r="Z23" s="338"/>
+      <c r="AA23" s="338"/>
+      <c r="AB23" s="338"/>
+      <c r="AC23" s="338"/>
+      <c r="AD23" s="338"/>
+      <c r="AE23" s="338"/>
+      <c r="AF23" s="338"/>
+      <c r="AG23" s="338"/>
+      <c r="AH23" s="339"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="41" t="s">
@@ -12907,7 +12907,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="367" t="s">
+      <c r="D28" s="346" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -12929,17 +12929,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="329" t="s">
+      <c r="T28" s="377" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="324" t="s">
+      <c r="U28" s="372" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="325"/>
-      <c r="W28" s="325"/>
-      <c r="X28" s="325"/>
-      <c r="Y28" s="325"/>
-      <c r="Z28" s="326"/>
+      <c r="V28" s="373"/>
+      <c r="W28" s="373"/>
+      <c r="X28" s="373"/>
+      <c r="Y28" s="373"/>
+      <c r="Z28" s="374"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -12952,7 +12952,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="368"/>
+      <c r="D29" s="347"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -12968,7 +12968,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="330"/>
+      <c r="T29" s="378"/>
       <c r="U29" s="45" t="s">
         <v>57</v>
       </c>
@@ -12981,10 +12981,10 @@
       <c r="X29" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Y29" s="322" t="s">
+      <c r="Y29" s="370" t="s">
         <v>61</v>
       </c>
-      <c r="Z29" s="323"/>
+      <c r="Z29" s="371"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
@@ -13032,10 +13032,10 @@
       <c r="X30" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y30" s="327" t="s">
+      <c r="Y30" s="375" t="s">
         <v>93</v>
       </c>
-      <c r="Z30" s="328"/>
+      <c r="Z30" s="376"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -13083,10 +13083,10 @@
       <c r="X31" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="327" t="s">
+      <c r="Y31" s="375" t="s">
         <v>93</v>
       </c>
-      <c r="Z31" s="328"/>
+      <c r="Z31" s="376"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -13103,108 +13103,108 @@
     </row>
     <row r="35" spans="3:36" x14ac:dyDescent="0.15">
       <c r="D35" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="3:36" x14ac:dyDescent="0.15">
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="349" t="s">
+      <c r="E37" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="349"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="349"/>
-      <c r="I37" s="349"/>
-      <c r="J37" s="349"/>
-      <c r="K37" s="349"/>
-      <c r="L37" s="349"/>
-      <c r="M37" s="349"/>
-      <c r="N37" s="349"/>
-      <c r="O37" s="349"/>
-      <c r="P37" s="349"/>
-      <c r="Q37" s="349"/>
-      <c r="R37" s="349"/>
-      <c r="S37" s="349"/>
-      <c r="T37" s="349"/>
-      <c r="U37" s="349"/>
-      <c r="V37" s="349"/>
-      <c r="W37" s="349"/>
-      <c r="X37" s="349"/>
-      <c r="Y37" s="349"/>
-      <c r="Z37" s="349"/>
-      <c r="AA37" s="349"/>
-      <c r="AB37" s="349"/>
-      <c r="AC37" s="349"/>
-      <c r="AD37" s="349"/>
-      <c r="AE37" s="349"/>
-      <c r="AF37" s="349"/>
-      <c r="AG37" s="349"/>
-      <c r="AH37" s="349"/>
+      <c r="F37" s="348"/>
+      <c r="G37" s="348"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="348"/>
+      <c r="J37" s="348"/>
+      <c r="K37" s="348"/>
+      <c r="L37" s="348"/>
+      <c r="M37" s="348"/>
+      <c r="N37" s="348"/>
+      <c r="O37" s="348"/>
+      <c r="P37" s="348"/>
+      <c r="Q37" s="348"/>
+      <c r="R37" s="348"/>
+      <c r="S37" s="348"/>
+      <c r="T37" s="348"/>
+      <c r="U37" s="348"/>
+      <c r="V37" s="348"/>
+      <c r="W37" s="348"/>
+      <c r="X37" s="348"/>
+      <c r="Y37" s="348"/>
+      <c r="Z37" s="348"/>
+      <c r="AA37" s="348"/>
+      <c r="AB37" s="348"/>
+      <c r="AC37" s="348"/>
+      <c r="AD37" s="348"/>
+      <c r="AE37" s="348"/>
+      <c r="AF37" s="348"/>
+      <c r="AG37" s="348"/>
+      <c r="AH37" s="348"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="348" t="s">
+      <c r="E38" s="349" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="369" t="s">
+      <c r="F38" s="351" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="369"/>
-      <c r="H38" s="369"/>
-      <c r="I38" s="369"/>
-      <c r="J38" s="369"/>
-      <c r="K38" s="369"/>
-      <c r="L38" s="369" t="s">
+      <c r="G38" s="351"/>
+      <c r="H38" s="351"/>
+      <c r="I38" s="351"/>
+      <c r="J38" s="351"/>
+      <c r="K38" s="351"/>
+      <c r="L38" s="351" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="369"/>
-      <c r="N38" s="369"/>
-      <c r="O38" s="369"/>
-      <c r="P38" s="369"/>
-      <c r="Q38" s="346" t="s">
+      <c r="M38" s="351"/>
+      <c r="N38" s="351"/>
+      <c r="O38" s="351"/>
+      <c r="P38" s="351"/>
+      <c r="Q38" s="364" t="s">
         <v>39</v>
       </c>
-      <c r="R38" s="348" t="s">
+      <c r="R38" s="349" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="348"/>
-      <c r="T38" s="348"/>
-      <c r="U38" s="348"/>
-      <c r="V38" s="348"/>
-      <c r="W38" s="349" t="s">
+      <c r="S38" s="349"/>
+      <c r="T38" s="349"/>
+      <c r="U38" s="349"/>
+      <c r="V38" s="349"/>
+      <c r="W38" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="349"/>
-      <c r="Y38" s="349"/>
-      <c r="Z38" s="349"/>
-      <c r="AA38" s="349"/>
-      <c r="AB38" s="349"/>
-      <c r="AC38" s="349"/>
-      <c r="AD38" s="349"/>
-      <c r="AE38" s="349"/>
-      <c r="AF38" s="349"/>
-      <c r="AG38" s="349"/>
-      <c r="AH38" s="349"/>
+      <c r="X38" s="348"/>
+      <c r="Y38" s="348"/>
+      <c r="Z38" s="348"/>
+      <c r="AA38" s="348"/>
+      <c r="AB38" s="348"/>
+      <c r="AC38" s="348"/>
+      <c r="AD38" s="348"/>
+      <c r="AE38" s="348"/>
+      <c r="AF38" s="348"/>
+      <c r="AG38" s="348"/>
+      <c r="AH38" s="348"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="350"/>
-      <c r="F39" s="349"/>
-      <c r="G39" s="349"/>
-      <c r="H39" s="349"/>
-      <c r="I39" s="349"/>
-      <c r="J39" s="349"/>
-      <c r="K39" s="349"/>
-      <c r="L39" s="349"/>
-      <c r="M39" s="349"/>
-      <c r="N39" s="349"/>
-      <c r="O39" s="349"/>
-      <c r="P39" s="349"/>
-      <c r="Q39" s="347"/>
+      <c r="F39" s="348"/>
+      <c r="G39" s="348"/>
+      <c r="H39" s="348"/>
+      <c r="I39" s="348"/>
+      <c r="J39" s="348"/>
+      <c r="K39" s="348"/>
+      <c r="L39" s="348"/>
+      <c r="M39" s="348"/>
+      <c r="N39" s="348"/>
+      <c r="O39" s="348"/>
+      <c r="P39" s="348"/>
+      <c r="Q39" s="365"/>
       <c r="R39" s="350" t="s">
         <v>40</v>
       </c>
@@ -13212,18 +13212,18 @@
       <c r="T39" s="350"/>
       <c r="U39" s="350"/>
       <c r="V39" s="350"/>
-      <c r="W39" s="349"/>
-      <c r="X39" s="349"/>
-      <c r="Y39" s="349"/>
-      <c r="Z39" s="349"/>
-      <c r="AA39" s="349"/>
-      <c r="AB39" s="349"/>
-      <c r="AC39" s="349"/>
-      <c r="AD39" s="349"/>
-      <c r="AE39" s="349"/>
-      <c r="AF39" s="349"/>
-      <c r="AG39" s="349"/>
-      <c r="AH39" s="349"/>
+      <c r="W39" s="348"/>
+      <c r="X39" s="348"/>
+      <c r="Y39" s="348"/>
+      <c r="Z39" s="348"/>
+      <c r="AA39" s="348"/>
+      <c r="AB39" s="348"/>
+      <c r="AC39" s="348"/>
+      <c r="AD39" s="348"/>
+      <c r="AE39" s="348"/>
+      <c r="AF39" s="348"/>
+      <c r="AG39" s="348"/>
+      <c r="AH39" s="348"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -13231,14 +13231,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="362"/>
-      <c r="H40" s="362"/>
-      <c r="I40" s="362"/>
-      <c r="J40" s="362"/>
-      <c r="K40" s="362"/>
+      <c r="F40" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
       <c r="L40" s="141" t="s">
         <v>117</v>
       </c>
@@ -13249,25 +13249,25 @@
       <c r="Q40" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R40" s="361" t="s">
+      <c r="R40" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S40" s="362"/>
-      <c r="T40" s="362"/>
-      <c r="U40" s="362"/>
-      <c r="V40" s="362"/>
-      <c r="W40" s="362"/>
-      <c r="X40" s="362"/>
-      <c r="Y40" s="362"/>
-      <c r="Z40" s="362"/>
-      <c r="AA40" s="362"/>
-      <c r="AB40" s="362"/>
-      <c r="AC40" s="362"/>
-      <c r="AD40" s="362"/>
-      <c r="AE40" s="362"/>
-      <c r="AF40" s="362"/>
-      <c r="AG40" s="362"/>
-      <c r="AH40" s="362"/>
+      <c r="S40" s="328"/>
+      <c r="T40" s="328"/>
+      <c r="U40" s="328"/>
+      <c r="V40" s="328"/>
+      <c r="W40" s="328"/>
+      <c r="X40" s="328"/>
+      <c r="Y40" s="328"/>
+      <c r="Z40" s="328"/>
+      <c r="AA40" s="328"/>
+      <c r="AB40" s="328"/>
+      <c r="AC40" s="328"/>
+      <c r="AD40" s="328"/>
+      <c r="AE40" s="328"/>
+      <c r="AF40" s="328"/>
+      <c r="AG40" s="328"/>
+      <c r="AH40" s="328"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -13275,14 +13275,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="362"/>
-      <c r="K41" s="362"/>
+      <c r="F41" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
+      <c r="K41" s="328"/>
       <c r="L41" s="141" t="s">
         <v>118</v>
       </c>
@@ -13293,25 +13293,25 @@
       <c r="Q41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R41" s="361" t="s">
+      <c r="R41" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S41" s="362"/>
-      <c r="T41" s="362"/>
-      <c r="U41" s="362"/>
-      <c r="V41" s="362"/>
-      <c r="W41" s="362"/>
-      <c r="X41" s="362"/>
-      <c r="Y41" s="362"/>
-      <c r="Z41" s="362"/>
-      <c r="AA41" s="362"/>
-      <c r="AB41" s="362"/>
-      <c r="AC41" s="362"/>
-      <c r="AD41" s="362"/>
-      <c r="AE41" s="362"/>
-      <c r="AF41" s="362"/>
-      <c r="AG41" s="362"/>
-      <c r="AH41" s="362"/>
+      <c r="S41" s="328"/>
+      <c r="T41" s="328"/>
+      <c r="U41" s="328"/>
+      <c r="V41" s="328"/>
+      <c r="W41" s="328"/>
+      <c r="X41" s="328"/>
+      <c r="Y41" s="328"/>
+      <c r="Z41" s="328"/>
+      <c r="AA41" s="328"/>
+      <c r="AB41" s="328"/>
+      <c r="AC41" s="328"/>
+      <c r="AD41" s="328"/>
+      <c r="AE41" s="328"/>
+      <c r="AF41" s="328"/>
+      <c r="AG41" s="328"/>
+      <c r="AH41" s="328"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -13319,14 +13319,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="362"/>
-      <c r="H42" s="362"/>
-      <c r="I42" s="362"/>
-      <c r="J42" s="362"/>
-      <c r="K42" s="362"/>
+      <c r="F42" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="328"/>
       <c r="L42" s="141" t="s">
         <v>119</v>
       </c>
@@ -13337,25 +13337,25 @@
       <c r="Q42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="361" t="s">
+      <c r="R42" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S42" s="362"/>
-      <c r="T42" s="362"/>
-      <c r="U42" s="362"/>
-      <c r="V42" s="362"/>
-      <c r="W42" s="362"/>
-      <c r="X42" s="362"/>
-      <c r="Y42" s="362"/>
-      <c r="Z42" s="362"/>
-      <c r="AA42" s="362"/>
-      <c r="AB42" s="362"/>
-      <c r="AC42" s="362"/>
-      <c r="AD42" s="362"/>
-      <c r="AE42" s="362"/>
-      <c r="AF42" s="362"/>
-      <c r="AG42" s="362"/>
-      <c r="AH42" s="362"/>
+      <c r="S42" s="328"/>
+      <c r="T42" s="328"/>
+      <c r="U42" s="328"/>
+      <c r="V42" s="328"/>
+      <c r="W42" s="328"/>
+      <c r="X42" s="328"/>
+      <c r="Y42" s="328"/>
+      <c r="Z42" s="328"/>
+      <c r="AA42" s="328"/>
+      <c r="AB42" s="328"/>
+      <c r="AC42" s="328"/>
+      <c r="AD42" s="328"/>
+      <c r="AE42" s="328"/>
+      <c r="AF42" s="328"/>
+      <c r="AG42" s="328"/>
+      <c r="AH42" s="328"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -13363,14 +13363,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="362"/>
-      <c r="K43" s="362"/>
+      <c r="F43" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="328"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
       <c r="L43" s="141" t="s">
         <v>120</v>
       </c>
@@ -13381,25 +13381,25 @@
       <c r="Q43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R43" s="361" t="s">
+      <c r="R43" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="362"/>
-      <c r="T43" s="362"/>
-      <c r="U43" s="362"/>
-      <c r="V43" s="362"/>
-      <c r="W43" s="362"/>
-      <c r="X43" s="362"/>
-      <c r="Y43" s="362"/>
-      <c r="Z43" s="362"/>
-      <c r="AA43" s="362"/>
-      <c r="AB43" s="362"/>
-      <c r="AC43" s="362"/>
-      <c r="AD43" s="362"/>
-      <c r="AE43" s="362"/>
-      <c r="AF43" s="362"/>
-      <c r="AG43" s="362"/>
-      <c r="AH43" s="362"/>
+      <c r="S43" s="328"/>
+      <c r="T43" s="328"/>
+      <c r="U43" s="328"/>
+      <c r="V43" s="328"/>
+      <c r="W43" s="328"/>
+      <c r="X43" s="328"/>
+      <c r="Y43" s="328"/>
+      <c r="Z43" s="328"/>
+      <c r="AA43" s="328"/>
+      <c r="AB43" s="328"/>
+      <c r="AC43" s="328"/>
+      <c r="AD43" s="328"/>
+      <c r="AE43" s="328"/>
+      <c r="AF43" s="328"/>
+      <c r="AG43" s="328"/>
+      <c r="AH43" s="328"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -13407,16 +13407,16 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="362"/>
-      <c r="H44" s="362"/>
-      <c r="I44" s="362"/>
-      <c r="J44" s="362"/>
-      <c r="K44" s="362"/>
+      <c r="F44" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="328"/>
+      <c r="H44" s="328"/>
+      <c r="I44" s="328"/>
+      <c r="J44" s="328"/>
+      <c r="K44" s="328"/>
       <c r="L44" s="141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M44" s="142"/>
       <c r="N44" s="142"/>
@@ -13425,25 +13425,25 @@
       <c r="Q44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R44" s="361" t="s">
+      <c r="R44" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S44" s="362"/>
-      <c r="T44" s="362"/>
-      <c r="U44" s="362"/>
-      <c r="V44" s="362"/>
-      <c r="W44" s="362"/>
-      <c r="X44" s="362"/>
-      <c r="Y44" s="362"/>
-      <c r="Z44" s="362"/>
-      <c r="AA44" s="362"/>
-      <c r="AB44" s="362"/>
-      <c r="AC44" s="362"/>
-      <c r="AD44" s="362"/>
-      <c r="AE44" s="362"/>
-      <c r="AF44" s="362"/>
-      <c r="AG44" s="362"/>
-      <c r="AH44" s="362"/>
+      <c r="S44" s="328"/>
+      <c r="T44" s="328"/>
+      <c r="U44" s="328"/>
+      <c r="V44" s="328"/>
+      <c r="W44" s="328"/>
+      <c r="X44" s="328"/>
+      <c r="Y44" s="328"/>
+      <c r="Z44" s="328"/>
+      <c r="AA44" s="328"/>
+      <c r="AB44" s="328"/>
+      <c r="AC44" s="328"/>
+      <c r="AD44" s="328"/>
+      <c r="AE44" s="328"/>
+      <c r="AF44" s="328"/>
+      <c r="AG44" s="328"/>
+      <c r="AH44" s="328"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -13451,16 +13451,16 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="362"/>
-      <c r="H45" s="362"/>
-      <c r="I45" s="362"/>
-      <c r="J45" s="362"/>
-      <c r="K45" s="362"/>
+      <c r="F45" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="328"/>
+      <c r="H45" s="328"/>
+      <c r="I45" s="328"/>
+      <c r="J45" s="328"/>
+      <c r="K45" s="328"/>
       <c r="L45" s="141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M45" s="142"/>
       <c r="N45" s="142"/>
@@ -13469,25 +13469,25 @@
       <c r="Q45" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R45" s="361" t="s">
+      <c r="R45" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S45" s="362"/>
-      <c r="T45" s="362"/>
-      <c r="U45" s="362"/>
-      <c r="V45" s="362"/>
-      <c r="W45" s="362"/>
-      <c r="X45" s="362"/>
-      <c r="Y45" s="362"/>
-      <c r="Z45" s="362"/>
-      <c r="AA45" s="362"/>
-      <c r="AB45" s="362"/>
-      <c r="AC45" s="362"/>
-      <c r="AD45" s="362"/>
-      <c r="AE45" s="362"/>
-      <c r="AF45" s="362"/>
-      <c r="AG45" s="362"/>
-      <c r="AH45" s="362"/>
+      <c r="S45" s="328"/>
+      <c r="T45" s="328"/>
+      <c r="U45" s="328"/>
+      <c r="V45" s="328"/>
+      <c r="W45" s="328"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="328"/>
+      <c r="Z45" s="328"/>
+      <c r="AA45" s="328"/>
+      <c r="AB45" s="328"/>
+      <c r="AC45" s="328"/>
+      <c r="AD45" s="328"/>
+      <c r="AE45" s="328"/>
+      <c r="AF45" s="328"/>
+      <c r="AG45" s="328"/>
+      <c r="AH45" s="328"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13495,14 +13495,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="362"/>
-      <c r="H46" s="362"/>
-      <c r="I46" s="362"/>
-      <c r="J46" s="362"/>
-      <c r="K46" s="362"/>
+      <c r="F46" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="328"/>
+      <c r="H46" s="328"/>
+      <c r="I46" s="328"/>
+      <c r="J46" s="328"/>
+      <c r="K46" s="328"/>
       <c r="L46" s="141" t="s">
         <v>121</v>
       </c>
@@ -13513,25 +13513,25 @@
       <c r="Q46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="361" t="s">
+      <c r="R46" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="S46" s="362"/>
-      <c r="T46" s="362"/>
-      <c r="U46" s="362"/>
-      <c r="V46" s="362"/>
-      <c r="W46" s="362"/>
-      <c r="X46" s="362"/>
-      <c r="Y46" s="362"/>
-      <c r="Z46" s="362"/>
-      <c r="AA46" s="362"/>
-      <c r="AB46" s="362"/>
-      <c r="AC46" s="362"/>
-      <c r="AD46" s="362"/>
-      <c r="AE46" s="362"/>
-      <c r="AF46" s="362"/>
-      <c r="AG46" s="362"/>
-      <c r="AH46" s="362"/>
+      <c r="S46" s="328"/>
+      <c r="T46" s="328"/>
+      <c r="U46" s="328"/>
+      <c r="V46" s="328"/>
+      <c r="W46" s="328"/>
+      <c r="X46" s="328"/>
+      <c r="Y46" s="328"/>
+      <c r="Z46" s="328"/>
+      <c r="AA46" s="328"/>
+      <c r="AB46" s="328"/>
+      <c r="AC46" s="328"/>
+      <c r="AD46" s="328"/>
+      <c r="AE46" s="328"/>
+      <c r="AF46" s="328"/>
+      <c r="AG46" s="328"/>
+      <c r="AH46" s="328"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13539,14 +13539,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="362"/>
-      <c r="K47" s="362"/>
+      <c r="F47" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="328"/>
+      <c r="H47" s="328"/>
+      <c r="I47" s="328"/>
+      <c r="J47" s="328"/>
+      <c r="K47" s="328"/>
       <c r="L47" s="141" t="s">
         <v>122</v>
       </c>
@@ -13557,25 +13557,25 @@
       <c r="Q47" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R47" s="361" t="s">
+      <c r="R47" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S47" s="362"/>
-      <c r="T47" s="362"/>
-      <c r="U47" s="362"/>
-      <c r="V47" s="362"/>
-      <c r="W47" s="362"/>
-      <c r="X47" s="362"/>
-      <c r="Y47" s="362"/>
-      <c r="Z47" s="362"/>
-      <c r="AA47" s="362"/>
-      <c r="AB47" s="362"/>
-      <c r="AC47" s="362"/>
-      <c r="AD47" s="362"/>
-      <c r="AE47" s="362"/>
-      <c r="AF47" s="362"/>
-      <c r="AG47" s="362"/>
-      <c r="AH47" s="362"/>
+      <c r="S47" s="328"/>
+      <c r="T47" s="328"/>
+      <c r="U47" s="328"/>
+      <c r="V47" s="328"/>
+      <c r="W47" s="328"/>
+      <c r="X47" s="328"/>
+      <c r="Y47" s="328"/>
+      <c r="Z47" s="328"/>
+      <c r="AA47" s="328"/>
+      <c r="AB47" s="328"/>
+      <c r="AC47" s="328"/>
+      <c r="AD47" s="328"/>
+      <c r="AE47" s="328"/>
+      <c r="AF47" s="328"/>
+      <c r="AG47" s="328"/>
+      <c r="AH47" s="328"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13583,16 +13583,16 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="362"/>
-      <c r="H48" s="362"/>
-      <c r="I48" s="362"/>
-      <c r="J48" s="362"/>
-      <c r="K48" s="362"/>
+      <c r="F48" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="328"/>
+      <c r="H48" s="328"/>
+      <c r="I48" s="328"/>
+      <c r="J48" s="328"/>
+      <c r="K48" s="328"/>
       <c r="L48" s="141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M48" s="142"/>
       <c r="N48" s="142"/>
@@ -13601,25 +13601,25 @@
       <c r="Q48" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R48" s="361" t="s">
+      <c r="R48" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="362"/>
-      <c r="T48" s="362"/>
-      <c r="U48" s="362"/>
-      <c r="V48" s="362"/>
-      <c r="W48" s="362"/>
-      <c r="X48" s="362"/>
-      <c r="Y48" s="362"/>
-      <c r="Z48" s="362"/>
-      <c r="AA48" s="362"/>
-      <c r="AB48" s="362"/>
-      <c r="AC48" s="362"/>
-      <c r="AD48" s="362"/>
-      <c r="AE48" s="362"/>
-      <c r="AF48" s="362"/>
-      <c r="AG48" s="362"/>
-      <c r="AH48" s="362"/>
+      <c r="S48" s="328"/>
+      <c r="T48" s="328"/>
+      <c r="U48" s="328"/>
+      <c r="V48" s="328"/>
+      <c r="W48" s="328"/>
+      <c r="X48" s="328"/>
+      <c r="Y48" s="328"/>
+      <c r="Z48" s="328"/>
+      <c r="AA48" s="328"/>
+      <c r="AB48" s="328"/>
+      <c r="AC48" s="328"/>
+      <c r="AD48" s="328"/>
+      <c r="AE48" s="328"/>
+      <c r="AF48" s="328"/>
+      <c r="AG48" s="328"/>
+      <c r="AH48" s="328"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13627,16 +13627,16 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="362"/>
-      <c r="K49" s="362"/>
+      <c r="F49" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="328"/>
+      <c r="H49" s="328"/>
+      <c r="I49" s="328"/>
+      <c r="J49" s="328"/>
+      <c r="K49" s="328"/>
       <c r="L49" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M49" s="142"/>
       <c r="N49" s="142"/>
@@ -13645,25 +13645,25 @@
       <c r="Q49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R49" s="361" t="s">
+      <c r="R49" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S49" s="362"/>
-      <c r="T49" s="362"/>
-      <c r="U49" s="362"/>
-      <c r="V49" s="362"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="362"/>
-      <c r="Y49" s="362"/>
-      <c r="Z49" s="362"/>
-      <c r="AA49" s="362"/>
-      <c r="AB49" s="362"/>
-      <c r="AC49" s="362"/>
-      <c r="AD49" s="362"/>
-      <c r="AE49" s="362"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="362"/>
-      <c r="AH49" s="362"/>
+      <c r="S49" s="328"/>
+      <c r="T49" s="328"/>
+      <c r="U49" s="328"/>
+      <c r="V49" s="328"/>
+      <c r="W49" s="328"/>
+      <c r="X49" s="328"/>
+      <c r="Y49" s="328"/>
+      <c r="Z49" s="328"/>
+      <c r="AA49" s="328"/>
+      <c r="AB49" s="328"/>
+      <c r="AC49" s="328"/>
+      <c r="AD49" s="328"/>
+      <c r="AE49" s="328"/>
+      <c r="AF49" s="328"/>
+      <c r="AG49" s="328"/>
+      <c r="AH49" s="328"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13671,16 +13671,16 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="362"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="362"/>
-      <c r="K50" s="362"/>
+      <c r="F50" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="328"/>
+      <c r="H50" s="328"/>
+      <c r="I50" s="328"/>
+      <c r="J50" s="328"/>
+      <c r="K50" s="328"/>
       <c r="L50" s="141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M50" s="142"/>
       <c r="N50" s="142"/>
@@ -13689,25 +13689,25 @@
       <c r="Q50" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R50" s="361" t="s">
+      <c r="R50" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="362"/>
-      <c r="T50" s="362"/>
-      <c r="U50" s="362"/>
-      <c r="V50" s="362"/>
-      <c r="W50" s="362"/>
-      <c r="X50" s="362"/>
-      <c r="Y50" s="362"/>
-      <c r="Z50" s="362"/>
-      <c r="AA50" s="362"/>
-      <c r="AB50" s="362"/>
-      <c r="AC50" s="362"/>
-      <c r="AD50" s="362"/>
-      <c r="AE50" s="362"/>
-      <c r="AF50" s="362"/>
-      <c r="AG50" s="362"/>
-      <c r="AH50" s="362"/>
+      <c r="S50" s="328"/>
+      <c r="T50" s="328"/>
+      <c r="U50" s="328"/>
+      <c r="V50" s="328"/>
+      <c r="W50" s="328"/>
+      <c r="X50" s="328"/>
+      <c r="Y50" s="328"/>
+      <c r="Z50" s="328"/>
+      <c r="AA50" s="328"/>
+      <c r="AB50" s="328"/>
+      <c r="AC50" s="328"/>
+      <c r="AD50" s="328"/>
+      <c r="AE50" s="328"/>
+      <c r="AF50" s="328"/>
+      <c r="AG50" s="328"/>
+      <c r="AH50" s="328"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -13715,16 +13715,16 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="362"/>
-      <c r="H51" s="362"/>
-      <c r="I51" s="362"/>
-      <c r="J51" s="362"/>
-      <c r="K51" s="362"/>
+      <c r="F51" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="328"/>
+      <c r="H51" s="328"/>
+      <c r="I51" s="328"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
       <c r="L51" s="141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M51" s="142"/>
       <c r="N51" s="142"/>
@@ -13733,25 +13733,25 @@
       <c r="Q51" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R51" s="361" t="s">
+      <c r="R51" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S51" s="362"/>
-      <c r="T51" s="362"/>
-      <c r="U51" s="362"/>
-      <c r="V51" s="362"/>
-      <c r="W51" s="362"/>
-      <c r="X51" s="362"/>
-      <c r="Y51" s="362"/>
-      <c r="Z51" s="362"/>
-      <c r="AA51" s="362"/>
-      <c r="AB51" s="362"/>
-      <c r="AC51" s="362"/>
-      <c r="AD51" s="362"/>
-      <c r="AE51" s="362"/>
-      <c r="AF51" s="362"/>
-      <c r="AG51" s="362"/>
-      <c r="AH51" s="362"/>
+      <c r="S51" s="328"/>
+      <c r="T51" s="328"/>
+      <c r="U51" s="328"/>
+      <c r="V51" s="328"/>
+      <c r="W51" s="328"/>
+      <c r="X51" s="328"/>
+      <c r="Y51" s="328"/>
+      <c r="Z51" s="328"/>
+      <c r="AA51" s="328"/>
+      <c r="AB51" s="328"/>
+      <c r="AC51" s="328"/>
+      <c r="AD51" s="328"/>
+      <c r="AE51" s="328"/>
+      <c r="AF51" s="328"/>
+      <c r="AG51" s="328"/>
+      <c r="AH51" s="328"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -13759,16 +13759,16 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="361" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="362"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="362"/>
-      <c r="K52" s="362"/>
+      <c r="F52" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="328"/>
+      <c r="H52" s="328"/>
+      <c r="I52" s="328"/>
+      <c r="J52" s="328"/>
+      <c r="K52" s="328"/>
       <c r="L52" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M52" s="142"/>
       <c r="N52" s="142"/>
@@ -13777,61 +13777,61 @@
       <c r="Q52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="R52" s="361" t="s">
+      <c r="R52" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="S52" s="362"/>
-      <c r="T52" s="362"/>
-      <c r="U52" s="362"/>
-      <c r="V52" s="362"/>
-      <c r="W52" s="362"/>
-      <c r="X52" s="362"/>
-      <c r="Y52" s="362"/>
-      <c r="Z52" s="362"/>
-      <c r="AA52" s="362"/>
-      <c r="AB52" s="362"/>
-      <c r="AC52" s="362"/>
-      <c r="AD52" s="362"/>
-      <c r="AE52" s="362"/>
-      <c r="AF52" s="362"/>
-      <c r="AG52" s="362"/>
-      <c r="AH52" s="362"/>
+      <c r="S52" s="328"/>
+      <c r="T52" s="328"/>
+      <c r="U52" s="328"/>
+      <c r="V52" s="328"/>
+      <c r="W52" s="328"/>
+      <c r="X52" s="328"/>
+      <c r="Y52" s="328"/>
+      <c r="Z52" s="328"/>
+      <c r="AA52" s="328"/>
+      <c r="AB52" s="328"/>
+      <c r="AC52" s="328"/>
+      <c r="AD52" s="328"/>
+      <c r="AE52" s="328"/>
+      <c r="AF52" s="328"/>
+      <c r="AG52" s="328"/>
+      <c r="AH52" s="328"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="313" t="s">
+      <c r="E53" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="314"/>
-      <c r="G53" s="314"/>
-      <c r="H53" s="314"/>
-      <c r="I53" s="314"/>
-      <c r="J53" s="314"/>
-      <c r="K53" s="314"/>
-      <c r="L53" s="314"/>
-      <c r="M53" s="314"/>
-      <c r="N53" s="314"/>
-      <c r="O53" s="314"/>
-      <c r="P53" s="314"/>
-      <c r="Q53" s="314"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="314"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="314"/>
-      <c r="V53" s="314"/>
-      <c r="W53" s="314"/>
-      <c r="X53" s="314"/>
-      <c r="Y53" s="314"/>
-      <c r="Z53" s="314"/>
-      <c r="AA53" s="314"/>
-      <c r="AB53" s="314"/>
-      <c r="AC53" s="314"/>
-      <c r="AD53" s="314"/>
-      <c r="AE53" s="314"/>
-      <c r="AF53" s="314"/>
-      <c r="AG53" s="314"/>
-      <c r="AH53" s="315"/>
+      <c r="F53" s="280"/>
+      <c r="G53" s="280"/>
+      <c r="H53" s="280"/>
+      <c r="I53" s="280"/>
+      <c r="J53" s="280"/>
+      <c r="K53" s="280"/>
+      <c r="L53" s="280"/>
+      <c r="M53" s="280"/>
+      <c r="N53" s="280"/>
+      <c r="O53" s="280"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="280"/>
+      <c r="R53" s="280"/>
+      <c r="S53" s="280"/>
+      <c r="T53" s="280"/>
+      <c r="U53" s="280"/>
+      <c r="V53" s="280"/>
+      <c r="W53" s="280"/>
+      <c r="X53" s="280"/>
+      <c r="Y53" s="280"/>
+      <c r="Z53" s="280"/>
+      <c r="AA53" s="280"/>
+      <c r="AB53" s="280"/>
+      <c r="AC53" s="280"/>
+      <c r="AD53" s="280"/>
+      <c r="AE53" s="280"/>
+      <c r="AF53" s="280"/>
+      <c r="AG53" s="280"/>
+      <c r="AH53" s="281"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="E55" s="152"/>
       <c r="F55" s="155"/>
       <c r="G55" s="150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
@@ -13882,11 +13882,11 @@
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
       <c r="Q55" s="154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R55" s="25"/>
       <c r="S55" s="150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U55" s="121"/>
       <c r="V55" s="121"/>
@@ -13908,10 +13908,10 @@
     <row r="56" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E56" s="152"/>
       <c r="F56" s="155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -13920,11 +13920,11 @@
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="Q56" s="154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R56" s="25"/>
       <c r="S56" s="150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U56" s="121"/>
       <c r="V56" s="121"/>
@@ -14053,13 +14053,13 @@
     </row>
     <row r="61" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D61" s="105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="110"/>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E62" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:36" x14ac:dyDescent="0.15">
@@ -14067,13 +14067,13 @@
     </row>
     <row r="64" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D64" s="105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" s="110"/>
     </row>
     <row r="65" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E65" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="2:70" x14ac:dyDescent="0.15">
@@ -14085,72 +14085,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="351" t="s">
+      <c r="E68" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="352"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="354" t="s">
+      <c r="F68" s="341"/>
+      <c r="G68" s="342"/>
+      <c r="H68" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="355"/>
-      <c r="J68" s="356"/>
-      <c r="K68" s="357" t="s">
-        <v>132</v>
-      </c>
-      <c r="L68" s="358"/>
-      <c r="M68" s="358"/>
-      <c r="N68" s="359"/>
-      <c r="O68" s="360" t="s">
+      <c r="I68" s="344"/>
+      <c r="J68" s="345"/>
+      <c r="K68" s="366" t="s">
+        <v>131</v>
+      </c>
+      <c r="L68" s="367"/>
+      <c r="M68" s="367"/>
+      <c r="N68" s="368"/>
+      <c r="O68" s="369" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="360"/>
-      <c r="Q68" s="360"/>
-      <c r="R68" s="360"/>
-      <c r="S68" s="360"/>
-      <c r="T68" s="360"/>
-      <c r="U68" s="360"/>
-      <c r="V68" s="360"/>
-      <c r="W68" s="360"/>
-      <c r="X68" s="360"/>
-      <c r="Y68" s="360"/>
-      <c r="Z68" s="360"/>
-      <c r="AA68" s="360"/>
-      <c r="AB68" s="360"/>
+      <c r="P68" s="369"/>
+      <c r="Q68" s="369"/>
+      <c r="R68" s="369"/>
+      <c r="S68" s="369"/>
+      <c r="T68" s="369"/>
+      <c r="U68" s="369"/>
+      <c r="V68" s="369"/>
+      <c r="W68" s="369"/>
+      <c r="X68" s="369"/>
+      <c r="Y68" s="369"/>
+      <c r="Z68" s="369"/>
+      <c r="AA68" s="369"/>
+      <c r="AB68" s="369"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="237">
+      <c r="E69" s="196">
         <v>0</v>
       </c>
-      <c r="F69" s="238"/>
-      <c r="G69" s="239"/>
-      <c r="H69" s="240" t="s">
+      <c r="F69" s="197"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="238"/>
-      <c r="J69" s="239"/>
-      <c r="K69" s="370" t="s">
+      <c r="I69" s="197"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="324" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="373"/>
-      <c r="M69" s="373"/>
-      <c r="N69" s="374"/>
-      <c r="O69" s="375" t="s">
+      <c r="L69" s="329"/>
+      <c r="M69" s="329"/>
+      <c r="N69" s="330"/>
+      <c r="O69" s="331" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="375"/>
-      <c r="Q69" s="375"/>
-      <c r="R69" s="375"/>
-      <c r="S69" s="375"/>
-      <c r="T69" s="375"/>
-      <c r="U69" s="375"/>
-      <c r="V69" s="375"/>
-      <c r="W69" s="375"/>
-      <c r="X69" s="375"/>
-      <c r="Y69" s="375"/>
-      <c r="Z69" s="375"/>
-      <c r="AA69" s="375"/>
-      <c r="AB69" s="375"/>
+      <c r="P69" s="331"/>
+      <c r="Q69" s="331"/>
+      <c r="R69" s="331"/>
+      <c r="S69" s="331"/>
+      <c r="T69" s="331"/>
+      <c r="U69" s="331"/>
+      <c r="V69" s="331"/>
+      <c r="W69" s="331"/>
+      <c r="X69" s="331"/>
+      <c r="Y69" s="331"/>
+      <c r="Z69" s="331"/>
+      <c r="AA69" s="331"/>
+      <c r="AB69" s="331"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -14158,7 +14158,7 @@
     <row r="71" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C71" s="41"/>
       <c r="D71" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I71" s="41"/>
     </row>
@@ -14166,7 +14166,7 @@
       <c r="C72" s="41"/>
       <c r="D72" s="110"/>
       <c r="E72" s="105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:70" x14ac:dyDescent="0.15">
@@ -14215,7 +14215,7 @@
     </row>
     <row r="76" spans="2:70" x14ac:dyDescent="0.15">
       <c r="D76" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -14282,7 +14282,7 @@
     </row>
     <row r="78" spans="2:70" x14ac:dyDescent="0.15">
       <c r="D78" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
@@ -14319,7 +14319,7 @@
       <c r="C79" s="41"/>
       <c r="D79" s="42"/>
       <c r="E79" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -14389,7 +14389,7 @@
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
       <c r="F81" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -14456,43 +14456,43 @@
     <row r="83" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C83" s="41"/>
       <c r="D83" s="42"/>
-      <c r="F83" s="376" t="s">
-        <v>137</v>
-      </c>
-      <c r="G83" s="377"/>
-      <c r="H83" s="378"/>
-      <c r="I83" s="334" t="s">
+      <c r="F83" s="332" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="333"/>
+      <c r="H83" s="334"/>
+      <c r="I83" s="335" t="s">
+        <v>139</v>
+      </c>
+      <c r="J83" s="336"/>
+      <c r="K83" s="336"/>
+      <c r="L83" s="336"/>
+      <c r="M83" s="337"/>
+      <c r="N83" s="332" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="333"/>
+      <c r="P83" s="334"/>
+      <c r="Q83" s="335" t="s">
         <v>140</v>
       </c>
-      <c r="J83" s="335"/>
-      <c r="K83" s="335"/>
-      <c r="L83" s="335"/>
-      <c r="M83" s="336"/>
-      <c r="N83" s="376" t="s">
-        <v>91</v>
-      </c>
-      <c r="O83" s="377"/>
-      <c r="P83" s="378"/>
-      <c r="Q83" s="334" t="s">
-        <v>141</v>
-      </c>
-      <c r="R83" s="335"/>
-      <c r="S83" s="335"/>
-      <c r="T83" s="335"/>
-      <c r="U83" s="335"/>
-      <c r="V83" s="335"/>
-      <c r="W83" s="335"/>
-      <c r="X83" s="335"/>
-      <c r="Y83" s="335"/>
-      <c r="Z83" s="335"/>
-      <c r="AA83" s="335"/>
-      <c r="AB83" s="335"/>
-      <c r="AC83" s="335"/>
-      <c r="AD83" s="335"/>
-      <c r="AE83" s="335"/>
-      <c r="AF83" s="335"/>
-      <c r="AG83" s="335"/>
-      <c r="AH83" s="336"/>
+      <c r="R83" s="336"/>
+      <c r="S83" s="336"/>
+      <c r="T83" s="336"/>
+      <c r="U83" s="336"/>
+      <c r="V83" s="336"/>
+      <c r="W83" s="336"/>
+      <c r="X83" s="336"/>
+      <c r="Y83" s="336"/>
+      <c r="Z83" s="336"/>
+      <c r="AA83" s="336"/>
+      <c r="AB83" s="336"/>
+      <c r="AC83" s="336"/>
+      <c r="AD83" s="336"/>
+      <c r="AE83" s="336"/>
+      <c r="AF83" s="336"/>
+      <c r="AG83" s="336"/>
+      <c r="AH83" s="337"/>
     </row>
     <row r="84" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="117"/>
@@ -14531,7 +14531,7 @@
       <c r="C85" s="41"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
@@ -14602,15 +14602,15 @@
     </row>
     <row r="87" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C87" s="41"/>
-      <c r="F87" s="337" t="s">
+      <c r="F87" s="355" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="339" t="s">
+      <c r="G87" s="357" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="339"/>
-      <c r="I87" s="339"/>
-      <c r="J87" s="339"/>
+      <c r="H87" s="357"/>
+      <c r="I87" s="357"/>
+      <c r="J87" s="357"/>
       <c r="K87" s="161" t="s">
         <v>96</v>
       </c>
@@ -14637,20 +14637,20 @@
       <c r="AB87" s="162"/>
       <c r="AC87" s="162"/>
       <c r="AD87" s="163"/>
-      <c r="AE87" s="340" t="s">
+      <c r="AE87" s="358" t="s">
         <v>21</v>
       </c>
-      <c r="AF87" s="341"/>
-      <c r="AG87" s="341"/>
-      <c r="AH87" s="342"/>
+      <c r="AF87" s="359"/>
+      <c r="AG87" s="359"/>
+      <c r="AH87" s="360"/>
       <c r="AI87" s="113"/>
     </row>
     <row r="88" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F88" s="338"/>
-      <c r="G88" s="339"/>
-      <c r="H88" s="339"/>
-      <c r="I88" s="339"/>
-      <c r="J88" s="339"/>
+      <c r="F88" s="356"/>
+      <c r="G88" s="357"/>
+      <c r="H88" s="357"/>
+      <c r="I88" s="357"/>
+      <c r="J88" s="357"/>
       <c r="K88" s="164"/>
       <c r="L88" s="165"/>
       <c r="M88" s="165"/>
@@ -14675,10 +14675,10 @@
       <c r="AB88" s="165"/>
       <c r="AC88" s="165"/>
       <c r="AD88" s="166"/>
-      <c r="AE88" s="343"/>
-      <c r="AF88" s="344"/>
-      <c r="AG88" s="344"/>
-      <c r="AH88" s="345"/>
+      <c r="AE88" s="361"/>
+      <c r="AF88" s="362"/>
+      <c r="AG88" s="362"/>
+      <c r="AH88" s="363"/>
       <c r="AI88" s="113"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14686,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H89" s="157"/>
       <c r="I89" s="157"/>
@@ -14699,13 +14699,13 @@
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R89" s="364"/>
-      <c r="S89" s="364"/>
-      <c r="T89" s="364"/>
-      <c r="U89" s="364"/>
+      <c r="Q89" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R89" s="323"/>
+      <c r="S89" s="323"/>
+      <c r="T89" s="323"/>
+      <c r="U89" s="323"/>
       <c r="V89" s="141" t="s">
         <v>117</v>
       </c>
@@ -14719,10 +14719,10 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="370"/>
-      <c r="AF89" s="371"/>
-      <c r="AG89" s="371"/>
-      <c r="AH89" s="372"/>
+      <c r="AE89" s="324"/>
+      <c r="AF89" s="325"/>
+      <c r="AG89" s="325"/>
+      <c r="AH89" s="326"/>
       <c r="AI89" s="113"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14730,7 +14730,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H90" s="157"/>
       <c r="I90" s="157"/>
@@ -14743,13 +14743,13 @@
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R90" s="364"/>
-      <c r="S90" s="364"/>
-      <c r="T90" s="364"/>
-      <c r="U90" s="364"/>
+      <c r="Q90" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R90" s="323"/>
+      <c r="S90" s="323"/>
+      <c r="T90" s="323"/>
+      <c r="U90" s="323"/>
       <c r="V90" s="141" t="s">
         <v>118</v>
       </c>
@@ -14763,17 +14763,17 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="370"/>
-      <c r="AF90" s="371"/>
-      <c r="AG90" s="371"/>
-      <c r="AH90" s="372"/>
+      <c r="AE90" s="324"/>
+      <c r="AF90" s="325"/>
+      <c r="AG90" s="325"/>
+      <c r="AH90" s="326"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="112">
         <v>3</v>
       </c>
       <c r="G91" s="156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H91" s="157"/>
       <c r="I91" s="157"/>
@@ -14786,13 +14786,13 @@
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R91" s="364"/>
-      <c r="S91" s="364"/>
-      <c r="T91" s="364"/>
-      <c r="U91" s="364"/>
+      <c r="Q91" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R91" s="323"/>
+      <c r="S91" s="323"/>
+      <c r="T91" s="323"/>
+      <c r="U91" s="323"/>
       <c r="V91" s="141" t="s">
         <v>119</v>
       </c>
@@ -14806,17 +14806,17 @@
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="370"/>
-      <c r="AF91" s="371"/>
-      <c r="AG91" s="371"/>
-      <c r="AH91" s="372"/>
+      <c r="AE91" s="324"/>
+      <c r="AF91" s="325"/>
+      <c r="AG91" s="325"/>
+      <c r="AH91" s="326"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
         <v>4</v>
       </c>
       <c r="G92" s="156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H92" s="157"/>
       <c r="I92" s="157"/>
@@ -14829,13 +14829,13 @@
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R92" s="364"/>
-      <c r="S92" s="364"/>
-      <c r="T92" s="364"/>
-      <c r="U92" s="364"/>
+      <c r="Q92" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R92" s="323"/>
+      <c r="S92" s="323"/>
+      <c r="T92" s="323"/>
+      <c r="U92" s="323"/>
       <c r="V92" s="141" t="s">
         <v>120</v>
       </c>
@@ -14849,10 +14849,10 @@
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="370"/>
-      <c r="AF92" s="371"/>
-      <c r="AG92" s="371"/>
-      <c r="AH92" s="372"/>
+      <c r="AE92" s="324"/>
+      <c r="AF92" s="325"/>
+      <c r="AG92" s="325"/>
+      <c r="AH92" s="326"/>
       <c r="AI92" s="113"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14860,112 +14860,112 @@
         <v>5</v>
       </c>
       <c r="G93" s="156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H93" s="157"/>
       <c r="I93" s="157"/>
       <c r="J93" s="158"/>
       <c r="K93" s="141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L93" s="167"/>
       <c r="M93" s="167"/>
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R93" s="364"/>
-      <c r="S93" s="364"/>
-      <c r="T93" s="364"/>
-      <c r="U93" s="364"/>
+      <c r="Q93" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R93" s="323"/>
+      <c r="S93" s="323"/>
+      <c r="T93" s="323"/>
+      <c r="U93" s="323"/>
       <c r="V93" s="141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W93" s="167"/>
       <c r="X93" s="168"/>
       <c r="Y93" s="168"/>
       <c r="Z93" s="169"/>
       <c r="AA93" s="174" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="370"/>
-      <c r="AF93" s="371"/>
-      <c r="AG93" s="371"/>
-      <c r="AH93" s="372"/>
+      <c r="AE93" s="324"/>
+      <c r="AF93" s="325"/>
+      <c r="AG93" s="325"/>
+      <c r="AH93" s="326"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F94" s="112">
         <v>6</v>
       </c>
       <c r="G94" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H94" s="157"/>
       <c r="I94" s="157"/>
       <c r="J94" s="158"/>
       <c r="K94" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L94" s="167"/>
       <c r="M94" s="167"/>
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R94" s="364"/>
-      <c r="S94" s="364"/>
-      <c r="T94" s="364"/>
-      <c r="U94" s="364"/>
+      <c r="Q94" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R94" s="323"/>
+      <c r="S94" s="323"/>
+      <c r="T94" s="323"/>
+      <c r="U94" s="323"/>
       <c r="V94" s="141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W94" s="167"/>
       <c r="X94" s="168"/>
       <c r="Y94" s="168"/>
       <c r="Z94" s="169"/>
       <c r="AA94" s="174" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="370"/>
-      <c r="AF94" s="371"/>
-      <c r="AG94" s="371"/>
-      <c r="AH94" s="372"/>
+      <c r="AE94" s="324"/>
+      <c r="AF94" s="325"/>
+      <c r="AG94" s="325"/>
+      <c r="AH94" s="326"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
         <v>7</v>
       </c>
       <c r="G95" s="156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H95" s="157"/>
       <c r="I95" s="157"/>
       <c r="J95" s="158"/>
       <c r="K95" s="141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L95" s="167"/>
       <c r="M95" s="167"/>
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R95" s="364"/>
-      <c r="S95" s="364"/>
-      <c r="T95" s="364"/>
-      <c r="U95" s="364"/>
+      <c r="Q95" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R95" s="323"/>
+      <c r="S95" s="323"/>
+      <c r="T95" s="323"/>
+      <c r="U95" s="323"/>
       <c r="V95" s="141" t="s">
         <v>121</v>
       </c>
@@ -14979,10 +14979,10 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="370"/>
-      <c r="AF95" s="371"/>
-      <c r="AG95" s="371"/>
-      <c r="AH95" s="372"/>
+      <c r="AE95" s="324"/>
+      <c r="AF95" s="325"/>
+      <c r="AG95" s="325"/>
+      <c r="AH95" s="326"/>
       <c r="AI95" s="113"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14990,7 +14990,7 @@
         <v>8</v>
       </c>
       <c r="G96" s="156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H96" s="157"/>
       <c r="I96" s="157"/>
@@ -15003,13 +15003,13 @@
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R96" s="364"/>
-      <c r="S96" s="364"/>
-      <c r="T96" s="364"/>
-      <c r="U96" s="364"/>
+      <c r="Q96" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R96" s="323"/>
+      <c r="S96" s="323"/>
+      <c r="T96" s="323"/>
+      <c r="U96" s="323"/>
       <c r="V96" s="141" t="s">
         <v>122</v>
       </c>
@@ -15023,38 +15023,38 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="370"/>
-      <c r="AF96" s="371"/>
-      <c r="AG96" s="371"/>
-      <c r="AH96" s="372"/>
+      <c r="AE96" s="324"/>
+      <c r="AF96" s="325"/>
+      <c r="AG96" s="325"/>
+      <c r="AH96" s="326"/>
     </row>
     <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="112">
         <v>9</v>
       </c>
       <c r="G97" s="156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H97" s="157"/>
       <c r="I97" s="157"/>
       <c r="J97" s="158"/>
       <c r="K97" s="141" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="L97" s="167"/>
       <c r="M97" s="167"/>
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R97" s="364"/>
-      <c r="S97" s="364"/>
-      <c r="T97" s="364"/>
-      <c r="U97" s="364"/>
+      <c r="Q97" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R97" s="323"/>
+      <c r="S97" s="323"/>
+      <c r="T97" s="323"/>
+      <c r="U97" s="323"/>
       <c r="V97" s="141" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W97" s="167"/>
       <c r="X97" s="168"/>
@@ -15066,38 +15066,38 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="370"/>
-      <c r="AF97" s="371"/>
-      <c r="AG97" s="371"/>
-      <c r="AH97" s="372"/>
+      <c r="AE97" s="324"/>
+      <c r="AF97" s="325"/>
+      <c r="AG97" s="325"/>
+      <c r="AH97" s="326"/>
     </row>
     <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
         <v>10</v>
       </c>
       <c r="G98" s="156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H98" s="157"/>
       <c r="I98" s="157"/>
       <c r="J98" s="158"/>
       <c r="K98" s="141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L98" s="167"/>
       <c r="M98" s="167"/>
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R98" s="364"/>
-      <c r="S98" s="364"/>
-      <c r="T98" s="364"/>
-      <c r="U98" s="364"/>
+      <c r="Q98" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R98" s="323"/>
+      <c r="S98" s="323"/>
+      <c r="T98" s="323"/>
+      <c r="U98" s="323"/>
       <c r="V98" s="141" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W98" s="167"/>
       <c r="X98" s="168"/>
@@ -15109,10 +15109,10 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="370"/>
-      <c r="AF98" s="371"/>
-      <c r="AG98" s="371"/>
-      <c r="AH98" s="372"/>
+      <c r="AE98" s="324"/>
+      <c r="AF98" s="325"/>
+      <c r="AG98" s="325"/>
+      <c r="AH98" s="326"/>
       <c r="AI98" s="113"/>
     </row>
     <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15120,28 +15120,28 @@
         <v>11</v>
       </c>
       <c r="G99" s="156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H99" s="157"/>
       <c r="I99" s="157"/>
       <c r="J99" s="158"/>
       <c r="K99" s="141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L99" s="167"/>
       <c r="M99" s="167"/>
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R99" s="364"/>
-      <c r="S99" s="364"/>
-      <c r="T99" s="364"/>
-      <c r="U99" s="364"/>
+      <c r="Q99" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R99" s="323"/>
+      <c r="S99" s="323"/>
+      <c r="T99" s="323"/>
+      <c r="U99" s="323"/>
       <c r="V99" s="141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W99" s="167"/>
       <c r="X99" s="168"/>
@@ -15153,38 +15153,38 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="370"/>
-      <c r="AF99" s="371"/>
-      <c r="AG99" s="371"/>
-      <c r="AH99" s="372"/>
+      <c r="AE99" s="324"/>
+      <c r="AF99" s="325"/>
+      <c r="AG99" s="325"/>
+      <c r="AH99" s="326"/>
     </row>
     <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F100" s="112">
         <v>12</v>
       </c>
       <c r="G100" s="156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H100" s="157"/>
       <c r="I100" s="157"/>
       <c r="J100" s="158"/>
       <c r="K100" s="141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L100" s="167"/>
       <c r="M100" s="167"/>
       <c r="N100" s="159"/>
       <c r="O100" s="159"/>
       <c r="P100" s="160"/>
-      <c r="Q100" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R100" s="364"/>
-      <c r="S100" s="364"/>
-      <c r="T100" s="364"/>
-      <c r="U100" s="364"/>
+      <c r="Q100" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R100" s="323"/>
+      <c r="S100" s="323"/>
+      <c r="T100" s="323"/>
+      <c r="U100" s="323"/>
       <c r="V100" s="141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W100" s="167"/>
       <c r="X100" s="168"/>
@@ -15196,38 +15196,38 @@
       <c r="AB100" s="175"/>
       <c r="AC100" s="175"/>
       <c r="AD100" s="176"/>
-      <c r="AE100" s="370"/>
-      <c r="AF100" s="371"/>
-      <c r="AG100" s="371"/>
-      <c r="AH100" s="372"/>
+      <c r="AE100" s="324"/>
+      <c r="AF100" s="325"/>
+      <c r="AG100" s="325"/>
+      <c r="AH100" s="326"/>
     </row>
     <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="112">
         <v>13</v>
       </c>
       <c r="G101" s="156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H101" s="157"/>
       <c r="I101" s="157"/>
       <c r="J101" s="158"/>
       <c r="K101" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L101" s="167"/>
       <c r="M101" s="167"/>
       <c r="N101" s="159"/>
       <c r="O101" s="159"/>
       <c r="P101" s="160"/>
-      <c r="Q101" s="363" t="s">
-        <v>172</v>
-      </c>
-      <c r="R101" s="364"/>
-      <c r="S101" s="364"/>
-      <c r="T101" s="364"/>
-      <c r="U101" s="364"/>
+      <c r="Q101" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R101" s="323"/>
+      <c r="S101" s="323"/>
+      <c r="T101" s="323"/>
+      <c r="U101" s="323"/>
       <c r="V101" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W101" s="167"/>
       <c r="X101" s="168"/>
@@ -15239,10 +15239,10 @@
       <c r="AB101" s="175"/>
       <c r="AC101" s="175"/>
       <c r="AD101" s="176"/>
-      <c r="AE101" s="370"/>
-      <c r="AF101" s="371"/>
-      <c r="AG101" s="371"/>
-      <c r="AH101" s="372"/>
+      <c r="AE101" s="324"/>
+      <c r="AF101" s="325"/>
+      <c r="AG101" s="325"/>
+      <c r="AH101" s="326"/>
       <c r="AI101" s="113"/>
     </row>
     <row r="104" spans="6:35" x14ac:dyDescent="0.15">
@@ -15284,30 +15284,82 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q83:AH83"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="AE87:AH88"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q101:U101"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
     <mergeCell ref="AE101:AH101"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
@@ -15332,82 +15384,30 @@
     <mergeCell ref="F83:H83"/>
     <mergeCell ref="I83:M83"/>
     <mergeCell ref="N83:P83"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="Q101:U101"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q83:AH83"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="AE87:AH88"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59463B6-FAA8-409A-B275-9A26AC1F2EB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B2DFA-CB4F-4142-8A81-E0B32C491A1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. バッチ取引概要'!$A$1:$AI$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$A$1:$AI$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. BA1060101(期間内プロジェクト一覧ファイル作成)'!$A$1:$AI$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -222,7 +222,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="E58" authorId="0" shapeId="0" xr:uid="{4C0B446F-7005-4511-873E-EFA2CA951606}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ 明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ファイルを全件読み込む場合等、特に無い場合は「-」と記述する。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="F89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="N89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
   <si>
     <t>PJ名</t>
   </si>
@@ -1569,6 +1583,27 @@
   </si>
   <si>
     <t>プロジェクトマネージャ</t>
+  </si>
+  <si>
+    <t>昇順</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>プロジェクト.プロジェクト名</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ファイル名は ファイルID + ".csv" とする。</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -2013,7 +2048,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3068,6 +3103,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -12434,7 +12472,7 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR113"/>
+  <dimension ref="A1:BR120"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -13623,7 +13661,7 @@
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
-    <row r="49" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="44">
         <v>10</v>
       </c>
@@ -13667,7 +13705,7 @@
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
-    <row r="50" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="44">
         <v>11</v>
       </c>
@@ -13711,7 +13749,7 @@
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
-    <row r="51" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="44">
         <v>12</v>
       </c>
@@ -13755,7 +13793,7 @@
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
-    <row r="52" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="44">
         <v>13</v>
       </c>
@@ -13799,7 +13837,7 @@
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E53" s="279" t="s">
         <v>50</v>
       </c>
@@ -13835,7 +13873,7 @@
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E54" s="144"/>
       <c r="F54" s="150"/>
       <c r="G54" s="25"/>
@@ -13869,7 +13907,7 @@
       <c r="AI54" s="88"/>
       <c r="AJ54" s="88"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E55" s="152"/>
       <c r="F55" s="155"/>
       <c r="G55" s="150" t="s">
@@ -13905,7 +13943,7 @@
       <c r="AI55" s="88"/>
       <c r="AJ55" s="88"/>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E56" s="152"/>
       <c r="F56" s="155" t="s">
         <v>130</v>
@@ -13943,7 +13981,7 @@
       <c r="AI56" s="88"/>
       <c r="AJ56" s="88"/>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E57" s="147"/>
       <c r="F57" s="148"/>
       <c r="G57" s="148"/>
@@ -13977,453 +14015,453 @@
       <c r="AI57" s="88"/>
       <c r="AJ57" s="88"/>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="121"/>
-      <c r="R58" s="121"/>
-      <c r="S58" s="121"/>
-      <c r="T58" s="121"/>
-      <c r="U58" s="121"/>
-      <c r="V58" s="121"/>
-      <c r="W58" s="121"/>
-      <c r="X58" s="121"/>
-      <c r="Y58" s="121"/>
-      <c r="Z58" s="121"/>
-      <c r="AA58" s="121"/>
-      <c r="AB58" s="121"/>
-      <c r="AC58" s="121"/>
-      <c r="AD58" s="121"/>
-      <c r="AE58" s="121"/>
-      <c r="AF58" s="121"/>
-      <c r="AG58" s="121"/>
-      <c r="AH58" s="121"/>
+    <row r="58" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E58" s="279" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="280"/>
+      <c r="G58" s="280"/>
+      <c r="H58" s="280"/>
+      <c r="I58" s="280"/>
+      <c r="J58" s="280"/>
+      <c r="K58" s="280"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
+      <c r="N58" s="280"/>
+      <c r="O58" s="280"/>
+      <c r="P58" s="280"/>
+      <c r="Q58" s="280"/>
+      <c r="R58" s="280"/>
+      <c r="S58" s="280"/>
+      <c r="T58" s="280"/>
+      <c r="U58" s="280"/>
+      <c r="V58" s="280"/>
+      <c r="W58" s="280"/>
+      <c r="X58" s="280"/>
+      <c r="Y58" s="280"/>
+      <c r="Z58" s="280"/>
+      <c r="AA58" s="280"/>
+      <c r="AB58" s="280"/>
+      <c r="AC58" s="280"/>
+      <c r="AD58" s="280"/>
+      <c r="AE58" s="280"/>
+      <c r="AF58" s="280"/>
+      <c r="AG58" s="280"/>
+      <c r="AH58" s="281"/>
       <c r="AI58" s="88"/>
       <c r="AJ58" s="88"/>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="87"/>
-      <c r="W59" s="87"/>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="87"/>
-      <c r="Z59" s="87"/>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="103"/>
-      <c r="AC59" s="103"/>
-      <c r="AD59" s="103"/>
-      <c r="AE59" s="24"/>
-      <c r="AF59" s="24"/>
-      <c r="AG59" s="24"/>
-      <c r="AH59" s="24"/>
-    </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="C60" s="17" t="s">
+    <row r="59" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E59" s="144"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="151"/>
+      <c r="K59" s="151"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="150"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="145"/>
+      <c r="W59" s="145"/>
+      <c r="X59" s="145"/>
+      <c r="Y59" s="145"/>
+      <c r="Z59" s="145"/>
+      <c r="AA59" s="145"/>
+      <c r="AB59" s="145"/>
+      <c r="AC59" s="145"/>
+      <c r="AD59" s="145"/>
+      <c r="AE59" s="145"/>
+      <c r="AF59" s="145"/>
+      <c r="AG59" s="145"/>
+      <c r="AH59" s="146"/>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+    </row>
+    <row r="60" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E60" s="152"/>
+      <c r="F60" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="150"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="151"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q60" s="154"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="150"/>
+      <c r="U60" s="121"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="121"/>
+      <c r="X60" s="121"/>
+      <c r="Y60" s="121"/>
+      <c r="Z60" s="121"/>
+      <c r="AA60" s="121"/>
+      <c r="AB60" s="121"/>
+      <c r="AC60" s="121"/>
+      <c r="AD60" s="121"/>
+      <c r="AE60" s="121"/>
+      <c r="AF60" s="121"/>
+      <c r="AG60" s="121"/>
+      <c r="AH60" s="153"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+    </row>
+    <row r="61" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E61" s="152"/>
+      <c r="F61" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="150"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="151"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q61" s="154"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="150"/>
+      <c r="U61" s="121"/>
+      <c r="V61" s="121"/>
+      <c r="W61" s="121"/>
+      <c r="X61" s="121"/>
+      <c r="Y61" s="121"/>
+      <c r="Z61" s="121"/>
+      <c r="AA61" s="121"/>
+      <c r="AB61" s="121"/>
+      <c r="AC61" s="121"/>
+      <c r="AD61" s="121"/>
+      <c r="AE61" s="121"/>
+      <c r="AF61" s="121"/>
+      <c r="AG61" s="121"/>
+      <c r="AH61" s="153"/>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+    </row>
+    <row r="62" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E62" s="152"/>
+      <c r="F62" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="150"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="151"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="150"/>
+      <c r="U62" s="121"/>
+      <c r="V62" s="121"/>
+      <c r="W62" s="121"/>
+      <c r="X62" s="121"/>
+      <c r="Y62" s="121"/>
+      <c r="Z62" s="121"/>
+      <c r="AA62" s="121"/>
+      <c r="AB62" s="121"/>
+      <c r="AC62" s="121"/>
+      <c r="AD62" s="121"/>
+      <c r="AE62" s="121"/>
+      <c r="AF62" s="121"/>
+      <c r="AG62" s="121"/>
+      <c r="AH62" s="153"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+    </row>
+    <row r="63" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E63" s="147"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
+      <c r="N63" s="148"/>
+      <c r="O63" s="148"/>
+      <c r="P63" s="148"/>
+      <c r="Q63" s="148"/>
+      <c r="R63" s="148"/>
+      <c r="S63" s="148"/>
+      <c r="T63" s="148"/>
+      <c r="U63" s="148"/>
+      <c r="V63" s="148"/>
+      <c r="W63" s="148"/>
+      <c r="X63" s="148"/>
+      <c r="Y63" s="148"/>
+      <c r="Z63" s="148"/>
+      <c r="AA63" s="148"/>
+      <c r="AB63" s="148"/>
+      <c r="AC63" s="148"/>
+      <c r="AD63" s="148"/>
+      <c r="AE63" s="148"/>
+      <c r="AF63" s="148"/>
+      <c r="AG63" s="148"/>
+      <c r="AH63" s="149"/>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+    </row>
+    <row r="64" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="121"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="121"/>
+      <c r="N64" s="121"/>
+      <c r="O64" s="121"/>
+      <c r="P64" s="121"/>
+      <c r="Q64" s="121"/>
+      <c r="R64" s="121"/>
+      <c r="S64" s="121"/>
+      <c r="T64" s="121"/>
+      <c r="U64" s="121"/>
+      <c r="V64" s="121"/>
+      <c r="W64" s="121"/>
+      <c r="X64" s="121"/>
+      <c r="Y64" s="121"/>
+      <c r="Z64" s="121"/>
+      <c r="AA64" s="121"/>
+      <c r="AB64" s="121"/>
+      <c r="AC64" s="121"/>
+      <c r="AD64" s="121"/>
+      <c r="AE64" s="121"/>
+      <c r="AF64" s="121"/>
+      <c r="AG64" s="121"/>
+      <c r="AH64" s="121"/>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="87"/>
+      <c r="V65" s="87"/>
+      <c r="W65" s="87"/>
+      <c r="X65" s="87"/>
+      <c r="Y65" s="87"/>
+      <c r="Z65" s="87"/>
+      <c r="AA65" s="87"/>
+      <c r="AB65" s="103"/>
+      <c r="AC65" s="103"/>
+      <c r="AD65" s="103"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C66" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="D61" s="105" t="s">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="D67" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="110"/>
-    </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E62" s="41" t="s">
+      <c r="E67" s="110"/>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E68" s="41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="D64" s="105" t="s">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E69" s="41"/>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="D70" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="110"/>
-    </row>
-    <row r="65" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E65" s="41" t="s">
+      <c r="E70" s="110"/>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E71" s="41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E67" s="41" t="s">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E73" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="340" t="s">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E74" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="341"/>
-      <c r="G68" s="342"/>
-      <c r="H68" s="343" t="s">
+      <c r="F74" s="341"/>
+      <c r="G74" s="342"/>
+      <c r="H74" s="343" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="344"/>
-      <c r="J68" s="345"/>
-      <c r="K68" s="366" t="s">
+      <c r="I74" s="344"/>
+      <c r="J74" s="345"/>
+      <c r="K74" s="366" t="s">
         <v>131</v>
       </c>
-      <c r="L68" s="367"/>
-      <c r="M68" s="367"/>
-      <c r="N68" s="368"/>
-      <c r="O68" s="369" t="s">
+      <c r="L74" s="367"/>
+      <c r="M74" s="367"/>
+      <c r="N74" s="368"/>
+      <c r="O74" s="369" t="s">
         <v>67</v>
       </c>
-      <c r="P68" s="369"/>
-      <c r="Q68" s="369"/>
-      <c r="R68" s="369"/>
-      <c r="S68" s="369"/>
-      <c r="T68" s="369"/>
-      <c r="U68" s="369"/>
-      <c r="V68" s="369"/>
-      <c r="W68" s="369"/>
-      <c r="X68" s="369"/>
-      <c r="Y68" s="369"/>
-      <c r="Z68" s="369"/>
-      <c r="AA68" s="369"/>
-      <c r="AB68" s="369"/>
-    </row>
-    <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="196">
+      <c r="P74" s="369"/>
+      <c r="Q74" s="369"/>
+      <c r="R74" s="369"/>
+      <c r="S74" s="369"/>
+      <c r="T74" s="369"/>
+      <c r="U74" s="369"/>
+      <c r="V74" s="369"/>
+      <c r="W74" s="369"/>
+      <c r="X74" s="369"/>
+      <c r="Y74" s="369"/>
+      <c r="Z74" s="369"/>
+      <c r="AA74" s="369"/>
+      <c r="AB74" s="369"/>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E75" s="196">
         <v>0</v>
       </c>
-      <c r="F69" s="197"/>
-      <c r="G69" s="198"/>
-      <c r="H69" s="205" t="s">
+      <c r="F75" s="197"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="197"/>
-      <c r="J69" s="198"/>
-      <c r="K69" s="324" t="s">
+      <c r="I75" s="197"/>
+      <c r="J75" s="198"/>
+      <c r="K75" s="324" t="s">
         <v>109</v>
       </c>
-      <c r="L69" s="329"/>
-      <c r="M69" s="329"/>
-      <c r="N69" s="330"/>
-      <c r="O69" s="331" t="s">
+      <c r="L75" s="329"/>
+      <c r="M75" s="329"/>
+      <c r="N75" s="330"/>
+      <c r="O75" s="331" t="s">
         <v>109</v>
       </c>
-      <c r="P69" s="331"/>
-      <c r="Q69" s="331"/>
-      <c r="R69" s="331"/>
-      <c r="S69" s="331"/>
-      <c r="T69" s="331"/>
-      <c r="U69" s="331"/>
-      <c r="V69" s="331"/>
-      <c r="W69" s="331"/>
-      <c r="X69" s="331"/>
-      <c r="Y69" s="331"/>
-      <c r="Z69" s="331"/>
-      <c r="AA69" s="331"/>
-      <c r="AB69" s="331"/>
-    </row>
-    <row r="70" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E70" s="41"/>
-    </row>
-    <row r="71" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C71" s="41"/>
-      <c r="D71" s="105" t="s">
+      <c r="P75" s="331"/>
+      <c r="Q75" s="331"/>
+      <c r="R75" s="331"/>
+      <c r="S75" s="331"/>
+      <c r="T75" s="331"/>
+      <c r="U75" s="331"/>
+      <c r="V75" s="331"/>
+      <c r="W75" s="331"/>
+      <c r="X75" s="331"/>
+      <c r="Y75" s="331"/>
+      <c r="Z75" s="331"/>
+      <c r="AA75" s="331"/>
+      <c r="AB75" s="331"/>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C77" s="41"/>
+      <c r="D77" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="I71" s="41"/>
-    </row>
-    <row r="72" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C72" s="41"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="105" t="s">
+      <c r="I77" s="41"/>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C78" s="41"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="105" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C73" s="41"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="105"/>
-    </row>
-    <row r="75" spans="2:70" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="20"/>
-      <c r="C75" s="41" t="s">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="C79" s="41"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="105"/>
+    </row>
+    <row r="81" spans="2:70" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="20"/>
+      <c r="C81" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="17"/>
-      <c r="AN75" s="17"/>
-      <c r="BR75" s="17"/>
-    </row>
-    <row r="76" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="D76" s="41" t="s">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AN81" s="17"/>
+      <c r="BR81" s="17"/>
+    </row>
+    <row r="82" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="D82" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="18"/>
-      <c r="AF76" s="18"/>
-      <c r="AG76" s="18"/>
-      <c r="AH76" s="18"/>
-    </row>
-    <row r="77" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="D77" s="42"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
-      <c r="AA77" s="18"/>
-      <c r="AB77" s="18"/>
-      <c r="AC77" s="18"/>
-      <c r="AD77" s="18"/>
-      <c r="AE77" s="18"/>
-      <c r="AF77" s="18"/>
-      <c r="AG77" s="18"/>
-      <c r="AH77" s="18"/>
-    </row>
-    <row r="78" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="D78" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="18"/>
-      <c r="AA78" s="18"/>
-      <c r="AB78" s="18"/>
-      <c r="AC78" s="18"/>
-      <c r="AD78" s="18"/>
-      <c r="AE78" s="18"/>
-      <c r="AF78" s="18"/>
-      <c r="AG78" s="18"/>
-      <c r="AH78" s="18"/>
-    </row>
-    <row r="79" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-    </row>
-    <row r="80" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-    </row>
-    <row r="81" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="F81" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
-    </row>
-    <row r="82" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="F82" s="52"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
@@ -14453,85 +14491,79 @@
       <c r="AG82" s="18"/>
       <c r="AH82" s="18"/>
     </row>
-    <row r="83" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="C83" s="41"/>
+    <row r="83" spans="2:70" x14ac:dyDescent="0.15">
       <c r="D83" s="42"/>
-      <c r="F83" s="332" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" s="333"/>
-      <c r="H83" s="334"/>
-      <c r="I83" s="335" t="s">
-        <v>139</v>
-      </c>
-      <c r="J83" s="336"/>
-      <c r="K83" s="336"/>
-      <c r="L83" s="336"/>
-      <c r="M83" s="337"/>
-      <c r="N83" s="332" t="s">
-        <v>91</v>
-      </c>
-      <c r="O83" s="333"/>
-      <c r="P83" s="334"/>
-      <c r="Q83" s="335" t="s">
-        <v>140</v>
-      </c>
-      <c r="R83" s="336"/>
-      <c r="S83" s="336"/>
-      <c r="T83" s="336"/>
-      <c r="U83" s="336"/>
-      <c r="V83" s="336"/>
-      <c r="W83" s="336"/>
-      <c r="X83" s="336"/>
-      <c r="Y83" s="336"/>
-      <c r="Z83" s="336"/>
-      <c r="AA83" s="336"/>
-      <c r="AB83" s="336"/>
-      <c r="AC83" s="336"/>
-      <c r="AD83" s="336"/>
-      <c r="AE83" s="336"/>
-      <c r="AF83" s="336"/>
-      <c r="AG83" s="336"/>
-      <c r="AH83" s="337"/>
-    </row>
-    <row r="84" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="117"/>
-      <c r="D84" s="118"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="119"/>
-      <c r="I84" s="119"/>
-      <c r="J84" s="119"/>
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
-      <c r="M84" s="119"/>
-      <c r="N84" s="119"/>
-      <c r="O84" s="119"/>
-      <c r="P84" s="119"/>
-      <c r="Q84" s="119"/>
-      <c r="R84" s="119"/>
-      <c r="S84" s="119"/>
-      <c r="T84" s="119"/>
-      <c r="U84" s="119"/>
-      <c r="V84" s="119"/>
-      <c r="W84" s="119"/>
-      <c r="X84" s="119"/>
-      <c r="Y84" s="119"/>
-      <c r="Z84" s="119"/>
-      <c r="AA84" s="119"/>
-      <c r="AB84" s="119"/>
-      <c r="AC84" s="119"/>
-      <c r="AD84" s="119"/>
-      <c r="AE84" s="119"/>
-      <c r="AF84" s="119"/>
-      <c r="AG84" s="119"/>
-      <c r="AH84" s="119"/>
-    </row>
-    <row r="85" spans="3:67" x14ac:dyDescent="0.15">
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18"/>
+      <c r="AA83" s="18"/>
+      <c r="AB83" s="18"/>
+      <c r="AC83" s="18"/>
+      <c r="AD83" s="18"/>
+      <c r="AE83" s="18"/>
+      <c r="AF83" s="18"/>
+      <c r="AG83" s="18"/>
+      <c r="AH83" s="18"/>
+    </row>
+    <row r="84" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="D84" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="18"/>
+      <c r="AA84" s="18"/>
+      <c r="AB84" s="18"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="18"/>
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18"/>
+      <c r="AG84" s="18"/>
+      <c r="AH84" s="18"/>
+    </row>
+    <row r="85" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C85" s="41"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
@@ -14562,13 +14594,10 @@
       <c r="AF85" s="18"/>
       <c r="AG85" s="18"/>
       <c r="AH85" s="18"/>
-      <c r="BL85" s="88"/>
-      <c r="BM85" s="88"/>
-      <c r="BN85" s="88"/>
-      <c r="BO85" s="88"/>
-    </row>
-    <row r="86" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="D86" s="18"/>
+    </row>
+    <row r="86" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
@@ -14600,403 +14629,349 @@
       <c r="AG86" s="18"/>
       <c r="AH86" s="18"/>
     </row>
-    <row r="87" spans="3:67" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C87" s="41"/>
-      <c r="F87" s="355" t="s">
+      <c r="D87" s="42"/>
+      <c r="F87" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="18"/>
+      <c r="AA87" s="18"/>
+      <c r="AB87" s="18"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="18"/>
+      <c r="AE87" s="18"/>
+      <c r="AF87" s="18"/>
+      <c r="AG87" s="18"/>
+      <c r="AH87" s="18"/>
+    </row>
+    <row r="88" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C88" s="41"/>
+      <c r="D88" s="42"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="18"/>
+      <c r="AC88" s="18"/>
+      <c r="AD88" s="18"/>
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18"/>
+      <c r="AG88" s="18"/>
+      <c r="AH88" s="18"/>
+    </row>
+    <row r="89" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="F89" s="332" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" s="333"/>
+      <c r="H89" s="334"/>
+      <c r="I89" s="335" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89" s="336"/>
+      <c r="K89" s="336"/>
+      <c r="L89" s="336"/>
+      <c r="M89" s="337"/>
+      <c r="N89" s="332" t="s">
+        <v>91</v>
+      </c>
+      <c r="O89" s="333"/>
+      <c r="P89" s="334"/>
+      <c r="Q89" s="335" t="s">
+        <v>140</v>
+      </c>
+      <c r="R89" s="336"/>
+      <c r="S89" s="336"/>
+      <c r="T89" s="336"/>
+      <c r="U89" s="336"/>
+      <c r="V89" s="336"/>
+      <c r="W89" s="336"/>
+      <c r="X89" s="336"/>
+      <c r="Y89" s="336"/>
+      <c r="Z89" s="336"/>
+      <c r="AA89" s="336"/>
+      <c r="AB89" s="336"/>
+      <c r="AC89" s="336"/>
+      <c r="AD89" s="336"/>
+      <c r="AE89" s="336"/>
+      <c r="AF89" s="336"/>
+      <c r="AG89" s="336"/>
+      <c r="AH89" s="337"/>
+    </row>
+    <row r="90" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="F90" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="119"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="119"/>
+      <c r="N90" s="119"/>
+      <c r="O90" s="119"/>
+      <c r="P90" s="119"/>
+      <c r="Q90" s="379"/>
+      <c r="R90" s="379"/>
+      <c r="S90" s="379"/>
+      <c r="T90" s="379"/>
+      <c r="U90" s="379"/>
+      <c r="V90" s="379"/>
+      <c r="W90" s="379"/>
+      <c r="X90" s="379"/>
+      <c r="Y90" s="379"/>
+      <c r="Z90" s="379"/>
+      <c r="AA90" s="379"/>
+      <c r="AB90" s="379"/>
+      <c r="AC90" s="379"/>
+      <c r="AD90" s="379"/>
+      <c r="AE90" s="379"/>
+      <c r="AF90" s="379"/>
+      <c r="AG90" s="379"/>
+      <c r="AH90" s="379"/>
+    </row>
+    <row r="91" spans="2:70" s="116" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="117"/>
+      <c r="D91" s="118"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="119"/>
+      <c r="I91" s="119"/>
+      <c r="J91" s="119"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="119"/>
+      <c r="O91" s="119"/>
+      <c r="P91" s="119"/>
+      <c r="Q91" s="119"/>
+      <c r="R91" s="119"/>
+      <c r="S91" s="119"/>
+      <c r="T91" s="119"/>
+      <c r="U91" s="119"/>
+      <c r="V91" s="119"/>
+      <c r="W91" s="119"/>
+      <c r="X91" s="119"/>
+      <c r="Y91" s="119"/>
+      <c r="Z91" s="119"/>
+      <c r="AA91" s="119"/>
+      <c r="AB91" s="119"/>
+      <c r="AC91" s="119"/>
+      <c r="AD91" s="119"/>
+      <c r="AE91" s="119"/>
+      <c r="AF91" s="119"/>
+      <c r="AG91" s="119"/>
+      <c r="AH91" s="119"/>
+    </row>
+    <row r="92" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C92" s="41"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="BL92" s="88"/>
+      <c r="BM92" s="88"/>
+      <c r="BN92" s="88"/>
+      <c r="BO92" s="88"/>
+    </row>
+    <row r="93" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
+      <c r="Y93" s="18"/>
+      <c r="Z93" s="18"/>
+      <c r="AA93" s="18"/>
+      <c r="AB93" s="18"/>
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="18"/>
+      <c r="AE93" s="18"/>
+      <c r="AF93" s="18"/>
+      <c r="AG93" s="18"/>
+      <c r="AH93" s="18"/>
+    </row>
+    <row r="94" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="C94" s="41"/>
+      <c r="F94" s="355" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="357" t="s">
+      <c r="G94" s="357" t="s">
         <v>95</v>
       </c>
-      <c r="H87" s="357"/>
-      <c r="I87" s="357"/>
-      <c r="J87" s="357"/>
-      <c r="K87" s="161" t="s">
+      <c r="H94" s="357"/>
+      <c r="I94" s="357"/>
+      <c r="J94" s="357"/>
+      <c r="K94" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="L87" s="162"/>
-      <c r="M87" s="162"/>
-      <c r="N87" s="162"/>
-      <c r="O87" s="162"/>
-      <c r="P87" s="163"/>
-      <c r="Q87" s="128" t="s">
+      <c r="L94" s="162"/>
+      <c r="M94" s="162"/>
+      <c r="N94" s="162"/>
+      <c r="O94" s="162"/>
+      <c r="P94" s="163"/>
+      <c r="Q94" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="R87" s="129"/>
-      <c r="S87" s="129"/>
-      <c r="T87" s="129"/>
-      <c r="U87" s="129"/>
-      <c r="V87" s="129"/>
-      <c r="W87" s="129"/>
-      <c r="X87" s="129"/>
-      <c r="Y87" s="129"/>
-      <c r="Z87" s="130"/>
-      <c r="AA87" s="161" t="s">
+      <c r="R94" s="129"/>
+      <c r="S94" s="129"/>
+      <c r="T94" s="129"/>
+      <c r="U94" s="129"/>
+      <c r="V94" s="129"/>
+      <c r="W94" s="129"/>
+      <c r="X94" s="129"/>
+      <c r="Y94" s="129"/>
+      <c r="Z94" s="130"/>
+      <c r="AA94" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="AB87" s="162"/>
-      <c r="AC87" s="162"/>
-      <c r="AD87" s="163"/>
-      <c r="AE87" s="358" t="s">
+      <c r="AB94" s="162"/>
+      <c r="AC94" s="162"/>
+      <c r="AD94" s="163"/>
+      <c r="AE94" s="358" t="s">
         <v>21</v>
       </c>
-      <c r="AF87" s="359"/>
-      <c r="AG87" s="359"/>
-      <c r="AH87" s="360"/>
-      <c r="AI87" s="113"/>
-    </row>
-    <row r="88" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F88" s="356"/>
-      <c r="G88" s="357"/>
-      <c r="H88" s="357"/>
-      <c r="I88" s="357"/>
-      <c r="J88" s="357"/>
-      <c r="K88" s="164"/>
-      <c r="L88" s="165"/>
-      <c r="M88" s="165"/>
-      <c r="N88" s="165"/>
-      <c r="O88" s="165"/>
-      <c r="P88" s="166"/>
-      <c r="Q88" s="170" t="s">
+      <c r="AF94" s="359"/>
+      <c r="AG94" s="359"/>
+      <c r="AH94" s="360"/>
+      <c r="AI94" s="113"/>
+    </row>
+    <row r="95" spans="2:70" x14ac:dyDescent="0.15">
+      <c r="F95" s="356"/>
+      <c r="G95" s="357"/>
+      <c r="H95" s="357"/>
+      <c r="I95" s="357"/>
+      <c r="J95" s="357"/>
+      <c r="K95" s="164"/>
+      <c r="L95" s="165"/>
+      <c r="M95" s="165"/>
+      <c r="N95" s="165"/>
+      <c r="O95" s="165"/>
+      <c r="P95" s="166"/>
+      <c r="Q95" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="R88" s="129"/>
-      <c r="S88" s="129"/>
-      <c r="T88" s="129"/>
-      <c r="U88" s="130"/>
-      <c r="V88" s="171" t="s">
+      <c r="R95" s="129"/>
+      <c r="S95" s="129"/>
+      <c r="T95" s="129"/>
+      <c r="U95" s="130"/>
+      <c r="V95" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="W88" s="172"/>
-      <c r="X88" s="172"/>
-      <c r="Y88" s="172"/>
-      <c r="Z88" s="173"/>
-      <c r="AA88" s="164"/>
-      <c r="AB88" s="165"/>
-      <c r="AC88" s="165"/>
-      <c r="AD88" s="166"/>
-      <c r="AE88" s="361"/>
-      <c r="AF88" s="362"/>
-      <c r="AG88" s="362"/>
-      <c r="AH88" s="363"/>
-      <c r="AI88" s="113"/>
-    </row>
-    <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="112">
+      <c r="W95" s="172"/>
+      <c r="X95" s="172"/>
+      <c r="Y95" s="172"/>
+      <c r="Z95" s="173"/>
+      <c r="AA95" s="164"/>
+      <c r="AB95" s="165"/>
+      <c r="AC95" s="165"/>
+      <c r="AD95" s="166"/>
+      <c r="AE95" s="361"/>
+      <c r="AF95" s="362"/>
+      <c r="AG95" s="362"/>
+      <c r="AH95" s="363"/>
+      <c r="AI95" s="113"/>
+    </row>
+    <row r="96" spans="2:70" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="112">
         <v>1</v>
       </c>
-      <c r="G89" s="156" t="s">
+      <c r="G96" s="156" t="s">
         <v>149</v>
-      </c>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="158"/>
-      <c r="K89" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="L89" s="167"/>
-      <c r="M89" s="167"/>
-      <c r="N89" s="159"/>
-      <c r="O89" s="159"/>
-      <c r="P89" s="160"/>
-      <c r="Q89" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R89" s="323"/>
-      <c r="S89" s="323"/>
-      <c r="T89" s="323"/>
-      <c r="U89" s="323"/>
-      <c r="V89" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="W89" s="167"/>
-      <c r="X89" s="168"/>
-      <c r="Y89" s="168"/>
-      <c r="Z89" s="169"/>
-      <c r="AA89" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB89" s="175"/>
-      <c r="AC89" s="175"/>
-      <c r="AD89" s="176"/>
-      <c r="AE89" s="324"/>
-      <c r="AF89" s="325"/>
-      <c r="AG89" s="325"/>
-      <c r="AH89" s="326"/>
-      <c r="AI89" s="113"/>
-    </row>
-    <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F90" s="112">
-        <v>2</v>
-      </c>
-      <c r="G90" s="156" t="s">
-        <v>150</v>
-      </c>
-      <c r="H90" s="157"/>
-      <c r="I90" s="157"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="L90" s="167"/>
-      <c r="M90" s="167"/>
-      <c r="N90" s="159"/>
-      <c r="O90" s="159"/>
-      <c r="P90" s="160"/>
-      <c r="Q90" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R90" s="323"/>
-      <c r="S90" s="323"/>
-      <c r="T90" s="323"/>
-      <c r="U90" s="323"/>
-      <c r="V90" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="W90" s="167"/>
-      <c r="X90" s="168"/>
-      <c r="Y90" s="168"/>
-      <c r="Z90" s="169"/>
-      <c r="AA90" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB90" s="175"/>
-      <c r="AC90" s="175"/>
-      <c r="AD90" s="176"/>
-      <c r="AE90" s="324"/>
-      <c r="AF90" s="325"/>
-      <c r="AG90" s="325"/>
-      <c r="AH90" s="326"/>
-    </row>
-    <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F91" s="112">
-        <v>3</v>
-      </c>
-      <c r="G91" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="H91" s="157"/>
-      <c r="I91" s="157"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="L91" s="167"/>
-      <c r="M91" s="167"/>
-      <c r="N91" s="159"/>
-      <c r="O91" s="159"/>
-      <c r="P91" s="160"/>
-      <c r="Q91" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R91" s="323"/>
-      <c r="S91" s="323"/>
-      <c r="T91" s="323"/>
-      <c r="U91" s="323"/>
-      <c r="V91" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="W91" s="167"/>
-      <c r="X91" s="168"/>
-      <c r="Y91" s="168"/>
-      <c r="Z91" s="169"/>
-      <c r="AA91" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB91" s="175"/>
-      <c r="AC91" s="175"/>
-      <c r="AD91" s="176"/>
-      <c r="AE91" s="324"/>
-      <c r="AF91" s="325"/>
-      <c r="AG91" s="325"/>
-      <c r="AH91" s="326"/>
-    </row>
-    <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F92" s="112">
-        <v>4</v>
-      </c>
-      <c r="G92" s="156" t="s">
-        <v>152</v>
-      </c>
-      <c r="H92" s="157"/>
-      <c r="I92" s="157"/>
-      <c r="J92" s="158"/>
-      <c r="K92" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="L92" s="167"/>
-      <c r="M92" s="167"/>
-      <c r="N92" s="159"/>
-      <c r="O92" s="159"/>
-      <c r="P92" s="160"/>
-      <c r="Q92" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R92" s="323"/>
-      <c r="S92" s="323"/>
-      <c r="T92" s="323"/>
-      <c r="U92" s="323"/>
-      <c r="V92" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="W92" s="167"/>
-      <c r="X92" s="168"/>
-      <c r="Y92" s="168"/>
-      <c r="Z92" s="169"/>
-      <c r="AA92" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB92" s="175"/>
-      <c r="AC92" s="175"/>
-      <c r="AD92" s="176"/>
-      <c r="AE92" s="324"/>
-      <c r="AF92" s="325"/>
-      <c r="AG92" s="325"/>
-      <c r="AH92" s="326"/>
-      <c r="AI92" s="113"/>
-    </row>
-    <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F93" s="112">
-        <v>5</v>
-      </c>
-      <c r="G93" s="156" t="s">
-        <v>154</v>
-      </c>
-      <c r="H93" s="157"/>
-      <c r="I93" s="157"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="L93" s="167"/>
-      <c r="M93" s="167"/>
-      <c r="N93" s="159"/>
-      <c r="O93" s="159"/>
-      <c r="P93" s="160"/>
-      <c r="Q93" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R93" s="323"/>
-      <c r="S93" s="323"/>
-      <c r="T93" s="323"/>
-      <c r="U93" s="323"/>
-      <c r="V93" s="141" t="s">
-        <v>126</v>
-      </c>
-      <c r="W93" s="167"/>
-      <c r="X93" s="168"/>
-      <c r="Y93" s="168"/>
-      <c r="Z93" s="169"/>
-      <c r="AA93" s="174" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB93" s="175"/>
-      <c r="AC93" s="175"/>
-      <c r="AD93" s="176"/>
-      <c r="AE93" s="324"/>
-      <c r="AF93" s="325"/>
-      <c r="AG93" s="325"/>
-      <c r="AH93" s="326"/>
-    </row>
-    <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F94" s="112">
-        <v>6</v>
-      </c>
-      <c r="G94" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="H94" s="157"/>
-      <c r="I94" s="157"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="L94" s="167"/>
-      <c r="M94" s="167"/>
-      <c r="N94" s="159"/>
-      <c r="O94" s="159"/>
-      <c r="P94" s="160"/>
-      <c r="Q94" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R94" s="323"/>
-      <c r="S94" s="323"/>
-      <c r="T94" s="323"/>
-      <c r="U94" s="323"/>
-      <c r="V94" s="141" t="s">
-        <v>129</v>
-      </c>
-      <c r="W94" s="167"/>
-      <c r="X94" s="168"/>
-      <c r="Y94" s="168"/>
-      <c r="Z94" s="169"/>
-      <c r="AA94" s="174" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB94" s="175"/>
-      <c r="AC94" s="175"/>
-      <c r="AD94" s="176"/>
-      <c r="AE94" s="324"/>
-      <c r="AF94" s="325"/>
-      <c r="AG94" s="325"/>
-      <c r="AH94" s="326"/>
-    </row>
-    <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F95" s="112">
-        <v>7</v>
-      </c>
-      <c r="G95" s="156" t="s">
-        <v>163</v>
-      </c>
-      <c r="H95" s="157"/>
-      <c r="I95" s="157"/>
-      <c r="J95" s="158"/>
-      <c r="K95" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="L95" s="167"/>
-      <c r="M95" s="167"/>
-      <c r="N95" s="159"/>
-      <c r="O95" s="159"/>
-      <c r="P95" s="160"/>
-      <c r="Q95" s="322" t="s">
-        <v>171</v>
-      </c>
-      <c r="R95" s="323"/>
-      <c r="S95" s="323"/>
-      <c r="T95" s="323"/>
-      <c r="U95" s="323"/>
-      <c r="V95" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="W95" s="167"/>
-      <c r="X95" s="168"/>
-      <c r="Y95" s="168"/>
-      <c r="Z95" s="169"/>
-      <c r="AA95" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB95" s="175"/>
-      <c r="AC95" s="175"/>
-      <c r="AD95" s="176"/>
-      <c r="AE95" s="324"/>
-      <c r="AF95" s="325"/>
-      <c r="AG95" s="325"/>
-      <c r="AH95" s="326"/>
-      <c r="AI95" s="113"/>
-    </row>
-    <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="112">
-        <v>8</v>
-      </c>
-      <c r="G96" s="156" t="s">
-        <v>158</v>
       </c>
       <c r="H96" s="157"/>
       <c r="I96" s="157"/>
       <c r="J96" s="158"/>
       <c r="K96" s="141" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L96" s="167"/>
       <c r="M96" s="167"/>
@@ -15011,7 +14986,7 @@
       <c r="T96" s="323"/>
       <c r="U96" s="323"/>
       <c r="V96" s="141" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="W96" s="167"/>
       <c r="X96" s="168"/>
@@ -15027,19 +15002,20 @@
       <c r="AF96" s="325"/>
       <c r="AG96" s="325"/>
       <c r="AH96" s="326"/>
+      <c r="AI96" s="113"/>
     </row>
     <row r="97" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F97" s="112">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G97" s="156" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H97" s="157"/>
       <c r="I97" s="157"/>
       <c r="J97" s="158"/>
       <c r="K97" s="141" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="L97" s="167"/>
       <c r="M97" s="167"/>
@@ -15054,7 +15030,7 @@
       <c r="T97" s="323"/>
       <c r="U97" s="323"/>
       <c r="V97" s="141" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="W97" s="167"/>
       <c r="X97" s="168"/>
@@ -15073,16 +15049,16 @@
     </row>
     <row r="98" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G98" s="156" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H98" s="157"/>
       <c r="I98" s="157"/>
       <c r="J98" s="158"/>
       <c r="K98" s="141" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L98" s="167"/>
       <c r="M98" s="167"/>
@@ -15097,7 +15073,7 @@
       <c r="T98" s="323"/>
       <c r="U98" s="323"/>
       <c r="V98" s="141" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="W98" s="167"/>
       <c r="X98" s="168"/>
@@ -15113,20 +15089,19 @@
       <c r="AF98" s="325"/>
       <c r="AG98" s="325"/>
       <c r="AH98" s="326"/>
-      <c r="AI98" s="113"/>
     </row>
     <row r="99" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="112">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G99" s="156" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H99" s="157"/>
       <c r="I99" s="157"/>
       <c r="J99" s="158"/>
       <c r="K99" s="141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L99" s="167"/>
       <c r="M99" s="167"/>
@@ -15141,7 +15116,7 @@
       <c r="T99" s="323"/>
       <c r="U99" s="323"/>
       <c r="V99" s="141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W99" s="167"/>
       <c r="X99" s="168"/>
@@ -15157,19 +15132,20 @@
       <c r="AF99" s="325"/>
       <c r="AG99" s="325"/>
       <c r="AH99" s="326"/>
+      <c r="AI99" s="113"/>
     </row>
     <row r="100" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F100" s="112">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G100" s="156" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H100" s="157"/>
       <c r="I100" s="157"/>
       <c r="J100" s="158"/>
       <c r="K100" s="141" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L100" s="167"/>
       <c r="M100" s="167"/>
@@ -15184,14 +15160,14 @@
       <c r="T100" s="323"/>
       <c r="U100" s="323"/>
       <c r="V100" s="141" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="W100" s="167"/>
       <c r="X100" s="168"/>
       <c r="Y100" s="168"/>
       <c r="Z100" s="169"/>
       <c r="AA100" s="174" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AB100" s="175"/>
       <c r="AC100" s="175"/>
@@ -15203,16 +15179,16 @@
     </row>
     <row r="101" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="112">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G101" s="156" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H101" s="157"/>
       <c r="I101" s="157"/>
       <c r="J101" s="158"/>
       <c r="K101" s="141" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="L101" s="167"/>
       <c r="M101" s="167"/>
@@ -15227,14 +15203,14 @@
       <c r="T101" s="323"/>
       <c r="U101" s="323"/>
       <c r="V101" s="141" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="W101" s="167"/>
       <c r="X101" s="168"/>
       <c r="Y101" s="168"/>
       <c r="Z101" s="169"/>
       <c r="AA101" s="174" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AB101" s="175"/>
       <c r="AC101" s="175"/>
@@ -15243,47 +15219,350 @@
       <c r="AF101" s="325"/>
       <c r="AG101" s="325"/>
       <c r="AH101" s="326"/>
-      <c r="AI101" s="113"/>
-    </row>
-    <row r="104" spans="6:35" x14ac:dyDescent="0.15">
-      <c r="AI104" s="87"/>
-    </row>
-    <row r="113" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
-      <c r="R113" s="24"/>
-      <c r="S113" s="24"/>
-      <c r="T113" s="24"/>
-      <c r="U113" s="24"/>
-      <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
-      <c r="X113" s="24"/>
-      <c r="Y113" s="25"/>
-      <c r="Z113" s="25"/>
-      <c r="AA113" s="25"/>
-      <c r="AB113" s="25"/>
-      <c r="AC113" s="25"/>
-      <c r="AD113" s="25"/>
-      <c r="AE113" s="26"/>
-      <c r="AF113" s="26"/>
-      <c r="AG113" s="26"/>
-      <c r="AH113" s="26"/>
+    </row>
+    <row r="102" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="112">
+        <v>7</v>
+      </c>
+      <c r="G102" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="H102" s="157"/>
+      <c r="I102" s="157"/>
+      <c r="J102" s="158"/>
+      <c r="K102" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="L102" s="167"/>
+      <c r="M102" s="167"/>
+      <c r="N102" s="159"/>
+      <c r="O102" s="159"/>
+      <c r="P102" s="160"/>
+      <c r="Q102" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R102" s="323"/>
+      <c r="S102" s="323"/>
+      <c r="T102" s="323"/>
+      <c r="U102" s="323"/>
+      <c r="V102" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="W102" s="167"/>
+      <c r="X102" s="168"/>
+      <c r="Y102" s="168"/>
+      <c r="Z102" s="169"/>
+      <c r="AA102" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB102" s="175"/>
+      <c r="AC102" s="175"/>
+      <c r="AD102" s="176"/>
+      <c r="AE102" s="324"/>
+      <c r="AF102" s="325"/>
+      <c r="AG102" s="325"/>
+      <c r="AH102" s="326"/>
+      <c r="AI102" s="113"/>
+    </row>
+    <row r="103" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="112">
+        <v>8</v>
+      </c>
+      <c r="G103" s="156" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" s="157"/>
+      <c r="I103" s="157"/>
+      <c r="J103" s="158"/>
+      <c r="K103" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="L103" s="167"/>
+      <c r="M103" s="167"/>
+      <c r="N103" s="159"/>
+      <c r="O103" s="159"/>
+      <c r="P103" s="160"/>
+      <c r="Q103" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R103" s="323"/>
+      <c r="S103" s="323"/>
+      <c r="T103" s="323"/>
+      <c r="U103" s="323"/>
+      <c r="V103" s="141" t="s">
+        <v>122</v>
+      </c>
+      <c r="W103" s="167"/>
+      <c r="X103" s="168"/>
+      <c r="Y103" s="168"/>
+      <c r="Z103" s="169"/>
+      <c r="AA103" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB103" s="175"/>
+      <c r="AC103" s="175"/>
+      <c r="AD103" s="176"/>
+      <c r="AE103" s="324"/>
+      <c r="AF103" s="325"/>
+      <c r="AG103" s="325"/>
+      <c r="AH103" s="326"/>
+    </row>
+    <row r="104" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="112">
+        <v>9</v>
+      </c>
+      <c r="G104" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="H104" s="157"/>
+      <c r="I104" s="157"/>
+      <c r="J104" s="158"/>
+      <c r="K104" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="L104" s="167"/>
+      <c r="M104" s="167"/>
+      <c r="N104" s="159"/>
+      <c r="O104" s="159"/>
+      <c r="P104" s="160"/>
+      <c r="Q104" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R104" s="323"/>
+      <c r="S104" s="323"/>
+      <c r="T104" s="323"/>
+      <c r="U104" s="323"/>
+      <c r="V104" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="W104" s="167"/>
+      <c r="X104" s="168"/>
+      <c r="Y104" s="168"/>
+      <c r="Z104" s="169"/>
+      <c r="AA104" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB104" s="175"/>
+      <c r="AC104" s="175"/>
+      <c r="AD104" s="176"/>
+      <c r="AE104" s="324"/>
+      <c r="AF104" s="325"/>
+      <c r="AG104" s="325"/>
+      <c r="AH104" s="326"/>
+    </row>
+    <row r="105" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="112">
+        <v>10</v>
+      </c>
+      <c r="G105" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="H105" s="157"/>
+      <c r="I105" s="157"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="L105" s="167"/>
+      <c r="M105" s="167"/>
+      <c r="N105" s="159"/>
+      <c r="O105" s="159"/>
+      <c r="P105" s="160"/>
+      <c r="Q105" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R105" s="323"/>
+      <c r="S105" s="323"/>
+      <c r="T105" s="323"/>
+      <c r="U105" s="323"/>
+      <c r="V105" s="141" t="s">
+        <v>184</v>
+      </c>
+      <c r="W105" s="167"/>
+      <c r="X105" s="168"/>
+      <c r="Y105" s="168"/>
+      <c r="Z105" s="169"/>
+      <c r="AA105" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB105" s="175"/>
+      <c r="AC105" s="175"/>
+      <c r="AD105" s="176"/>
+      <c r="AE105" s="324"/>
+      <c r="AF105" s="325"/>
+      <c r="AG105" s="325"/>
+      <c r="AH105" s="326"/>
+      <c r="AI105" s="113"/>
+    </row>
+    <row r="106" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="112">
+        <v>11</v>
+      </c>
+      <c r="G106" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="H106" s="157"/>
+      <c r="I106" s="157"/>
+      <c r="J106" s="158"/>
+      <c r="K106" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="L106" s="167"/>
+      <c r="M106" s="167"/>
+      <c r="N106" s="159"/>
+      <c r="O106" s="159"/>
+      <c r="P106" s="160"/>
+      <c r="Q106" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R106" s="323"/>
+      <c r="S106" s="323"/>
+      <c r="T106" s="323"/>
+      <c r="U106" s="323"/>
+      <c r="V106" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="W106" s="167"/>
+      <c r="X106" s="168"/>
+      <c r="Y106" s="168"/>
+      <c r="Z106" s="169"/>
+      <c r="AA106" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB106" s="175"/>
+      <c r="AC106" s="175"/>
+      <c r="AD106" s="176"/>
+      <c r="AE106" s="324"/>
+      <c r="AF106" s="325"/>
+      <c r="AG106" s="325"/>
+      <c r="AH106" s="326"/>
+    </row>
+    <row r="107" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="112">
+        <v>12</v>
+      </c>
+      <c r="G107" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="H107" s="157"/>
+      <c r="I107" s="157"/>
+      <c r="J107" s="158"/>
+      <c r="K107" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="L107" s="167"/>
+      <c r="M107" s="167"/>
+      <c r="N107" s="159"/>
+      <c r="O107" s="159"/>
+      <c r="P107" s="160"/>
+      <c r="Q107" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R107" s="323"/>
+      <c r="S107" s="323"/>
+      <c r="T107" s="323"/>
+      <c r="U107" s="323"/>
+      <c r="V107" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="W107" s="167"/>
+      <c r="X107" s="168"/>
+      <c r="Y107" s="168"/>
+      <c r="Z107" s="169"/>
+      <c r="AA107" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB107" s="175"/>
+      <c r="AC107" s="175"/>
+      <c r="AD107" s="176"/>
+      <c r="AE107" s="324"/>
+      <c r="AF107" s="325"/>
+      <c r="AG107" s="325"/>
+      <c r="AH107" s="326"/>
+    </row>
+    <row r="108" spans="6:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="112">
+        <v>13</v>
+      </c>
+      <c r="G108" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="H108" s="157"/>
+      <c r="I108" s="157"/>
+      <c r="J108" s="158"/>
+      <c r="K108" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="L108" s="167"/>
+      <c r="M108" s="167"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="160"/>
+      <c r="Q108" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R108" s="323"/>
+      <c r="S108" s="323"/>
+      <c r="T108" s="323"/>
+      <c r="U108" s="323"/>
+      <c r="V108" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="W108" s="167"/>
+      <c r="X108" s="168"/>
+      <c r="Y108" s="168"/>
+      <c r="Z108" s="169"/>
+      <c r="AA108" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB108" s="175"/>
+      <c r="AC108" s="175"/>
+      <c r="AD108" s="176"/>
+      <c r="AE108" s="324"/>
+      <c r="AF108" s="325"/>
+      <c r="AG108" s="325"/>
+      <c r="AH108" s="326"/>
+      <c r="AI108" s="113"/>
+    </row>
+    <row r="111" spans="6:35" x14ac:dyDescent="0.15">
+      <c r="AI111" s="87"/>
+    </row>
+    <row r="120" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="24"/>
+      <c r="V120" s="24"/>
+      <c r="W120" s="24"/>
+      <c r="X120" s="24"/>
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="25"/>
+      <c r="AA120" s="25"/>
+      <c r="AB120" s="25"/>
+      <c r="AC120" s="25"/>
+      <c r="AD120" s="25"/>
+      <c r="AE120" s="26"/>
+      <c r="AF120" s="26"/>
+      <c r="AG120" s="26"/>
+      <c r="AH120" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="125">
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="U28:Z28"/>
     <mergeCell ref="Y31:Z31"/>
@@ -15300,25 +15579,25 @@
     <mergeCell ref="I10:AH10"/>
     <mergeCell ref="I11:AH11"/>
     <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q83:AH83"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="AE87:AH88"/>
+    <mergeCell ref="Q89:AH89"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:J95"/>
+    <mergeCell ref="AE94:AH95"/>
     <mergeCell ref="Q38:Q39"/>
     <mergeCell ref="R38:V38"/>
     <mergeCell ref="W38:AH39"/>
     <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="O74:AB74"/>
     <mergeCell ref="F40:K40"/>
     <mergeCell ref="R40:V40"/>
     <mergeCell ref="W40:AH40"/>
     <mergeCell ref="F41:K41"/>
     <mergeCell ref="R41:V41"/>
     <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Q101:U101"/>
+    <mergeCell ref="Q108:U108"/>
     <mergeCell ref="K22:AH22"/>
     <mergeCell ref="K23:AH23"/>
     <mergeCell ref="A1:D1"/>
@@ -15360,7 +15639,7 @@
     <mergeCell ref="F45:K45"/>
     <mergeCell ref="R45:V45"/>
     <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="AE101:AH101"/>
+    <mergeCell ref="AE108:AH108"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
     <mergeCell ref="W50:AH50"/>
@@ -15377,17 +15656,28 @@
     <mergeCell ref="R51:V51"/>
     <mergeCell ref="W51:AH51"/>
     <mergeCell ref="E53:AH53"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="O69:AB69"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="O75:AB75"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:M89"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="Q107:U107"/>
+    <mergeCell ref="AE107:AH107"/>
+    <mergeCell ref="Q102:U102"/>
+    <mergeCell ref="AE102:AH102"/>
+    <mergeCell ref="Q103:U103"/>
+    <mergeCell ref="AE103:AH103"/>
+    <mergeCell ref="Q104:U104"/>
+    <mergeCell ref="AE104:AH104"/>
+    <mergeCell ref="Q105:U105"/>
+    <mergeCell ref="AE105:AH105"/>
+    <mergeCell ref="Q106:U106"/>
+    <mergeCell ref="AE106:AH106"/>
+    <mergeCell ref="E58:AH58"/>
+    <mergeCell ref="Q101:U101"/>
+    <mergeCell ref="AE101:AH101"/>
     <mergeCell ref="Q96:U96"/>
     <mergeCell ref="AE96:AH96"/>
     <mergeCell ref="Q97:U97"/>
@@ -15396,18 +15686,8 @@
     <mergeCell ref="AE98:AH98"/>
     <mergeCell ref="Q99:U99"/>
     <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="AE100:AH100"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">
@@ -15429,7 +15709,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="33" max="16383" man="1"/>
-    <brk id="74" max="16383" man="1"/>
+    <brk id="80" max="16383" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
